--- a/output7/【河洛文讀注音-閩拼調號】《六國論》.xlsx
+++ b/output7/【河洛文讀注音-閩拼調號】《六國論》.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Piau-Im\output7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FD24C10-D846-4BA8-B7D0-84418ED52F3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B939B035-09D4-4D6F-ADCF-98BF5D6A2705}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{25A76161-EFED-4AC8-8EAA-A42737AE1909}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{25A76161-EFED-4AC8-8EAA-A42737AE1909}"/>
   </bookViews>
   <sheets>
     <sheet name="env" sheetId="8" r:id="rId1"/>
     <sheet name="標音字庫" sheetId="123" r:id="rId2"/>
     <sheet name="缺字表" sheetId="122" r:id="rId3"/>
     <sheet name="缺字表 (2)" sheetId="124" r:id="rId4"/>
-    <sheet name="漢字注音" sheetId="9" r:id="rId5"/>
-    <sheet name="缺字表 (範例)" sheetId="110" r:id="rId6"/>
-    <sheet name="標音字庫 (範例)" sheetId="121" r:id="rId7"/>
-    <sheet name="漢字注音 (範例)" sheetId="120" r:id="rId8"/>
+    <sheet name="人工標音字庫" sheetId="125" r:id="rId5"/>
+    <sheet name="漢字注音" sheetId="9" r:id="rId6"/>
+    <sheet name="缺字表 (範例)" sheetId="110" r:id="rId7"/>
+    <sheet name="標音字庫 (範例)" sheetId="121" r:id="rId8"/>
+    <sheet name="漢字注音 (範例)" sheetId="120" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="FILE_NAME">env!$C$5</definedName>
@@ -65,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5992" uniqueCount="2116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6028" uniqueCount="2116">
   <si>
     <t>Key</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -6845,9 +6846,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>go3</t>
-  </si>
-  <si>
     <t>hat4</t>
   </si>
   <si>
@@ -6855,16 +6853,24 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>go3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>hat7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>hi3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>bi6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>bbi2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -9399,9 +9405,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1ADDA05-9E3D-489E-860E-F97D9E14A4D6}">
-  <dimension ref="A1:D315"/>
+  <dimension ref="A1:D323"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A299" workbookViewId="0">
+      <selection activeCell="O321" sqref="O321"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
@@ -13813,6 +13821,118 @@
       </c>
       <c r="D315" t="s">
         <v>1880</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4">
+      <c r="A316" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B316" t="s">
+        <v>56</v>
+      </c>
+      <c r="C316" t="s">
+        <v>499</v>
+      </c>
+      <c r="D316" t="s">
+        <v>1421</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4">
+      <c r="A317" t="s">
+        <v>1270</v>
+      </c>
+      <c r="B317" t="s">
+        <v>49</v>
+      </c>
+      <c r="C317" t="s">
+        <v>499</v>
+      </c>
+      <c r="D317" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4">
+      <c r="A318" t="s">
+        <v>1366</v>
+      </c>
+      <c r="B318" t="s">
+        <v>2107</v>
+      </c>
+      <c r="C318" t="s">
+        <v>499</v>
+      </c>
+      <c r="D318" t="s">
+        <v>1422</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4">
+      <c r="A319" t="s">
+        <v>1368</v>
+      </c>
+      <c r="B319" t="s">
+        <v>442</v>
+      </c>
+      <c r="C319" t="s">
+        <v>499</v>
+      </c>
+      <c r="D319" t="s">
+        <v>1423</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4">
+      <c r="A320" t="s">
+        <v>1372</v>
+      </c>
+      <c r="B320" t="s">
+        <v>2109</v>
+      </c>
+      <c r="C320" t="s">
+        <v>499</v>
+      </c>
+      <c r="D320" t="s">
+        <v>1424</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4">
+      <c r="A321" t="s">
+        <v>1392</v>
+      </c>
+      <c r="B321" t="s">
+        <v>462</v>
+      </c>
+      <c r="C321" t="s">
+        <v>499</v>
+      </c>
+      <c r="D321" t="s">
+        <v>1425</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4">
+      <c r="A322" t="s">
+        <v>1403</v>
+      </c>
+      <c r="B322" t="s">
+        <v>367</v>
+      </c>
+      <c r="C322" t="s">
+        <v>499</v>
+      </c>
+      <c r="D322" t="s">
+        <v>1426</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4">
+      <c r="A323" t="s">
+        <v>1412</v>
+      </c>
+      <c r="B323" t="s">
+        <v>481</v>
+      </c>
+      <c r="C323" t="s">
+        <v>499</v>
+      </c>
+      <c r="D323" t="s">
+        <v>1427</v>
       </c>
     </row>
   </sheetData>
@@ -13825,7 +13945,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{251125CE-AC7C-4341-8E92-A51F25F6D293}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
@@ -13906,7 +14026,7 @@
         <v>1372</v>
       </c>
       <c r="B6" s="60" t="s">
-        <v>2111</v>
+        <v>2110</v>
       </c>
       <c r="C6" s="60" t="s">
         <v>2102</v>
@@ -14106,14 +14226,42 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3068EA9-17B3-4766-AA3B-1ED2FD74C4D8}">
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" t="s">
+        <v>498</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B653E275-5A31-466A-99DB-0BBFEE8A78C6}">
   <dimension ref="A1:V2002"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D73" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D241" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I89" sqref="I89"/>
+      <selection pane="bottomRight" activeCell="A261" sqref="A261"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="39"/>
@@ -14279,22 +14427,22 @@
       <c r="B5" s="19">
         <v>1</v>
       </c>
-      <c r="D5" s="39" t="s">
+      <c r="D5" s="59" t="s">
         <v>1168</v>
       </c>
-      <c r="E5" s="39" t="s">
+      <c r="E5" s="59" t="s">
         <v>1169</v>
       </c>
-      <c r="F5" s="39" t="s">
+      <c r="F5" s="59" t="s">
         <v>200</v>
       </c>
-      <c r="G5" s="39" t="s">
+      <c r="G5" s="59" t="s">
         <v>1170</v>
       </c>
-      <c r="H5" s="39" t="s">
+      <c r="H5" s="59" t="s">
         <v>1171</v>
       </c>
-      <c r="I5" s="39" t="str">
+      <c r="I5" s="59" t="str">
         <f>CHAR(10)</f>
         <v xml:space="preserve">
 </v>
@@ -14410,49 +14558,49 @@
         <f>B5+1</f>
         <v>2</v>
       </c>
-      <c r="D9" s="39" t="s">
+      <c r="D9" s="59" t="s">
         <v>71</v>
       </c>
-      <c r="E9" s="39" t="s">
+      <c r="E9" s="59" t="s">
         <v>1172</v>
       </c>
-      <c r="F9" s="39" t="s">
+      <c r="F9" s="59" t="s">
         <v>108</v>
       </c>
-      <c r="G9" s="39" t="s">
+      <c r="G9" s="59" t="s">
         <v>1173</v>
       </c>
-      <c r="H9" s="39" t="s">
+      <c r="H9" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="I9" s="39" t="s">
+      <c r="I9" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="J9" s="39" t="s">
+      <c r="J9" s="59" t="s">
         <v>102</v>
       </c>
-      <c r="K9" s="39" t="s">
+      <c r="K9" s="59" t="s">
         <v>1174</v>
       </c>
-      <c r="L9" s="39" t="s">
+      <c r="L9" s="59" t="s">
         <v>200</v>
       </c>
-      <c r="M9" s="39" t="s">
+      <c r="M9" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="N9" s="39" t="s">
+      <c r="N9" s="59" t="s">
         <v>1175</v>
       </c>
-      <c r="O9" s="39" t="s">
+      <c r="O9" s="59" t="s">
         <v>1176</v>
       </c>
-      <c r="P9" s="39" t="s">
+      <c r="P9" s="59" t="s">
         <v>1177</v>
       </c>
-      <c r="Q9" s="39" t="s">
+      <c r="Q9" s="59" t="s">
         <v>1178</v>
       </c>
-      <c r="R9" s="39" t="s">
+      <c r="R9" s="59" t="s">
         <v>259</v>
       </c>
       <c r="S9" s="20"/>
@@ -14574,49 +14722,49 @@
         <f>B9+1</f>
         <v>3</v>
       </c>
-      <c r="D13" s="39" t="s">
+      <c r="D13" s="59" t="s">
         <v>1179</v>
       </c>
-      <c r="E13" s="39" t="s">
+      <c r="E13" s="59" t="s">
         <v>1180</v>
       </c>
-      <c r="F13" s="39" t="s">
+      <c r="F13" s="59" t="s">
         <v>1181</v>
       </c>
-      <c r="G13" s="39" t="s">
+      <c r="G13" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="H13" s="39" t="s">
+      <c r="H13" s="59" t="s">
         <v>1182</v>
       </c>
-      <c r="I13" s="39" t="s">
+      <c r="I13" s="59" t="s">
         <v>1183</v>
       </c>
-      <c r="J13" s="39" t="s">
+      <c r="J13" s="59" t="s">
         <v>110</v>
       </c>
-      <c r="K13" s="39" t="s">
+      <c r="K13" s="59" t="s">
         <v>1184</v>
       </c>
-      <c r="L13" s="39" t="s">
+      <c r="L13" s="59" t="s">
         <v>151</v>
       </c>
-      <c r="M13" s="39" t="s">
+      <c r="M13" s="59" t="s">
         <v>1185</v>
       </c>
-      <c r="N13" s="39" t="s">
+      <c r="N13" s="59" t="s">
         <v>1186</v>
       </c>
-      <c r="O13" s="39" t="s">
+      <c r="O13" s="59" t="s">
         <v>218</v>
       </c>
-      <c r="P13" s="39" t="s">
+      <c r="P13" s="59" t="s">
         <v>1187</v>
       </c>
-      <c r="Q13" s="39" t="s">
+      <c r="Q13" s="59" t="s">
         <v>1188</v>
       </c>
-      <c r="R13" s="39" t="s">
+      <c r="R13" s="59" t="s">
         <v>1185</v>
       </c>
       <c r="S13" s="20"/>
@@ -14737,49 +14885,49 @@
         <f>B13+1</f>
         <v>4</v>
       </c>
-      <c r="D17" s="39" t="s">
+      <c r="D17" s="59" t="s">
         <v>1189</v>
       </c>
-      <c r="E17" s="39" t="s">
+      <c r="E17" s="59" t="s">
         <v>1190</v>
       </c>
-      <c r="F17" s="39" t="s">
+      <c r="F17" s="59" t="s">
         <v>1191</v>
       </c>
-      <c r="G17" s="39" t="s">
+      <c r="G17" s="59" t="s">
         <v>159</v>
       </c>
-      <c r="H17" s="39" t="s">
+      <c r="H17" s="59" t="s">
         <v>108</v>
       </c>
-      <c r="I17" s="39" t="s">
+      <c r="I17" s="59" t="s">
         <v>1192</v>
       </c>
-      <c r="J17" s="39" t="s">
+      <c r="J17" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="K17" s="39" t="s">
+      <c r="K17" s="59" t="s">
         <v>217</v>
       </c>
-      <c r="L17" s="39" t="s">
+      <c r="L17" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="M17" s="39" t="s">
+      <c r="M17" s="59" t="s">
         <v>1193</v>
       </c>
-      <c r="N17" s="39" t="s">
+      <c r="N17" s="59" t="s">
         <v>1194</v>
       </c>
-      <c r="O17" s="39" t="s">
+      <c r="O17" s="59" t="s">
         <v>1195</v>
       </c>
-      <c r="P17" s="39" t="s">
+      <c r="P17" s="59" t="s">
         <v>1196</v>
       </c>
-      <c r="Q17" s="39" t="s">
+      <c r="Q17" s="59" t="s">
         <v>1185</v>
       </c>
-      <c r="R17" s="39" t="s">
+      <c r="R17" s="59" t="s">
         <v>1197</v>
       </c>
       <c r="S17" s="20"/>
@@ -14902,49 +15050,49 @@
         <f>B17+1</f>
         <v>5</v>
       </c>
-      <c r="D21" s="39" t="s">
+      <c r="D21" s="59" t="s">
         <v>1198</v>
       </c>
-      <c r="E21" s="39" t="s">
+      <c r="E21" s="59" t="s">
         <v>1199</v>
       </c>
-      <c r="F21" s="39" t="s">
+      <c r="F21" s="59" t="s">
         <v>1200</v>
       </c>
-      <c r="G21" s="39" t="s">
+      <c r="G21" s="59" t="s">
         <v>108</v>
       </c>
-      <c r="H21" s="39" t="s">
+      <c r="H21" s="59" t="s">
         <v>1201</v>
       </c>
-      <c r="I21" s="39" t="s">
+      <c r="I21" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="J21" s="39" t="s">
+      <c r="J21" s="59" t="s">
         <v>1202</v>
       </c>
-      <c r="K21" s="39" t="s">
+      <c r="K21" s="59" t="s">
         <v>168</v>
       </c>
-      <c r="L21" s="39" t="s">
+      <c r="L21" s="59" t="s">
         <v>1203</v>
       </c>
-      <c r="M21" s="39" t="s">
+      <c r="M21" s="59" t="s">
         <v>1204</v>
       </c>
-      <c r="N21" s="39" t="s">
+      <c r="N21" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="O21" s="39" t="s">
+      <c r="O21" s="59" t="s">
         <v>1205</v>
       </c>
-      <c r="P21" s="39" t="s">
+      <c r="P21" s="59" t="s">
         <v>1206</v>
       </c>
-      <c r="Q21" s="39" t="s">
+      <c r="Q21" s="59" t="s">
         <v>1207</v>
       </c>
-      <c r="R21" s="39" t="s">
+      <c r="R21" s="59" t="s">
         <v>1208</v>
       </c>
       <c r="S21" s="20"/>
@@ -15059,40 +15207,40 @@
         <f>B21+1</f>
         <v>6</v>
       </c>
-      <c r="D25" s="39" t="s">
+      <c r="D25" s="59" t="s">
         <v>106</v>
       </c>
-      <c r="E25" s="39" t="s">
+      <c r="E25" s="59" t="s">
         <v>1209</v>
       </c>
-      <c r="F25" s="39" t="s">
+      <c r="F25" s="59" t="s">
         <v>102</v>
       </c>
-      <c r="G25" s="39" t="s">
+      <c r="G25" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="H25" s="39" t="s">
+      <c r="H25" s="59" t="s">
         <v>212</v>
       </c>
-      <c r="I25" s="39" t="s">
+      <c r="I25" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="J25" s="39" t="s">
+      <c r="J25" s="59" t="s">
         <v>252</v>
       </c>
-      <c r="K25" s="39" t="s">
+      <c r="K25" s="59" t="s">
         <v>1210</v>
       </c>
-      <c r="L25" s="39" t="s">
+      <c r="L25" s="59" t="s">
         <v>111</v>
       </c>
-      <c r="M25" s="39" t="s">
+      <c r="M25" s="59" t="s">
         <v>1211</v>
       </c>
-      <c r="N25" s="39" t="s">
+      <c r="N25" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="O25" s="39" t="str">
+      <c r="O25" s="59" t="str">
         <f>CHAR(10)</f>
         <v xml:space="preserve">
 </v>
@@ -15220,49 +15368,49 @@
         <f>B25+1</f>
         <v>7</v>
       </c>
-      <c r="D29" s="39" t="s">
+      <c r="D29" s="59" t="s">
         <v>79</v>
       </c>
-      <c r="E29" s="39" t="s">
+      <c r="E29" s="59" t="s">
         <v>1212</v>
       </c>
-      <c r="F29" s="39" t="s">
+      <c r="F29" s="59" t="s">
         <v>1213</v>
       </c>
-      <c r="G29" s="39" t="s">
+      <c r="G29" s="59" t="s">
         <v>1214</v>
       </c>
-      <c r="H29" s="39" t="s">
+      <c r="H29" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="I29" s="39" t="s">
+      <c r="I29" s="59" t="s">
         <v>281</v>
       </c>
-      <c r="J29" s="39" t="s">
+      <c r="J29" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="K29" s="39" t="s">
+      <c r="K29" s="59" t="s">
         <v>1169</v>
       </c>
-      <c r="L29" s="39" t="s">
+      <c r="L29" s="59" t="s">
         <v>135</v>
       </c>
-      <c r="M29" s="39" t="s">
+      <c r="M29" s="59" t="s">
         <v>37</v>
       </c>
-      <c r="N29" s="39" t="s">
+      <c r="N29" s="59" t="s">
         <v>103</v>
       </c>
-      <c r="O29" s="39" t="s">
+      <c r="O29" s="59" t="s">
         <v>1215</v>
       </c>
-      <c r="P29" s="39" t="s">
+      <c r="P29" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="Q29" s="39" t="s">
+      <c r="Q29" s="59" t="s">
         <v>1216</v>
       </c>
-      <c r="R29" s="39" t="s">
+      <c r="R29" s="59" t="s">
         <v>23</v>
       </c>
       <c r="S29" s="20"/>
@@ -15397,49 +15545,49 @@
         <f>B29+1</f>
         <v>8</v>
       </c>
-      <c r="D33" s="39" t="s">
+      <c r="D33" s="59" t="s">
         <v>1217</v>
       </c>
-      <c r="E33" s="39" t="s">
+      <c r="E33" s="59" t="s">
         <v>1218</v>
       </c>
-      <c r="F33" s="39" t="s">
+      <c r="F33" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="G33" s="39" t="s">
+      <c r="G33" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="H33" s="39" t="s">
+      <c r="H33" s="59" t="s">
         <v>1219</v>
       </c>
-      <c r="I33" s="39" t="s">
+      <c r="I33" s="59" t="s">
         <v>111</v>
       </c>
-      <c r="J33" s="39" t="s">
+      <c r="J33" s="59" t="s">
         <v>1185</v>
       </c>
-      <c r="K33" s="39" t="s">
+      <c r="K33" s="59" t="s">
         <v>1220</v>
       </c>
-      <c r="L33" s="39" t="s">
+      <c r="L33" s="59" t="s">
         <v>1221</v>
       </c>
-      <c r="M33" s="39" t="s">
+      <c r="M33" s="59" t="s">
         <v>1185</v>
       </c>
-      <c r="N33" s="39" t="s">
+      <c r="N33" s="59" t="s">
         <v>1222</v>
       </c>
-      <c r="O33" s="39" t="s">
+      <c r="O33" s="59" t="s">
         <v>168</v>
       </c>
-      <c r="P33" s="39" t="s">
+      <c r="P33" s="59" t="s">
         <v>1223</v>
       </c>
-      <c r="Q33" s="39" t="s">
+      <c r="Q33" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="R33" s="39" t="s">
+      <c r="R33" s="59" t="s">
         <v>259</v>
       </c>
       <c r="S33" s="20"/>
@@ -15560,49 +15708,49 @@
         <f>B33+1</f>
         <v>9</v>
       </c>
-      <c r="D37" s="39" t="s">
+      <c r="D37" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="E37" s="39" t="s">
+      <c r="E37" s="59" t="s">
         <v>151</v>
       </c>
-      <c r="F37" s="39" t="s">
+      <c r="F37" s="59" t="s">
         <v>1224</v>
       </c>
-      <c r="G37" s="39" t="s">
+      <c r="G37" s="59" t="s">
         <v>135</v>
       </c>
-      <c r="H37" s="39" t="s">
+      <c r="H37" s="59" t="s">
         <v>37</v>
       </c>
-      <c r="I37" s="39" t="s">
+      <c r="I37" s="59" t="s">
         <v>103</v>
       </c>
-      <c r="J37" s="39" t="s">
+      <c r="J37" s="59" t="s">
         <v>210</v>
       </c>
-      <c r="K37" s="39" t="s">
+      <c r="K37" s="59" t="s">
         <v>1218</v>
       </c>
-      <c r="L37" s="39" t="s">
+      <c r="L37" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="M37" s="39" t="s">
+      <c r="M37" s="59" t="s">
         <v>1225</v>
       </c>
-      <c r="N37" s="39" t="s">
+      <c r="N37" s="59" t="s">
         <v>1226</v>
       </c>
-      <c r="O37" s="39" t="s">
+      <c r="O37" s="59" t="s">
         <v>1227</v>
       </c>
-      <c r="P37" s="39" t="s">
+      <c r="P37" s="59" t="s">
         <v>1228</v>
       </c>
-      <c r="Q37" s="39" t="s">
+      <c r="Q37" s="59" t="s">
         <v>1229</v>
       </c>
-      <c r="R37" s="39" t="s">
+      <c r="R37" s="59" t="s">
         <v>37</v>
       </c>
       <c r="S37" s="20"/>
@@ -15727,49 +15875,49 @@
         <f>B37+1</f>
         <v>10</v>
       </c>
-      <c r="D41" s="39" t="s">
+      <c r="D41" s="59" t="s">
         <v>1169</v>
       </c>
-      <c r="E41" s="39" t="s">
+      <c r="E41" s="59" t="s">
         <v>134</v>
       </c>
-      <c r="F41" s="39" t="s">
+      <c r="F41" s="59" t="s">
         <v>1230</v>
       </c>
-      <c r="G41" s="39" t="s">
+      <c r="G41" s="59" t="s">
         <v>102</v>
       </c>
-      <c r="H41" s="39" t="s">
+      <c r="H41" s="59" t="s">
         <v>1231</v>
       </c>
-      <c r="I41" s="39" t="s">
+      <c r="I41" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="J41" s="39" t="s">
+      <c r="J41" s="59" t="s">
         <v>1217</v>
       </c>
-      <c r="K41" s="39" t="s">
+      <c r="K41" s="59" t="s">
         <v>1232</v>
       </c>
-      <c r="L41" s="39" t="s">
+      <c r="L41" s="59" t="s">
         <v>217</v>
       </c>
-      <c r="M41" s="39" t="s">
+      <c r="M41" s="59" t="s">
         <v>1186</v>
       </c>
-      <c r="N41" s="39" t="s">
+      <c r="N41" s="59" t="s">
         <v>212</v>
       </c>
-      <c r="O41" s="39" t="s">
+      <c r="O41" s="59" t="s">
         <v>283</v>
       </c>
-      <c r="P41" s="39" t="s">
+      <c r="P41" s="59" t="s">
         <v>135</v>
       </c>
-      <c r="Q41" s="39" t="s">
+      <c r="Q41" s="59" t="s">
         <v>37</v>
       </c>
-      <c r="R41" s="39" t="s">
+      <c r="R41" s="59" t="s">
         <v>103</v>
       </c>
       <c r="S41" s="20"/>
@@ -15890,49 +16038,49 @@
         <f>B41+1</f>
         <v>11</v>
       </c>
-      <c r="D45" s="39" t="s">
+      <c r="D45" s="59" t="s">
         <v>1215</v>
       </c>
-      <c r="E45" s="39" t="s">
+      <c r="E45" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="F45" s="39" t="s">
+      <c r="F45" s="59" t="s">
         <v>1176</v>
       </c>
-      <c r="G45" s="39" t="s">
+      <c r="G45" s="59" t="s">
         <v>1185</v>
       </c>
-      <c r="H45" s="39" t="s">
+      <c r="H45" s="59" t="s">
         <v>1233</v>
       </c>
-      <c r="I45" s="39" t="s">
+      <c r="I45" s="59" t="s">
         <v>1234</v>
       </c>
-      <c r="J45" s="39" t="s">
+      <c r="J45" s="59" t="s">
         <v>1212</v>
       </c>
-      <c r="K45" s="39" t="s">
+      <c r="K45" s="59" t="s">
         <v>1185</v>
       </c>
-      <c r="L45" s="39" t="s">
+      <c r="L45" s="59" t="s">
         <v>1235</v>
       </c>
-      <c r="M45" s="39" t="s">
+      <c r="M45" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="N45" s="39" t="s">
+      <c r="N45" s="59" t="s">
         <v>1236</v>
       </c>
-      <c r="O45" s="39" t="s">
+      <c r="O45" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="P45" s="39" t="s">
+      <c r="P45" s="59" t="s">
         <v>259</v>
       </c>
-      <c r="Q45" s="39" t="s">
+      <c r="Q45" s="59" t="s">
         <v>1226</v>
       </c>
-      <c r="R45" s="39" t="s">
+      <c r="R45" s="59" t="s">
         <v>151</v>
       </c>
       <c r="S45" s="20"/>
@@ -16049,49 +16197,49 @@
         <f>B45+1</f>
         <v>12</v>
       </c>
-      <c r="D49" s="39" t="s">
+      <c r="D49" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="E49" s="39" t="s">
+      <c r="E49" s="59" t="s">
         <v>1211</v>
       </c>
-      <c r="F49" s="39" t="s">
+      <c r="F49" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="G49" s="39" t="s">
+      <c r="G49" s="59" t="s">
         <v>217</v>
       </c>
-      <c r="H49" s="39" t="s">
+      <c r="H49" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="I49" s="39" t="s">
+      <c r="I49" s="59" t="s">
         <v>1237</v>
       </c>
-      <c r="J49" s="39" t="s">
+      <c r="J49" s="59" t="s">
         <v>1185</v>
       </c>
-      <c r="K49" s="39" t="s">
+      <c r="K49" s="59" t="s">
         <v>1238</v>
       </c>
-      <c r="L49" s="39" t="s">
+      <c r="L49" s="59" t="s">
         <v>108</v>
       </c>
-      <c r="M49" s="39" t="s">
+      <c r="M49" s="59" t="s">
         <v>1239</v>
       </c>
-      <c r="N49" s="39" t="s">
+      <c r="N49" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="O49" s="39" t="s">
+      <c r="O49" s="59" t="s">
         <v>1240</v>
       </c>
-      <c r="P49" s="39" t="s">
+      <c r="P49" s="59" t="s">
         <v>1241</v>
       </c>
-      <c r="Q49" s="39" t="s">
+      <c r="Q49" s="59" t="s">
         <v>1185</v>
       </c>
-      <c r="R49" s="39" t="s">
+      <c r="R49" s="59" t="s">
         <v>1242</v>
       </c>
       <c r="S49" s="20"/>
@@ -16210,49 +16358,49 @@
         <f>B49+1</f>
         <v>13</v>
       </c>
-      <c r="D53" s="39" t="s">
+      <c r="D53" s="59" t="s">
         <v>1243</v>
       </c>
-      <c r="E53" s="39" t="s">
+      <c r="E53" s="59" t="s">
         <v>172</v>
       </c>
-      <c r="F53" s="39" t="s">
+      <c r="F53" s="59" t="s">
         <v>153</v>
       </c>
-      <c r="G53" s="39" t="s">
+      <c r="G53" s="59" t="s">
         <v>1181</v>
       </c>
-      <c r="H53" s="39" t="s">
+      <c r="H53" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="I53" s="39" t="s">
+      <c r="I53" s="59" t="s">
         <v>1203</v>
       </c>
-      <c r="J53" s="39" t="s">
+      <c r="J53" s="59" t="s">
         <v>151</v>
       </c>
       <c r="K53" s="59" t="s">
         <v>1244</v>
       </c>
-      <c r="L53" s="39" t="s">
+      <c r="L53" s="59" t="s">
         <v>1180</v>
       </c>
-      <c r="M53" s="39" t="s">
+      <c r="M53" s="59" t="s">
         <v>259</v>
       </c>
-      <c r="N53" s="39" t="s">
+      <c r="N53" s="59" t="s">
         <v>218</v>
       </c>
-      <c r="O53" s="39" t="s">
+      <c r="O53" s="59" t="s">
         <v>217</v>
       </c>
-      <c r="P53" s="39" t="s">
+      <c r="P53" s="59" t="s">
         <v>1245</v>
       </c>
-      <c r="Q53" s="39" t="s">
+      <c r="Q53" s="59" t="s">
         <v>1246</v>
       </c>
-      <c r="R53" s="39" t="s">
+      <c r="R53" s="59" t="s">
         <v>23</v>
       </c>
       <c r="S53" s="20"/>
@@ -16377,49 +16525,49 @@
         <f>B53+1</f>
         <v>14</v>
       </c>
-      <c r="D57" s="39" t="s">
+      <c r="D57" s="59" t="s">
         <v>210</v>
       </c>
-      <c r="E57" s="39" t="s">
+      <c r="E57" s="59" t="s">
         <v>1218</v>
       </c>
-      <c r="F57" s="39" t="s">
+      <c r="F57" s="59" t="s">
         <v>125</v>
       </c>
-      <c r="G57" s="39" t="s">
+      <c r="G57" s="59" t="s">
         <v>283</v>
       </c>
-      <c r="H57" s="39" t="s">
+      <c r="H57" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="I57" s="39" t="s">
+      <c r="I57" s="59" t="s">
         <v>1181</v>
       </c>
-      <c r="J57" s="39" t="s">
+      <c r="J57" s="59" t="s">
         <v>1247</v>
       </c>
-      <c r="K57" s="39" t="s">
+      <c r="K57" s="59" t="s">
         <v>82</v>
       </c>
-      <c r="L57" s="39" t="s">
+      <c r="L57" s="59" t="s">
         <v>37</v>
       </c>
-      <c r="M57" s="39" t="s">
+      <c r="M57" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="N57" s="39" t="s">
+      <c r="N57" s="59" t="s">
         <v>93</v>
       </c>
-      <c r="O57" s="39" t="s">
+      <c r="O57" s="59" t="s">
         <v>1248</v>
       </c>
-      <c r="P57" s="39" t="s">
+      <c r="P57" s="59" t="s">
         <v>1249</v>
       </c>
-      <c r="Q57" s="39" t="s">
+      <c r="Q57" s="59" t="s">
         <v>102</v>
       </c>
-      <c r="R57" s="39" t="s">
+      <c r="R57" s="59" t="s">
         <v>1250</v>
       </c>
       <c r="S57" s="20"/>
@@ -16544,49 +16692,49 @@
         <f>B57+1</f>
         <v>15</v>
       </c>
-      <c r="D61" s="39" t="s">
+      <c r="D61" s="59" t="s">
         <v>107</v>
       </c>
-      <c r="E61" s="39" t="s">
+      <c r="E61" s="59" t="s">
         <v>212</v>
       </c>
-      <c r="F61" s="39" t="s">
+      <c r="F61" s="59" t="s">
         <v>1251</v>
       </c>
-      <c r="G61" s="39" t="s">
+      <c r="G61" s="59" t="s">
         <v>136</v>
       </c>
-      <c r="H61" s="39" t="s">
+      <c r="H61" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="I61" s="39" t="s">
+      <c r="I61" s="59" t="s">
         <v>1252</v>
       </c>
-      <c r="J61" s="39" t="s">
+      <c r="J61" s="59" t="s">
         <v>93</v>
       </c>
-      <c r="K61" s="39" t="s">
+      <c r="K61" s="59" t="s">
         <v>1243</v>
       </c>
-      <c r="L61" s="39" t="s">
+      <c r="L61" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="M61" s="39" t="s">
+      <c r="M61" s="59" t="s">
         <v>1253</v>
       </c>
-      <c r="N61" s="39" t="s">
+      <c r="N61" s="59" t="s">
         <v>1254</v>
       </c>
-      <c r="O61" s="39" t="s">
+      <c r="O61" s="59" t="s">
         <v>1255</v>
       </c>
-      <c r="P61" s="39" t="s">
+      <c r="P61" s="59" t="s">
         <v>1256</v>
       </c>
-      <c r="Q61" s="39" t="s">
+      <c r="Q61" s="59" t="s">
         <v>210</v>
       </c>
-      <c r="R61" s="39" t="s">
+      <c r="R61" s="59" t="s">
         <v>1257</v>
       </c>
       <c r="S61" s="20"/>
@@ -16709,49 +16857,49 @@
         <f>B61+1</f>
         <v>16</v>
       </c>
-      <c r="D65" s="39" t="s">
+      <c r="D65" s="59" t="s">
         <v>1258</v>
       </c>
-      <c r="E65" s="39" t="s">
+      <c r="E65" s="59" t="s">
         <v>110</v>
       </c>
-      <c r="F65" s="39" t="s">
+      <c r="F65" s="59" t="s">
         <v>138</v>
       </c>
-      <c r="G65" s="39" t="s">
+      <c r="G65" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="H65" s="39" t="s">
+      <c r="H65" s="59" t="s">
         <v>136</v>
       </c>
-      <c r="I65" s="39" t="s">
+      <c r="I65" s="59" t="s">
         <v>259</v>
       </c>
-      <c r="J65" s="39" t="s">
+      <c r="J65" s="59" t="s">
         <v>1259</v>
       </c>
-      <c r="K65" s="39" t="s">
+      <c r="K65" s="59" t="s">
         <v>279</v>
       </c>
-      <c r="L65" s="39" t="s">
+      <c r="L65" s="59" t="s">
         <v>1260</v>
       </c>
-      <c r="M65" s="39" t="s">
+      <c r="M65" s="59" t="s">
         <v>200</v>
       </c>
-      <c r="N65" s="39" t="s">
+      <c r="N65" s="59" t="s">
         <v>212</v>
       </c>
-      <c r="O65" s="39" t="s">
+      <c r="O65" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="P65" s="39" t="s">
+      <c r="P65" s="59" t="s">
         <v>279</v>
       </c>
-      <c r="Q65" s="39" t="s">
+      <c r="Q65" s="59" t="s">
         <v>252</v>
       </c>
-      <c r="R65" s="39" t="s">
+      <c r="R65" s="59" t="s">
         <v>106</v>
       </c>
       <c r="S65" s="20"/>
@@ -16862,31 +17010,31 @@
         <f>B65+1</f>
         <v>17</v>
       </c>
-      <c r="D69" s="39" t="s">
+      <c r="D69" s="59" t="s">
         <v>1261</v>
       </c>
-      <c r="E69" s="39" t="s">
+      <c r="E69" s="59" t="s">
         <v>210</v>
       </c>
-      <c r="F69" s="39" t="s">
+      <c r="F69" s="59" t="s">
         <v>200</v>
       </c>
-      <c r="G69" s="39" t="s">
+      <c r="G69" s="59" t="s">
         <v>252</v>
       </c>
-      <c r="H69" s="39" t="s">
+      <c r="H69" s="59" t="s">
         <v>106</v>
       </c>
-      <c r="I69" s="39" t="s">
+      <c r="I69" s="59" t="s">
         <v>1262</v>
       </c>
-      <c r="J69" s="39" t="s">
+      <c r="J69" s="59" t="s">
         <v>160</v>
       </c>
-      <c r="K69" s="39" t="s">
+      <c r="K69" s="59" t="s">
         <v>161</v>
       </c>
-      <c r="L69" s="39" t="str">
+      <c r="L69" s="59" t="str">
         <f>CHAR(10)</f>
         <v xml:space="preserve">
 </v>
@@ -17005,49 +17153,49 @@
         <f>B69+1</f>
         <v>18</v>
       </c>
-      <c r="D73" s="39" t="s">
+      <c r="D73" s="59" t="s">
         <v>1263</v>
       </c>
-      <c r="E73" s="39" t="s">
+      <c r="E73" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="F73" s="39" t="s">
+      <c r="F73" s="59" t="s">
         <v>288</v>
       </c>
-      <c r="G73" s="39" t="s">
+      <c r="G73" s="59" t="s">
         <v>289</v>
       </c>
-      <c r="H73" s="39" t="s">
+      <c r="H73" s="59" t="s">
         <v>136</v>
       </c>
-      <c r="I73" s="39" t="s">
+      <c r="I73" s="59" t="s">
         <v>291</v>
       </c>
-      <c r="J73" s="39" t="s">
+      <c r="J73" s="59" t="s">
         <v>1212</v>
       </c>
-      <c r="K73" s="39" t="s">
+      <c r="K73" s="59" t="s">
         <v>108</v>
       </c>
-      <c r="L73" s="39" t="s">
+      <c r="L73" s="59" t="s">
         <v>1264</v>
       </c>
-      <c r="M73" s="39" t="s">
+      <c r="M73" s="59" t="s">
         <v>168</v>
       </c>
-      <c r="N73" s="39" t="s">
+      <c r="N73" s="59" t="s">
         <v>1265</v>
       </c>
-      <c r="O73" s="39" t="s">
+      <c r="O73" s="59" t="s">
         <v>1266</v>
       </c>
-      <c r="P73" s="39" t="s">
+      <c r="P73" s="59" t="s">
         <v>138</v>
       </c>
-      <c r="Q73" s="39" t="s">
+      <c r="Q73" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="R73" s="39" t="s">
+      <c r="R73" s="59" t="s">
         <v>200</v>
       </c>
       <c r="S73" s="20"/>
@@ -17170,49 +17318,49 @@
         <f>B73+1</f>
         <v>19</v>
       </c>
-      <c r="D77" s="39" t="s">
+      <c r="D77" s="59" t="s">
         <v>108</v>
       </c>
-      <c r="E77" s="39" t="s">
+      <c r="E77" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="F77" s="39" t="s">
+      <c r="F77" s="59" t="s">
         <v>1259</v>
       </c>
-      <c r="G77" s="39" t="s">
+      <c r="G77" s="59" t="s">
         <v>138</v>
       </c>
-      <c r="H77" s="39" t="s">
+      <c r="H77" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="I77" s="39" t="s">
+      <c r="I77" s="59" t="s">
         <v>1267</v>
       </c>
-      <c r="J77" s="39" t="s">
+      <c r="J77" s="59" t="s">
         <v>1268</v>
       </c>
-      <c r="K77" s="39" t="s">
+      <c r="K77" s="59" t="s">
         <v>1269</v>
       </c>
-      <c r="L77" s="39" t="s">
+      <c r="L77" s="59" t="s">
         <v>108</v>
       </c>
-      <c r="M77" s="39" t="s">
+      <c r="M77" s="59" t="s">
         <v>19</v>
       </c>
       <c r="N77" s="59" t="s">
         <v>1270</v>
       </c>
-      <c r="O77" s="39" t="s">
+      <c r="O77" s="59" t="s">
         <v>1271</v>
       </c>
-      <c r="P77" s="39" t="s">
+      <c r="P77" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="Q77" s="39" t="s">
+      <c r="Q77" s="59" t="s">
         <v>1272</v>
       </c>
-      <c r="R77" s="39" t="s">
+      <c r="R77" s="59" t="s">
         <v>1273</v>
       </c>
       <c r="S77" s="20"/>
@@ -17335,49 +17483,49 @@
         <f>B77+1</f>
         <v>20</v>
       </c>
-      <c r="D81" s="39" t="s">
+      <c r="D81" s="59" t="s">
         <v>108</v>
       </c>
-      <c r="E81" s="39" t="s">
+      <c r="E81" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="F81" s="39" t="s">
+      <c r="F81" s="59" t="s">
         <v>1274</v>
       </c>
-      <c r="G81" s="39" t="s">
+      <c r="G81" s="59" t="s">
         <v>1275</v>
       </c>
-      <c r="H81" s="39" t="s">
+      <c r="H81" s="59" t="s">
         <v>138</v>
       </c>
-      <c r="I81" s="39" t="s">
+      <c r="I81" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="J81" s="39" t="s">
+      <c r="J81" s="59" t="s">
         <v>1276</v>
       </c>
-      <c r="K81" s="39" t="s">
+      <c r="K81" s="59" t="s">
         <v>280</v>
       </c>
-      <c r="L81" s="39" t="s">
+      <c r="L81" s="59" t="s">
         <v>1277</v>
       </c>
-      <c r="M81" s="39" t="s">
+      <c r="M81" s="59" t="s">
         <v>1278</v>
       </c>
-      <c r="N81" s="39" t="s">
+      <c r="N81" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="O81" s="39" t="s">
+      <c r="O81" s="59" t="s">
         <v>1279</v>
       </c>
-      <c r="P81" s="39" t="s">
+      <c r="P81" s="59" t="s">
         <v>1280</v>
       </c>
-      <c r="Q81" s="39" t="s">
+      <c r="Q81" s="59" t="s">
         <v>1281</v>
       </c>
-      <c r="R81" s="39" t="s">
+      <c r="R81" s="59" t="s">
         <v>93</v>
       </c>
       <c r="S81" s="20"/>
@@ -17498,49 +17646,49 @@
         <f>B81+1</f>
         <v>21</v>
       </c>
-      <c r="D85" s="39" t="s">
+      <c r="D85" s="59" t="s">
         <v>280</v>
       </c>
-      <c r="E85" s="39" t="s">
+      <c r="E85" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="F85" s="39" t="s">
+      <c r="F85" s="59" t="s">
         <v>137</v>
       </c>
-      <c r="G85" s="39" t="s">
+      <c r="G85" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="H85" s="39" t="s">
+      <c r="H85" s="59" t="s">
         <v>108</v>
       </c>
-      <c r="I85" s="39" t="s">
+      <c r="I85" s="59" t="s">
         <v>142</v>
       </c>
-      <c r="J85" s="39" t="s">
+      <c r="J85" s="59" t="s">
         <v>103</v>
       </c>
-      <c r="K85" s="39" t="s">
+      <c r="K85" s="59" t="s">
         <v>1282</v>
       </c>
-      <c r="L85" s="39" t="s">
+      <c r="L85" s="59" t="s">
         <v>210</v>
       </c>
-      <c r="M85" s="39" t="s">
+      <c r="M85" s="59" t="s">
         <v>1283</v>
       </c>
-      <c r="N85" s="39" t="s">
+      <c r="N85" s="59" t="s">
         <v>199</v>
       </c>
-      <c r="O85" s="39" t="s">
+      <c r="O85" s="59" t="s">
         <v>108</v>
       </c>
-      <c r="P85" s="39" t="s">
+      <c r="P85" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="Q85" s="39" t="s">
+      <c r="Q85" s="59" t="s">
         <v>137</v>
       </c>
-      <c r="R85" s="39" t="s">
+      <c r="R85" s="59" t="s">
         <v>26</v>
       </c>
       <c r="S85" s="20"/>
@@ -17641,19 +17789,19 @@
         <f>B85+1</f>
         <v>22</v>
       </c>
-      <c r="D89" s="39" t="s">
+      <c r="D89" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="E89" s="39" t="s">
+      <c r="E89" s="59" t="s">
         <v>1284</v>
       </c>
-      <c r="F89" s="39" t="s">
+      <c r="F89" s="59" t="s">
         <v>138</v>
       </c>
-      <c r="G89" s="39" t="s">
+      <c r="G89" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="H89" s="39" t="str">
+      <c r="H89" s="59" t="str">
         <f>CHAR(10)</f>
         <v xml:space="preserve">
 </v>
@@ -17770,49 +17918,49 @@
         <f>B89+1</f>
         <v>23</v>
       </c>
-      <c r="D93" s="39" t="s">
+      <c r="D93" s="59" t="s">
         <v>297</v>
       </c>
-      <c r="E93" s="39" t="s">
+      <c r="E93" s="59" t="s">
         <v>1285</v>
       </c>
-      <c r="F93" s="39" t="s">
+      <c r="F93" s="59" t="s">
         <v>108</v>
       </c>
-      <c r="G93" s="39" t="s">
+      <c r="G93" s="59" t="s">
         <v>1286</v>
       </c>
-      <c r="H93" s="39" t="s">
+      <c r="H93" s="59" t="s">
         <v>1287</v>
       </c>
-      <c r="I93" s="39" t="s">
+      <c r="I93" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="J93" s="39" t="s">
+      <c r="J93" s="59" t="s">
         <v>1288</v>
       </c>
-      <c r="K93" s="39" t="s">
+      <c r="K93" s="59" t="s">
         <v>1169</v>
       </c>
-      <c r="L93" s="39" t="s">
+      <c r="L93" s="59" t="s">
         <v>200</v>
       </c>
-      <c r="M93" s="39" t="s">
+      <c r="M93" s="59" t="s">
         <v>108</v>
       </c>
-      <c r="N93" s="39" t="s">
+      <c r="N93" s="59" t="s">
         <v>1264</v>
       </c>
-      <c r="O93" s="39" t="s">
+      <c r="O93" s="59" t="s">
         <v>106</v>
       </c>
-      <c r="P93" s="39" t="s">
+      <c r="P93" s="59" t="s">
         <v>1289</v>
       </c>
-      <c r="Q93" s="39" t="s">
+      <c r="Q93" s="59" t="s">
         <v>1290</v>
       </c>
-      <c r="R93" s="39" t="s">
+      <c r="R93" s="59" t="s">
         <v>210</v>
       </c>
       <c r="S93" s="20"/>
@@ -17935,49 +18083,49 @@
         <f>B93+1</f>
         <v>24</v>
       </c>
-      <c r="D97" s="39" t="s">
+      <c r="D97" s="59" t="s">
         <v>1237</v>
       </c>
-      <c r="E97" s="39" t="s">
+      <c r="E97" s="59" t="s">
         <v>108</v>
       </c>
-      <c r="F97" s="39" t="s">
+      <c r="F97" s="59" t="s">
         <v>1264</v>
       </c>
-      <c r="G97" s="39" t="s">
+      <c r="G97" s="59" t="s">
         <v>106</v>
       </c>
-      <c r="H97" s="39" t="s">
+      <c r="H97" s="59" t="s">
         <v>1291</v>
       </c>
-      <c r="I97" s="39" t="s">
+      <c r="I97" s="59" t="s">
         <v>1292</v>
       </c>
-      <c r="J97" s="39" t="s">
+      <c r="J97" s="59" t="s">
         <v>212</v>
       </c>
-      <c r="K97" s="39" t="s">
+      <c r="K97" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="L97" s="39" t="s">
+      <c r="L97" s="59" t="s">
         <v>1293</v>
       </c>
-      <c r="M97" s="39" t="s">
+      <c r="M97" s="59" t="s">
         <v>1294</v>
       </c>
-      <c r="N97" s="39" t="s">
+      <c r="N97" s="59" t="s">
         <v>102</v>
       </c>
-      <c r="O97" s="39" t="s">
+      <c r="O97" s="59" t="s">
         <v>136</v>
       </c>
-      <c r="P97" s="39" t="s">
+      <c r="P97" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="Q97" s="39" t="s">
+      <c r="Q97" s="59" t="s">
         <v>168</v>
       </c>
-      <c r="R97" s="39" t="s">
+      <c r="R97" s="59" t="s">
         <v>1210</v>
       </c>
     </row>
@@ -18087,49 +18235,49 @@
         <f>B97+1</f>
         <v>25</v>
       </c>
-      <c r="D101" s="39" t="s">
+      <c r="D101" s="59" t="s">
         <v>106</v>
       </c>
-      <c r="E101" s="39" t="s">
+      <c r="E101" s="59" t="s">
         <v>168</v>
       </c>
-      <c r="F101" s="39" t="s">
+      <c r="F101" s="59" t="s">
         <v>1295</v>
       </c>
-      <c r="G101" s="39" t="s">
+      <c r="G101" s="59" t="s">
         <v>138</v>
       </c>
-      <c r="H101" s="39" t="s">
+      <c r="H101" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="I101" s="39" t="s">
+      <c r="I101" s="59" t="s">
         <v>110</v>
       </c>
-      <c r="J101" s="39" t="s">
+      <c r="J101" s="59" t="s">
         <v>1296</v>
       </c>
-      <c r="K101" s="39" t="s">
+      <c r="K101" s="59" t="s">
         <v>1185</v>
       </c>
-      <c r="L101" s="39" t="s">
+      <c r="L101" s="59" t="s">
         <v>1297</v>
       </c>
-      <c r="M101" s="39" t="s">
+      <c r="M101" s="59" t="s">
         <v>1185</v>
       </c>
-      <c r="N101" s="39" t="s">
+      <c r="N101" s="59" t="s">
         <v>1298</v>
       </c>
-      <c r="O101" s="39" t="s">
+      <c r="O101" s="59" t="s">
         <v>1185</v>
       </c>
-      <c r="P101" s="39" t="s">
+      <c r="P101" s="59" t="s">
         <v>1299</v>
       </c>
-      <c r="Q101" s="39" t="s">
+      <c r="Q101" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="R101" s="39" t="s">
+      <c r="R101" s="59" t="s">
         <v>136</v>
       </c>
     </row>
@@ -18241,49 +18389,49 @@
         <f>B101+1</f>
         <v>26</v>
       </c>
-      <c r="D105" s="39" t="s">
+      <c r="D105" s="59" t="s">
         <v>69</v>
       </c>
-      <c r="E105" s="39" t="s">
+      <c r="E105" s="59" t="s">
         <v>212</v>
       </c>
-      <c r="F105" s="39" t="s">
+      <c r="F105" s="59" t="s">
         <v>259</v>
       </c>
-      <c r="G105" s="39" t="s">
+      <c r="G105" s="59" t="s">
         <v>218</v>
       </c>
-      <c r="H105" s="39" t="s">
+      <c r="H105" s="59" t="s">
         <v>279</v>
       </c>
-      <c r="I105" s="39" t="s">
+      <c r="I105" s="59" t="s">
         <v>108</v>
       </c>
-      <c r="J105" s="39" t="s">
+      <c r="J105" s="59" t="s">
         <v>1300</v>
       </c>
-      <c r="K105" s="39" t="s">
+      <c r="K105" s="59" t="s">
         <v>1246</v>
       </c>
-      <c r="L105" s="39" t="s">
+      <c r="L105" s="59" t="s">
         <v>212</v>
       </c>
-      <c r="M105" s="39" t="s">
+      <c r="M105" s="59" t="s">
         <v>138</v>
       </c>
-      <c r="N105" s="39" t="s">
+      <c r="N105" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="O105" s="39" t="s">
+      <c r="O105" s="59" t="s">
         <v>1301</v>
       </c>
-      <c r="P105" s="39" t="s">
+      <c r="P105" s="59" t="s">
         <v>168</v>
       </c>
-      <c r="Q105" s="39" t="s">
+      <c r="Q105" s="59" t="s">
         <v>1265</v>
       </c>
-      <c r="R105" s="39" t="s">
+      <c r="R105" s="59" t="s">
         <v>1302</v>
       </c>
     </row>
@@ -18401,49 +18549,49 @@
         <f>B105+1</f>
         <v>27</v>
       </c>
-      <c r="D109" s="39" t="s">
+      <c r="D109" s="59" t="s">
         <v>1206</v>
       </c>
-      <c r="E109" s="39" t="s">
+      <c r="E109" s="59" t="s">
         <v>1208</v>
       </c>
-      <c r="F109" s="39" t="s">
+      <c r="F109" s="59" t="s">
         <v>106</v>
       </c>
-      <c r="G109" s="39" t="s">
+      <c r="G109" s="59" t="s">
         <v>1180</v>
       </c>
-      <c r="H109" s="39" t="s">
+      <c r="H109" s="59" t="s">
         <v>37</v>
       </c>
-      <c r="I109" s="39" t="s">
+      <c r="I109" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="J109" s="39" t="s">
+      <c r="J109" s="59" t="s">
         <v>259</v>
       </c>
-      <c r="K109" s="39" t="s">
+      <c r="K109" s="59" t="s">
         <v>1303</v>
       </c>
-      <c r="L109" s="39" t="s">
+      <c r="L109" s="59" t="s">
         <v>37</v>
       </c>
-      <c r="M109" s="39" t="s">
+      <c r="M109" s="59" t="s">
         <v>106</v>
       </c>
-      <c r="N109" s="39" t="s">
+      <c r="N109" s="59" t="s">
         <v>1182</v>
       </c>
-      <c r="O109" s="39" t="s">
+      <c r="O109" s="59" t="s">
         <v>1180</v>
       </c>
-      <c r="P109" s="39" t="s">
+      <c r="P109" s="59" t="s">
         <v>212</v>
       </c>
-      <c r="Q109" s="39" t="s">
+      <c r="Q109" s="59" t="s">
         <v>138</v>
       </c>
-      <c r="R109" s="39" t="s">
+      <c r="R109" s="59" t="s">
         <v>23</v>
       </c>
     </row>
@@ -18564,49 +18712,49 @@
         <f t="shared" ref="B113" si="2">B109+1</f>
         <v>28</v>
       </c>
-      <c r="D113" s="39" t="s">
+      <c r="D113" s="59" t="s">
         <v>1304</v>
       </c>
-      <c r="E113" s="39" t="s">
+      <c r="E113" s="59" t="s">
         <v>291</v>
       </c>
-      <c r="F113" s="39" t="s">
+      <c r="F113" s="59" t="s">
         <v>1212</v>
       </c>
-      <c r="G113" s="39" t="s">
+      <c r="G113" s="59" t="s">
         <v>1305</v>
       </c>
-      <c r="H113" s="39" t="s">
+      <c r="H113" s="59" t="s">
         <v>218</v>
       </c>
-      <c r="I113" s="39" t="s">
+      <c r="I113" s="59" t="s">
         <v>217</v>
       </c>
-      <c r="J113" s="39" t="s">
+      <c r="J113" s="59" t="s">
         <v>108</v>
       </c>
-      <c r="K113" s="39" t="s">
+      <c r="K113" s="59" t="s">
         <v>1306</v>
       </c>
-      <c r="L113" s="39" t="s">
+      <c r="L113" s="59" t="s">
         <v>1307</v>
       </c>
-      <c r="M113" s="39" t="s">
+      <c r="M113" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="N113" s="39" t="s">
+      <c r="N113" s="59" t="s">
         <v>136</v>
       </c>
-      <c r="O113" s="39" t="s">
+      <c r="O113" s="59" t="s">
         <v>69</v>
       </c>
-      <c r="P113" s="39" t="s">
+      <c r="P113" s="59" t="s">
         <v>212</v>
       </c>
-      <c r="Q113" s="39" t="s">
+      <c r="Q113" s="59" t="s">
         <v>1308</v>
       </c>
-      <c r="R113" s="39" t="s">
+      <c r="R113" s="59" t="s">
         <v>108</v>
       </c>
     </row>
@@ -18724,49 +18872,49 @@
         <f t="shared" ref="B117" si="3">B113+1</f>
         <v>29</v>
       </c>
-      <c r="D117" s="39" t="s">
+      <c r="D117" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="E117" s="39" t="s">
+      <c r="E117" s="59" t="s">
         <v>136</v>
       </c>
-      <c r="F117" s="39" t="s">
+      <c r="F117" s="59" t="s">
         <v>69</v>
       </c>
-      <c r="G117" s="39" t="s">
+      <c r="G117" s="59" t="s">
         <v>212</v>
       </c>
-      <c r="H117" s="39" t="s">
+      <c r="H117" s="59" t="s">
         <v>168</v>
       </c>
-      <c r="I117" s="39" t="s">
+      <c r="I117" s="59" t="s">
         <v>1309</v>
       </c>
-      <c r="J117" s="39" t="s">
+      <c r="J117" s="59" t="s">
         <v>1310</v>
       </c>
-      <c r="K117" s="39" t="s">
+      <c r="K117" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="L117" s="39" t="s">
+      <c r="L117" s="59" t="s">
         <v>137</v>
       </c>
-      <c r="M117" s="39" t="s">
+      <c r="M117" s="59" t="s">
         <v>279</v>
       </c>
-      <c r="N117" s="39" t="s">
+      <c r="N117" s="59" t="s">
         <v>1311</v>
       </c>
-      <c r="O117" s="39" t="s">
+      <c r="O117" s="59" t="s">
         <v>142</v>
       </c>
-      <c r="P117" s="39" t="s">
+      <c r="P117" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="Q117" s="39" t="s">
+      <c r="Q117" s="59" t="s">
         <v>69</v>
       </c>
-      <c r="R117" s="39" t="s">
+      <c r="R117" s="59" t="s">
         <v>212</v>
       </c>
     </row>
@@ -18878,49 +19026,49 @@
         <f t="shared" ref="B121" si="4">B117+1</f>
         <v>30</v>
       </c>
-      <c r="D121" s="39" t="s">
+      <c r="D121" s="59" t="s">
         <v>1312</v>
       </c>
-      <c r="E121" s="39" t="s">
+      <c r="E121" s="59" t="s">
         <v>159</v>
       </c>
-      <c r="F121" s="39" t="s">
+      <c r="F121" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="G121" s="39" t="s">
+      <c r="G121" s="59" t="s">
         <v>291</v>
       </c>
-      <c r="H121" s="39" t="s">
+      <c r="H121" s="59" t="s">
         <v>1212</v>
       </c>
-      <c r="I121" s="39" t="s">
+      <c r="I121" s="59" t="s">
         <v>1313</v>
       </c>
-      <c r="J121" s="39" t="s">
+      <c r="J121" s="59" t="s">
         <v>1314</v>
       </c>
-      <c r="K121" s="39" t="s">
+      <c r="K121" s="59" t="s">
         <v>1315</v>
       </c>
-      <c r="L121" s="39" t="s">
+      <c r="L121" s="59" t="s">
         <v>1316</v>
       </c>
-      <c r="M121" s="39" t="s">
+      <c r="M121" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="N121" s="39" t="s">
+      <c r="N121" s="59" t="s">
         <v>1279</v>
       </c>
-      <c r="O121" s="39" t="s">
+      <c r="O121" s="59" t="s">
         <v>1294</v>
       </c>
-      <c r="P121" s="39" t="s">
+      <c r="P121" s="59" t="s">
         <v>102</v>
       </c>
-      <c r="Q121" s="39" t="s">
+      <c r="Q121" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="R121" s="39" t="s">
+      <c r="R121" s="59" t="s">
         <v>30</v>
       </c>
     </row>
@@ -19036,49 +19184,49 @@
         <f t="shared" ref="B125" si="5">B121+1</f>
         <v>31</v>
       </c>
-      <c r="D125" s="39" t="s">
+      <c r="D125" s="59" t="s">
         <v>1224</v>
       </c>
-      <c r="E125" s="39" t="s">
+      <c r="E125" s="59" t="s">
         <v>1317</v>
       </c>
-      <c r="F125" s="39" t="s">
+      <c r="F125" s="59" t="s">
         <v>106</v>
       </c>
-      <c r="G125" s="39" t="s">
+      <c r="G125" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="H125" s="39" t="s">
+      <c r="H125" s="59" t="s">
         <v>1294</v>
       </c>
-      <c r="I125" s="39" t="s">
+      <c r="I125" s="59" t="s">
         <v>102</v>
       </c>
-      <c r="J125" s="39" t="s">
+      <c r="J125" s="59" t="s">
         <v>1318</v>
       </c>
-      <c r="K125" s="39" t="s">
+      <c r="K125" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="L125" s="39" t="s">
+      <c r="L125" s="59" t="s">
         <v>1174</v>
       </c>
-      <c r="M125" s="39" t="s">
+      <c r="M125" s="59" t="s">
         <v>200</v>
       </c>
-      <c r="N125" s="39" t="s">
+      <c r="N125" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="O125" s="39" t="s">
+      <c r="O125" s="59" t="s">
         <v>1237</v>
       </c>
-      <c r="P125" s="39" t="s">
+      <c r="P125" s="59" t="s">
         <v>1294</v>
       </c>
-      <c r="Q125" s="39" t="s">
+      <c r="Q125" s="59" t="s">
         <v>102</v>
       </c>
-      <c r="R125" s="39" t="s">
+      <c r="R125" s="59" t="s">
         <v>151</v>
       </c>
     </row>
@@ -19194,49 +19342,49 @@
         <f t="shared" ref="B129" si="6">B125+1</f>
         <v>32</v>
       </c>
-      <c r="D129" s="39" t="s">
+      <c r="D129" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="E129" s="39" t="s">
+      <c r="E129" s="59" t="s">
         <v>1238</v>
       </c>
-      <c r="F129" s="39" t="s">
+      <c r="F129" s="59" t="s">
         <v>106</v>
       </c>
-      <c r="G129" s="39" t="s">
+      <c r="G129" s="59" t="s">
         <v>292</v>
       </c>
-      <c r="H129" s="39" t="s">
+      <c r="H129" s="59" t="s">
         <v>1294</v>
       </c>
-      <c r="I129" s="39" t="s">
+      <c r="I129" s="59" t="s">
         <v>102</v>
       </c>
-      <c r="J129" s="39" t="s">
+      <c r="J129" s="59" t="s">
         <v>78</v>
       </c>
-      <c r="K129" s="39" t="s">
+      <c r="K129" s="59" t="s">
         <v>1319</v>
       </c>
-      <c r="L129" s="39" t="s">
+      <c r="L129" s="59" t="s">
         <v>1256</v>
       </c>
-      <c r="M129" s="39" t="s">
+      <c r="M129" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="N129" s="39" t="s">
+      <c r="N129" s="59" t="s">
         <v>1215</v>
       </c>
-      <c r="O129" s="39" t="s">
+      <c r="O129" s="59" t="s">
         <v>1185</v>
       </c>
-      <c r="P129" s="39" t="s">
+      <c r="P129" s="59" t="s">
         <v>1320</v>
       </c>
-      <c r="Q129" s="39" t="s">
+      <c r="Q129" s="59" t="s">
         <v>106</v>
       </c>
-      <c r="R129" s="39" t="s">
+      <c r="R129" s="59" t="s">
         <v>1321</v>
       </c>
     </row>
@@ -19350,49 +19498,49 @@
         <f t="shared" ref="B133" si="7">B129+1</f>
         <v>33</v>
       </c>
-      <c r="D133" s="39" t="s">
+      <c r="D133" s="59" t="s">
         <v>1294</v>
       </c>
-      <c r="E133" s="39" t="s">
+      <c r="E133" s="59" t="s">
         <v>102</v>
       </c>
-      <c r="F133" s="39" t="s">
+      <c r="F133" s="59" t="s">
         <v>1322</v>
       </c>
-      <c r="G133" s="39" t="s">
+      <c r="G133" s="59" t="s">
         <v>1323</v>
       </c>
-      <c r="H133" s="39" t="s">
+      <c r="H133" s="59" t="s">
         <v>1324</v>
       </c>
-      <c r="I133" s="39" t="s">
+      <c r="I133" s="59" t="s">
         <v>1325</v>
       </c>
-      <c r="J133" s="39" t="s">
+      <c r="J133" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="K133" s="39" t="s">
+      <c r="K133" s="59" t="s">
         <v>1326</v>
       </c>
-      <c r="L133" s="39" t="s">
+      <c r="L133" s="59" t="s">
         <v>1185</v>
       </c>
-      <c r="M133" s="39" t="s">
+      <c r="M133" s="59" t="s">
         <v>97</v>
       </c>
-      <c r="N133" s="39" t="s">
+      <c r="N133" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="O133" s="39" t="s">
+      <c r="O133" s="59" t="s">
         <v>99</v>
       </c>
-      <c r="P133" s="39" t="s">
+      <c r="P133" s="59" t="s">
         <v>1294</v>
       </c>
-      <c r="Q133" s="39" t="s">
+      <c r="Q133" s="59" t="s">
         <v>102</v>
       </c>
-      <c r="R133" s="39" t="s">
+      <c r="R133" s="59" t="s">
         <v>1327</v>
       </c>
     </row>
@@ -19504,49 +19652,49 @@
         <f t="shared" ref="B137" si="8">B133+1</f>
         <v>34</v>
       </c>
-      <c r="D137" s="39" t="s">
+      <c r="D137" s="59" t="s">
         <v>1328</v>
       </c>
-      <c r="E137" s="39" t="s">
+      <c r="E137" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="F137" s="39" t="s">
+      <c r="F137" s="59" t="s">
         <v>1312</v>
       </c>
-      <c r="G137" s="39" t="s">
+      <c r="G137" s="59" t="s">
         <v>168</v>
       </c>
-      <c r="H137" s="39" t="s">
+      <c r="H137" s="59" t="s">
         <v>1283</v>
       </c>
-      <c r="I137" s="39" t="s">
+      <c r="I137" s="59" t="s">
         <v>143</v>
       </c>
-      <c r="J137" s="39" t="s">
+      <c r="J137" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="K137" s="39" t="s">
+      <c r="K137" s="59" t="s">
         <v>1329</v>
       </c>
-      <c r="L137" s="39" t="s">
+      <c r="L137" s="59" t="s">
         <v>93</v>
       </c>
-      <c r="M137" s="39" t="s">
+      <c r="M137" s="59" t="s">
         <v>153</v>
       </c>
-      <c r="N137" s="39" t="s">
+      <c r="N137" s="59" t="s">
         <v>212</v>
       </c>
-      <c r="O137" s="39" t="s">
+      <c r="O137" s="59" t="s">
         <v>1170</v>
       </c>
-      <c r="P137" s="39" t="s">
+      <c r="P137" s="59" t="s">
         <v>108</v>
       </c>
-      <c r="Q137" s="39" t="s">
+      <c r="Q137" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="R137" s="39" t="str">
+      <c r="R137" s="59" t="str">
         <f>CHAR(10)</f>
         <v xml:space="preserve">
 </v>
@@ -19660,49 +19808,49 @@
         <f t="shared" ref="B141" si="9">B137+1</f>
         <v>35</v>
       </c>
-      <c r="D141" s="39" t="s">
+      <c r="D141" s="59" t="s">
         <v>1169</v>
       </c>
-      <c r="E141" s="39" t="s">
+      <c r="E141" s="59" t="s">
         <v>200</v>
       </c>
-      <c r="F141" s="39" t="s">
+      <c r="F141" s="59" t="s">
         <v>108</v>
       </c>
-      <c r="G141" s="39" t="s">
+      <c r="G141" s="59" t="s">
         <v>281</v>
       </c>
-      <c r="H141" s="39" t="s">
+      <c r="H141" s="59" t="s">
         <v>1330</v>
       </c>
-      <c r="I141" s="39" t="s">
+      <c r="I141" s="59" t="s">
         <v>1331</v>
       </c>
-      <c r="J141" s="39" t="s">
+      <c r="J141" s="59" t="s">
         <v>93</v>
       </c>
-      <c r="K141" s="39" t="s">
+      <c r="K141" s="59" t="s">
         <v>279</v>
       </c>
-      <c r="L141" s="39" t="s">
+      <c r="L141" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="M141" s="39" t="s">
+      <c r="M141" s="59" t="s">
         <v>168</v>
       </c>
-      <c r="N141" s="39" t="s">
+      <c r="N141" s="59" t="s">
         <v>1332</v>
       </c>
-      <c r="O141" s="39" t="s">
+      <c r="O141" s="59" t="s">
         <v>1333</v>
       </c>
-      <c r="P141" s="39" t="s">
+      <c r="P141" s="59" t="s">
         <v>1334</v>
       </c>
-      <c r="Q141" s="39" t="s">
+      <c r="Q141" s="59" t="s">
         <v>1185</v>
       </c>
-      <c r="R141" s="39" t="s">
+      <c r="R141" s="59" t="s">
         <v>272</v>
       </c>
     </row>
@@ -19818,49 +19966,49 @@
         <f t="shared" ref="B145" si="10">B141+1</f>
         <v>36</v>
       </c>
-      <c r="D145" s="39" t="s">
+      <c r="D145" s="59" t="s">
         <v>1286</v>
       </c>
-      <c r="E145" s="39" t="s">
+      <c r="E145" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="F145" s="39" t="s">
+      <c r="F145" s="59" t="s">
         <v>143</v>
       </c>
-      <c r="G145" s="39" t="s">
+      <c r="G145" s="59" t="s">
         <v>1253</v>
       </c>
-      <c r="H145" s="39" t="s">
+      <c r="H145" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="I145" s="39" t="s">
+      <c r="I145" s="59" t="s">
         <v>285</v>
       </c>
-      <c r="J145" s="39" t="s">
+      <c r="J145" s="59" t="s">
         <v>82</v>
       </c>
-      <c r="K145" s="39" t="s">
+      <c r="K145" s="59" t="s">
         <v>1335</v>
       </c>
-      <c r="L145" s="39" t="s">
+      <c r="L145" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="M145" s="39" t="s">
+      <c r="M145" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="N145" s="39" t="s">
+      <c r="N145" s="59" t="s">
         <v>37</v>
       </c>
-      <c r="O145" s="39" t="s">
+      <c r="O145" s="59" t="s">
         <v>1336</v>
       </c>
-      <c r="P145" s="39" t="s">
+      <c r="P145" s="59" t="s">
         <v>212</v>
       </c>
-      <c r="Q145" s="39" t="s">
+      <c r="Q145" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="R145" s="39" t="s">
+      <c r="R145" s="59" t="s">
         <v>106</v>
       </c>
     </row>
@@ -19978,49 +20126,49 @@
         <f t="shared" ref="B149" si="11">B145+1</f>
         <v>37</v>
       </c>
-      <c r="D149" s="39" t="s">
+      <c r="D149" s="59" t="s">
         <v>1337</v>
       </c>
-      <c r="E149" s="39" t="s">
+      <c r="E149" s="59" t="s">
         <v>279</v>
       </c>
-      <c r="F149" s="39" t="s">
+      <c r="F149" s="59" t="s">
         <v>108</v>
       </c>
-      <c r="G149" s="39" t="s">
+      <c r="G149" s="59" t="s">
         <v>1300</v>
       </c>
-      <c r="H149" s="39" t="s">
+      <c r="H149" s="59" t="s">
         <v>1246</v>
       </c>
-      <c r="I149" s="39" t="s">
+      <c r="I149" s="59" t="s">
         <v>212</v>
       </c>
-      <c r="J149" s="39" t="s">
+      <c r="J149" s="59" t="s">
         <v>153</v>
       </c>
-      <c r="K149" s="39" t="s">
+      <c r="K149" s="59" t="s">
         <v>106</v>
       </c>
-      <c r="L149" s="39" t="s">
+      <c r="L149" s="59" t="s">
         <v>151</v>
       </c>
-      <c r="M149" s="39" t="s">
+      <c r="M149" s="59" t="s">
         <v>1180</v>
       </c>
-      <c r="N149" s="39" t="s">
+      <c r="N149" s="59" t="s">
         <v>108</v>
       </c>
-      <c r="O149" s="39" t="s">
+      <c r="O149" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="P149" s="39" t="s">
+      <c r="P149" s="59" t="s">
         <v>168</v>
       </c>
-      <c r="Q149" s="39" t="s">
+      <c r="Q149" s="59" t="s">
         <v>1309</v>
       </c>
-      <c r="R149" s="39" t="s">
+      <c r="R149" s="59" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -20138,49 +20286,49 @@
         <f t="shared" ref="B153" si="12">B149+1</f>
         <v>38</v>
       </c>
-      <c r="D153" s="39" t="s">
+      <c r="D153" s="59" t="s">
         <v>138</v>
       </c>
-      <c r="E153" s="39" t="s">
+      <c r="E153" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="F153" s="39" t="s">
+      <c r="F153" s="59" t="s">
         <v>93</v>
       </c>
-      <c r="G153" s="39" t="s">
+      <c r="G153" s="59" t="s">
         <v>1299</v>
       </c>
-      <c r="H153" s="39" t="s">
+      <c r="H153" s="59" t="s">
         <v>1338</v>
       </c>
-      <c r="I153" s="39" t="s">
+      <c r="I153" s="59" t="s">
         <v>106</v>
       </c>
-      <c r="J153" s="39" t="s">
+      <c r="J153" s="59" t="s">
         <v>1339</v>
       </c>
-      <c r="K153" s="39" t="s">
+      <c r="K153" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="L153" s="39" t="s">
+      <c r="L153" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="M153" s="39" t="s">
+      <c r="M153" s="59" t="s">
         <v>259</v>
       </c>
-      <c r="N153" s="39" t="s">
+      <c r="N153" s="59" t="s">
         <v>1340</v>
       </c>
-      <c r="O153" s="39" t="s">
+      <c r="O153" s="59" t="s">
         <v>1341</v>
       </c>
-      <c r="P153" s="39" t="s">
+      <c r="P153" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="Q153" s="39" t="s">
+      <c r="Q153" s="59" t="s">
         <v>1265</v>
       </c>
-      <c r="R153" s="39" t="s">
+      <c r="R153" s="59" t="s">
         <v>273</v>
       </c>
     </row>
@@ -20294,49 +20442,49 @@
         <f t="shared" ref="B157" si="13">B153+1</f>
         <v>39</v>
       </c>
-      <c r="D157" s="39" t="s">
+      <c r="D157" s="59" t="s">
         <v>212</v>
       </c>
-      <c r="E157" s="39" t="s">
+      <c r="E157" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="F157" s="39" t="s">
+      <c r="F157" s="59" t="s">
         <v>1312</v>
       </c>
-      <c r="G157" s="39" t="s">
+      <c r="G157" s="59" t="s">
         <v>1342</v>
       </c>
-      <c r="H157" s="39" t="s">
+      <c r="H157" s="59" t="s">
         <v>1343</v>
       </c>
-      <c r="I157" s="39" t="s">
+      <c r="I157" s="59" t="s">
         <v>1336</v>
       </c>
-      <c r="J157" s="39" t="s">
+      <c r="J157" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="K157" s="39" t="s">
+      <c r="K157" s="59" t="s">
         <v>210</v>
       </c>
-      <c r="L157" s="39" t="s">
+      <c r="L157" s="59" t="s">
         <v>1202</v>
       </c>
-      <c r="M157" s="39" t="s">
+      <c r="M157" s="59" t="s">
         <v>273</v>
       </c>
-      <c r="N157" s="39" t="s">
+      <c r="N157" s="59" t="s">
         <v>108</v>
       </c>
-      <c r="O157" s="39" t="s">
+      <c r="O157" s="59" t="s">
         <v>291</v>
       </c>
-      <c r="P157" s="39" t="s">
+      <c r="P157" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="Q157" s="39" t="s">
+      <c r="Q157" s="59" t="s">
         <v>136</v>
       </c>
-      <c r="R157" s="39" t="s">
+      <c r="R157" s="59" t="s">
         <v>93</v>
       </c>
     </row>
@@ -20453,49 +20601,49 @@
         <f t="shared" ref="B161" si="14">B157+1</f>
         <v>40</v>
       </c>
-      <c r="D161" s="39" t="s">
+      <c r="D161" s="59" t="s">
         <v>1264</v>
       </c>
-      <c r="E161" s="39" t="s">
+      <c r="E161" s="59" t="s">
         <v>106</v>
       </c>
-      <c r="F161" s="39" t="s">
+      <c r="F161" s="59" t="s">
         <v>1344</v>
       </c>
-      <c r="G161" s="39" t="s">
+      <c r="G161" s="59" t="s">
         <v>1281</v>
       </c>
-      <c r="H161" s="39" t="s">
+      <c r="H161" s="59" t="s">
         <v>210</v>
       </c>
-      <c r="I161" s="39" t="s">
+      <c r="I161" s="59" t="s">
         <v>168</v>
       </c>
-      <c r="J161" s="39" t="s">
+      <c r="J161" s="59" t="s">
         <v>1345</v>
       </c>
-      <c r="K161" s="39" t="s">
+      <c r="K161" s="59" t="s">
         <v>1292</v>
       </c>
-      <c r="L161" s="39" t="s">
+      <c r="L161" s="59" t="s">
         <v>138</v>
       </c>
-      <c r="M161" s="39" t="s">
+      <c r="M161" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="N161" s="39" t="s">
+      <c r="N161" s="59" t="s">
         <v>1333</v>
       </c>
-      <c r="O161" s="39" t="s">
+      <c r="O161" s="59" t="s">
         <v>1334</v>
       </c>
-      <c r="P161" s="39" t="s">
+      <c r="P161" s="59" t="s">
         <v>1346</v>
       </c>
-      <c r="Q161" s="39" t="s">
+      <c r="Q161" s="59" t="s">
         <v>1342</v>
       </c>
-      <c r="R161" s="39" t="s">
+      <c r="R161" s="59" t="s">
         <v>1347</v>
       </c>
     </row>
@@ -20611,49 +20759,49 @@
         <f t="shared" ref="B165" si="15">B161+1</f>
         <v>41</v>
       </c>
-      <c r="D165" s="39" t="s">
+      <c r="D165" s="59" t="s">
         <v>151</v>
       </c>
-      <c r="E165" s="39" t="s">
+      <c r="E165" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="F165" s="39" t="s">
+      <c r="F165" s="59" t="s">
         <v>1313</v>
       </c>
-      <c r="G165" s="39" t="s">
+      <c r="G165" s="59" t="s">
         <v>1348</v>
       </c>
-      <c r="H165" s="39" t="s">
+      <c r="H165" s="59" t="s">
         <v>198</v>
       </c>
-      <c r="I165" s="39" t="s">
+      <c r="I165" s="59" t="s">
         <v>108</v>
       </c>
-      <c r="J165" s="39" t="s">
+      <c r="J165" s="59" t="s">
         <v>1349</v>
       </c>
-      <c r="K165" s="39" t="s">
+      <c r="K165" s="59" t="s">
         <v>210</v>
       </c>
-      <c r="L165" s="39" t="s">
+      <c r="L165" s="59" t="s">
         <v>1350</v>
       </c>
-      <c r="M165" s="39" t="s">
+      <c r="M165" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="N165" s="39" t="s">
+      <c r="N165" s="59" t="s">
         <v>1351</v>
       </c>
-      <c r="O165" s="39" t="s">
+      <c r="O165" s="59" t="s">
         <v>1352</v>
       </c>
-      <c r="P165" s="39" t="s">
+      <c r="P165" s="59" t="s">
         <v>218</v>
       </c>
-      <c r="Q165" s="39" t="s">
+      <c r="Q165" s="59" t="s">
         <v>217</v>
       </c>
-      <c r="R165" s="39" t="s">
+      <c r="R165" s="59" t="s">
         <v>23</v>
       </c>
     </row>
@@ -20771,49 +20919,49 @@
         <v>42</v>
       </c>
       <c r="C169" s="6"/>
-      <c r="D169" s="39" t="s">
+      <c r="D169" s="59" t="s">
         <v>137</v>
       </c>
-      <c r="E169" s="39" t="s">
+      <c r="E169" s="59" t="s">
         <v>106</v>
       </c>
-      <c r="F169" s="39" t="s">
+      <c r="F169" s="59" t="s">
         <v>151</v>
       </c>
-      <c r="G169" s="39" t="s">
+      <c r="G169" s="59" t="s">
         <v>273</v>
       </c>
-      <c r="H169" s="39" t="s">
+      <c r="H169" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="I169" s="39" t="s">
+      <c r="I169" s="59" t="s">
         <v>1331</v>
       </c>
-      <c r="J169" s="39" t="s">
+      <c r="J169" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="K169" s="39" t="s">
+      <c r="K169" s="59" t="s">
         <v>102</v>
       </c>
-      <c r="L169" s="39" t="s">
+      <c r="L169" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="M169" s="39" t="s">
+      <c r="M169" s="59" t="s">
         <v>1227</v>
       </c>
-      <c r="N169" s="39" t="s">
+      <c r="N169" s="59" t="s">
         <v>1316</v>
       </c>
-      <c r="O169" s="39" t="s">
+      <c r="O169" s="59" t="s">
         <v>210</v>
       </c>
-      <c r="P169" s="39" t="s">
+      <c r="P169" s="59" t="s">
         <v>168</v>
       </c>
-      <c r="Q169" s="39" t="s">
+      <c r="Q169" s="59" t="s">
         <v>1227</v>
       </c>
-      <c r="R169" s="39" t="s">
+      <c r="R169" s="59" t="s">
         <v>37</v>
       </c>
     </row>
@@ -20934,49 +21082,49 @@
         <v>43</v>
       </c>
       <c r="C173" s="6"/>
-      <c r="D173" s="39" t="s">
+      <c r="D173" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="E173" s="39" t="s">
+      <c r="E173" s="59" t="s">
         <v>1353</v>
       </c>
-      <c r="F173" s="39" t="s">
+      <c r="F173" s="59" t="s">
         <v>279</v>
       </c>
-      <c r="G173" s="39" t="s">
+      <c r="G173" s="59" t="s">
         <v>1210</v>
       </c>
-      <c r="H173" s="39" t="s">
+      <c r="H173" s="59" t="s">
         <v>106</v>
       </c>
-      <c r="I173" s="39" t="s">
+      <c r="I173" s="59" t="s">
         <v>1354</v>
       </c>
-      <c r="J173" s="39" t="s">
+      <c r="J173" s="59" t="s">
         <v>1316</v>
       </c>
-      <c r="K173" s="39" t="s">
+      <c r="K173" s="59" t="s">
         <v>210</v>
       </c>
-      <c r="L173" s="39" t="s">
+      <c r="L173" s="59" t="s">
         <v>1355</v>
       </c>
-      <c r="M173" s="39" t="s">
+      <c r="M173" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="N173" s="39" t="s">
+      <c r="N173" s="59" t="s">
         <v>1353</v>
       </c>
-      <c r="O173" s="39" t="s">
+      <c r="O173" s="59" t="s">
         <v>1256</v>
       </c>
-      <c r="P173" s="39" t="s">
+      <c r="P173" s="59" t="s">
         <v>168</v>
       </c>
-      <c r="Q173" s="39" t="s">
+      <c r="Q173" s="59" t="s">
         <v>287</v>
       </c>
-      <c r="R173" s="39" t="s">
+      <c r="R173" s="59" t="s">
         <v>1356</v>
       </c>
     </row>
@@ -21093,49 +21241,49 @@
         <v>44</v>
       </c>
       <c r="C177" s="6"/>
-      <c r="D177" s="39" t="s">
+      <c r="D177" s="59" t="s">
         <v>1329</v>
       </c>
-      <c r="E177" s="39" t="s">
+      <c r="E177" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="F177" s="39" t="s">
+      <c r="F177" s="59" t="s">
         <v>1265</v>
       </c>
-      <c r="G177" s="39" t="s">
+      <c r="G177" s="59" t="s">
         <v>75</v>
       </c>
-      <c r="H177" s="39" t="s">
+      <c r="H177" s="59" t="s">
         <v>297</v>
       </c>
-      <c r="I177" s="39" t="s">
+      <c r="I177" s="59" t="s">
         <v>1316</v>
       </c>
-      <c r="J177" s="39" t="s">
+      <c r="J177" s="59" t="s">
         <v>210</v>
       </c>
-      <c r="K177" s="39" t="s">
+      <c r="K177" s="59" t="s">
         <v>1357</v>
       </c>
-      <c r="L177" s="39" t="s">
+      <c r="L177" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="M177" s="39" t="s">
+      <c r="M177" s="59" t="s">
         <v>1304</v>
       </c>
-      <c r="N177" s="39" t="s">
+      <c r="N177" s="59" t="s">
         <v>1358</v>
       </c>
-      <c r="O177" s="39" t="s">
+      <c r="O177" s="59" t="s">
         <v>1359</v>
       </c>
-      <c r="P177" s="39" t="s">
+      <c r="P177" s="59" t="s">
         <v>1360</v>
       </c>
-      <c r="Q177" s="39" t="s">
+      <c r="Q177" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="R177" s="39" t="s">
+      <c r="R177" s="59" t="s">
         <v>1361</v>
       </c>
     </row>
@@ -21252,49 +21400,49 @@
         <v>45</v>
       </c>
       <c r="C181" s="6"/>
-      <c r="D181" s="39" t="s">
+      <c r="D181" s="59" t="s">
         <v>1245</v>
       </c>
-      <c r="E181" s="39" t="s">
+      <c r="E181" s="59" t="s">
         <v>1246</v>
       </c>
-      <c r="F181" s="39" t="s">
+      <c r="F181" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="G181" s="39" t="s">
+      <c r="G181" s="59" t="s">
         <v>279</v>
       </c>
-      <c r="H181" s="39" t="s">
+      <c r="H181" s="59" t="s">
         <v>108</v>
       </c>
-      <c r="I181" s="39" t="s">
+      <c r="I181" s="59" t="s">
         <v>1300</v>
       </c>
-      <c r="J181" s="39" t="s">
+      <c r="J181" s="59" t="s">
         <v>159</v>
       </c>
-      <c r="K181" s="39" t="s">
+      <c r="K181" s="59" t="s">
         <v>212</v>
       </c>
-      <c r="L181" s="39" t="s">
+      <c r="L181" s="59" t="s">
         <v>1362</v>
       </c>
-      <c r="M181" s="39" t="s">
+      <c r="M181" s="59" t="s">
         <v>210</v>
       </c>
-      <c r="N181" s="39" t="s">
+      <c r="N181" s="59" t="s">
         <v>299</v>
       </c>
-      <c r="O181" s="39" t="s">
+      <c r="O181" s="59" t="s">
         <v>1218</v>
       </c>
-      <c r="P181" s="39" t="s">
+      <c r="P181" s="59" t="s">
         <v>1363</v>
       </c>
-      <c r="Q181" s="39" t="s">
+      <c r="Q181" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="R181" s="39" t="s">
+      <c r="R181" s="59" t="s">
         <v>1364</v>
       </c>
     </row>
@@ -21413,49 +21561,49 @@
         <v>46</v>
       </c>
       <c r="C185" s="6"/>
-      <c r="D185" s="39" t="s">
+      <c r="D185" s="59" t="s">
         <v>108</v>
       </c>
-      <c r="E185" s="39" t="s">
+      <c r="E185" s="59" t="s">
         <v>1208</v>
       </c>
-      <c r="F185" s="39" t="s">
+      <c r="F185" s="59" t="s">
         <v>102</v>
       </c>
-      <c r="G185" s="39" t="s">
+      <c r="G185" s="59" t="s">
         <v>69</v>
       </c>
-      <c r="H185" s="39" t="s">
+      <c r="H185" s="59" t="s">
         <v>1365</v>
       </c>
-      <c r="I185" s="39" t="s">
+      <c r="I185" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="J185" s="39" t="s">
+      <c r="J185" s="59" t="s">
         <v>1185</v>
       </c>
-      <c r="K185" s="39" t="s">
+      <c r="K185" s="59" t="s">
         <v>1222</v>
       </c>
-      <c r="L185" s="39" t="s">
+      <c r="L185" s="59" t="s">
         <v>168</v>
       </c>
-      <c r="M185" s="39" t="s">
+      <c r="M185" s="59" t="s">
         <v>1223</v>
       </c>
-      <c r="N185" s="39" t="s">
+      <c r="N185" s="59" t="s">
         <v>108</v>
       </c>
-      <c r="O185" s="39" t="s">
+      <c r="O185" s="59" t="s">
         <v>1201</v>
       </c>
-      <c r="P185" s="39" t="s">
+      <c r="P185" s="59" t="s">
         <v>212</v>
       </c>
-      <c r="Q185" s="39" t="s">
+      <c r="Q185" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="R185" s="39" t="s">
+      <c r="R185" s="59" t="s">
         <v>259</v>
       </c>
     </row>
@@ -21549,7 +21697,7 @@
         <v>48</v>
       </c>
       <c r="L188" s="50" t="s">
-        <v>2107</v>
+        <v>2108</v>
       </c>
       <c r="M188" s="50" t="s">
         <v>1792</v>
@@ -21558,7 +21706,7 @@
         <v>1535</v>
       </c>
       <c r="O188" s="50" t="s">
-        <v>442</v>
+        <v>824</v>
       </c>
       <c r="P188" s="50" t="s">
         <v>336</v>
@@ -21576,49 +21724,49 @@
         <v>47</v>
       </c>
       <c r="C189" s="6"/>
-      <c r="D189" s="39" t="s">
+      <c r="D189" s="59" t="s">
         <v>1281</v>
       </c>
-      <c r="E189" s="39" t="s">
+      <c r="E189" s="59" t="s">
         <v>299</v>
       </c>
-      <c r="F189" s="39" t="s">
+      <c r="F189" s="59" t="s">
         <v>274</v>
       </c>
-      <c r="G189" s="39" t="s">
+      <c r="G189" s="59" t="s">
         <v>161</v>
       </c>
-      <c r="H189" s="39" t="s">
+      <c r="H189" s="59" t="s">
         <v>168</v>
       </c>
-      <c r="I189" s="39" t="s">
+      <c r="I189" s="59" t="s">
         <v>1288</v>
       </c>
-      <c r="J189" s="39" t="s">
+      <c r="J189" s="59" t="s">
         <v>93</v>
       </c>
-      <c r="K189" s="39" t="s">
+      <c r="K189" s="59" t="s">
         <v>1265</v>
       </c>
       <c r="L189" s="59" t="s">
         <v>1366</v>
       </c>
-      <c r="M189" s="39" t="s">
+      <c r="M189" s="59" t="s">
         <v>1367</v>
       </c>
-      <c r="N189" s="39" t="s">
+      <c r="N189" s="59" t="s">
         <v>1220</v>
       </c>
       <c r="O189" s="59" t="s">
         <v>1368</v>
       </c>
-      <c r="P189" s="39" t="s">
+      <c r="P189" s="59" t="s">
         <v>106</v>
       </c>
-      <c r="Q189" s="39" t="s">
+      <c r="Q189" s="59" t="s">
         <v>1369</v>
       </c>
-      <c r="R189" s="39" t="s">
+      <c r="R189" s="59" t="s">
         <v>1370</v>
       </c>
     </row>
@@ -21648,7 +21796,7 @@
         <v>1986</v>
       </c>
       <c r="L190" s="51" t="s">
-        <v>2109</v>
+        <v>2111</v>
       </c>
       <c r="M190" s="51" t="s">
         <v>2062</v>
@@ -21657,7 +21805,7 @@
         <v>1940</v>
       </c>
       <c r="O190" s="51" t="s">
-        <v>442</v>
+        <v>824</v>
       </c>
       <c r="P190" s="51" t="s">
         <v>1920</v>
@@ -21741,49 +21889,49 @@
         <v>48</v>
       </c>
       <c r="C193" s="6"/>
-      <c r="D193" s="39" t="s">
+      <c r="D193" s="59" t="s">
         <v>102</v>
       </c>
-      <c r="E193" s="39" t="s">
+      <c r="E193" s="59" t="s">
         <v>1371</v>
       </c>
       <c r="F193" s="59" t="s">
         <v>1372</v>
       </c>
-      <c r="G193" s="39" t="s">
+      <c r="G193" s="59" t="s">
         <v>160</v>
       </c>
-      <c r="H193" s="39" t="s">
+      <c r="H193" s="59" t="s">
         <v>161</v>
       </c>
-      <c r="I193" s="39" t="s">
+      <c r="I193" s="59" t="s">
         <v>1373</v>
       </c>
-      <c r="J193" s="39" t="s">
+      <c r="J193" s="59" t="s">
         <v>1374</v>
       </c>
-      <c r="K193" s="39" t="s">
+      <c r="K193" s="59" t="s">
         <v>1375</v>
       </c>
-      <c r="L193" s="39" t="s">
+      <c r="L193" s="59" t="s">
         <v>1338</v>
       </c>
-      <c r="M193" s="39" t="s">
+      <c r="M193" s="59" t="s">
         <v>1235</v>
       </c>
-      <c r="N193" s="39" t="s">
+      <c r="N193" s="59" t="s">
         <v>1376</v>
       </c>
-      <c r="O193" s="39" t="s">
+      <c r="O193" s="59" t="s">
         <v>106</v>
       </c>
-      <c r="P193" s="39" t="s">
+      <c r="P193" s="59" t="s">
         <v>1377</v>
       </c>
-      <c r="Q193" s="39" t="s">
+      <c r="Q193" s="59" t="s">
         <v>285</v>
       </c>
-      <c r="R193" s="39" t="s">
+      <c r="R193" s="59" t="s">
         <v>138</v>
       </c>
     </row>
@@ -21904,49 +22052,49 @@
         <v>49</v>
       </c>
       <c r="C197" s="6"/>
-      <c r="D197" s="39" t="s">
+      <c r="D197" s="59" t="s">
         <v>161</v>
       </c>
-      <c r="E197" s="39" t="s">
+      <c r="E197" s="59" t="s">
         <v>1237</v>
       </c>
-      <c r="F197" s="39" t="s">
+      <c r="F197" s="59" t="s">
         <v>108</v>
       </c>
-      <c r="G197" s="39" t="s">
+      <c r="G197" s="59" t="s">
         <v>1378</v>
       </c>
-      <c r="H197" s="39" t="s">
+      <c r="H197" s="59" t="s">
         <v>1312</v>
       </c>
-      <c r="I197" s="39" t="s">
+      <c r="I197" s="59" t="s">
         <v>1379</v>
       </c>
-      <c r="J197" s="39" t="s">
+      <c r="J197" s="59" t="s">
         <v>102</v>
       </c>
-      <c r="K197" s="39" t="s">
+      <c r="K197" s="59" t="s">
         <v>272</v>
       </c>
-      <c r="L197" s="39" t="s">
+      <c r="L197" s="59" t="s">
         <v>1286</v>
       </c>
-      <c r="M197" s="39" t="s">
+      <c r="M197" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="N197" s="39" t="s">
+      <c r="N197" s="59" t="s">
         <v>143</v>
       </c>
-      <c r="O197" s="39" t="s">
+      <c r="O197" s="59" t="s">
         <v>1279</v>
       </c>
-      <c r="P197" s="39" t="s">
+      <c r="P197" s="59" t="s">
         <v>1333</v>
       </c>
-      <c r="Q197" s="39" t="s">
+      <c r="Q197" s="59" t="s">
         <v>1334</v>
       </c>
-      <c r="R197" s="39" t="s">
+      <c r="R197" s="59" t="s">
         <v>1288</v>
       </c>
     </row>
@@ -22065,49 +22213,49 @@
         <v>50</v>
       </c>
       <c r="C201" s="6"/>
-      <c r="D201" s="39" t="s">
+      <c r="D201" s="59" t="s">
         <v>205</v>
       </c>
-      <c r="E201" s="39" t="s">
+      <c r="E201" s="59" t="s">
         <v>136</v>
       </c>
-      <c r="F201" s="39" t="s">
+      <c r="F201" s="59" t="s">
         <v>69</v>
       </c>
-      <c r="G201" s="39" t="s">
+      <c r="G201" s="59" t="s">
         <v>37</v>
       </c>
-      <c r="H201" s="39" t="s">
+      <c r="H201" s="59" t="s">
         <v>212</v>
       </c>
-      <c r="I201" s="39" t="s">
+      <c r="I201" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="J201" s="39" t="s">
+      <c r="J201" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="K201" s="39" t="s">
+      <c r="K201" s="59" t="s">
         <v>106</v>
       </c>
-      <c r="L201" s="39" t="s">
+      <c r="L201" s="59" t="s">
         <v>280</v>
       </c>
-      <c r="M201" s="39" t="s">
+      <c r="M201" s="59" t="s">
         <v>108</v>
       </c>
-      <c r="N201" s="39" t="s">
+      <c r="N201" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="O201" s="39" t="s">
+      <c r="O201" s="59" t="s">
         <v>1279</v>
       </c>
-      <c r="P201" s="39" t="s">
+      <c r="P201" s="59" t="s">
         <v>168</v>
       </c>
-      <c r="Q201" s="39" t="s">
+      <c r="Q201" s="59" t="s">
         <v>1309</v>
       </c>
-      <c r="R201" s="39" t="s">
+      <c r="R201" s="59" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -22226,49 +22374,49 @@
         <v>51</v>
       </c>
       <c r="C205" s="6"/>
-      <c r="D205" s="39" t="s">
+      <c r="D205" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="E205" s="39" t="s">
+      <c r="E205" s="59" t="s">
         <v>1237</v>
       </c>
-      <c r="F205" s="39" t="s">
+      <c r="F205" s="59" t="s">
         <v>108</v>
       </c>
-      <c r="G205" s="39" t="s">
+      <c r="G205" s="59" t="s">
         <v>1292</v>
       </c>
-      <c r="H205" s="39" t="s">
+      <c r="H205" s="59" t="s">
         <v>168</v>
       </c>
-      <c r="I205" s="39" t="s">
+      <c r="I205" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="J205" s="39" t="s">
+      <c r="J205" s="59" t="s">
         <v>162</v>
       </c>
-      <c r="K205" s="39" t="s">
+      <c r="K205" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="L205" s="39" t="s">
+      <c r="L205" s="59" t="s">
         <v>1291</v>
       </c>
-      <c r="M205" s="39" t="s">
+      <c r="M205" s="59" t="s">
         <v>138</v>
       </c>
-      <c r="N205" s="39" t="s">
+      <c r="N205" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="O205" s="39" t="s">
+      <c r="O205" s="59" t="s">
         <v>1380</v>
       </c>
-      <c r="P205" s="39" t="s">
+      <c r="P205" s="59" t="s">
         <v>82</v>
       </c>
-      <c r="Q205" s="39" t="s">
+      <c r="Q205" s="59" t="s">
         <v>134</v>
       </c>
-      <c r="R205" s="39" t="s">
+      <c r="R205" s="59" t="s">
         <v>193</v>
       </c>
     </row>
@@ -22389,49 +22537,49 @@
         <v>52</v>
       </c>
       <c r="C209" s="6"/>
-      <c r="D209" s="39" t="s">
+      <c r="D209" s="59" t="s">
         <v>1381</v>
       </c>
-      <c r="E209" s="39" t="s">
+      <c r="E209" s="59" t="s">
         <v>102</v>
       </c>
-      <c r="F209" s="39" t="s">
+      <c r="F209" s="59" t="s">
         <v>119</v>
       </c>
-      <c r="G209" s="39" t="s">
+      <c r="G209" s="59" t="s">
         <v>1382</v>
       </c>
-      <c r="H209" s="39" t="s">
+      <c r="H209" s="59" t="s">
         <v>210</v>
       </c>
-      <c r="I209" s="39" t="s">
+      <c r="I209" s="59" t="s">
         <v>1383</v>
       </c>
-      <c r="J209" s="39" t="s">
+      <c r="J209" s="59" t="s">
         <v>1384</v>
       </c>
-      <c r="K209" s="39" t="s">
+      <c r="K209" s="59" t="s">
         <v>108</v>
       </c>
-      <c r="L209" s="39" t="s">
+      <c r="L209" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="M209" s="39" t="s">
+      <c r="M209" s="59" t="s">
         <v>168</v>
       </c>
-      <c r="N209" s="39" t="s">
+      <c r="N209" s="59" t="s">
         <v>1288</v>
       </c>
-      <c r="O209" s="39" t="s">
+      <c r="O209" s="59" t="s">
         <v>93</v>
       </c>
-      <c r="P209" s="39" t="s">
+      <c r="P209" s="59" t="s">
         <v>1374</v>
       </c>
-      <c r="Q209" s="39" t="s">
+      <c r="Q209" s="59" t="s">
         <v>1385</v>
       </c>
-      <c r="R209" s="39" t="s">
+      <c r="R209" s="59" t="s">
         <v>37</v>
       </c>
     </row>
@@ -22546,46 +22694,46 @@
         <v>53</v>
       </c>
       <c r="C213" s="6"/>
-      <c r="D213" s="39" t="s">
+      <c r="D213" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="E213" s="39" t="s">
+      <c r="E213" s="59" t="s">
         <v>1286</v>
       </c>
-      <c r="F213" s="39" t="s">
+      <c r="F213" s="59" t="s">
         <v>106</v>
       </c>
-      <c r="G213" s="39" t="s">
+      <c r="G213" s="59" t="s">
         <v>1333</v>
       </c>
-      <c r="H213" s="39" t="s">
+      <c r="H213" s="59" t="s">
         <v>1334</v>
       </c>
-      <c r="I213" s="39" t="s">
+      <c r="I213" s="59" t="s">
         <v>273</v>
       </c>
-      <c r="J213" s="39" t="s">
+      <c r="J213" s="59" t="s">
         <v>1296</v>
       </c>
-      <c r="K213" s="39" t="s">
+      <c r="K213" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="L213" s="39" t="s">
+      <c r="L213" s="59" t="s">
         <v>297</v>
       </c>
-      <c r="M213" s="39" t="s">
+      <c r="M213" s="59" t="s">
         <v>168</v>
       </c>
-      <c r="N213" s="39" t="s">
+      <c r="N213" s="59" t="s">
         <v>1386</v>
       </c>
-      <c r="O213" s="39" t="s">
+      <c r="O213" s="59" t="s">
         <v>138</v>
       </c>
-      <c r="P213" s="39" t="s">
+      <c r="P213" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="Q213" s="39" t="str">
+      <c r="Q213" s="59" t="str">
         <f>CHAR(10)</f>
         <v xml:space="preserve">
 </v>
@@ -22699,49 +22847,49 @@
         <v>54</v>
       </c>
       <c r="C217" s="6"/>
-      <c r="D217" s="39" t="s">
+      <c r="D217" s="59" t="s">
         <v>1387</v>
       </c>
-      <c r="E217" s="39" t="s">
+      <c r="E217" s="59" t="s">
         <v>1185</v>
       </c>
-      <c r="F217" s="39" t="s">
+      <c r="F217" s="59" t="s">
         <v>1238</v>
       </c>
-      <c r="G217" s="39" t="s">
+      <c r="G217" s="59" t="s">
         <v>108</v>
       </c>
-      <c r="H217" s="39" t="s">
+      <c r="H217" s="59" t="s">
         <v>1388</v>
       </c>
-      <c r="I217" s="39" t="s">
+      <c r="I217" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="J217" s="39" t="s">
+      <c r="J217" s="59" t="s">
         <v>1389</v>
       </c>
-      <c r="K217" s="39" t="s">
+      <c r="K217" s="59" t="s">
         <v>279</v>
       </c>
-      <c r="L217" s="39" t="s">
+      <c r="L217" s="59" t="s">
         <v>1283</v>
       </c>
-      <c r="M217" s="39" t="s">
+      <c r="M217" s="59" t="s">
         <v>142</v>
       </c>
-      <c r="N217" s="39" t="s">
+      <c r="N217" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="O217" s="39" t="s">
+      <c r="O217" s="59" t="s">
         <v>1245</v>
       </c>
-      <c r="P217" s="39" t="s">
+      <c r="P217" s="59" t="s">
         <v>1246</v>
       </c>
-      <c r="Q217" s="39" t="s">
+      <c r="Q217" s="59" t="s">
         <v>1390</v>
       </c>
-      <c r="R217" s="39" t="s">
+      <c r="R217" s="59" t="s">
         <v>26</v>
       </c>
     </row>
@@ -22827,7 +22975,7 @@
         <v>1572</v>
       </c>
       <c r="J220" s="50" t="s">
-        <v>462</v>
+        <v>866</v>
       </c>
       <c r="K220" s="50" t="s">
         <v>1833</v>
@@ -22856,49 +23004,49 @@
         <v>55</v>
       </c>
       <c r="C221" s="6"/>
-      <c r="D221" s="39" t="s">
+      <c r="D221" s="59" t="s">
         <v>1391</v>
       </c>
-      <c r="E221" s="39" t="s">
+      <c r="E221" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="F221" s="39" t="s">
+      <c r="F221" s="59" t="s">
         <v>210</v>
       </c>
-      <c r="G221" s="39" t="s">
+      <c r="G221" s="59" t="s">
         <v>1317</v>
       </c>
-      <c r="H221" s="39" t="s">
+      <c r="H221" s="59" t="s">
         <v>1178</v>
       </c>
-      <c r="I221" s="39" t="s">
+      <c r="I221" s="59" t="s">
         <v>1242</v>
       </c>
       <c r="J221" s="59" t="s">
         <v>1392</v>
       </c>
-      <c r="K221" s="39" t="s">
+      <c r="K221" s="59" t="s">
         <v>1393</v>
       </c>
-      <c r="L221" s="39" t="s">
+      <c r="L221" s="59" t="s">
         <v>1219</v>
       </c>
-      <c r="M221" s="39" t="s">
+      <c r="M221" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="N221" s="39" t="s">
+      <c r="N221" s="59" t="s">
         <v>1394</v>
       </c>
-      <c r="O221" s="39" t="s">
+      <c r="O221" s="59" t="s">
         <v>1395</v>
       </c>
-      <c r="P221" s="39" t="s">
+      <c r="P221" s="59" t="s">
         <v>135</v>
       </c>
-      <c r="Q221" s="39" t="s">
+      <c r="Q221" s="59" t="s">
         <v>1396</v>
       </c>
-      <c r="R221" s="39" t="s">
+      <c r="R221" s="59" t="s">
         <v>23</v>
       </c>
     </row>
@@ -23011,49 +23159,49 @@
         <v>56</v>
       </c>
       <c r="C225" s="6"/>
-      <c r="D225" s="39" t="s">
+      <c r="D225" s="59" t="s">
         <v>209</v>
       </c>
-      <c r="E225" s="39" t="s">
+      <c r="E225" s="59" t="s">
         <v>1185</v>
       </c>
-      <c r="F225" s="39" t="s">
+      <c r="F225" s="59" t="s">
         <v>1397</v>
       </c>
-      <c r="G225" s="39" t="s">
+      <c r="G225" s="59" t="s">
         <v>273</v>
       </c>
-      <c r="H225" s="39" t="s">
+      <c r="H225" s="59" t="s">
         <v>80</v>
       </c>
-      <c r="I225" s="39" t="s">
+      <c r="I225" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="J225" s="39" t="s">
+      <c r="J225" s="59" t="s">
         <v>1202</v>
       </c>
-      <c r="K225" s="39" t="s">
+      <c r="K225" s="59" t="s">
         <v>108</v>
       </c>
-      <c r="L225" s="39" t="s">
+      <c r="L225" s="59" t="s">
         <v>1398</v>
       </c>
-      <c r="M225" s="39" t="s">
+      <c r="M225" s="59" t="s">
         <v>138</v>
       </c>
-      <c r="N225" s="39" t="s">
+      <c r="N225" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="O225" s="39" t="s">
+      <c r="O225" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="P225" s="39" t="s">
+      <c r="P225" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="Q225" s="39" t="s">
+      <c r="Q225" s="59" t="s">
         <v>1185</v>
       </c>
-      <c r="R225" s="39" t="s">
+      <c r="R225" s="59" t="s">
         <v>213</v>
       </c>
     </row>
@@ -23154,7 +23302,7 @@
         <v>1512</v>
       </c>
       <c r="Q228" s="50" t="s">
-        <v>367</v>
+        <v>663</v>
       </c>
       <c r="R228" s="50"/>
     </row>
@@ -23164,49 +23312,49 @@
         <v>57</v>
       </c>
       <c r="C229" s="6"/>
-      <c r="D229" s="39" t="s">
+      <c r="D229" s="59" t="s">
         <v>1185</v>
       </c>
-      <c r="E229" s="39" t="s">
+      <c r="E229" s="59" t="s">
         <v>1399</v>
       </c>
-      <c r="F229" s="39" t="s">
+      <c r="F229" s="59" t="s">
         <v>108</v>
       </c>
-      <c r="G229" s="39" t="s">
+      <c r="G229" s="59" t="s">
         <v>1286</v>
       </c>
-      <c r="H229" s="39" t="s">
+      <c r="H229" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="I229" s="39" t="s">
+      <c r="I229" s="59" t="s">
         <v>1316</v>
       </c>
-      <c r="J229" s="39" t="s">
+      <c r="J229" s="59" t="s">
         <v>1400</v>
       </c>
-      <c r="K229" s="39" t="s">
+      <c r="K229" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="L229" s="39" t="s">
+      <c r="L229" s="59" t="s">
         <v>1401</v>
       </c>
-      <c r="M229" s="39" t="s">
+      <c r="M229" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="N229" s="39" t="s">
+      <c r="N229" s="59" t="s">
         <v>143</v>
       </c>
-      <c r="O229" s="39" t="s">
+      <c r="O229" s="59" t="s">
         <v>1402</v>
       </c>
-      <c r="P229" s="39" t="s">
+      <c r="P229" s="59" t="s">
         <v>1212</v>
       </c>
       <c r="Q229" s="59" t="s">
         <v>1403</v>
       </c>
-      <c r="R229" s="39" t="s">
+      <c r="R229" s="59" t="s">
         <v>1185</v>
       </c>
     </row>
@@ -23317,49 +23465,49 @@
         <v>58</v>
       </c>
       <c r="C233" s="6"/>
-      <c r="D233" s="39" t="s">
+      <c r="D233" s="59" t="s">
         <v>1404</v>
       </c>
-      <c r="E233" s="39" t="s">
+      <c r="E233" s="59" t="s">
         <v>147</v>
       </c>
-      <c r="F233" s="39" t="s">
+      <c r="F233" s="59" t="s">
         <v>1185</v>
       </c>
-      <c r="G233" s="39" t="s">
+      <c r="G233" s="59" t="s">
         <v>1405</v>
       </c>
-      <c r="H233" s="39" t="s">
+      <c r="H233" s="59" t="s">
         <v>1212</v>
       </c>
-      <c r="I233" s="39" t="s">
+      <c r="I233" s="59" t="s">
         <v>1185</v>
       </c>
-      <c r="J233" s="39" t="s">
+      <c r="J233" s="59" t="s">
         <v>1215</v>
       </c>
-      <c r="K233" s="39" t="s">
+      <c r="K233" s="59" t="s">
         <v>93</v>
       </c>
-      <c r="L233" s="39" t="s">
+      <c r="L233" s="59" t="s">
         <v>1185</v>
       </c>
-      <c r="M233" s="39" t="s">
+      <c r="M233" s="59" t="s">
         <v>1399</v>
       </c>
-      <c r="N233" s="39" t="s">
+      <c r="N233" s="59" t="s">
         <v>1281</v>
       </c>
-      <c r="O233" s="39" t="s">
+      <c r="O233" s="59" t="s">
         <v>108</v>
       </c>
-      <c r="P233" s="39" t="s">
+      <c r="P233" s="59" t="s">
         <v>1192</v>
       </c>
-      <c r="Q233" s="39" t="s">
+      <c r="Q233" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="R233" s="39" t="s">
+      <c r="R233" s="59" t="s">
         <v>259</v>
       </c>
     </row>
@@ -23474,49 +23622,49 @@
         <v>59</v>
       </c>
       <c r="C237" s="6"/>
-      <c r="D237" s="39" t="s">
+      <c r="D237" s="59" t="s">
         <v>1179</v>
       </c>
-      <c r="E237" s="39" t="s">
+      <c r="E237" s="59" t="s">
         <v>1226</v>
       </c>
-      <c r="F237" s="39" t="s">
+      <c r="F237" s="59" t="s">
         <v>1203</v>
       </c>
-      <c r="G237" s="39" t="s">
+      <c r="G237" s="59" t="s">
         <v>151</v>
       </c>
-      <c r="H237" s="39" t="s">
+      <c r="H237" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="I237" s="39" t="s">
+      <c r="I237" s="59" t="s">
         <v>1286</v>
       </c>
-      <c r="J237" s="39" t="s">
+      <c r="J237" s="59" t="s">
         <v>1406</v>
       </c>
-      <c r="K237" s="39" t="s">
+      <c r="K237" s="59" t="s">
         <v>168</v>
       </c>
-      <c r="L237" s="39" t="s">
+      <c r="L237" s="59" t="s">
         <v>1407</v>
       </c>
-      <c r="M237" s="39" t="s">
+      <c r="M237" s="59" t="s">
         <v>138</v>
       </c>
-      <c r="N237" s="39" t="s">
+      <c r="N237" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="O237" s="39" t="s">
+      <c r="O237" s="59" t="s">
         <v>1408</v>
       </c>
-      <c r="P237" s="39" t="s">
+      <c r="P237" s="59" t="s">
         <v>1409</v>
       </c>
-      <c r="Q237" s="39" t="s">
+      <c r="Q237" s="59" t="s">
         <v>1237</v>
       </c>
-      <c r="R237" s="39" t="s">
+      <c r="R237" s="59" t="s">
         <v>108</v>
       </c>
     </row>
@@ -23613,7 +23761,7 @@
         <v>1644</v>
       </c>
       <c r="M240" s="50" t="s">
-        <v>481</v>
+        <v>912</v>
       </c>
       <c r="N240" s="50" t="s">
         <v>428</v>
@@ -23635,49 +23783,49 @@
         <v>60</v>
       </c>
       <c r="C241" s="6"/>
-      <c r="D241" s="39" t="s">
+      <c r="D241" s="59" t="s">
         <v>1388</v>
       </c>
-      <c r="E241" s="39" t="s">
+      <c r="E241" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="F241" s="39" t="s">
+      <c r="F241" s="59" t="s">
         <v>106</v>
       </c>
-      <c r="G241" s="39" t="s">
+      <c r="G241" s="59" t="s">
         <v>273</v>
       </c>
-      <c r="H241" s="39" t="s">
+      <c r="H241" s="59" t="s">
         <v>1410</v>
       </c>
-      <c r="I241" s="39" t="s">
+      <c r="I241" s="59" t="s">
         <v>1411</v>
       </c>
-      <c r="J241" s="39" t="s">
+      <c r="J241" s="59" t="s">
         <v>168</v>
       </c>
-      <c r="K241" s="39" t="s">
+      <c r="K241" s="59" t="s">
         <v>1265</v>
       </c>
-      <c r="L241" s="39" t="s">
+      <c r="L241" s="59" t="s">
         <v>1283</v>
       </c>
       <c r="M241" s="59" t="s">
         <v>1412</v>
       </c>
-      <c r="N241" s="39" t="s">
+      <c r="N241" s="59" t="s">
         <v>218</v>
       </c>
-      <c r="O241" s="39" t="s">
+      <c r="O241" s="59" t="s">
         <v>217</v>
       </c>
-      <c r="P241" s="39" t="s">
+      <c r="P241" s="59" t="s">
         <v>1181</v>
       </c>
-      <c r="Q241" s="39" t="s">
+      <c r="Q241" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="R241" s="39" t="s">
+      <c r="R241" s="59" t="s">
         <v>1304</v>
       </c>
     </row>
@@ -23796,49 +23944,49 @@
         <v>61</v>
       </c>
       <c r="C245" s="6"/>
-      <c r="D245" s="39" t="s">
+      <c r="D245" s="59" t="s">
         <v>1344</v>
       </c>
-      <c r="E245" s="39" t="s">
+      <c r="E245" s="59" t="s">
         <v>1413</v>
       </c>
-      <c r="F245" s="39" t="s">
+      <c r="F245" s="59" t="s">
         <v>108</v>
       </c>
-      <c r="G245" s="39" t="s">
+      <c r="G245" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="H245" s="39" t="s">
+      <c r="H245" s="59" t="s">
         <v>1279</v>
       </c>
-      <c r="I245" s="39" t="s">
+      <c r="I245" s="59" t="s">
         <v>158</v>
       </c>
-      <c r="J245" s="39" t="s">
+      <c r="J245" s="59" t="s">
         <v>236</v>
       </c>
-      <c r="K245" s="39" t="s">
+      <c r="K245" s="59" t="s">
         <v>1294</v>
       </c>
-      <c r="L245" s="39" t="s">
+      <c r="L245" s="59" t="s">
         <v>102</v>
       </c>
-      <c r="M245" s="39" t="s">
+      <c r="M245" s="59" t="s">
         <v>136</v>
       </c>
-      <c r="N245" s="39" t="s">
+      <c r="N245" s="59" t="s">
         <v>138</v>
       </c>
-      <c r="O245" s="39" t="s">
+      <c r="O245" s="59" t="s">
         <v>286</v>
       </c>
-      <c r="P245" s="39" t="s">
+      <c r="P245" s="59" t="s">
         <v>161</v>
       </c>
-      <c r="Q245" s="39" t="s">
+      <c r="Q245" s="59" t="s">
         <v>162</v>
       </c>
-      <c r="R245" s="39" t="s">
+      <c r="R245" s="59" t="s">
         <v>110</v>
       </c>
     </row>
@@ -23955,49 +24103,49 @@
         <v>62</v>
       </c>
       <c r="C249" s="6"/>
-      <c r="D249" s="39" t="s">
+      <c r="D249" s="59" t="s">
         <v>291</v>
       </c>
-      <c r="E249" s="39" t="s">
+      <c r="E249" s="59" t="s">
         <v>1212</v>
       </c>
-      <c r="F249" s="39" t="s">
+      <c r="F249" s="59" t="s">
         <v>108</v>
       </c>
-      <c r="G249" s="39" t="s">
+      <c r="G249" s="59" t="s">
         <v>80</v>
       </c>
-      <c r="H249" s="39" t="s">
+      <c r="H249" s="59" t="s">
         <v>137</v>
       </c>
-      <c r="I249" s="39" t="s">
+      <c r="I249" s="59" t="s">
         <v>168</v>
       </c>
-      <c r="J249" s="39" t="s">
+      <c r="J249" s="59" t="s">
         <v>143</v>
       </c>
-      <c r="K249" s="39" t="s">
+      <c r="K249" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="L249" s="39" t="s">
+      <c r="L249" s="59" t="s">
         <v>288</v>
       </c>
-      <c r="M249" s="39" t="s">
+      <c r="M249" s="59" t="s">
         <v>289</v>
       </c>
-      <c r="N249" s="39" t="s">
+      <c r="N249" s="59" t="s">
         <v>290</v>
       </c>
-      <c r="O249" s="39" t="s">
+      <c r="O249" s="59" t="s">
         <v>281</v>
       </c>
-      <c r="P249" s="39" t="s">
+      <c r="P249" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="Q249" s="39" t="s">
+      <c r="Q249" s="59" t="s">
         <v>1318</v>
       </c>
-      <c r="R249" s="39" t="s">
+      <c r="R249" s="59" t="s">
         <v>1284</v>
       </c>
     </row>
@@ -24112,49 +24260,49 @@
         <v>63</v>
       </c>
       <c r="C253" s="6"/>
-      <c r="D253" s="39" t="s">
+      <c r="D253" s="59" t="s">
         <v>137</v>
       </c>
-      <c r="E253" s="39" t="s">
+      <c r="E253" s="59" t="s">
         <v>1414</v>
       </c>
-      <c r="F253" s="39" t="s">
+      <c r="F253" s="59" t="s">
         <v>37</v>
       </c>
-      <c r="G253" s="39" t="s">
+      <c r="G253" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="H253" s="39" t="s">
+      <c r="H253" s="59" t="s">
         <v>1415</v>
       </c>
-      <c r="I253" s="39" t="s">
+      <c r="I253" s="59" t="s">
         <v>37</v>
       </c>
-      <c r="J253" s="39" t="s">
+      <c r="J253" s="59" t="s">
         <v>1318</v>
       </c>
-      <c r="K253" s="39" t="s">
+      <c r="K253" s="59" t="s">
         <v>1284</v>
       </c>
-      <c r="L253" s="39" t="s">
+      <c r="L253" s="59" t="s">
         <v>137</v>
       </c>
-      <c r="M253" s="39" t="s">
+      <c r="M253" s="59" t="s">
         <v>1416</v>
       </c>
-      <c r="N253" s="39" t="s">
+      <c r="N253" s="59" t="s">
         <v>1279</v>
       </c>
-      <c r="O253" s="39" t="s">
+      <c r="O253" s="59" t="s">
         <v>138</v>
       </c>
-      <c r="P253" s="39" t="s">
+      <c r="P253" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="Q253" s="39" t="s">
+      <c r="Q253" s="59" t="s">
         <v>293</v>
       </c>
-      <c r="R253" s="39" t="s">
+      <c r="R253" s="59" t="s">
         <v>1417</v>
       </c>
     </row>
@@ -24265,46 +24413,46 @@
         <v>64</v>
       </c>
       <c r="C257" s="6"/>
-      <c r="D257" s="39" t="s">
+      <c r="D257" s="59" t="s">
         <v>1418</v>
       </c>
-      <c r="E257" s="39" t="s">
+      <c r="E257" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="F257" s="39" t="s">
+      <c r="F257" s="59" t="s">
         <v>136</v>
       </c>
-      <c r="G257" s="39" t="s">
+      <c r="G257" s="59" t="s">
         <v>1408</v>
       </c>
-      <c r="H257" s="39" t="s">
+      <c r="H257" s="59" t="s">
         <v>1237</v>
       </c>
-      <c r="I257" s="39" t="s">
+      <c r="I257" s="59" t="s">
         <v>1185</v>
       </c>
-      <c r="J257" s="39" t="s">
+      <c r="J257" s="59" t="s">
         <v>1238</v>
       </c>
-      <c r="K257" s="39" t="s">
+      <c r="K257" s="59" t="s">
         <v>108</v>
       </c>
-      <c r="L257" s="39" t="s">
+      <c r="L257" s="59" t="s">
         <v>1264</v>
       </c>
-      <c r="M257" s="39" t="s">
+      <c r="M257" s="59" t="s">
         <v>1419</v>
       </c>
-      <c r="N257" s="39" t="s">
+      <c r="N257" s="59" t="s">
         <v>138</v>
       </c>
-      <c r="O257" s="39" t="s">
+      <c r="O257" s="59" t="s">
         <v>274</v>
       </c>
-      <c r="P257" s="39" t="s">
+      <c r="P257" s="59" t="s">
         <v>267</v>
       </c>
-      <c r="Q257" s="39" t="str">
+      <c r="Q257" s="59" t="str">
         <f>CHAR(10)</f>
         <v xml:space="preserve">
 </v>
@@ -24394,7 +24542,7 @@
         <v>65</v>
       </c>
       <c r="C261" s="6"/>
-      <c r="D261" s="39" t="s">
+      <c r="D261" s="59" t="s">
         <v>38</v>
       </c>
       <c r="E261" s="39"/>
@@ -58998,7 +59146,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2180A89-0265-4346-97D5-5D16606F5B0F}">
   <dimension ref="A1:E9"/>
   <sheetViews>
@@ -59167,7 +59315,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD15F3BA-C880-4104-B992-B0FF90EEBE97}">
   <dimension ref="A1:E238"/>
   <sheetViews>
@@ -63230,7 +63378,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C93001D-D880-46B9-9D80-7A0F5AA84ACC}">
   <dimension ref="A1:V241"/>
   <sheetViews>

--- a/output7/【河洛文讀注音-閩拼調號】《六國論》.xlsx
+++ b/output7/【河洛文讀注音-閩拼調號】《六國論》.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Piau-Im\output7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B939B035-09D4-4D6F-ADCF-98BF5D6A2705}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9C89BC18-2C64-4627-847F-51876F46A34F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{25A76161-EFED-4AC8-8EAA-A42737AE1909}"/>
   </bookViews>
@@ -7154,13 +7154,13 @@
       <name val="Sitka Text Semibold"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
+      <sz val="24"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7182,6 +7182,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7263,7 +7269,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -7441,11 +7447,15 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="39" fillId="5" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="2" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -13969,10 +13979,10 @@
       <c r="A2" t="s">
         <v>1244</v>
       </c>
-      <c r="B2" s="60" t="s">
-        <v>754</v>
-      </c>
-      <c r="C2" s="60" t="s">
+      <c r="B2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" t="s">
         <v>2098</v>
       </c>
       <c r="D2" t="s">
@@ -13983,10 +13993,10 @@
       <c r="A3" t="s">
         <v>1270</v>
       </c>
-      <c r="B3" s="60" t="s">
-        <v>784</v>
-      </c>
-      <c r="C3" s="60" t="s">
+      <c r="B3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" t="s">
         <v>2099</v>
       </c>
       <c r="D3" t="s">
@@ -13997,10 +14007,10 @@
       <c r="A4" t="s">
         <v>1366</v>
       </c>
-      <c r="B4" s="60" t="s">
-        <v>2108</v>
-      </c>
-      <c r="C4" s="60" t="s">
+      <c r="B4" t="s">
+        <v>2107</v>
+      </c>
+      <c r="C4" t="s">
         <v>2100</v>
       </c>
       <c r="D4" t="s">
@@ -14011,10 +14021,10 @@
       <c r="A5" t="s">
         <v>1368</v>
       </c>
-      <c r="B5" s="60" t="s">
-        <v>824</v>
-      </c>
-      <c r="C5" s="60" t="s">
+      <c r="B5" t="s">
+        <v>442</v>
+      </c>
+      <c r="C5" t="s">
         <v>2101</v>
       </c>
       <c r="D5" t="s">
@@ -14025,10 +14035,10 @@
       <c r="A6" t="s">
         <v>1372</v>
       </c>
-      <c r="B6" s="60" t="s">
-        <v>2110</v>
-      </c>
-      <c r="C6" s="60" t="s">
+      <c r="B6" t="s">
+        <v>2109</v>
+      </c>
+      <c r="C6" t="s">
         <v>2102</v>
       </c>
       <c r="D6" t="s">
@@ -14039,10 +14049,10 @@
       <c r="A7" t="s">
         <v>1392</v>
       </c>
-      <c r="B7" s="60" t="s">
-        <v>866</v>
-      </c>
-      <c r="C7" s="60" t="s">
+      <c r="B7" t="s">
+        <v>462</v>
+      </c>
+      <c r="C7" t="s">
         <v>2103</v>
       </c>
       <c r="D7" t="s">
@@ -14053,10 +14063,10 @@
       <c r="A8" t="s">
         <v>1403</v>
       </c>
-      <c r="B8" s="60" t="s">
-        <v>663</v>
-      </c>
-      <c r="C8" s="60" t="s">
+      <c r="B8" t="s">
+        <v>367</v>
+      </c>
+      <c r="C8" t="s">
         <v>2104</v>
       </c>
       <c r="D8" t="s">
@@ -14067,10 +14077,10 @@
       <c r="A9" t="s">
         <v>1412</v>
       </c>
-      <c r="B9" s="60" t="s">
-        <v>912</v>
-      </c>
-      <c r="C9" s="60" t="s">
+      <c r="B9" t="s">
+        <v>481</v>
+      </c>
+      <c r="C9" t="s">
         <v>2105</v>
       </c>
       <c r="D9" t="s">
@@ -14261,7 +14271,7 @@
       <pane xSplit="3" ySplit="1" topLeftCell="D241" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A261" sqref="A261"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="39"/>
@@ -14377,12 +14387,12 @@
     <row r="3" spans="1:22" s="15" customFormat="1" ht="60" customHeight="1">
       <c r="B3" s="12"/>
       <c r="C3" s="13"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="61"/>
       <c r="J3" s="52"/>
       <c r="K3" s="52"/>
       <c r="L3" s="52"/>
@@ -14399,18 +14409,18 @@
     </row>
     <row r="4" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B4" s="17"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="50" t="s">
+      <c r="D4" s="60"/>
+      <c r="E4" s="60" t="s">
         <v>1428</v>
       </c>
-      <c r="F4" s="50" t="s">
+      <c r="F4" s="60" t="s">
         <v>413</v>
       </c>
-      <c r="G4" s="50" t="s">
+      <c r="G4" s="60" t="s">
         <v>1431</v>
       </c>
-      <c r="H4" s="50"/>
-      <c r="I4" s="50"/>
+      <c r="H4" s="60"/>
+      <c r="I4" s="60"/>
       <c r="J4" s="50"/>
       <c r="K4" s="50"/>
       <c r="L4" s="50"/>
@@ -14489,65 +14499,65 @@
     <row r="7" spans="1:22" s="28" customFormat="1" ht="60" customHeight="1">
       <c r="B7" s="25"/>
       <c r="C7" s="26"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52"/>
-      <c r="H7" s="52"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="52"/>
-      <c r="K7" s="52"/>
-      <c r="L7" s="52"/>
-      <c r="M7" s="52"/>
-      <c r="N7" s="52"/>
-      <c r="O7" s="52"/>
-      <c r="P7" s="52"/>
-      <c r="Q7" s="52"/>
-      <c r="R7" s="52"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="61"/>
+      <c r="G7" s="61"/>
+      <c r="H7" s="61"/>
+      <c r="I7" s="61"/>
+      <c r="J7" s="61"/>
+      <c r="K7" s="61"/>
+      <c r="L7" s="61"/>
+      <c r="M7" s="61"/>
+      <c r="N7" s="61"/>
+      <c r="O7" s="61"/>
+      <c r="P7" s="61"/>
+      <c r="Q7" s="61"/>
+      <c r="R7" s="61"/>
       <c r="S7" s="27"/>
       <c r="V7" s="55"/>
     </row>
     <row r="8" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B8" s="17"/>
-      <c r="D8" s="50" t="s">
+      <c r="D8" s="60" t="s">
         <v>303</v>
       </c>
-      <c r="E8" s="50" t="s">
+      <c r="E8" s="60" t="s">
         <v>1433</v>
       </c>
-      <c r="F8" s="50" t="s">
+      <c r="F8" s="60" t="s">
         <v>338</v>
       </c>
-      <c r="G8" s="50" t="s">
+      <c r="G8" s="60" t="s">
         <v>1436</v>
       </c>
-      <c r="H8" s="50"/>
-      <c r="I8" s="50" t="s">
+      <c r="H8" s="60"/>
+      <c r="I8" s="60" t="s">
         <v>49</v>
       </c>
-      <c r="J8" s="50" t="s">
+      <c r="J8" s="60" t="s">
         <v>333</v>
       </c>
-      <c r="K8" s="50" t="s">
+      <c r="K8" s="60" t="s">
         <v>1440</v>
       </c>
-      <c r="L8" s="50" t="s">
+      <c r="L8" s="60" t="s">
         <v>413</v>
       </c>
-      <c r="M8" s="50"/>
-      <c r="N8" s="50" t="s">
+      <c r="M8" s="60"/>
+      <c r="N8" s="60" t="s">
         <v>1442</v>
       </c>
-      <c r="O8" s="50" t="s">
+      <c r="O8" s="60" t="s">
         <v>382</v>
       </c>
-      <c r="P8" s="50" t="s">
+      <c r="P8" s="60" t="s">
         <v>401</v>
       </c>
-      <c r="Q8" s="50" t="s">
+      <c r="Q8" s="60" t="s">
         <v>1444</v>
       </c>
-      <c r="R8" s="50" t="s">
+      <c r="R8" s="60" t="s">
         <v>457</v>
       </c>
       <c r="S8" s="18"/>
@@ -14656,64 +14666,64 @@
     <row r="11" spans="1:22" s="27" customFormat="1" ht="60" customHeight="1">
       <c r="B11" s="30"/>
       <c r="C11" s="31"/>
-      <c r="D11" s="52"/>
-      <c r="E11" s="52"/>
-      <c r="F11" s="52"/>
-      <c r="G11" s="52"/>
-      <c r="H11" s="52"/>
-      <c r="I11" s="52"/>
-      <c r="J11" s="52"/>
-      <c r="K11" s="52"/>
-      <c r="L11" s="52"/>
-      <c r="M11" s="52"/>
-      <c r="N11" s="52"/>
-      <c r="O11" s="52"/>
-      <c r="P11" s="52"/>
-      <c r="Q11" s="52"/>
-      <c r="R11" s="52"/>
+      <c r="D11" s="61"/>
+      <c r="E11" s="61"/>
+      <c r="F11" s="61"/>
+      <c r="G11" s="61"/>
+      <c r="H11" s="61"/>
+      <c r="I11" s="61"/>
+      <c r="J11" s="61"/>
+      <c r="K11" s="61"/>
+      <c r="L11" s="61"/>
+      <c r="M11" s="61"/>
+      <c r="N11" s="61"/>
+      <c r="O11" s="61"/>
+      <c r="P11" s="61"/>
+      <c r="Q11" s="61"/>
+      <c r="R11" s="61"/>
       <c r="V11" s="55"/>
     </row>
     <row r="12" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B12" s="17"/>
-      <c r="D12" s="50" t="s">
+      <c r="D12" s="60" t="s">
         <v>1447</v>
       </c>
-      <c r="E12" s="50" t="s">
+      <c r="E12" s="60" t="s">
         <v>1449</v>
       </c>
-      <c r="F12" s="50" t="s">
+      <c r="F12" s="60" t="s">
         <v>1451</v>
       </c>
-      <c r="G12" s="50"/>
-      <c r="H12" s="50" t="s">
+      <c r="G12" s="60"/>
+      <c r="H12" s="60" t="s">
         <v>1453</v>
       </c>
-      <c r="I12" s="50" t="s">
+      <c r="I12" s="60" t="s">
         <v>1455</v>
       </c>
-      <c r="J12" s="50" t="s">
+      <c r="J12" s="60" t="s">
         <v>340</v>
       </c>
-      <c r="K12" s="50" t="s">
+      <c r="K12" s="60" t="s">
         <v>1458</v>
       </c>
-      <c r="L12" s="50" t="s">
+      <c r="L12" s="60" t="s">
         <v>327</v>
       </c>
-      <c r="M12" s="50"/>
-      <c r="N12" s="50" t="s">
+      <c r="M12" s="60"/>
+      <c r="N12" s="60" t="s">
         <v>1461</v>
       </c>
-      <c r="O12" s="50" t="s">
+      <c r="O12" s="60" t="s">
         <v>428</v>
       </c>
-      <c r="P12" s="50" t="s">
+      <c r="P12" s="60" t="s">
         <v>356</v>
       </c>
-      <c r="Q12" s="50" t="s">
+      <c r="Q12" s="60" t="s">
         <v>1464</v>
       </c>
-      <c r="R12" s="50"/>
+      <c r="R12" s="60"/>
       <c r="S12" s="18"/>
       <c r="V12" s="55"/>
     </row>
@@ -14817,64 +14827,64 @@
     <row r="15" spans="1:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B15" s="12"/>
       <c r="C15" s="32"/>
-      <c r="D15" s="52"/>
-      <c r="E15" s="52"/>
-      <c r="F15" s="52"/>
-      <c r="G15" s="52"/>
-      <c r="H15" s="52"/>
-      <c r="I15" s="52"/>
-      <c r="J15" s="52"/>
-      <c r="K15" s="52"/>
-      <c r="L15" s="52"/>
-      <c r="M15" s="52"/>
-      <c r="N15" s="52"/>
-      <c r="O15" s="52"/>
-      <c r="P15" s="52"/>
-      <c r="Q15" s="52"/>
-      <c r="R15" s="52"/>
+      <c r="D15" s="61"/>
+      <c r="E15" s="61"/>
+      <c r="F15" s="61"/>
+      <c r="G15" s="61"/>
+      <c r="H15" s="61"/>
+      <c r="I15" s="61"/>
+      <c r="J15" s="61"/>
+      <c r="K15" s="61"/>
+      <c r="L15" s="61"/>
+      <c r="M15" s="61"/>
+      <c r="N15" s="61"/>
+      <c r="O15" s="61"/>
+      <c r="P15" s="61"/>
+      <c r="Q15" s="61"/>
+      <c r="R15" s="61"/>
       <c r="V15" s="55"/>
     </row>
     <row r="16" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B16" s="17"/>
-      <c r="D16" s="50" t="s">
+      <c r="D16" s="60" t="s">
         <v>1465</v>
       </c>
-      <c r="E16" s="50" t="s">
+      <c r="E16" s="60" t="s">
         <v>1467</v>
       </c>
-      <c r="F16" s="50" t="s">
+      <c r="F16" s="60" t="s">
         <v>472</v>
       </c>
-      <c r="G16" s="50" t="s">
+      <c r="G16" s="60" t="s">
         <v>381</v>
       </c>
-      <c r="H16" s="50" t="s">
+      <c r="H16" s="60" t="s">
         <v>338</v>
       </c>
-      <c r="I16" s="50" t="s">
+      <c r="I16" s="60" t="s">
         <v>1469</v>
       </c>
-      <c r="J16" s="50"/>
-      <c r="K16" s="50" t="s">
+      <c r="J16" s="60"/>
+      <c r="K16" s="60" t="s">
         <v>427</v>
       </c>
-      <c r="L16" s="50" t="s">
+      <c r="L16" s="60" t="s">
         <v>49</v>
       </c>
-      <c r="M16" s="50" t="s">
+      <c r="M16" s="60" t="s">
         <v>1472</v>
       </c>
-      <c r="N16" s="50" t="s">
+      <c r="N16" s="60" t="s">
         <v>1473</v>
       </c>
-      <c r="O16" s="50" t="s">
+      <c r="O16" s="60" t="s">
         <v>1474</v>
       </c>
-      <c r="P16" s="50" t="s">
+      <c r="P16" s="60" t="s">
         <v>1476</v>
       </c>
-      <c r="Q16" s="50"/>
-      <c r="R16" s="50" t="s">
+      <c r="Q16" s="60"/>
+      <c r="R16" s="60" t="s">
         <v>1477</v>
       </c>
       <c r="S16" s="18"/>
@@ -14982,64 +14992,64 @@
     <row r="19" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B19" s="12"/>
       <c r="C19" s="32"/>
-      <c r="D19" s="52"/>
-      <c r="E19" s="52"/>
-      <c r="F19" s="52"/>
-      <c r="G19" s="52"/>
-      <c r="H19" s="52"/>
-      <c r="I19" s="52"/>
-      <c r="J19" s="52"/>
-      <c r="K19" s="52"/>
-      <c r="L19" s="52"/>
-      <c r="M19" s="52"/>
-      <c r="N19" s="52"/>
-      <c r="O19" s="52"/>
-      <c r="P19" s="52"/>
-      <c r="Q19" s="52"/>
-      <c r="R19" s="52"/>
+      <c r="D19" s="61"/>
+      <c r="E19" s="61"/>
+      <c r="F19" s="61"/>
+      <c r="G19" s="61"/>
+      <c r="H19" s="61"/>
+      <c r="I19" s="61"/>
+      <c r="J19" s="61"/>
+      <c r="K19" s="61"/>
+      <c r="L19" s="61"/>
+      <c r="M19" s="61"/>
+      <c r="N19" s="61"/>
+      <c r="O19" s="61"/>
+      <c r="P19" s="61"/>
+      <c r="Q19" s="61"/>
+      <c r="R19" s="61"/>
       <c r="V19" s="55"/>
     </row>
     <row r="20" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B20" s="17"/>
-      <c r="D20" s="50" t="s">
+      <c r="D20" s="60" t="s">
         <v>312</v>
       </c>
-      <c r="E20" s="50" t="s">
+      <c r="E20" s="60" t="s">
         <v>1480</v>
       </c>
-      <c r="F20" s="50" t="s">
+      <c r="F20" s="60" t="s">
         <v>1482</v>
       </c>
-      <c r="G20" s="50" t="s">
+      <c r="G20" s="60" t="s">
         <v>338</v>
       </c>
-      <c r="H20" s="50" t="s">
+      <c r="H20" s="60" t="s">
         <v>1484</v>
       </c>
-      <c r="I20" s="50"/>
-      <c r="J20" s="50" t="s">
+      <c r="I20" s="60"/>
+      <c r="J20" s="60" t="s">
         <v>420</v>
       </c>
-      <c r="K20" s="50" t="s">
+      <c r="K20" s="60" t="s">
         <v>387</v>
       </c>
-      <c r="L20" s="50" t="s">
+      <c r="L20" s="60" t="s">
         <v>1488</v>
       </c>
-      <c r="M20" s="50" t="s">
+      <c r="M20" s="60" t="s">
         <v>1490</v>
       </c>
-      <c r="N20" s="50"/>
-      <c r="O20" s="50" t="s">
+      <c r="N20" s="60"/>
+      <c r="O20" s="60" t="s">
         <v>1492</v>
       </c>
-      <c r="P20" s="50" t="s">
+      <c r="P20" s="60" t="s">
         <v>496</v>
       </c>
-      <c r="Q20" s="50" t="s">
+      <c r="Q20" s="60" t="s">
         <v>1495</v>
       </c>
-      <c r="R20" s="50" t="s">
+      <c r="R20" s="60" t="s">
         <v>1497</v>
       </c>
       <c r="S20" s="18"/>
@@ -15147,18 +15157,18 @@
     <row r="23" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B23" s="12"/>
       <c r="C23" s="32"/>
-      <c r="D23" s="52"/>
-      <c r="E23" s="52"/>
-      <c r="F23" s="52"/>
-      <c r="G23" s="52"/>
-      <c r="H23" s="52"/>
-      <c r="I23" s="52"/>
-      <c r="J23" s="52"/>
-      <c r="K23" s="52"/>
-      <c r="L23" s="52"/>
-      <c r="M23" s="52"/>
-      <c r="N23" s="52"/>
-      <c r="O23" s="52"/>
+      <c r="D23" s="61"/>
+      <c r="E23" s="61"/>
+      <c r="F23" s="61"/>
+      <c r="G23" s="61"/>
+      <c r="H23" s="61"/>
+      <c r="I23" s="61"/>
+      <c r="J23" s="61"/>
+      <c r="K23" s="61"/>
+      <c r="L23" s="61"/>
+      <c r="M23" s="61"/>
+      <c r="N23" s="61"/>
+      <c r="O23" s="61"/>
       <c r="P23" s="52"/>
       <c r="Q23" s="52"/>
       <c r="R23" s="52"/>
@@ -15166,36 +15176,36 @@
     </row>
     <row r="24" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B24" s="17"/>
-      <c r="D24" s="50" t="s">
+      <c r="D24" s="60" t="s">
         <v>336</v>
       </c>
-      <c r="E24" s="50" t="s">
+      <c r="E24" s="60" t="s">
         <v>1500</v>
       </c>
-      <c r="F24" s="50" t="s">
+      <c r="F24" s="60" t="s">
         <v>333</v>
       </c>
-      <c r="G24" s="50" t="s">
+      <c r="G24" s="60" t="s">
         <v>1502</v>
       </c>
-      <c r="H24" s="50" t="s">
+      <c r="H24" s="60" t="s">
         <v>422</v>
       </c>
-      <c r="I24" s="50"/>
-      <c r="J24" s="50" t="s">
+      <c r="I24" s="60"/>
+      <c r="J24" s="60" t="s">
         <v>40</v>
       </c>
-      <c r="K24" s="50" t="s">
+      <c r="K24" s="60" t="s">
         <v>1506</v>
       </c>
-      <c r="L24" s="50" t="s">
+      <c r="L24" s="60" t="s">
         <v>59</v>
       </c>
-      <c r="M24" s="50" t="s">
+      <c r="M24" s="60" t="s">
         <v>1509</v>
       </c>
-      <c r="N24" s="50"/>
-      <c r="O24" s="50"/>
+      <c r="N24" s="60"/>
+      <c r="O24" s="60"/>
       <c r="P24" s="50"/>
       <c r="Q24" s="50"/>
       <c r="R24" s="50"/>
@@ -15292,21 +15302,21 @@
     <row r="27" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B27" s="12"/>
       <c r="C27" s="32"/>
-      <c r="D27" s="52"/>
-      <c r="E27" s="52"/>
-      <c r="F27" s="52"/>
-      <c r="G27" s="52"/>
-      <c r="H27" s="52"/>
-      <c r="I27" s="52"/>
-      <c r="J27" s="52"/>
-      <c r="K27" s="52"/>
-      <c r="L27" s="52"/>
-      <c r="M27" s="52"/>
-      <c r="N27" s="52"/>
-      <c r="O27" s="52"/>
-      <c r="P27" s="52"/>
-      <c r="Q27" s="52"/>
-      <c r="R27" s="52"/>
+      <c r="D27" s="61"/>
+      <c r="E27" s="61"/>
+      <c r="F27" s="61"/>
+      <c r="G27" s="61"/>
+      <c r="H27" s="61"/>
+      <c r="I27" s="61"/>
+      <c r="J27" s="61"/>
+      <c r="K27" s="61"/>
+      <c r="L27" s="61"/>
+      <c r="M27" s="61"/>
+      <c r="N27" s="61"/>
+      <c r="O27" s="61"/>
+      <c r="P27" s="61"/>
+      <c r="Q27" s="61"/>
+      <c r="R27" s="61"/>
       <c r="U27" s="33" t="str">
         <f t="shared" ref="U27:U32" si="1" xml:space="preserve"> MID($N$26,4,1)</f>
         <v/>
@@ -15315,47 +15325,47 @@
     </row>
     <row r="28" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B28" s="17"/>
-      <c r="D28" s="50" t="s">
+      <c r="D28" s="60" t="s">
         <v>311</v>
       </c>
-      <c r="E28" s="50" t="s">
+      <c r="E28" s="60" t="s">
         <v>1512</v>
       </c>
-      <c r="F28" s="50" t="s">
+      <c r="F28" s="60" t="s">
         <v>1514</v>
       </c>
-      <c r="G28" s="50" t="s">
+      <c r="G28" s="60" t="s">
         <v>1516</v>
       </c>
-      <c r="H28" s="50" t="s">
+      <c r="H28" s="60" t="s">
         <v>411</v>
       </c>
-      <c r="I28" s="50" t="s">
+      <c r="I28" s="60" t="s">
         <v>473</v>
       </c>
-      <c r="J28" s="50" t="s">
+      <c r="J28" s="60" t="s">
         <v>305</v>
       </c>
-      <c r="K28" s="50" t="s">
+      <c r="K28" s="60" t="s">
         <v>1428</v>
       </c>
-      <c r="L28" s="50" t="s">
+      <c r="L28" s="60" t="s">
         <v>361</v>
       </c>
-      <c r="M28" s="50" t="s">
+      <c r="M28" s="60" t="s">
         <v>63</v>
       </c>
-      <c r="N28" s="50"/>
-      <c r="O28" s="50" t="s">
+      <c r="N28" s="60"/>
+      <c r="O28" s="60" t="s">
         <v>1523</v>
       </c>
-      <c r="P28" s="50" t="s">
+      <c r="P28" s="60" t="s">
         <v>354</v>
       </c>
-      <c r="Q28" s="50" t="s">
+      <c r="Q28" s="60" t="s">
         <v>1526</v>
       </c>
-      <c r="R28" s="50"/>
+      <c r="R28" s="60"/>
       <c r="S28" s="18"/>
       <c r="U28" s="33" t="str">
         <f t="shared" si="1"/>
@@ -15473,21 +15483,21 @@
     <row r="31" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B31" s="12"/>
       <c r="C31" s="32"/>
-      <c r="D31" s="52"/>
-      <c r="E31" s="52"/>
-      <c r="F31" s="52"/>
-      <c r="G31" s="52"/>
-      <c r="H31" s="52"/>
-      <c r="I31" s="52"/>
-      <c r="J31" s="52"/>
-      <c r="K31" s="52"/>
-      <c r="L31" s="52"/>
-      <c r="M31" s="52"/>
-      <c r="N31" s="52"/>
-      <c r="O31" s="52"/>
-      <c r="P31" s="52"/>
-      <c r="Q31" s="52"/>
-      <c r="R31" s="52"/>
+      <c r="D31" s="61"/>
+      <c r="E31" s="61"/>
+      <c r="F31" s="61"/>
+      <c r="G31" s="61"/>
+      <c r="H31" s="61"/>
+      <c r="I31" s="61"/>
+      <c r="J31" s="61"/>
+      <c r="K31" s="61"/>
+      <c r="L31" s="61"/>
+      <c r="M31" s="61"/>
+      <c r="N31" s="61"/>
+      <c r="O31" s="61"/>
+      <c r="P31" s="61"/>
+      <c r="Q31" s="61"/>
+      <c r="R31" s="61"/>
       <c r="U31" s="33" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -15496,41 +15506,41 @@
     </row>
     <row r="32" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B32" s="17"/>
-      <c r="D32" s="50" t="s">
+      <c r="D32" s="60" t="s">
         <v>1528</v>
       </c>
-      <c r="E32" s="50" t="s">
+      <c r="E32" s="60" t="s">
         <v>1530</v>
       </c>
-      <c r="F32" s="50" t="s">
+      <c r="F32" s="60" t="s">
         <v>39</v>
       </c>
-      <c r="G32" s="50"/>
-      <c r="H32" s="50" t="s">
+      <c r="G32" s="60"/>
+      <c r="H32" s="60" t="s">
         <v>1533</v>
       </c>
-      <c r="I32" s="50" t="s">
+      <c r="I32" s="60" t="s">
         <v>59</v>
       </c>
-      <c r="J32" s="50"/>
-      <c r="K32" s="50" t="s">
+      <c r="J32" s="60"/>
+      <c r="K32" s="60" t="s">
         <v>1535</v>
       </c>
-      <c r="L32" s="50" t="s">
+      <c r="L32" s="60" t="s">
         <v>1537</v>
       </c>
-      <c r="M32" s="50"/>
-      <c r="N32" s="50" t="s">
+      <c r="M32" s="60"/>
+      <c r="N32" s="60" t="s">
         <v>1539</v>
       </c>
-      <c r="O32" s="50" t="s">
+      <c r="O32" s="60" t="s">
         <v>387</v>
       </c>
-      <c r="P32" s="50" t="s">
+      <c r="P32" s="60" t="s">
         <v>52</v>
       </c>
-      <c r="Q32" s="50"/>
-      <c r="R32" s="50" t="s">
+      <c r="Q32" s="60"/>
+      <c r="R32" s="60" t="s">
         <v>457</v>
       </c>
       <c r="S32" s="18"/>
@@ -15638,66 +15648,66 @@
     <row r="35" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B35" s="12"/>
       <c r="C35" s="32"/>
-      <c r="D35" s="52"/>
-      <c r="E35" s="52"/>
-      <c r="F35" s="52"/>
-      <c r="G35" s="52"/>
-      <c r="H35" s="52"/>
-      <c r="I35" s="52"/>
-      <c r="J35" s="52"/>
-      <c r="K35" s="52"/>
-      <c r="L35" s="52"/>
-      <c r="M35" s="52"/>
-      <c r="N35" s="52"/>
-      <c r="O35" s="52"/>
-      <c r="P35" s="52"/>
-      <c r="Q35" s="52"/>
-      <c r="R35" s="52"/>
+      <c r="D35" s="61"/>
+      <c r="E35" s="61"/>
+      <c r="F35" s="61"/>
+      <c r="G35" s="61"/>
+      <c r="H35" s="61"/>
+      <c r="I35" s="61"/>
+      <c r="J35" s="61"/>
+      <c r="K35" s="61"/>
+      <c r="L35" s="61"/>
+      <c r="M35" s="61"/>
+      <c r="N35" s="61"/>
+      <c r="O35" s="61"/>
+      <c r="P35" s="61"/>
+      <c r="Q35" s="61"/>
+      <c r="R35" s="61"/>
       <c r="V35" s="55"/>
     </row>
     <row r="36" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B36" s="17"/>
-      <c r="D36" s="50" t="s">
+      <c r="D36" s="60" t="s">
         <v>411</v>
       </c>
-      <c r="E36" s="50" t="s">
+      <c r="E36" s="60" t="s">
         <v>327</v>
       </c>
-      <c r="F36" s="50" t="s">
+      <c r="F36" s="60" t="s">
         <v>1542</v>
       </c>
-      <c r="G36" s="50" t="s">
+      <c r="G36" s="60" t="s">
         <v>361</v>
       </c>
-      <c r="H36" s="50" t="s">
+      <c r="H36" s="60" t="s">
         <v>63</v>
       </c>
-      <c r="I36" s="50"/>
-      <c r="J36" s="50" t="s">
+      <c r="I36" s="60"/>
+      <c r="J36" s="60" t="s">
         <v>421</v>
       </c>
-      <c r="K36" s="50" t="s">
+      <c r="K36" s="60" t="s">
         <v>1530</v>
       </c>
-      <c r="L36" s="50" t="s">
+      <c r="L36" s="60" t="s">
         <v>39</v>
       </c>
-      <c r="M36" s="50" t="s">
+      <c r="M36" s="60" t="s">
         <v>1545</v>
       </c>
-      <c r="N36" s="50" t="s">
+      <c r="N36" s="60" t="s">
         <v>1547</v>
       </c>
-      <c r="O36" s="50" t="s">
+      <c r="O36" s="60" t="s">
         <v>1549</v>
       </c>
-      <c r="P36" s="50" t="s">
+      <c r="P36" s="60" t="s">
         <v>370</v>
       </c>
-      <c r="Q36" s="50" t="s">
+      <c r="Q36" s="60" t="s">
         <v>1552</v>
       </c>
-      <c r="R36" s="50" t="s">
+      <c r="R36" s="60" t="s">
         <v>63</v>
       </c>
       <c r="S36" s="18"/>
@@ -15807,66 +15817,66 @@
     <row r="39" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B39" s="12"/>
       <c r="C39" s="32"/>
-      <c r="D39" s="52"/>
-      <c r="E39" s="52"/>
-      <c r="F39" s="52"/>
-      <c r="G39" s="52"/>
-      <c r="H39" s="52"/>
-      <c r="I39" s="52"/>
-      <c r="J39" s="52"/>
-      <c r="K39" s="52"/>
-      <c r="L39" s="52"/>
-      <c r="M39" s="52"/>
-      <c r="N39" s="52"/>
-      <c r="O39" s="52"/>
-      <c r="P39" s="52"/>
-      <c r="Q39" s="52"/>
-      <c r="R39" s="52"/>
+      <c r="D39" s="61"/>
+      <c r="E39" s="61"/>
+      <c r="F39" s="61"/>
+      <c r="G39" s="61"/>
+      <c r="H39" s="61"/>
+      <c r="I39" s="61"/>
+      <c r="J39" s="61"/>
+      <c r="K39" s="61"/>
+      <c r="L39" s="61"/>
+      <c r="M39" s="61"/>
+      <c r="N39" s="61"/>
+      <c r="O39" s="61"/>
+      <c r="P39" s="61"/>
+      <c r="Q39" s="61"/>
+      <c r="R39" s="61"/>
       <c r="V39" s="55"/>
     </row>
     <row r="40" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B40" s="17"/>
-      <c r="D40" s="50" t="s">
+      <c r="D40" s="60" t="s">
         <v>1428</v>
       </c>
-      <c r="E40" s="50" t="s">
+      <c r="E40" s="60" t="s">
         <v>360</v>
       </c>
-      <c r="F40" s="50" t="s">
+      <c r="F40" s="60" t="s">
         <v>1555</v>
       </c>
-      <c r="G40" s="50" t="s">
+      <c r="G40" s="60" t="s">
         <v>333</v>
       </c>
-      <c r="H40" s="50" t="s">
+      <c r="H40" s="60" t="s">
         <v>1557</v>
       </c>
-      <c r="I40" s="50"/>
-      <c r="J40" s="50" t="s">
+      <c r="I40" s="60"/>
+      <c r="J40" s="60" t="s">
         <v>1528</v>
       </c>
-      <c r="K40" s="50" t="s">
+      <c r="K40" s="60" t="s">
         <v>363</v>
       </c>
-      <c r="L40" s="50" t="s">
+      <c r="L40" s="60" t="s">
         <v>427</v>
       </c>
-      <c r="M40" s="50" t="s">
+      <c r="M40" s="60" t="s">
         <v>1461</v>
       </c>
-      <c r="N40" s="50" t="s">
+      <c r="N40" s="60" t="s">
         <v>422</v>
       </c>
-      <c r="O40" s="50" t="s">
+      <c r="O40" s="60" t="s">
         <v>475</v>
       </c>
-      <c r="P40" s="50" t="s">
+      <c r="P40" s="60" t="s">
         <v>361</v>
       </c>
-      <c r="Q40" s="50" t="s">
+      <c r="Q40" s="60" t="s">
         <v>63</v>
       </c>
-      <c r="R40" s="50"/>
+      <c r="R40" s="60"/>
       <c r="S40" s="18"/>
       <c r="V40" s="55"/>
     </row>
@@ -15972,62 +15982,62 @@
     <row r="43" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B43" s="12"/>
       <c r="C43" s="32"/>
-      <c r="D43" s="52"/>
-      <c r="E43" s="52"/>
-      <c r="F43" s="52"/>
-      <c r="G43" s="52"/>
-      <c r="H43" s="52"/>
-      <c r="I43" s="52"/>
-      <c r="J43" s="52"/>
-      <c r="K43" s="52"/>
-      <c r="L43" s="52"/>
-      <c r="M43" s="52"/>
-      <c r="N43" s="52"/>
-      <c r="O43" s="52"/>
-      <c r="P43" s="52"/>
-      <c r="Q43" s="52"/>
-      <c r="R43" s="52"/>
+      <c r="D43" s="61"/>
+      <c r="E43" s="61"/>
+      <c r="F43" s="61"/>
+      <c r="G43" s="61"/>
+      <c r="H43" s="61"/>
+      <c r="I43" s="61"/>
+      <c r="J43" s="61"/>
+      <c r="K43" s="61"/>
+      <c r="L43" s="61"/>
+      <c r="M43" s="61"/>
+      <c r="N43" s="61"/>
+      <c r="O43" s="61"/>
+      <c r="P43" s="61"/>
+      <c r="Q43" s="61"/>
+      <c r="R43" s="61"/>
       <c r="V43" s="55"/>
     </row>
     <row r="44" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B44" s="17"/>
-      <c r="D44" s="50" t="s">
+      <c r="D44" s="60" t="s">
         <v>1523</v>
       </c>
-      <c r="E44" s="50" t="s">
+      <c r="E44" s="60" t="s">
         <v>39</v>
       </c>
-      <c r="F44" s="50" t="s">
+      <c r="F44" s="60" t="s">
         <v>382</v>
       </c>
-      <c r="G44" s="50"/>
-      <c r="H44" s="50" t="s">
+      <c r="G44" s="60"/>
+      <c r="H44" s="60" t="s">
         <v>443</v>
       </c>
-      <c r="I44" s="50" t="s">
+      <c r="I44" s="60" t="s">
         <v>1545</v>
       </c>
-      <c r="J44" s="50" t="s">
+      <c r="J44" s="60" t="s">
         <v>1512</v>
       </c>
-      <c r="K44" s="50"/>
-      <c r="L44" s="50" t="s">
+      <c r="K44" s="60"/>
+      <c r="L44" s="60" t="s">
         <v>1561</v>
       </c>
-      <c r="M44" s="50" t="s">
+      <c r="M44" s="60" t="s">
         <v>305</v>
       </c>
-      <c r="N44" s="50" t="s">
+      <c r="N44" s="60" t="s">
         <v>1563</v>
       </c>
-      <c r="O44" s="50"/>
-      <c r="P44" s="50" t="s">
+      <c r="O44" s="60"/>
+      <c r="P44" s="60" t="s">
         <v>457</v>
       </c>
-      <c r="Q44" s="50" t="s">
+      <c r="Q44" s="60" t="s">
         <v>1547</v>
       </c>
-      <c r="R44" s="50" t="s">
+      <c r="R44" s="60" t="s">
         <v>327</v>
       </c>
       <c r="S44" s="18"/>
@@ -16133,60 +16143,60 @@
     <row r="47" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B47" s="12"/>
       <c r="C47" s="32"/>
-      <c r="D47" s="52"/>
-      <c r="E47" s="52"/>
-      <c r="F47" s="52"/>
-      <c r="G47" s="52"/>
-      <c r="H47" s="52"/>
-      <c r="I47" s="52"/>
-      <c r="J47" s="52"/>
-      <c r="K47" s="52"/>
-      <c r="L47" s="52"/>
-      <c r="M47" s="52"/>
-      <c r="N47" s="52"/>
-      <c r="O47" s="52"/>
-      <c r="P47" s="52"/>
-      <c r="Q47" s="52"/>
-      <c r="R47" s="52"/>
+      <c r="D47" s="61"/>
+      <c r="E47" s="61"/>
+      <c r="F47" s="61"/>
+      <c r="G47" s="61"/>
+      <c r="H47" s="61"/>
+      <c r="I47" s="61"/>
+      <c r="J47" s="61"/>
+      <c r="K47" s="61"/>
+      <c r="L47" s="61"/>
+      <c r="M47" s="61"/>
+      <c r="N47" s="61"/>
+      <c r="O47" s="61"/>
+      <c r="P47" s="61"/>
+      <c r="Q47" s="61"/>
+      <c r="R47" s="61"/>
       <c r="V47" s="55"/>
     </row>
     <row r="48" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B48" s="17"/>
-      <c r="D48" s="50" t="s">
+      <c r="D48" s="60" t="s">
         <v>354</v>
       </c>
-      <c r="E48" s="50" t="s">
+      <c r="E48" s="60" t="s">
         <v>1509</v>
       </c>
-      <c r="F48" s="50"/>
-      <c r="G48" s="50" t="s">
+      <c r="F48" s="60"/>
+      <c r="G48" s="60" t="s">
         <v>427</v>
       </c>
-      <c r="H48" s="50" t="s">
+      <c r="H48" s="60" t="s">
         <v>49</v>
       </c>
-      <c r="I48" s="50" t="s">
+      <c r="I48" s="60" t="s">
         <v>1565</v>
       </c>
-      <c r="J48" s="50"/>
-      <c r="K48" s="50" t="s">
+      <c r="J48" s="60"/>
+      <c r="K48" s="60" t="s">
         <v>1567</v>
       </c>
-      <c r="L48" s="50" t="s">
+      <c r="L48" s="60" t="s">
         <v>338</v>
       </c>
-      <c r="M48" s="50" t="s">
+      <c r="M48" s="60" t="s">
         <v>1552</v>
       </c>
-      <c r="N48" s="50"/>
-      <c r="O48" s="50" t="s">
+      <c r="N48" s="60"/>
+      <c r="O48" s="60" t="s">
         <v>1569</v>
       </c>
-      <c r="P48" s="50" t="s">
+      <c r="P48" s="60" t="s">
         <v>1570</v>
       </c>
-      <c r="Q48" s="50"/>
-      <c r="R48" s="50" t="s">
+      <c r="Q48" s="60"/>
+      <c r="R48" s="60" t="s">
         <v>1572</v>
       </c>
       <c r="S48" s="18"/>
@@ -16290,66 +16300,66 @@
     <row r="51" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B51" s="12"/>
       <c r="C51" s="32"/>
-      <c r="D51" s="52"/>
-      <c r="E51" s="52"/>
-      <c r="F51" s="52"/>
-      <c r="G51" s="52"/>
-      <c r="H51" s="52"/>
-      <c r="I51" s="52"/>
-      <c r="J51" s="52"/>
-      <c r="K51" s="52"/>
-      <c r="L51" s="52"/>
-      <c r="M51" s="52"/>
-      <c r="N51" s="52"/>
-      <c r="O51" s="52"/>
-      <c r="P51" s="52"/>
-      <c r="Q51" s="52"/>
-      <c r="R51" s="52"/>
+      <c r="D51" s="61"/>
+      <c r="E51" s="61"/>
+      <c r="F51" s="61"/>
+      <c r="G51" s="61"/>
+      <c r="H51" s="61"/>
+      <c r="I51" s="61"/>
+      <c r="J51" s="61"/>
+      <c r="K51" s="61"/>
+      <c r="L51" s="61"/>
+      <c r="M51" s="61"/>
+      <c r="N51" s="61"/>
+      <c r="O51" s="61"/>
+      <c r="P51" s="61"/>
+      <c r="Q51" s="61"/>
+      <c r="R51" s="61"/>
       <c r="V51" s="55"/>
     </row>
     <row r="52" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B52" s="17"/>
-      <c r="D52" s="50" t="s">
+      <c r="D52" s="60" t="s">
         <v>1574</v>
       </c>
-      <c r="E52" s="50" t="s">
+      <c r="E52" s="60" t="s">
         <v>352</v>
       </c>
-      <c r="F52" s="50" t="s">
+      <c r="F52" s="60" t="s">
         <v>376</v>
       </c>
-      <c r="G52" s="50" t="s">
+      <c r="G52" s="60" t="s">
         <v>1451</v>
       </c>
-      <c r="H52" s="50"/>
-      <c r="I52" s="50" t="s">
+      <c r="H52" s="60"/>
+      <c r="I52" s="60" t="s">
         <v>1488</v>
       </c>
-      <c r="J52" s="50" t="s">
+      <c r="J52" s="60" t="s">
         <v>327</v>
       </c>
-      <c r="K52" s="50" t="s">
+      <c r="K52" s="60" t="s">
         <v>754</v>
       </c>
-      <c r="L52" s="50" t="s">
+      <c r="L52" s="60" t="s">
         <v>1449</v>
       </c>
-      <c r="M52" s="50" t="s">
+      <c r="M52" s="60" t="s">
         <v>457</v>
       </c>
-      <c r="N52" s="50" t="s">
+      <c r="N52" s="60" t="s">
         <v>428</v>
       </c>
-      <c r="O52" s="50" t="s">
+      <c r="O52" s="60" t="s">
         <v>427</v>
       </c>
-      <c r="P52" s="50" t="s">
+      <c r="P52" s="60" t="s">
         <v>40</v>
       </c>
-      <c r="Q52" s="50" t="s">
+      <c r="Q52" s="60" t="s">
         <v>1579</v>
       </c>
-      <c r="R52" s="50"/>
+      <c r="R52" s="60"/>
       <c r="S52" s="18"/>
       <c r="V52" s="55"/>
     </row>
@@ -16455,66 +16465,66 @@
     <row r="55" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B55" s="12"/>
       <c r="C55" s="32"/>
-      <c r="D55" s="52"/>
-      <c r="E55" s="52"/>
-      <c r="F55" s="52"/>
-      <c r="G55" s="52"/>
-      <c r="H55" s="52"/>
-      <c r="I55" s="52"/>
-      <c r="J55" s="52"/>
-      <c r="K55" s="52"/>
-      <c r="L55" s="52"/>
-      <c r="M55" s="52"/>
-      <c r="N55" s="52"/>
-      <c r="O55" s="52"/>
-      <c r="P55" s="52"/>
-      <c r="Q55" s="52"/>
-      <c r="R55" s="52"/>
+      <c r="D55" s="61"/>
+      <c r="E55" s="61"/>
+      <c r="F55" s="61"/>
+      <c r="G55" s="61"/>
+      <c r="H55" s="61"/>
+      <c r="I55" s="61"/>
+      <c r="J55" s="61"/>
+      <c r="K55" s="61"/>
+      <c r="L55" s="61"/>
+      <c r="M55" s="61"/>
+      <c r="N55" s="61"/>
+      <c r="O55" s="61"/>
+      <c r="P55" s="61"/>
+      <c r="Q55" s="61"/>
+      <c r="R55" s="61"/>
       <c r="V55" s="55"/>
     </row>
     <row r="56" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B56" s="17"/>
-      <c r="D56" s="50" t="s">
+      <c r="D56" s="60" t="s">
         <v>421</v>
       </c>
-      <c r="E56" s="50" t="s">
+      <c r="E56" s="60" t="s">
         <v>1530</v>
       </c>
-      <c r="F56" s="50" t="s">
+      <c r="F56" s="60" t="s">
         <v>353</v>
       </c>
-      <c r="G56" s="50" t="s">
+      <c r="G56" s="60" t="s">
         <v>475</v>
       </c>
-      <c r="H56" s="50" t="s">
+      <c r="H56" s="60" t="s">
         <v>411</v>
       </c>
-      <c r="I56" s="50" t="s">
+      <c r="I56" s="60" t="s">
         <v>1451</v>
       </c>
-      <c r="J56" s="50" t="s">
+      <c r="J56" s="60" t="s">
         <v>1582</v>
       </c>
-      <c r="K56" s="50" t="s">
+      <c r="K56" s="60" t="s">
         <v>315</v>
       </c>
-      <c r="L56" s="50" t="s">
+      <c r="L56" s="60" t="s">
         <v>63</v>
       </c>
-      <c r="M56" s="50"/>
-      <c r="N56" s="50" t="s">
+      <c r="M56" s="60"/>
+      <c r="N56" s="60" t="s">
         <v>45</v>
       </c>
-      <c r="O56" s="50" t="s">
+      <c r="O56" s="60" t="s">
         <v>1586</v>
       </c>
-      <c r="P56" s="50" t="s">
+      <c r="P56" s="60" t="s">
         <v>1588</v>
       </c>
-      <c r="Q56" s="50" t="s">
+      <c r="Q56" s="60" t="s">
         <v>333</v>
       </c>
-      <c r="R56" s="50" t="s">
+      <c r="R56" s="60" t="s">
         <v>1590</v>
       </c>
       <c r="S56" s="18"/>
@@ -16624,64 +16634,64 @@
     <row r="59" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B59" s="12"/>
       <c r="C59" s="32"/>
-      <c r="D59" s="52"/>
-      <c r="E59" s="52"/>
-      <c r="F59" s="52"/>
-      <c r="G59" s="52"/>
-      <c r="H59" s="52"/>
-      <c r="I59" s="52"/>
-      <c r="J59" s="52"/>
-      <c r="K59" s="52"/>
-      <c r="L59" s="52"/>
-      <c r="M59" s="52"/>
-      <c r="N59" s="52"/>
-      <c r="O59" s="52"/>
-      <c r="P59" s="52"/>
-      <c r="Q59" s="52"/>
-      <c r="R59" s="52"/>
+      <c r="D59" s="61"/>
+      <c r="E59" s="61"/>
+      <c r="F59" s="61"/>
+      <c r="G59" s="61"/>
+      <c r="H59" s="61"/>
+      <c r="I59" s="61"/>
+      <c r="J59" s="61"/>
+      <c r="K59" s="61"/>
+      <c r="L59" s="61"/>
+      <c r="M59" s="61"/>
+      <c r="N59" s="61"/>
+      <c r="O59" s="61"/>
+      <c r="P59" s="61"/>
+      <c r="Q59" s="61"/>
+      <c r="R59" s="61"/>
       <c r="V59" s="55"/>
     </row>
     <row r="60" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B60" s="17"/>
-      <c r="D60" s="50" t="s">
+      <c r="D60" s="60" t="s">
         <v>337</v>
       </c>
-      <c r="E60" s="50" t="s">
+      <c r="E60" s="60" t="s">
         <v>422</v>
       </c>
-      <c r="F60" s="50" t="s">
+      <c r="F60" s="60" t="s">
         <v>1593</v>
       </c>
-      <c r="G60" s="50" t="s">
+      <c r="G60" s="60" t="s">
         <v>362</v>
       </c>
-      <c r="H60" s="50"/>
-      <c r="I60" s="50" t="s">
+      <c r="H60" s="60"/>
+      <c r="I60" s="60" t="s">
         <v>1595</v>
       </c>
-      <c r="J60" s="50" t="s">
+      <c r="J60" s="60" t="s">
         <v>45</v>
       </c>
-      <c r="K60" s="50" t="s">
+      <c r="K60" s="60" t="s">
         <v>1574</v>
       </c>
-      <c r="L60" s="50"/>
-      <c r="M60" s="50" t="s">
+      <c r="L60" s="60"/>
+      <c r="M60" s="60" t="s">
         <v>1597</v>
       </c>
-      <c r="N60" s="50" t="s">
+      <c r="N60" s="60" t="s">
         <v>1599</v>
       </c>
-      <c r="O60" s="50" t="s">
+      <c r="O60" s="60" t="s">
         <v>339</v>
       </c>
-      <c r="P60" s="50" t="s">
+      <c r="P60" s="60" t="s">
         <v>1539</v>
       </c>
-      <c r="Q60" s="50" t="s">
+      <c r="Q60" s="60" t="s">
         <v>421</v>
       </c>
-      <c r="R60" s="50" t="s">
+      <c r="R60" s="60" t="s">
         <v>1602</v>
       </c>
       <c r="S60" s="18"/>
@@ -16789,64 +16799,64 @@
     <row r="63" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B63" s="12"/>
       <c r="C63" s="32"/>
-      <c r="D63" s="52"/>
-      <c r="E63" s="52"/>
-      <c r="F63" s="52"/>
-      <c r="G63" s="52"/>
-      <c r="H63" s="52"/>
-      <c r="I63" s="52"/>
-      <c r="J63" s="52"/>
-      <c r="K63" s="52"/>
-      <c r="L63" s="52"/>
-      <c r="M63" s="52"/>
-      <c r="N63" s="52"/>
-      <c r="O63" s="52"/>
-      <c r="P63" s="52"/>
-      <c r="Q63" s="52"/>
-      <c r="R63" s="52"/>
+      <c r="D63" s="61"/>
+      <c r="E63" s="61"/>
+      <c r="F63" s="61"/>
+      <c r="G63" s="61"/>
+      <c r="H63" s="61"/>
+      <c r="I63" s="61"/>
+      <c r="J63" s="61"/>
+      <c r="K63" s="61"/>
+      <c r="L63" s="61"/>
+      <c r="M63" s="61"/>
+      <c r="N63" s="61"/>
+      <c r="O63" s="61"/>
+      <c r="P63" s="61"/>
+      <c r="Q63" s="61"/>
+      <c r="R63" s="61"/>
       <c r="V63" s="55"/>
     </row>
     <row r="64" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B64" s="17"/>
-      <c r="D64" s="50" t="s">
+      <c r="D64" s="60" t="s">
         <v>1603</v>
       </c>
-      <c r="E64" s="50" t="s">
+      <c r="E64" s="60" t="s">
         <v>340</v>
       </c>
-      <c r="F64" s="50" t="s">
+      <c r="F64" s="60" t="s">
         <v>364</v>
       </c>
-      <c r="G64" s="50"/>
-      <c r="H64" s="50" t="s">
+      <c r="G64" s="60"/>
+      <c r="H64" s="60" t="s">
         <v>362</v>
       </c>
-      <c r="I64" s="50" t="s">
+      <c r="I64" s="60" t="s">
         <v>457</v>
       </c>
-      <c r="J64" s="50" t="s">
+      <c r="J64" s="60" t="s">
         <v>1552</v>
       </c>
-      <c r="K64" s="50" t="s">
+      <c r="K64" s="60" t="s">
         <v>55</v>
       </c>
-      <c r="L64" s="50" t="s">
+      <c r="L64" s="60" t="s">
         <v>1607</v>
       </c>
-      <c r="M64" s="50" t="s">
+      <c r="M64" s="60" t="s">
         <v>413</v>
       </c>
-      <c r="N64" s="50" t="s">
+      <c r="N64" s="60" t="s">
         <v>422</v>
       </c>
-      <c r="O64" s="50"/>
-      <c r="P64" s="50" t="s">
+      <c r="O64" s="60"/>
+      <c r="P64" s="60" t="s">
         <v>55</v>
       </c>
-      <c r="Q64" s="50" t="s">
+      <c r="Q64" s="60" t="s">
         <v>40</v>
       </c>
-      <c r="R64" s="50" t="s">
+      <c r="R64" s="60" t="s">
         <v>336</v>
       </c>
       <c r="S64" s="18"/>
@@ -16954,15 +16964,15 @@
     <row r="67" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B67" s="12"/>
       <c r="C67" s="32"/>
-      <c r="D67" s="52"/>
-      <c r="E67" s="52"/>
-      <c r="F67" s="52"/>
-      <c r="G67" s="52"/>
-      <c r="H67" s="52"/>
-      <c r="I67" s="52"/>
-      <c r="J67" s="52"/>
-      <c r="K67" s="52"/>
-      <c r="L67" s="52"/>
+      <c r="D67" s="61"/>
+      <c r="E67" s="61"/>
+      <c r="F67" s="61"/>
+      <c r="G67" s="61"/>
+      <c r="H67" s="61"/>
+      <c r="I67" s="61"/>
+      <c r="J67" s="61"/>
+      <c r="K67" s="61"/>
+      <c r="L67" s="61"/>
       <c r="M67" s="52"/>
       <c r="N67" s="52"/>
       <c r="O67" s="52"/>
@@ -16973,29 +16983,29 @@
     </row>
     <row r="68" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B68" s="17"/>
-      <c r="D68" s="50" t="s">
+      <c r="D68" s="60" t="s">
         <v>418</v>
       </c>
-      <c r="E68" s="50" t="s">
+      <c r="E68" s="60" t="s">
         <v>421</v>
       </c>
-      <c r="F68" s="50" t="s">
+      <c r="F68" s="60" t="s">
         <v>413</v>
       </c>
-      <c r="G68" s="50" t="s">
+      <c r="G68" s="60" t="s">
         <v>40</v>
       </c>
-      <c r="H68" s="50" t="s">
+      <c r="H68" s="60" t="s">
         <v>336</v>
       </c>
-      <c r="I68" s="50" t="s">
+      <c r="I68" s="60" t="s">
         <v>1608</v>
       </c>
-      <c r="J68" s="50" t="s">
+      <c r="J68" s="60" t="s">
         <v>1609</v>
       </c>
-      <c r="K68" s="50"/>
-      <c r="L68" s="50"/>
+      <c r="K68" s="60"/>
+      <c r="L68" s="60"/>
       <c r="M68" s="50"/>
       <c r="N68" s="50"/>
       <c r="O68" s="50"/>
@@ -17085,64 +17095,64 @@
     <row r="71" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B71" s="12"/>
       <c r="C71" s="32"/>
-      <c r="D71" s="52"/>
-      <c r="E71" s="52"/>
-      <c r="F71" s="52"/>
-      <c r="G71" s="52"/>
-      <c r="H71" s="52"/>
-      <c r="I71" s="52"/>
-      <c r="J71" s="52"/>
-      <c r="K71" s="52"/>
-      <c r="L71" s="52"/>
-      <c r="M71" s="52"/>
-      <c r="N71" s="52"/>
-      <c r="O71" s="52"/>
-      <c r="P71" s="52"/>
-      <c r="Q71" s="52"/>
-      <c r="R71" s="52"/>
+      <c r="D71" s="61"/>
+      <c r="E71" s="61"/>
+      <c r="F71" s="61"/>
+      <c r="G71" s="61"/>
+      <c r="H71" s="61"/>
+      <c r="I71" s="61"/>
+      <c r="J71" s="61"/>
+      <c r="K71" s="61"/>
+      <c r="L71" s="61"/>
+      <c r="M71" s="61"/>
+      <c r="N71" s="61"/>
+      <c r="O71" s="61"/>
+      <c r="P71" s="61"/>
+      <c r="Q71" s="61"/>
+      <c r="R71" s="61"/>
       <c r="V71" s="55"/>
     </row>
     <row r="72" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B72" s="17"/>
-      <c r="D72" s="50" t="s">
+      <c r="D72" s="60" t="s">
         <v>1611</v>
       </c>
-      <c r="E72" s="50" t="s">
+      <c r="E72" s="60" t="s">
         <v>305</v>
       </c>
-      <c r="F72" s="50" t="s">
+      <c r="F72" s="60" t="s">
         <v>311</v>
       </c>
-      <c r="G72" s="50"/>
-      <c r="H72" s="50" t="s">
+      <c r="G72" s="60"/>
+      <c r="H72" s="60" t="s">
         <v>362</v>
       </c>
-      <c r="I72" s="50" t="s">
+      <c r="I72" s="60" t="s">
         <v>480</v>
       </c>
-      <c r="J72" s="50" t="s">
+      <c r="J72" s="60" t="s">
         <v>1512</v>
       </c>
-      <c r="K72" s="50" t="s">
+      <c r="K72" s="60" t="s">
         <v>338</v>
       </c>
-      <c r="L72" s="50" t="s">
+      <c r="L72" s="60" t="s">
         <v>1615</v>
       </c>
-      <c r="M72" s="50" t="s">
+      <c r="M72" s="60" t="s">
         <v>387</v>
       </c>
-      <c r="N72" s="50" t="s">
+      <c r="N72" s="60" t="s">
         <v>48</v>
       </c>
-      <c r="O72" s="50" t="s">
+      <c r="O72" s="60" t="s">
         <v>1618</v>
       </c>
-      <c r="P72" s="50" t="s">
+      <c r="P72" s="60" t="s">
         <v>364</v>
       </c>
-      <c r="Q72" s="50"/>
-      <c r="R72" s="50" t="s">
+      <c r="Q72" s="60"/>
+      <c r="R72" s="60" t="s">
         <v>413</v>
       </c>
       <c r="S72" s="18"/>
@@ -17250,64 +17260,64 @@
     <row r="75" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B75" s="12"/>
       <c r="C75" s="32"/>
-      <c r="D75" s="52"/>
-      <c r="E75" s="52"/>
-      <c r="F75" s="52"/>
-      <c r="G75" s="52"/>
-      <c r="H75" s="52"/>
-      <c r="I75" s="52"/>
-      <c r="J75" s="52"/>
-      <c r="K75" s="52"/>
-      <c r="L75" s="52"/>
-      <c r="M75" s="52"/>
-      <c r="N75" s="52"/>
-      <c r="O75" s="52"/>
-      <c r="P75" s="52"/>
-      <c r="Q75" s="52"/>
-      <c r="R75" s="52"/>
+      <c r="D75" s="61"/>
+      <c r="E75" s="61"/>
+      <c r="F75" s="61"/>
+      <c r="G75" s="61"/>
+      <c r="H75" s="61"/>
+      <c r="I75" s="61"/>
+      <c r="J75" s="61"/>
+      <c r="K75" s="61"/>
+      <c r="L75" s="61"/>
+      <c r="M75" s="61"/>
+      <c r="N75" s="61"/>
+      <c r="O75" s="61"/>
+      <c r="P75" s="61"/>
+      <c r="Q75" s="61"/>
+      <c r="R75" s="61"/>
       <c r="V75" s="55"/>
     </row>
     <row r="76" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B76" s="17"/>
-      <c r="D76" s="50" t="s">
+      <c r="D76" s="60" t="s">
         <v>338</v>
       </c>
-      <c r="E76" s="50" t="s">
+      <c r="E76" s="60" t="s">
         <v>411</v>
       </c>
-      <c r="F76" s="50" t="s">
+      <c r="F76" s="60" t="s">
         <v>1552</v>
       </c>
-      <c r="G76" s="50" t="s">
+      <c r="G76" s="60" t="s">
         <v>364</v>
       </c>
-      <c r="H76" s="50"/>
-      <c r="I76" s="50" t="s">
+      <c r="H76" s="60"/>
+      <c r="I76" s="60" t="s">
         <v>437</v>
       </c>
-      <c r="J76" s="50" t="s">
+      <c r="J76" s="60" t="s">
         <v>1620</v>
       </c>
-      <c r="K76" s="50" t="s">
+      <c r="K76" s="60" t="s">
         <v>1621</v>
       </c>
-      <c r="L76" s="50" t="s">
+      <c r="L76" s="60" t="s">
         <v>338</v>
       </c>
-      <c r="M76" s="50" t="s">
+      <c r="M76" s="60" t="s">
         <v>411</v>
       </c>
-      <c r="N76" s="50" t="s">
+      <c r="N76" s="60" t="s">
         <v>784</v>
       </c>
-      <c r="O76" s="50" t="s">
+      <c r="O76" s="60" t="s">
         <v>1622</v>
       </c>
-      <c r="P76" s="50"/>
-      <c r="Q76" s="50" t="s">
+      <c r="P76" s="60"/>
+      <c r="Q76" s="60" t="s">
         <v>1623</v>
       </c>
-      <c r="R76" s="50" t="s">
+      <c r="R76" s="60" t="s">
         <v>1625</v>
       </c>
       <c r="S76" s="18"/>
@@ -17415,64 +17425,64 @@
     <row r="79" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B79" s="12"/>
       <c r="C79" s="32"/>
-      <c r="D79" s="52"/>
-      <c r="E79" s="52"/>
-      <c r="F79" s="52"/>
-      <c r="G79" s="52"/>
-      <c r="H79" s="52"/>
-      <c r="I79" s="52"/>
-      <c r="J79" s="52"/>
-      <c r="K79" s="52"/>
-      <c r="L79" s="52"/>
-      <c r="M79" s="52"/>
-      <c r="N79" s="52"/>
-      <c r="O79" s="52"/>
-      <c r="P79" s="52"/>
-      <c r="Q79" s="52"/>
-      <c r="R79" s="52"/>
+      <c r="D79" s="61"/>
+      <c r="E79" s="61"/>
+      <c r="F79" s="61"/>
+      <c r="G79" s="61"/>
+      <c r="H79" s="61"/>
+      <c r="I79" s="61"/>
+      <c r="J79" s="61"/>
+      <c r="K79" s="61"/>
+      <c r="L79" s="61"/>
+      <c r="M79" s="61"/>
+      <c r="N79" s="61"/>
+      <c r="O79" s="61"/>
+      <c r="P79" s="61"/>
+      <c r="Q79" s="61"/>
+      <c r="R79" s="61"/>
       <c r="V79" s="55"/>
     </row>
     <row r="80" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B80" s="17"/>
-      <c r="D80" s="50" t="s">
+      <c r="D80" s="60" t="s">
         <v>338</v>
       </c>
-      <c r="E80" s="50" t="s">
+      <c r="E80" s="60" t="s">
         <v>411</v>
       </c>
-      <c r="F80" s="50" t="s">
+      <c r="F80" s="60" t="s">
         <v>391</v>
       </c>
-      <c r="G80" s="50" t="s">
+      <c r="G80" s="60" t="s">
         <v>1627</v>
       </c>
-      <c r="H80" s="50" t="s">
+      <c r="H80" s="60" t="s">
         <v>364</v>
       </c>
-      <c r="I80" s="50"/>
-      <c r="J80" s="50" t="s">
+      <c r="I80" s="60"/>
+      <c r="J80" s="60" t="s">
         <v>1629</v>
       </c>
-      <c r="K80" s="50" t="s">
+      <c r="K80" s="60" t="s">
         <v>362</v>
       </c>
-      <c r="L80" s="50" t="s">
+      <c r="L80" s="60" t="s">
         <v>1632</v>
       </c>
-      <c r="M80" s="50" t="s">
+      <c r="M80" s="60" t="s">
         <v>399</v>
       </c>
-      <c r="N80" s="50"/>
-      <c r="O80" s="50" t="s">
+      <c r="N80" s="60"/>
+      <c r="O80" s="60" t="s">
         <v>1635</v>
       </c>
-      <c r="P80" s="50" t="s">
+      <c r="P80" s="60" t="s">
         <v>413</v>
       </c>
-      <c r="Q80" s="50" t="s">
+      <c r="Q80" s="60" t="s">
         <v>1638</v>
       </c>
-      <c r="R80" s="50" t="s">
+      <c r="R80" s="60" t="s">
         <v>45</v>
       </c>
       <c r="S80" s="18"/>
@@ -17580,62 +17590,62 @@
     <row r="83" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B83" s="12"/>
       <c r="C83" s="32"/>
-      <c r="D83" s="52"/>
-      <c r="E83" s="52"/>
-      <c r="F83" s="52"/>
-      <c r="G83" s="52"/>
-      <c r="H83" s="52"/>
-      <c r="I83" s="52"/>
-      <c r="J83" s="52"/>
-      <c r="K83" s="52"/>
-      <c r="L83" s="52"/>
-      <c r="M83" s="52"/>
-      <c r="N83" s="52"/>
-      <c r="O83" s="52"/>
-      <c r="P83" s="52"/>
-      <c r="Q83" s="52"/>
-      <c r="R83" s="52"/>
+      <c r="D83" s="61"/>
+      <c r="E83" s="61"/>
+      <c r="F83" s="61"/>
+      <c r="G83" s="61"/>
+      <c r="H83" s="61"/>
+      <c r="I83" s="61"/>
+      <c r="J83" s="61"/>
+      <c r="K83" s="61"/>
+      <c r="L83" s="61"/>
+      <c r="M83" s="61"/>
+      <c r="N83" s="61"/>
+      <c r="O83" s="61"/>
+      <c r="P83" s="61"/>
+      <c r="Q83" s="61"/>
+      <c r="R83" s="61"/>
       <c r="V83" s="34"/>
     </row>
     <row r="84" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B84" s="17"/>
-      <c r="D84" s="50" t="s">
+      <c r="D84" s="60" t="s">
         <v>362</v>
       </c>
-      <c r="E84" s="50"/>
-      <c r="F84" s="50" t="s">
+      <c r="E84" s="60"/>
+      <c r="F84" s="60" t="s">
         <v>363</v>
       </c>
-      <c r="G84" s="50" t="s">
+      <c r="G84" s="60" t="s">
         <v>411</v>
       </c>
-      <c r="H84" s="50" t="s">
+      <c r="H84" s="60" t="s">
         <v>338</v>
       </c>
-      <c r="I84" s="50" t="s">
+      <c r="I84" s="60" t="s">
         <v>336</v>
       </c>
-      <c r="J84" s="50"/>
-      <c r="K84" s="50" t="s">
+      <c r="J84" s="60"/>
+      <c r="K84" s="60" t="s">
         <v>1642</v>
       </c>
-      <c r="L84" s="50" t="s">
+      <c r="L84" s="60" t="s">
         <v>421</v>
       </c>
-      <c r="M84" s="50" t="s">
+      <c r="M84" s="60" t="s">
         <v>1644</v>
       </c>
-      <c r="N84" s="50" t="s">
+      <c r="N84" s="60" t="s">
         <v>412</v>
       </c>
-      <c r="O84" s="50" t="s">
+      <c r="O84" s="60" t="s">
         <v>338</v>
       </c>
-      <c r="P84" s="50"/>
-      <c r="Q84" s="50" t="s">
+      <c r="P84" s="60"/>
+      <c r="Q84" s="60" t="s">
         <v>363</v>
       </c>
-      <c r="R84" s="50" t="s">
+      <c r="R84" s="60" t="s">
         <v>354</v>
       </c>
       <c r="S84" s="18"/>
@@ -17741,11 +17751,11 @@
     <row r="87" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B87" s="12"/>
       <c r="C87" s="32"/>
-      <c r="D87" s="52"/>
-      <c r="E87" s="52"/>
-      <c r="F87" s="52"/>
-      <c r="G87" s="52"/>
-      <c r="H87" s="52"/>
+      <c r="D87" s="61"/>
+      <c r="E87" s="61"/>
+      <c r="F87" s="61"/>
+      <c r="G87" s="61"/>
+      <c r="H87" s="61"/>
       <c r="I87" s="52"/>
       <c r="J87" s="52"/>
       <c r="K87" s="52"/>
@@ -17760,17 +17770,17 @@
     </row>
     <row r="88" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B88" s="17"/>
-      <c r="D88" s="50" t="s">
+      <c r="D88" s="60" t="s">
         <v>53</v>
       </c>
-      <c r="E88" s="50" t="s">
+      <c r="E88" s="60" t="s">
         <v>1482</v>
       </c>
-      <c r="F88" s="50" t="s">
+      <c r="F88" s="60" t="s">
         <v>364</v>
       </c>
-      <c r="G88" s="50"/>
-      <c r="H88" s="50"/>
+      <c r="G88" s="60"/>
+      <c r="H88" s="60"/>
       <c r="I88" s="50"/>
       <c r="J88" s="50"/>
       <c r="K88" s="50"/>
@@ -17848,66 +17858,66 @@
     <row r="91" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B91" s="12"/>
       <c r="C91" s="32"/>
-      <c r="D91" s="52"/>
-      <c r="E91" s="52"/>
-      <c r="F91" s="52"/>
-      <c r="G91" s="52"/>
-      <c r="H91" s="52"/>
-      <c r="I91" s="52"/>
-      <c r="J91" s="52"/>
-      <c r="K91" s="52"/>
-      <c r="L91" s="52"/>
-      <c r="M91" s="52"/>
-      <c r="N91" s="52"/>
-      <c r="O91" s="52"/>
-      <c r="P91" s="52"/>
-      <c r="Q91" s="52"/>
-      <c r="R91" s="52"/>
+      <c r="D91" s="61"/>
+      <c r="E91" s="61"/>
+      <c r="F91" s="61"/>
+      <c r="G91" s="61"/>
+      <c r="H91" s="61"/>
+      <c r="I91" s="61"/>
+      <c r="J91" s="61"/>
+      <c r="K91" s="61"/>
+      <c r="L91" s="61"/>
+      <c r="M91" s="61"/>
+      <c r="N91" s="61"/>
+      <c r="O91" s="61"/>
+      <c r="P91" s="61"/>
+      <c r="Q91" s="61"/>
+      <c r="R91" s="61"/>
       <c r="V91" s="34"/>
     </row>
     <row r="92" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B92" s="17"/>
-      <c r="D92" s="50" t="s">
+      <c r="D92" s="60" t="s">
         <v>1649</v>
       </c>
-      <c r="E92" s="50" t="s">
+      <c r="E92" s="60" t="s">
         <v>1506</v>
       </c>
-      <c r="F92" s="50" t="s">
+      <c r="F92" s="60" t="s">
         <v>338</v>
       </c>
-      <c r="G92" s="50" t="s">
+      <c r="G92" s="60" t="s">
         <v>1652</v>
       </c>
-      <c r="H92" s="50" t="s">
+      <c r="H92" s="60" t="s">
         <v>1654</v>
       </c>
-      <c r="I92" s="50"/>
-      <c r="J92" s="50" t="s">
+      <c r="I92" s="60"/>
+      <c r="J92" s="60" t="s">
         <v>1656</v>
       </c>
-      <c r="K92" s="50" t="s">
+      <c r="K92" s="60" t="s">
         <v>1428</v>
       </c>
-      <c r="L92" s="50" t="s">
+      <c r="L92" s="60" t="s">
         <v>413</v>
       </c>
-      <c r="M92" s="50" t="s">
+      <c r="M92" s="60" t="s">
         <v>338</v>
       </c>
-      <c r="N92" s="50" t="s">
+      <c r="N92" s="60" t="s">
         <v>1615</v>
       </c>
-      <c r="O92" s="50" t="s">
+      <c r="O92" s="60" t="s">
         <v>336</v>
       </c>
-      <c r="P92" s="50" t="s">
+      <c r="P92" s="60" t="s">
         <v>1658</v>
       </c>
-      <c r="Q92" s="50" t="s">
+      <c r="Q92" s="60" t="s">
         <v>1659</v>
       </c>
-      <c r="R92" s="50" t="s">
+      <c r="R92" s="60" t="s">
         <v>421</v>
       </c>
       <c r="S92" s="18"/>
@@ -18017,64 +18027,64 @@
     <row r="95" spans="2:22">
       <c r="B95" s="12"/>
       <c r="C95" s="32"/>
-      <c r="D95" s="52"/>
-      <c r="E95" s="52"/>
-      <c r="F95" s="52"/>
-      <c r="G95" s="52"/>
-      <c r="H95" s="52"/>
-      <c r="I95" s="52"/>
-      <c r="J95" s="52"/>
-      <c r="K95" s="52"/>
-      <c r="L95" s="52"/>
-      <c r="M95" s="52"/>
-      <c r="N95" s="52"/>
-      <c r="O95" s="52"/>
-      <c r="P95" s="52"/>
-      <c r="Q95" s="52"/>
-      <c r="R95" s="52"/>
+      <c r="D95" s="61"/>
+      <c r="E95" s="61"/>
+      <c r="F95" s="61"/>
+      <c r="G95" s="61"/>
+      <c r="H95" s="61"/>
+      <c r="I95" s="61"/>
+      <c r="J95" s="61"/>
+      <c r="K95" s="61"/>
+      <c r="L95" s="61"/>
+      <c r="M95" s="61"/>
+      <c r="N95" s="61"/>
+      <c r="O95" s="61"/>
+      <c r="P95" s="61"/>
+      <c r="Q95" s="61"/>
+      <c r="R95" s="61"/>
     </row>
     <row r="96" spans="2:22" ht="39.75">
       <c r="B96" s="17"/>
       <c r="C96" s="6"/>
-      <c r="D96" s="50" t="s">
+      <c r="D96" s="60" t="s">
         <v>1565</v>
       </c>
-      <c r="E96" s="50" t="s">
+      <c r="E96" s="60" t="s">
         <v>338</v>
       </c>
-      <c r="F96" s="50" t="s">
+      <c r="F96" s="60" t="s">
         <v>1615</v>
       </c>
-      <c r="G96" s="50" t="s">
+      <c r="G96" s="60" t="s">
         <v>336</v>
       </c>
-      <c r="H96" s="50" t="s">
+      <c r="H96" s="60" t="s">
         <v>1660</v>
       </c>
-      <c r="I96" s="50" t="s">
+      <c r="I96" s="60" t="s">
         <v>1662</v>
       </c>
-      <c r="J96" s="50" t="s">
+      <c r="J96" s="60" t="s">
         <v>422</v>
       </c>
-      <c r="K96" s="50"/>
-      <c r="L96" s="50" t="s">
+      <c r="K96" s="60"/>
+      <c r="L96" s="60" t="s">
         <v>1664</v>
       </c>
-      <c r="M96" s="50" t="s">
+      <c r="M96" s="60" t="s">
         <v>1666</v>
       </c>
-      <c r="N96" s="50" t="s">
+      <c r="N96" s="60" t="s">
         <v>333</v>
       </c>
-      <c r="O96" s="50" t="s">
+      <c r="O96" s="60" t="s">
         <v>362</v>
       </c>
-      <c r="P96" s="50"/>
-      <c r="Q96" s="50" t="s">
+      <c r="P96" s="60"/>
+      <c r="Q96" s="60" t="s">
         <v>387</v>
       </c>
-      <c r="R96" s="50" t="s">
+      <c r="R96" s="60" t="s">
         <v>1506</v>
       </c>
     </row>
@@ -18176,57 +18186,57 @@
     <row r="99" spans="2:18" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B99" s="12"/>
       <c r="C99" s="32"/>
-      <c r="D99" s="52"/>
-      <c r="E99" s="52"/>
-      <c r="F99" s="52"/>
-      <c r="G99" s="52"/>
-      <c r="H99" s="52"/>
-      <c r="I99" s="52"/>
-      <c r="J99" s="52"/>
-      <c r="K99" s="52"/>
-      <c r="L99" s="52"/>
-      <c r="M99" s="52"/>
-      <c r="N99" s="52"/>
-      <c r="O99" s="52"/>
-      <c r="P99" s="52"/>
-      <c r="Q99" s="52"/>
-      <c r="R99" s="52"/>
+      <c r="D99" s="61"/>
+      <c r="E99" s="61"/>
+      <c r="F99" s="61"/>
+      <c r="G99" s="61"/>
+      <c r="H99" s="61"/>
+      <c r="I99" s="61"/>
+      <c r="J99" s="61"/>
+      <c r="K99" s="61"/>
+      <c r="L99" s="61"/>
+      <c r="M99" s="61"/>
+      <c r="N99" s="61"/>
+      <c r="O99" s="61"/>
+      <c r="P99" s="61"/>
+      <c r="Q99" s="61"/>
+      <c r="R99" s="61"/>
     </row>
     <row r="100" spans="2:18" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B100" s="17"/>
-      <c r="D100" s="50" t="s">
+      <c r="D100" s="60" t="s">
         <v>336</v>
       </c>
-      <c r="E100" s="50" t="s">
+      <c r="E100" s="60" t="s">
         <v>387</v>
       </c>
-      <c r="F100" s="50" t="s">
+      <c r="F100" s="60" t="s">
         <v>1668</v>
       </c>
-      <c r="G100" s="50" t="s">
+      <c r="G100" s="60" t="s">
         <v>364</v>
       </c>
-      <c r="H100" s="50"/>
-      <c r="I100" s="50" t="s">
+      <c r="H100" s="60"/>
+      <c r="I100" s="60" t="s">
         <v>340</v>
       </c>
-      <c r="J100" s="50" t="s">
+      <c r="J100" s="60" t="s">
         <v>1547</v>
       </c>
-      <c r="K100" s="50"/>
-      <c r="L100" s="50" t="s">
+      <c r="K100" s="60"/>
+      <c r="L100" s="60" t="s">
         <v>1449</v>
       </c>
-      <c r="M100" s="50"/>
-      <c r="N100" s="50" t="s">
+      <c r="M100" s="60"/>
+      <c r="N100" s="60" t="s">
         <v>1672</v>
       </c>
-      <c r="O100" s="50"/>
-      <c r="P100" s="50" t="s">
+      <c r="O100" s="60"/>
+      <c r="P100" s="60" t="s">
         <v>1674</v>
       </c>
-      <c r="Q100" s="50"/>
-      <c r="R100" s="50" t="s">
+      <c r="Q100" s="60"/>
+      <c r="R100" s="60" t="s">
         <v>362</v>
       </c>
     </row>
@@ -18322,65 +18332,65 @@
     <row r="103" spans="2:18" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B103" s="12"/>
       <c r="C103" s="32"/>
-      <c r="D103" s="52"/>
-      <c r="E103" s="52"/>
-      <c r="F103" s="52"/>
-      <c r="G103" s="52"/>
-      <c r="H103" s="52"/>
-      <c r="I103" s="52"/>
-      <c r="J103" s="52"/>
-      <c r="K103" s="52"/>
-      <c r="L103" s="52"/>
-      <c r="M103" s="52"/>
-      <c r="N103" s="52"/>
-      <c r="O103" s="52"/>
-      <c r="P103" s="52"/>
-      <c r="Q103" s="52"/>
-      <c r="R103" s="52"/>
+      <c r="D103" s="61"/>
+      <c r="E103" s="61"/>
+      <c r="F103" s="61"/>
+      <c r="G103" s="61"/>
+      <c r="H103" s="61"/>
+      <c r="I103" s="61"/>
+      <c r="J103" s="61"/>
+      <c r="K103" s="61"/>
+      <c r="L103" s="61"/>
+      <c r="M103" s="61"/>
+      <c r="N103" s="61"/>
+      <c r="O103" s="61"/>
+      <c r="P103" s="61"/>
+      <c r="Q103" s="61"/>
+      <c r="R103" s="61"/>
     </row>
     <row r="104" spans="2:18" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B104" s="17"/>
-      <c r="D104" s="50" t="s">
+      <c r="D104" s="60" t="s">
         <v>51</v>
       </c>
-      <c r="E104" s="50" t="s">
+      <c r="E104" s="60" t="s">
         <v>422</v>
       </c>
-      <c r="F104" s="50" t="s">
+      <c r="F104" s="60" t="s">
         <v>457</v>
       </c>
-      <c r="G104" s="50" t="s">
+      <c r="G104" s="60" t="s">
         <v>428</v>
       </c>
-      <c r="H104" s="50" t="s">
+      <c r="H104" s="60" t="s">
         <v>55</v>
       </c>
-      <c r="I104" s="50" t="s">
+      <c r="I104" s="60" t="s">
         <v>338</v>
       </c>
-      <c r="J104" s="50" t="s">
+      <c r="J104" s="60" t="s">
         <v>1621</v>
       </c>
-      <c r="K104" s="50" t="s">
+      <c r="K104" s="60" t="s">
         <v>1579</v>
       </c>
-      <c r="L104" s="50" t="s">
+      <c r="L104" s="60" t="s">
         <v>422</v>
       </c>
-      <c r="M104" s="50" t="s">
+      <c r="M104" s="60" t="s">
         <v>364</v>
       </c>
-      <c r="N104" s="50"/>
-      <c r="O104" s="50" t="s">
+      <c r="N104" s="60"/>
+      <c r="O104" s="60" t="s">
         <v>1678</v>
       </c>
-      <c r="P104" s="50" t="s">
+      <c r="P104" s="60" t="s">
         <v>387</v>
       </c>
-      <c r="Q104" s="50" t="s">
+      <c r="Q104" s="60" t="s">
         <v>48</v>
       </c>
-      <c r="R104" s="50" t="s">
+      <c r="R104" s="60" t="s">
         <v>1680</v>
       </c>
     </row>
@@ -18484,65 +18494,65 @@
     <row r="107" spans="2:18" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B107" s="12"/>
       <c r="C107" s="32"/>
-      <c r="D107" s="52"/>
-      <c r="E107" s="52"/>
-      <c r="F107" s="52"/>
-      <c r="G107" s="52"/>
-      <c r="H107" s="52"/>
-      <c r="I107" s="52"/>
-      <c r="J107" s="52"/>
-      <c r="K107" s="52"/>
-      <c r="L107" s="52"/>
-      <c r="M107" s="52"/>
-      <c r="N107" s="52"/>
-      <c r="O107" s="52"/>
-      <c r="P107" s="52"/>
-      <c r="Q107" s="52"/>
-      <c r="R107" s="52"/>
+      <c r="D107" s="61"/>
+      <c r="E107" s="61"/>
+      <c r="F107" s="61"/>
+      <c r="G107" s="61"/>
+      <c r="H107" s="61"/>
+      <c r="I107" s="61"/>
+      <c r="J107" s="61"/>
+      <c r="K107" s="61"/>
+      <c r="L107" s="61"/>
+      <c r="M107" s="61"/>
+      <c r="N107" s="61"/>
+      <c r="O107" s="61"/>
+      <c r="P107" s="61"/>
+      <c r="Q107" s="61"/>
+      <c r="R107" s="61"/>
     </row>
     <row r="108" spans="2:18" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B108" s="17"/>
-      <c r="D108" s="50" t="s">
+      <c r="D108" s="60" t="s">
         <v>496</v>
       </c>
-      <c r="E108" s="50" t="s">
+      <c r="E108" s="60" t="s">
         <v>1497</v>
       </c>
-      <c r="F108" s="50" t="s">
+      <c r="F108" s="60" t="s">
         <v>336</v>
       </c>
-      <c r="G108" s="50" t="s">
+      <c r="G108" s="60" t="s">
         <v>1449</v>
       </c>
-      <c r="H108" s="50" t="s">
+      <c r="H108" s="60" t="s">
         <v>63</v>
       </c>
-      <c r="I108" s="50"/>
-      <c r="J108" s="50" t="s">
+      <c r="I108" s="60"/>
+      <c r="J108" s="60" t="s">
         <v>457</v>
       </c>
-      <c r="K108" s="50" t="s">
+      <c r="K108" s="60" t="s">
         <v>475</v>
       </c>
-      <c r="L108" s="50" t="s">
+      <c r="L108" s="60" t="s">
         <v>63</v>
       </c>
-      <c r="M108" s="50" t="s">
+      <c r="M108" s="60" t="s">
         <v>336</v>
       </c>
-      <c r="N108" s="50" t="s">
+      <c r="N108" s="60" t="s">
         <v>1453</v>
       </c>
-      <c r="O108" s="50" t="s">
+      <c r="O108" s="60" t="s">
         <v>1449</v>
       </c>
-      <c r="P108" s="50" t="s">
+      <c r="P108" s="60" t="s">
         <v>422</v>
       </c>
-      <c r="Q108" s="50" t="s">
+      <c r="Q108" s="60" t="s">
         <v>364</v>
       </c>
-      <c r="R108" s="50"/>
+      <c r="R108" s="60"/>
     </row>
     <row r="109" spans="2:18" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B109" s="19">
@@ -18642,68 +18652,68 @@
     <row r="111" spans="2:18">
       <c r="B111" s="12"/>
       <c r="C111" s="32"/>
-      <c r="D111" s="52"/>
-      <c r="E111" s="52"/>
-      <c r="F111" s="52"/>
-      <c r="G111" s="52"/>
-      <c r="H111" s="52"/>
-      <c r="I111" s="52"/>
-      <c r="J111" s="52"/>
-      <c r="K111" s="52"/>
-      <c r="L111" s="52"/>
-      <c r="M111" s="52"/>
-      <c r="N111" s="52"/>
-      <c r="O111" s="52"/>
-      <c r="P111" s="52"/>
-      <c r="Q111" s="52"/>
-      <c r="R111" s="52"/>
+      <c r="D111" s="61"/>
+      <c r="E111" s="61"/>
+      <c r="F111" s="61"/>
+      <c r="G111" s="61"/>
+      <c r="H111" s="61"/>
+      <c r="I111" s="61"/>
+      <c r="J111" s="61"/>
+      <c r="K111" s="61"/>
+      <c r="L111" s="61"/>
+      <c r="M111" s="61"/>
+      <c r="N111" s="61"/>
+      <c r="O111" s="61"/>
+      <c r="P111" s="61"/>
+      <c r="Q111" s="61"/>
+      <c r="R111" s="61"/>
     </row>
     <row r="112" spans="2:18" ht="39.75">
       <c r="B112" s="17"/>
       <c r="C112" s="6"/>
-      <c r="D112" s="50" t="s">
+      <c r="D112" s="60" t="s">
         <v>1682</v>
       </c>
-      <c r="E112" s="50" t="s">
+      <c r="E112" s="60" t="s">
         <v>480</v>
       </c>
-      <c r="F112" s="50" t="s">
+      <c r="F112" s="60" t="s">
         <v>1512</v>
       </c>
-      <c r="G112" s="50" t="s">
+      <c r="G112" s="60" t="s">
         <v>1684</v>
       </c>
-      <c r="H112" s="50" t="s">
+      <c r="H112" s="60" t="s">
         <v>428</v>
       </c>
-      <c r="I112" s="50" t="s">
+      <c r="I112" s="60" t="s">
         <v>427</v>
       </c>
-      <c r="J112" s="50" t="s">
+      <c r="J112" s="60" t="s">
         <v>338</v>
       </c>
-      <c r="K112" s="50" t="s">
+      <c r="K112" s="60" t="s">
         <v>1685</v>
       </c>
-      <c r="L112" s="50" t="s">
+      <c r="L112" s="60" t="s">
         <v>332</v>
       </c>
-      <c r="M112" s="50" t="s">
+      <c r="M112" s="60" t="s">
         <v>334</v>
       </c>
-      <c r="N112" s="50" t="s">
+      <c r="N112" s="60" t="s">
         <v>362</v>
       </c>
-      <c r="O112" s="50" t="s">
+      <c r="O112" s="60" t="s">
         <v>51</v>
       </c>
-      <c r="P112" s="50" t="s">
+      <c r="P112" s="60" t="s">
         <v>422</v>
       </c>
-      <c r="Q112" s="50" t="s">
+      <c r="Q112" s="60" t="s">
         <v>1689</v>
       </c>
-      <c r="R112" s="50" t="s">
+      <c r="R112" s="60" t="s">
         <v>338</v>
       </c>
     </row>
@@ -18809,61 +18819,61 @@
     <row r="115" spans="2:18" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B115" s="12"/>
       <c r="C115" s="32"/>
-      <c r="D115" s="52"/>
-      <c r="E115" s="52"/>
-      <c r="F115" s="52"/>
-      <c r="G115" s="52"/>
-      <c r="H115" s="52"/>
-      <c r="I115" s="52"/>
-      <c r="J115" s="52"/>
-      <c r="K115" s="52"/>
-      <c r="L115" s="52"/>
-      <c r="M115" s="52"/>
-      <c r="N115" s="52"/>
-      <c r="O115" s="52"/>
-      <c r="P115" s="52"/>
-      <c r="Q115" s="52"/>
-      <c r="R115" s="52"/>
+      <c r="D115" s="61"/>
+      <c r="E115" s="61"/>
+      <c r="F115" s="61"/>
+      <c r="G115" s="61"/>
+      <c r="H115" s="61"/>
+      <c r="I115" s="61"/>
+      <c r="J115" s="61"/>
+      <c r="K115" s="61"/>
+      <c r="L115" s="61"/>
+      <c r="M115" s="61"/>
+      <c r="N115" s="61"/>
+      <c r="O115" s="61"/>
+      <c r="P115" s="61"/>
+      <c r="Q115" s="61"/>
+      <c r="R115" s="61"/>
     </row>
     <row r="116" spans="2:18" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B116" s="17"/>
-      <c r="D116" s="50"/>
-      <c r="E116" s="50" t="s">
+      <c r="D116" s="60"/>
+      <c r="E116" s="60" t="s">
         <v>362</v>
       </c>
-      <c r="F116" s="50" t="s">
+      <c r="F116" s="60" t="s">
         <v>51</v>
       </c>
-      <c r="G116" s="50" t="s">
+      <c r="G116" s="60" t="s">
         <v>422</v>
       </c>
-      <c r="H116" s="50" t="s">
+      <c r="H116" s="60" t="s">
         <v>387</v>
       </c>
-      <c r="I116" s="50" t="s">
+      <c r="I116" s="60" t="s">
         <v>1691</v>
       </c>
-      <c r="J116" s="50" t="s">
+      <c r="J116" s="60" t="s">
         <v>1693</v>
       </c>
-      <c r="K116" s="50"/>
-      <c r="L116" s="50" t="s">
+      <c r="K116" s="60"/>
+      <c r="L116" s="60" t="s">
         <v>363</v>
       </c>
-      <c r="M116" s="50" t="s">
+      <c r="M116" s="60" t="s">
         <v>55</v>
       </c>
-      <c r="N116" s="50" t="s">
+      <c r="N116" s="60" t="s">
         <v>446</v>
       </c>
-      <c r="O116" s="50" t="s">
+      <c r="O116" s="60" t="s">
         <v>336</v>
       </c>
-      <c r="P116" s="50"/>
-      <c r="Q116" s="50" t="s">
+      <c r="P116" s="60"/>
+      <c r="Q116" s="60" t="s">
         <v>51</v>
       </c>
-      <c r="R116" s="50" t="s">
+      <c r="R116" s="60" t="s">
         <v>422</v>
       </c>
     </row>
@@ -18963,63 +18973,63 @@
     <row r="119" spans="2:18" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B119" s="12"/>
       <c r="C119" s="32"/>
-      <c r="D119" s="52"/>
-      <c r="E119" s="52"/>
-      <c r="F119" s="52"/>
-      <c r="G119" s="52"/>
-      <c r="H119" s="52"/>
-      <c r="I119" s="52"/>
-      <c r="J119" s="52"/>
-      <c r="K119" s="52"/>
-      <c r="L119" s="52"/>
-      <c r="M119" s="52"/>
-      <c r="N119" s="52"/>
-      <c r="O119" s="52"/>
-      <c r="P119" s="52"/>
-      <c r="Q119" s="52"/>
-      <c r="R119" s="52"/>
+      <c r="D119" s="61"/>
+      <c r="E119" s="61"/>
+      <c r="F119" s="61"/>
+      <c r="G119" s="61"/>
+      <c r="H119" s="61"/>
+      <c r="I119" s="61"/>
+      <c r="J119" s="61"/>
+      <c r="K119" s="61"/>
+      <c r="L119" s="61"/>
+      <c r="M119" s="61"/>
+      <c r="N119" s="61"/>
+      <c r="O119" s="61"/>
+      <c r="P119" s="61"/>
+      <c r="Q119" s="61"/>
+      <c r="R119" s="61"/>
     </row>
     <row r="120" spans="2:18" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B120" s="17"/>
-      <c r="D120" s="50" t="s">
+      <c r="D120" s="60" t="s">
         <v>1696</v>
       </c>
-      <c r="E120" s="50" t="s">
+      <c r="E120" s="60" t="s">
         <v>381</v>
       </c>
-      <c r="F120" s="50"/>
-      <c r="G120" s="50" t="s">
+      <c r="F120" s="60"/>
+      <c r="G120" s="60" t="s">
         <v>480</v>
       </c>
-      <c r="H120" s="50" t="s">
+      <c r="H120" s="60" t="s">
         <v>1512</v>
       </c>
-      <c r="I120" s="50" t="s">
+      <c r="I120" s="60" t="s">
         <v>1698</v>
       </c>
-      <c r="J120" s="50" t="s">
+      <c r="J120" s="60" t="s">
         <v>58</v>
       </c>
-      <c r="K120" s="50" t="s">
+      <c r="K120" s="60" t="s">
         <v>1700</v>
       </c>
-      <c r="L120" s="50" t="s">
+      <c r="L120" s="60" t="s">
         <v>1701</v>
       </c>
-      <c r="M120" s="50"/>
-      <c r="N120" s="50" t="s">
+      <c r="M120" s="60"/>
+      <c r="N120" s="60" t="s">
         <v>1635</v>
       </c>
-      <c r="O120" s="50" t="s">
+      <c r="O120" s="60" t="s">
         <v>1666</v>
       </c>
-      <c r="P120" s="50" t="s">
+      <c r="P120" s="60" t="s">
         <v>333</v>
       </c>
-      <c r="Q120" s="50" t="s">
+      <c r="Q120" s="60" t="s">
         <v>345</v>
       </c>
-      <c r="R120" s="50"/>
+      <c r="R120" s="60"/>
     </row>
     <row r="121" spans="2:18" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B121" s="19">
@@ -19117,65 +19127,65 @@
     <row r="123" spans="2:18" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B123" s="12"/>
       <c r="C123" s="32"/>
-      <c r="D123" s="52"/>
-      <c r="E123" s="52"/>
-      <c r="F123" s="52"/>
-      <c r="G123" s="52"/>
-      <c r="H123" s="52"/>
-      <c r="I123" s="52"/>
-      <c r="J123" s="52"/>
-      <c r="K123" s="52"/>
-      <c r="L123" s="52"/>
-      <c r="M123" s="52"/>
-      <c r="N123" s="52"/>
-      <c r="O123" s="52"/>
-      <c r="P123" s="52"/>
-      <c r="Q123" s="52"/>
-      <c r="R123" s="52"/>
+      <c r="D123" s="61"/>
+      <c r="E123" s="61"/>
+      <c r="F123" s="61"/>
+      <c r="G123" s="61"/>
+      <c r="H123" s="61"/>
+      <c r="I123" s="61"/>
+      <c r="J123" s="61"/>
+      <c r="K123" s="61"/>
+      <c r="L123" s="61"/>
+      <c r="M123" s="61"/>
+      <c r="N123" s="61"/>
+      <c r="O123" s="61"/>
+      <c r="P123" s="61"/>
+      <c r="Q123" s="61"/>
+      <c r="R123" s="61"/>
     </row>
     <row r="124" spans="2:18" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B124" s="17"/>
-      <c r="D124" s="50" t="s">
+      <c r="D124" s="60" t="s">
         <v>1542</v>
       </c>
-      <c r="E124" s="50" t="s">
+      <c r="E124" s="60" t="s">
         <v>61</v>
       </c>
-      <c r="F124" s="50" t="s">
+      <c r="F124" s="60" t="s">
         <v>336</v>
       </c>
-      <c r="G124" s="50" t="s">
+      <c r="G124" s="60" t="s">
         <v>1502</v>
       </c>
-      <c r="H124" s="50" t="s">
+      <c r="H124" s="60" t="s">
         <v>1666</v>
       </c>
-      <c r="I124" s="50" t="s">
+      <c r="I124" s="60" t="s">
         <v>333</v>
       </c>
-      <c r="J124" s="50" t="s">
+      <c r="J124" s="60" t="s">
         <v>1705</v>
       </c>
-      <c r="K124" s="50"/>
-      <c r="L124" s="50" t="s">
+      <c r="K124" s="60"/>
+      <c r="L124" s="60" t="s">
         <v>1440</v>
       </c>
-      <c r="M124" s="50" t="s">
+      <c r="M124" s="60" t="s">
         <v>413</v>
       </c>
-      <c r="N124" s="50" t="s">
+      <c r="N124" s="60" t="s">
         <v>49</v>
       </c>
-      <c r="O124" s="50" t="s">
+      <c r="O124" s="60" t="s">
         <v>1565</v>
       </c>
-      <c r="P124" s="50" t="s">
+      <c r="P124" s="60" t="s">
         <v>1666</v>
       </c>
-      <c r="Q124" s="50" t="s">
+      <c r="Q124" s="60" t="s">
         <v>333</v>
       </c>
-      <c r="R124" s="50" t="s">
+      <c r="R124" s="60" t="s">
         <v>327</v>
       </c>
     </row>
@@ -19279,61 +19289,61 @@
     <row r="127" spans="2:18" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B127" s="12"/>
       <c r="C127" s="32"/>
-      <c r="D127" s="52"/>
-      <c r="E127" s="52"/>
-      <c r="F127" s="52"/>
-      <c r="G127" s="52"/>
-      <c r="H127" s="52"/>
-      <c r="I127" s="52"/>
-      <c r="J127" s="52"/>
-      <c r="K127" s="52"/>
-      <c r="L127" s="52"/>
-      <c r="M127" s="52"/>
-      <c r="N127" s="52"/>
-      <c r="O127" s="52"/>
-      <c r="P127" s="52"/>
-      <c r="Q127" s="52"/>
-      <c r="R127" s="52"/>
+      <c r="D127" s="61"/>
+      <c r="E127" s="61"/>
+      <c r="F127" s="61"/>
+      <c r="G127" s="61"/>
+      <c r="H127" s="61"/>
+      <c r="I127" s="61"/>
+      <c r="J127" s="61"/>
+      <c r="K127" s="61"/>
+      <c r="L127" s="61"/>
+      <c r="M127" s="61"/>
+      <c r="N127" s="61"/>
+      <c r="O127" s="61"/>
+      <c r="P127" s="61"/>
+      <c r="Q127" s="61"/>
+      <c r="R127" s="61"/>
     </row>
     <row r="128" spans="2:18" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B128" s="17"/>
-      <c r="D128" s="50"/>
-      <c r="E128" s="50" t="s">
+      <c r="D128" s="60"/>
+      <c r="E128" s="60" t="s">
         <v>1567</v>
       </c>
-      <c r="F128" s="50" t="s">
+      <c r="F128" s="60" t="s">
         <v>336</v>
       </c>
-      <c r="G128" s="50" t="s">
+      <c r="G128" s="60" t="s">
         <v>1707</v>
       </c>
-      <c r="H128" s="50" t="s">
+      <c r="H128" s="60" t="s">
         <v>1666</v>
       </c>
-      <c r="I128" s="50" t="s">
+      <c r="I128" s="60" t="s">
         <v>333</v>
       </c>
-      <c r="J128" s="50" t="s">
+      <c r="J128" s="60" t="s">
         <v>310</v>
       </c>
-      <c r="K128" s="50" t="s">
+      <c r="K128" s="60" t="s">
         <v>1708</v>
       </c>
-      <c r="L128" s="50" t="s">
+      <c r="L128" s="60" t="s">
         <v>1539</v>
       </c>
-      <c r="M128" s="50"/>
-      <c r="N128" s="50" t="s">
+      <c r="M128" s="60"/>
+      <c r="N128" s="60" t="s">
         <v>1523</v>
       </c>
-      <c r="O128" s="50"/>
-      <c r="P128" s="50" t="s">
+      <c r="O128" s="60"/>
+      <c r="P128" s="60" t="s">
         <v>474</v>
       </c>
-      <c r="Q128" s="50" t="s">
+      <c r="Q128" s="60" t="s">
         <v>336</v>
       </c>
-      <c r="R128" s="50" t="s">
+      <c r="R128" s="60" t="s">
         <v>1711</v>
       </c>
     </row>
@@ -19433,63 +19443,63 @@
     <row r="131" spans="2:18" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B131" s="12"/>
       <c r="C131" s="32"/>
-      <c r="D131" s="52"/>
-      <c r="E131" s="52"/>
-      <c r="F131" s="52"/>
-      <c r="G131" s="52"/>
-      <c r="H131" s="52"/>
-      <c r="I131" s="52"/>
-      <c r="J131" s="52"/>
-      <c r="K131" s="52"/>
-      <c r="L131" s="52"/>
-      <c r="M131" s="52"/>
-      <c r="N131" s="52"/>
-      <c r="O131" s="52"/>
-      <c r="P131" s="52"/>
-      <c r="Q131" s="52"/>
-      <c r="R131" s="52"/>
+      <c r="D131" s="61"/>
+      <c r="E131" s="61"/>
+      <c r="F131" s="61"/>
+      <c r="G131" s="61"/>
+      <c r="H131" s="61"/>
+      <c r="I131" s="61"/>
+      <c r="J131" s="61"/>
+      <c r="K131" s="61"/>
+      <c r="L131" s="61"/>
+      <c r="M131" s="61"/>
+      <c r="N131" s="61"/>
+      <c r="O131" s="61"/>
+      <c r="P131" s="61"/>
+      <c r="Q131" s="61"/>
+      <c r="R131" s="61"/>
     </row>
     <row r="132" spans="2:18" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B132" s="17"/>
-      <c r="D132" s="50" t="s">
+      <c r="D132" s="60" t="s">
         <v>1666</v>
       </c>
-      <c r="E132" s="50" t="s">
+      <c r="E132" s="60" t="s">
         <v>333</v>
       </c>
-      <c r="F132" s="50" t="s">
+      <c r="F132" s="60" t="s">
         <v>1713</v>
       </c>
-      <c r="G132" s="50" t="s">
+      <c r="G132" s="60" t="s">
         <v>1715</v>
       </c>
-      <c r="H132" s="50" t="s">
+      <c r="H132" s="60" t="s">
         <v>319</v>
       </c>
-      <c r="I132" s="50" t="s">
+      <c r="I132" s="60" t="s">
         <v>313</v>
       </c>
-      <c r="J132" s="50"/>
-      <c r="K132" s="50" t="s">
+      <c r="J132" s="60"/>
+      <c r="K132" s="60" t="s">
         <v>1719</v>
       </c>
-      <c r="L132" s="50"/>
-      <c r="M132" s="50" t="s">
+      <c r="L132" s="60"/>
+      <c r="M132" s="60" t="s">
         <v>472</v>
       </c>
-      <c r="N132" s="50" t="s">
+      <c r="N132" s="60" t="s">
         <v>49</v>
       </c>
-      <c r="O132" s="50" t="s">
+      <c r="O132" s="60" t="s">
         <v>330</v>
       </c>
-      <c r="P132" s="50" t="s">
+      <c r="P132" s="60" t="s">
         <v>1666</v>
       </c>
-      <c r="Q132" s="50" t="s">
+      <c r="Q132" s="60" t="s">
         <v>333</v>
       </c>
-      <c r="R132" s="50" t="s">
+      <c r="R132" s="60" t="s">
         <v>1721</v>
       </c>
     </row>
@@ -19591,61 +19601,61 @@
     <row r="135" spans="2:18" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B135" s="12"/>
       <c r="C135" s="32"/>
-      <c r="D135" s="52"/>
-      <c r="E135" s="52"/>
-      <c r="F135" s="52"/>
-      <c r="G135" s="52"/>
-      <c r="H135" s="52"/>
-      <c r="I135" s="52"/>
-      <c r="J135" s="52"/>
-      <c r="K135" s="52"/>
-      <c r="L135" s="52"/>
-      <c r="M135" s="52"/>
-      <c r="N135" s="52"/>
-      <c r="O135" s="52"/>
-      <c r="P135" s="52"/>
-      <c r="Q135" s="52"/>
-      <c r="R135" s="52"/>
+      <c r="D135" s="61"/>
+      <c r="E135" s="61"/>
+      <c r="F135" s="61"/>
+      <c r="G135" s="61"/>
+      <c r="H135" s="61"/>
+      <c r="I135" s="61"/>
+      <c r="J135" s="61"/>
+      <c r="K135" s="61"/>
+      <c r="L135" s="61"/>
+      <c r="M135" s="61"/>
+      <c r="N135" s="61"/>
+      <c r="O135" s="61"/>
+      <c r="P135" s="61"/>
+      <c r="Q135" s="61"/>
+      <c r="R135" s="61"/>
     </row>
     <row r="136" spans="2:18" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B136" s="17"/>
-      <c r="D136" s="50" t="s">
+      <c r="D136" s="60" t="s">
         <v>1658</v>
       </c>
-      <c r="E136" s="50"/>
-      <c r="F136" s="50" t="s">
+      <c r="E136" s="60"/>
+      <c r="F136" s="60" t="s">
         <v>1696</v>
       </c>
-      <c r="G136" s="50" t="s">
+      <c r="G136" s="60" t="s">
         <v>387</v>
       </c>
-      <c r="H136" s="50" t="s">
+      <c r="H136" s="60" t="s">
         <v>1644</v>
       </c>
-      <c r="I136" s="50" t="s">
+      <c r="I136" s="60" t="s">
         <v>368</v>
       </c>
-      <c r="J136" s="50"/>
-      <c r="K136" s="50" t="s">
+      <c r="J136" s="60"/>
+      <c r="K136" s="60" t="s">
         <v>362</v>
       </c>
-      <c r="L136" s="50" t="s">
+      <c r="L136" s="60" t="s">
         <v>45</v>
       </c>
-      <c r="M136" s="50" t="s">
+      <c r="M136" s="60" t="s">
         <v>376</v>
       </c>
-      <c r="N136" s="50" t="s">
+      <c r="N136" s="60" t="s">
         <v>422</v>
       </c>
-      <c r="O136" s="50" t="s">
+      <c r="O136" s="60" t="s">
         <v>1431</v>
       </c>
-      <c r="P136" s="50" t="s">
+      <c r="P136" s="60" t="s">
         <v>338</v>
       </c>
-      <c r="Q136" s="50"/>
-      <c r="R136" s="50"/>
+      <c r="Q136" s="60"/>
+      <c r="R136" s="60"/>
     </row>
     <row r="137" spans="2:18" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B137" s="19">
@@ -19743,63 +19753,63 @@
     <row r="139" spans="2:18" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B139" s="12"/>
       <c r="C139" s="32"/>
-      <c r="D139" s="52"/>
-      <c r="E139" s="52"/>
-      <c r="F139" s="52"/>
-      <c r="G139" s="52"/>
-      <c r="H139" s="52"/>
-      <c r="I139" s="52"/>
-      <c r="J139" s="52"/>
-      <c r="K139" s="52"/>
-      <c r="L139" s="52"/>
-      <c r="M139" s="52"/>
-      <c r="N139" s="52"/>
-      <c r="O139" s="52"/>
-      <c r="P139" s="52"/>
-      <c r="Q139" s="52"/>
-      <c r="R139" s="52"/>
+      <c r="D139" s="61"/>
+      <c r="E139" s="61"/>
+      <c r="F139" s="61"/>
+      <c r="G139" s="61"/>
+      <c r="H139" s="61"/>
+      <c r="I139" s="61"/>
+      <c r="J139" s="61"/>
+      <c r="K139" s="61"/>
+      <c r="L139" s="61"/>
+      <c r="M139" s="61"/>
+      <c r="N139" s="61"/>
+      <c r="O139" s="61"/>
+      <c r="P139" s="61"/>
+      <c r="Q139" s="61"/>
+      <c r="R139" s="61"/>
     </row>
     <row r="140" spans="2:18" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B140" s="17"/>
-      <c r="D140" s="50" t="s">
+      <c r="D140" s="60" t="s">
         <v>1428</v>
       </c>
-      <c r="E140" s="50" t="s">
+      <c r="E140" s="60" t="s">
         <v>413</v>
       </c>
-      <c r="F140" s="50" t="s">
+      <c r="F140" s="60" t="s">
         <v>338</v>
       </c>
-      <c r="G140" s="50" t="s">
+      <c r="G140" s="60" t="s">
         <v>473</v>
       </c>
-      <c r="H140" s="50" t="s">
+      <c r="H140" s="60" t="s">
         <v>1495</v>
       </c>
-      <c r="I140" s="50" t="s">
+      <c r="I140" s="60" t="s">
         <v>1726</v>
       </c>
-      <c r="J140" s="50" t="s">
+      <c r="J140" s="60" t="s">
         <v>45</v>
       </c>
-      <c r="K140" s="50" t="s">
+      <c r="K140" s="60" t="s">
         <v>55</v>
       </c>
-      <c r="L140" s="50"/>
-      <c r="M140" s="50" t="s">
+      <c r="L140" s="60"/>
+      <c r="M140" s="60" t="s">
         <v>387</v>
       </c>
-      <c r="N140" s="50" t="s">
+      <c r="N140" s="60" t="s">
         <v>1728</v>
       </c>
-      <c r="O140" s="50" t="s">
+      <c r="O140" s="60" t="s">
         <v>1635</v>
       </c>
-      <c r="P140" s="50" t="s">
+      <c r="P140" s="60" t="s">
         <v>1535</v>
       </c>
-      <c r="Q140" s="50"/>
-      <c r="R140" s="50" t="s">
+      <c r="Q140" s="60"/>
+      <c r="R140" s="60" t="s">
         <v>468</v>
       </c>
     </row>
@@ -19901,63 +19911,63 @@
     <row r="143" spans="2:18" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B143" s="12"/>
       <c r="C143" s="32"/>
-      <c r="D143" s="52"/>
-      <c r="E143" s="52"/>
-      <c r="F143" s="52"/>
-      <c r="G143" s="52"/>
-      <c r="H143" s="52"/>
-      <c r="I143" s="52"/>
-      <c r="J143" s="52"/>
-      <c r="K143" s="52"/>
-      <c r="L143" s="52"/>
-      <c r="M143" s="52"/>
-      <c r="N143" s="52"/>
-      <c r="O143" s="52"/>
-      <c r="P143" s="52"/>
-      <c r="Q143" s="52"/>
-      <c r="R143" s="52"/>
+      <c r="D143" s="61"/>
+      <c r="E143" s="61"/>
+      <c r="F143" s="61"/>
+      <c r="G143" s="61"/>
+      <c r="H143" s="61"/>
+      <c r="I143" s="61"/>
+      <c r="J143" s="61"/>
+      <c r="K143" s="61"/>
+      <c r="L143" s="61"/>
+      <c r="M143" s="61"/>
+      <c r="N143" s="61"/>
+      <c r="O143" s="61"/>
+      <c r="P143" s="61"/>
+      <c r="Q143" s="61"/>
+      <c r="R143" s="61"/>
     </row>
     <row r="144" spans="2:18" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B144" s="17"/>
-      <c r="D144" s="50" t="s">
+      <c r="D144" s="60" t="s">
         <v>1652</v>
       </c>
-      <c r="E144" s="50"/>
-      <c r="F144" s="50" t="s">
+      <c r="E144" s="60"/>
+      <c r="F144" s="60" t="s">
         <v>368</v>
       </c>
-      <c r="G144" s="50" t="s">
+      <c r="G144" s="60" t="s">
         <v>1597</v>
       </c>
-      <c r="H144" s="50" t="s">
+      <c r="H144" s="60" t="s">
         <v>53</v>
       </c>
-      <c r="I144" s="50" t="s">
+      <c r="I144" s="60" t="s">
         <v>477</v>
       </c>
-      <c r="J144" s="50" t="s">
+      <c r="J144" s="60" t="s">
         <v>315</v>
       </c>
-      <c r="K144" s="50" t="s">
+      <c r="K144" s="60" t="s">
         <v>1734</v>
       </c>
-      <c r="L144" s="50" t="s">
+      <c r="L144" s="60" t="s">
         <v>354</v>
       </c>
-      <c r="M144" s="50" t="s">
+      <c r="M144" s="60" t="s">
         <v>345</v>
       </c>
-      <c r="N144" s="50" t="s">
+      <c r="N144" s="60" t="s">
         <v>63</v>
       </c>
-      <c r="O144" s="50" t="s">
+      <c r="O144" s="60" t="s">
         <v>1736</v>
       </c>
-      <c r="P144" s="50" t="s">
+      <c r="P144" s="60" t="s">
         <v>422</v>
       </c>
-      <c r="Q144" s="50"/>
-      <c r="R144" s="50" t="s">
+      <c r="Q144" s="60"/>
+      <c r="R144" s="60" t="s">
         <v>336</v>
       </c>
     </row>
@@ -20059,65 +20069,65 @@
     <row r="147" spans="2:18" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B147" s="12"/>
       <c r="C147" s="32"/>
-      <c r="D147" s="52"/>
-      <c r="E147" s="52"/>
-      <c r="F147" s="52"/>
-      <c r="G147" s="52"/>
-      <c r="H147" s="52"/>
-      <c r="I147" s="52"/>
-      <c r="J147" s="52"/>
-      <c r="K147" s="52"/>
-      <c r="L147" s="52"/>
-      <c r="M147" s="52"/>
-      <c r="N147" s="52"/>
-      <c r="O147" s="52"/>
-      <c r="P147" s="52"/>
-      <c r="Q147" s="52"/>
-      <c r="R147" s="52"/>
+      <c r="D147" s="61"/>
+      <c r="E147" s="61"/>
+      <c r="F147" s="61"/>
+      <c r="G147" s="61"/>
+      <c r="H147" s="61"/>
+      <c r="I147" s="61"/>
+      <c r="J147" s="61"/>
+      <c r="K147" s="61"/>
+      <c r="L147" s="61"/>
+      <c r="M147" s="61"/>
+      <c r="N147" s="61"/>
+      <c r="O147" s="61"/>
+      <c r="P147" s="61"/>
+      <c r="Q147" s="61"/>
+      <c r="R147" s="61"/>
     </row>
     <row r="148" spans="2:18" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B148" s="17"/>
-      <c r="D148" s="50" t="s">
+      <c r="D148" s="60" t="s">
         <v>1738</v>
       </c>
-      <c r="E148" s="50" t="s">
+      <c r="E148" s="60" t="s">
         <v>55</v>
       </c>
-      <c r="F148" s="50" t="s">
+      <c r="F148" s="60" t="s">
         <v>338</v>
       </c>
-      <c r="G148" s="50" t="s">
+      <c r="G148" s="60" t="s">
         <v>1621</v>
       </c>
-      <c r="H148" s="50" t="s">
+      <c r="H148" s="60" t="s">
         <v>1579</v>
       </c>
-      <c r="I148" s="50" t="s">
+      <c r="I148" s="60" t="s">
         <v>422</v>
       </c>
-      <c r="J148" s="50" t="s">
+      <c r="J148" s="60" t="s">
         <v>376</v>
       </c>
-      <c r="K148" s="50" t="s">
+      <c r="K148" s="60" t="s">
         <v>336</v>
       </c>
-      <c r="L148" s="50" t="s">
+      <c r="L148" s="60" t="s">
         <v>327</v>
       </c>
-      <c r="M148" s="50" t="s">
+      <c r="M148" s="60" t="s">
         <v>1449</v>
       </c>
-      <c r="N148" s="50" t="s">
+      <c r="N148" s="60" t="s">
         <v>338</v>
       </c>
-      <c r="O148" s="50"/>
-      <c r="P148" s="50" t="s">
+      <c r="O148" s="60"/>
+      <c r="P148" s="60" t="s">
         <v>387</v>
       </c>
-      <c r="Q148" s="50" t="s">
+      <c r="Q148" s="60" t="s">
         <v>1691</v>
       </c>
-      <c r="R148" s="50" t="s">
+      <c r="R148" s="60" t="s">
         <v>1693</v>
       </c>
     </row>
@@ -20221,63 +20231,63 @@
     <row r="151" spans="2:18" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B151" s="12"/>
       <c r="C151" s="32"/>
-      <c r="D151" s="52"/>
-      <c r="E151" s="52"/>
-      <c r="F151" s="52"/>
-      <c r="G151" s="52"/>
-      <c r="H151" s="52"/>
-      <c r="I151" s="52"/>
-      <c r="J151" s="52"/>
-      <c r="K151" s="52"/>
-      <c r="L151" s="52"/>
-      <c r="M151" s="52"/>
-      <c r="N151" s="52"/>
-      <c r="O151" s="52"/>
-      <c r="P151" s="52"/>
-      <c r="Q151" s="52"/>
-      <c r="R151" s="52"/>
+      <c r="D151" s="61"/>
+      <c r="E151" s="61"/>
+      <c r="F151" s="61"/>
+      <c r="G151" s="61"/>
+      <c r="H151" s="61"/>
+      <c r="I151" s="61"/>
+      <c r="J151" s="61"/>
+      <c r="K151" s="61"/>
+      <c r="L151" s="61"/>
+      <c r="M151" s="61"/>
+      <c r="N151" s="61"/>
+      <c r="O151" s="61"/>
+      <c r="P151" s="61"/>
+      <c r="Q151" s="61"/>
+      <c r="R151" s="61"/>
     </row>
     <row r="152" spans="2:18" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B152" s="17"/>
-      <c r="D152" s="50" t="s">
+      <c r="D152" s="60" t="s">
         <v>364</v>
       </c>
-      <c r="E152" s="50"/>
-      <c r="F152" s="50" t="s">
+      <c r="E152" s="60"/>
+      <c r="F152" s="60" t="s">
         <v>45</v>
       </c>
-      <c r="G152" s="50" t="s">
+      <c r="G152" s="60" t="s">
         <v>1674</v>
       </c>
-      <c r="H152" s="50" t="s">
+      <c r="H152" s="60" t="s">
         <v>426</v>
       </c>
-      <c r="I152" s="50" t="s">
+      <c r="I152" s="60" t="s">
         <v>336</v>
       </c>
-      <c r="J152" s="50" t="s">
+      <c r="J152" s="60" t="s">
         <v>1741</v>
       </c>
-      <c r="K152" s="50" t="s">
+      <c r="K152" s="60" t="s">
         <v>1502</v>
       </c>
-      <c r="L152" s="50"/>
-      <c r="M152" s="50" t="s">
+      <c r="L152" s="60"/>
+      <c r="M152" s="60" t="s">
         <v>457</v>
       </c>
-      <c r="N152" s="50" t="s">
+      <c r="N152" s="60" t="s">
         <v>1743</v>
       </c>
-      <c r="O152" s="50" t="s">
+      <c r="O152" s="60" t="s">
         <v>1745</v>
       </c>
-      <c r="P152" s="50" t="s">
+      <c r="P152" s="60" t="s">
         <v>354</v>
       </c>
-      <c r="Q152" s="50" t="s">
+      <c r="Q152" s="60" t="s">
         <v>48</v>
       </c>
-      <c r="R152" s="50" t="s">
+      <c r="R152" s="60" t="s">
         <v>52</v>
       </c>
     </row>
@@ -20379,61 +20389,61 @@
     <row r="155" spans="2:18" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B155" s="12"/>
       <c r="C155" s="32"/>
-      <c r="D155" s="52"/>
-      <c r="E155" s="52"/>
-      <c r="F155" s="52"/>
-      <c r="G155" s="52"/>
-      <c r="H155" s="52"/>
-      <c r="I155" s="52"/>
-      <c r="J155" s="52"/>
-      <c r="K155" s="52"/>
-      <c r="L155" s="52"/>
-      <c r="M155" s="52"/>
-      <c r="N155" s="52"/>
-      <c r="O155" s="52"/>
-      <c r="P155" s="52"/>
-      <c r="Q155" s="52"/>
-      <c r="R155" s="52"/>
+      <c r="D155" s="61"/>
+      <c r="E155" s="61"/>
+      <c r="F155" s="61"/>
+      <c r="G155" s="61"/>
+      <c r="H155" s="61"/>
+      <c r="I155" s="61"/>
+      <c r="J155" s="61"/>
+      <c r="K155" s="61"/>
+      <c r="L155" s="61"/>
+      <c r="M155" s="61"/>
+      <c r="N155" s="61"/>
+      <c r="O155" s="61"/>
+      <c r="P155" s="61"/>
+      <c r="Q155" s="61"/>
+      <c r="R155" s="61"/>
     </row>
     <row r="156" spans="2:18" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B156" s="17"/>
-      <c r="D156" s="50" t="s">
+      <c r="D156" s="60" t="s">
         <v>422</v>
       </c>
-      <c r="E156" s="50"/>
-      <c r="F156" s="50" t="s">
+      <c r="E156" s="60"/>
+      <c r="F156" s="60" t="s">
         <v>1696</v>
       </c>
-      <c r="G156" s="50" t="s">
+      <c r="G156" s="60" t="s">
         <v>1748</v>
       </c>
-      <c r="H156" s="50" t="s">
+      <c r="H156" s="60" t="s">
         <v>1750</v>
       </c>
-      <c r="I156" s="50" t="s">
+      <c r="I156" s="60" t="s">
         <v>1736</v>
       </c>
-      <c r="J156" s="50"/>
-      <c r="K156" s="50" t="s">
+      <c r="J156" s="60"/>
+      <c r="K156" s="60" t="s">
         <v>421</v>
       </c>
-      <c r="L156" s="50" t="s">
+      <c r="L156" s="60" t="s">
         <v>420</v>
       </c>
-      <c r="M156" s="50" t="s">
+      <c r="M156" s="60" t="s">
         <v>52</v>
       </c>
-      <c r="N156" s="50" t="s">
+      <c r="N156" s="60" t="s">
         <v>338</v>
       </c>
-      <c r="O156" s="50" t="s">
+      <c r="O156" s="60" t="s">
         <v>480</v>
       </c>
-      <c r="P156" s="50"/>
-      <c r="Q156" s="50" t="s">
+      <c r="P156" s="60"/>
+      <c r="Q156" s="60" t="s">
         <v>362</v>
       </c>
-      <c r="R156" s="50" t="s">
+      <c r="R156" s="60" t="s">
         <v>45</v>
       </c>
     </row>
@@ -20533,66 +20543,66 @@
     <row r="159" spans="2:18">
       <c r="B159" s="12"/>
       <c r="C159" s="32"/>
-      <c r="D159" s="52"/>
-      <c r="E159" s="52"/>
-      <c r="F159" s="52"/>
-      <c r="G159" s="52"/>
-      <c r="H159" s="52"/>
-      <c r="I159" s="52"/>
-      <c r="J159" s="52"/>
-      <c r="K159" s="52"/>
-      <c r="L159" s="52"/>
-      <c r="M159" s="52"/>
-      <c r="N159" s="52"/>
-      <c r="O159" s="52"/>
-      <c r="P159" s="52"/>
-      <c r="Q159" s="52"/>
-      <c r="R159" s="52"/>
+      <c r="D159" s="61"/>
+      <c r="E159" s="61"/>
+      <c r="F159" s="61"/>
+      <c r="G159" s="61"/>
+      <c r="H159" s="61"/>
+      <c r="I159" s="61"/>
+      <c r="J159" s="61"/>
+      <c r="K159" s="61"/>
+      <c r="L159" s="61"/>
+      <c r="M159" s="61"/>
+      <c r="N159" s="61"/>
+      <c r="O159" s="61"/>
+      <c r="P159" s="61"/>
+      <c r="Q159" s="61"/>
+      <c r="R159" s="61"/>
     </row>
     <row r="160" spans="2:18" ht="39.75">
       <c r="B160" s="17"/>
       <c r="C160" s="6"/>
-      <c r="D160" s="50" t="s">
+      <c r="D160" s="60" t="s">
         <v>1615</v>
       </c>
-      <c r="E160" s="50" t="s">
+      <c r="E160" s="60" t="s">
         <v>336</v>
       </c>
-      <c r="F160" s="50" t="s">
+      <c r="F160" s="60" t="s">
         <v>1752</v>
       </c>
-      <c r="G160" s="50" t="s">
+      <c r="G160" s="60" t="s">
         <v>1638</v>
       </c>
-      <c r="H160" s="50" t="s">
+      <c r="H160" s="60" t="s">
         <v>421</v>
       </c>
-      <c r="I160" s="50" t="s">
+      <c r="I160" s="60" t="s">
         <v>387</v>
       </c>
-      <c r="J160" s="50" t="s">
+      <c r="J160" s="60" t="s">
         <v>363</v>
       </c>
-      <c r="K160" s="50" t="s">
+      <c r="K160" s="60" t="s">
         <v>1662</v>
       </c>
-      <c r="L160" s="50" t="s">
+      <c r="L160" s="60" t="s">
         <v>364</v>
       </c>
-      <c r="M160" s="50"/>
-      <c r="N160" s="50" t="s">
+      <c r="M160" s="60"/>
+      <c r="N160" s="60" t="s">
         <v>1635</v>
       </c>
-      <c r="O160" s="50" t="s">
+      <c r="O160" s="60" t="s">
         <v>1535</v>
       </c>
-      <c r="P160" s="50" t="s">
+      <c r="P160" s="60" t="s">
         <v>1755</v>
       </c>
-      <c r="Q160" s="50" t="s">
+      <c r="Q160" s="60" t="s">
         <v>1748</v>
       </c>
-      <c r="R160" s="50" t="s">
+      <c r="R160" s="60" t="s">
         <v>391</v>
       </c>
     </row>
@@ -20696,63 +20706,63 @@
     <row r="163" spans="2:18" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B163" s="12"/>
       <c r="C163" s="32"/>
-      <c r="D163" s="52"/>
-      <c r="E163" s="52"/>
-      <c r="F163" s="52"/>
-      <c r="G163" s="52"/>
-      <c r="H163" s="52"/>
-      <c r="I163" s="52"/>
-      <c r="J163" s="52"/>
-      <c r="K163" s="52"/>
-      <c r="L163" s="52"/>
-      <c r="M163" s="52"/>
-      <c r="N163" s="52"/>
-      <c r="O163" s="52"/>
-      <c r="P163" s="52"/>
-      <c r="Q163" s="52"/>
-      <c r="R163" s="52"/>
+      <c r="D163" s="61"/>
+      <c r="E163" s="61"/>
+      <c r="F163" s="61"/>
+      <c r="G163" s="61"/>
+      <c r="H163" s="61"/>
+      <c r="I163" s="61"/>
+      <c r="J163" s="61"/>
+      <c r="K163" s="61"/>
+      <c r="L163" s="61"/>
+      <c r="M163" s="61"/>
+      <c r="N163" s="61"/>
+      <c r="O163" s="61"/>
+      <c r="P163" s="61"/>
+      <c r="Q163" s="61"/>
+      <c r="R163" s="61"/>
     </row>
     <row r="164" spans="2:18" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B164" s="17"/>
-      <c r="D164" s="50" t="s">
+      <c r="D164" s="60" t="s">
         <v>327</v>
       </c>
-      <c r="E164" s="50"/>
-      <c r="F164" s="50" t="s">
+      <c r="E164" s="60"/>
+      <c r="F164" s="60" t="s">
         <v>1698</v>
       </c>
-      <c r="G164" s="50" t="s">
+      <c r="G164" s="60" t="s">
         <v>399</v>
       </c>
-      <c r="H164" s="50" t="s">
+      <c r="H164" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="I164" s="50" t="s">
+      <c r="I164" s="60" t="s">
         <v>338</v>
       </c>
-      <c r="J164" s="50" t="s">
+      <c r="J164" s="60" t="s">
         <v>1760</v>
       </c>
-      <c r="K164" s="50" t="s">
+      <c r="K164" s="60" t="s">
         <v>421</v>
       </c>
-      <c r="L164" s="50" t="s">
+      <c r="L164" s="60" t="s">
         <v>440</v>
       </c>
-      <c r="M164" s="50"/>
-      <c r="N164" s="50" t="s">
+      <c r="M164" s="60"/>
+      <c r="N164" s="60" t="s">
         <v>337</v>
       </c>
-      <c r="O164" s="50" t="s">
+      <c r="O164" s="60" t="s">
         <v>1764</v>
       </c>
-      <c r="P164" s="50" t="s">
+      <c r="P164" s="60" t="s">
         <v>428</v>
       </c>
-      <c r="Q164" s="50" t="s">
+      <c r="Q164" s="60" t="s">
         <v>427</v>
       </c>
-      <c r="R164" s="50"/>
+      <c r="R164" s="60"/>
     </row>
     <row r="165" spans="2:18" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B165" s="19">
@@ -20850,66 +20860,66 @@
     <row r="167" spans="2:18">
       <c r="B167" s="12"/>
       <c r="C167" s="32"/>
-      <c r="D167" s="52"/>
-      <c r="E167" s="52"/>
-      <c r="F167" s="52"/>
-      <c r="G167" s="52"/>
-      <c r="H167" s="52"/>
-      <c r="I167" s="52"/>
-      <c r="J167" s="52"/>
-      <c r="K167" s="52"/>
-      <c r="L167" s="52"/>
-      <c r="M167" s="52"/>
-      <c r="N167" s="52"/>
-      <c r="O167" s="52"/>
-      <c r="P167" s="52"/>
-      <c r="Q167" s="52"/>
-      <c r="R167" s="52"/>
+      <c r="D167" s="61"/>
+      <c r="E167" s="61"/>
+      <c r="F167" s="61"/>
+      <c r="G167" s="61"/>
+      <c r="H167" s="61"/>
+      <c r="I167" s="61"/>
+      <c r="J167" s="61"/>
+      <c r="K167" s="61"/>
+      <c r="L167" s="61"/>
+      <c r="M167" s="61"/>
+      <c r="N167" s="61"/>
+      <c r="O167" s="61"/>
+      <c r="P167" s="61"/>
+      <c r="Q167" s="61"/>
+      <c r="R167" s="61"/>
     </row>
     <row r="168" spans="2:18" ht="39.75">
       <c r="B168" s="17"/>
       <c r="C168" s="6"/>
-      <c r="D168" s="50" t="s">
+      <c r="D168" s="60" t="s">
         <v>363</v>
       </c>
-      <c r="E168" s="50" t="s">
+      <c r="E168" s="60" t="s">
         <v>336</v>
       </c>
-      <c r="F168" s="50" t="s">
+      <c r="F168" s="60" t="s">
         <v>327</v>
       </c>
-      <c r="G168" s="50" t="s">
+      <c r="G168" s="60" t="s">
         <v>52</v>
       </c>
-      <c r="H168" s="50" t="s">
+      <c r="H168" s="60" t="s">
         <v>354</v>
       </c>
-      <c r="I168" s="50" t="s">
+      <c r="I168" s="60" t="s">
         <v>1726</v>
       </c>
-      <c r="J168" s="50"/>
-      <c r="K168" s="50" t="s">
+      <c r="J168" s="60"/>
+      <c r="K168" s="60" t="s">
         <v>333</v>
       </c>
-      <c r="L168" s="50" t="s">
+      <c r="L168" s="60" t="s">
         <v>53</v>
       </c>
-      <c r="M168" s="50" t="s">
+      <c r="M168" s="60" t="s">
         <v>1549</v>
       </c>
-      <c r="N168" s="50" t="s">
+      <c r="N168" s="60" t="s">
         <v>1701</v>
       </c>
-      <c r="O168" s="50" t="s">
+      <c r="O168" s="60" t="s">
         <v>421</v>
       </c>
-      <c r="P168" s="50" t="s">
+      <c r="P168" s="60" t="s">
         <v>387</v>
       </c>
-      <c r="Q168" s="50" t="s">
+      <c r="Q168" s="60" t="s">
         <v>1549</v>
       </c>
-      <c r="R168" s="50" t="s">
+      <c r="R168" s="60" t="s">
         <v>63</v>
       </c>
     </row>
@@ -21015,64 +21025,64 @@
     <row r="171" spans="2:18">
       <c r="B171" s="12"/>
       <c r="C171" s="32"/>
-      <c r="D171" s="52"/>
-      <c r="E171" s="52"/>
-      <c r="F171" s="52"/>
-      <c r="G171" s="52"/>
-      <c r="H171" s="52"/>
-      <c r="I171" s="52"/>
-      <c r="J171" s="52"/>
-      <c r="K171" s="52"/>
-      <c r="L171" s="52"/>
-      <c r="M171" s="52"/>
-      <c r="N171" s="52"/>
-      <c r="O171" s="52"/>
-      <c r="P171" s="52"/>
-      <c r="Q171" s="52"/>
-      <c r="R171" s="52"/>
+      <c r="D171" s="61"/>
+      <c r="E171" s="61"/>
+      <c r="F171" s="61"/>
+      <c r="G171" s="61"/>
+      <c r="H171" s="61"/>
+      <c r="I171" s="61"/>
+      <c r="J171" s="61"/>
+      <c r="K171" s="61"/>
+      <c r="L171" s="61"/>
+      <c r="M171" s="61"/>
+      <c r="N171" s="61"/>
+      <c r="O171" s="61"/>
+      <c r="P171" s="61"/>
+      <c r="Q171" s="61"/>
+      <c r="R171" s="61"/>
     </row>
     <row r="172" spans="2:18" ht="39.75">
       <c r="B172" s="17"/>
       <c r="C172" s="6"/>
-      <c r="D172" s="50"/>
-      <c r="E172" s="50" t="s">
+      <c r="D172" s="60"/>
+      <c r="E172" s="60" t="s">
         <v>1766</v>
       </c>
-      <c r="F172" s="50" t="s">
+      <c r="F172" s="60" t="s">
         <v>55</v>
       </c>
-      <c r="G172" s="50" t="s">
+      <c r="G172" s="60" t="s">
         <v>1506</v>
       </c>
-      <c r="H172" s="50" t="s">
+      <c r="H172" s="60" t="s">
         <v>336</v>
       </c>
-      <c r="I172" s="50" t="s">
+      <c r="I172" s="60" t="s">
         <v>53</v>
       </c>
-      <c r="J172" s="50" t="s">
+      <c r="J172" s="60" t="s">
         <v>1701</v>
       </c>
-      <c r="K172" s="50" t="s">
+      <c r="K172" s="60" t="s">
         <v>421</v>
       </c>
-      <c r="L172" s="50" t="s">
+      <c r="L172" s="60" t="s">
         <v>1769</v>
       </c>
-      <c r="M172" s="50"/>
-      <c r="N172" s="50" t="s">
+      <c r="M172" s="60"/>
+      <c r="N172" s="60" t="s">
         <v>1766</v>
       </c>
-      <c r="O172" s="50" t="s">
+      <c r="O172" s="60" t="s">
         <v>1539</v>
       </c>
-      <c r="P172" s="50" t="s">
+      <c r="P172" s="60" t="s">
         <v>387</v>
       </c>
-      <c r="Q172" s="50" t="s">
+      <c r="Q172" s="60" t="s">
         <v>479</v>
       </c>
-      <c r="R172" s="50" t="s">
+      <c r="R172" s="60" t="s">
         <v>1772</v>
       </c>
     </row>
@@ -21176,62 +21186,62 @@
     <row r="175" spans="2:18">
       <c r="B175" s="12"/>
       <c r="C175" s="32"/>
-      <c r="D175" s="52"/>
-      <c r="E175" s="52"/>
-      <c r="F175" s="52"/>
-      <c r="G175" s="52"/>
-      <c r="H175" s="52"/>
-      <c r="I175" s="52"/>
-      <c r="J175" s="52"/>
-      <c r="K175" s="52"/>
-      <c r="L175" s="52"/>
-      <c r="M175" s="52"/>
-      <c r="N175" s="52"/>
-      <c r="O175" s="52"/>
-      <c r="P175" s="52"/>
-      <c r="Q175" s="52"/>
-      <c r="R175" s="52"/>
+      <c r="D175" s="61"/>
+      <c r="E175" s="61"/>
+      <c r="F175" s="61"/>
+      <c r="G175" s="61"/>
+      <c r="H175" s="61"/>
+      <c r="I175" s="61"/>
+      <c r="J175" s="61"/>
+      <c r="K175" s="61"/>
+      <c r="L175" s="61"/>
+      <c r="M175" s="61"/>
+      <c r="N175" s="61"/>
+      <c r="O175" s="61"/>
+      <c r="P175" s="61"/>
+      <c r="Q175" s="61"/>
+      <c r="R175" s="61"/>
     </row>
     <row r="176" spans="2:18" ht="39.75">
       <c r="B176" s="17"/>
       <c r="C176" s="6"/>
-      <c r="D176" s="50" t="s">
+      <c r="D176" s="60" t="s">
         <v>362</v>
       </c>
-      <c r="E176" s="50"/>
-      <c r="F176" s="50" t="s">
+      <c r="E176" s="60"/>
+      <c r="F176" s="60" t="s">
         <v>48</v>
       </c>
-      <c r="G176" s="50" t="s">
+      <c r="G176" s="60" t="s">
         <v>308</v>
       </c>
-      <c r="H176" s="50" t="s">
+      <c r="H176" s="60" t="s">
         <v>1649</v>
       </c>
-      <c r="I176" s="50" t="s">
+      <c r="I176" s="60" t="s">
         <v>1701</v>
       </c>
-      <c r="J176" s="50" t="s">
+      <c r="J176" s="60" t="s">
         <v>421</v>
       </c>
-      <c r="K176" s="50" t="s">
+      <c r="K176" s="60" t="s">
         <v>336</v>
       </c>
-      <c r="L176" s="50"/>
-      <c r="M176" s="50" t="s">
+      <c r="L176" s="60"/>
+      <c r="M176" s="60" t="s">
         <v>1682</v>
       </c>
-      <c r="N176" s="50" t="s">
+      <c r="N176" s="60" t="s">
         <v>1776</v>
       </c>
-      <c r="O176" s="50" t="s">
+      <c r="O176" s="60" t="s">
         <v>312</v>
       </c>
-      <c r="P176" s="50" t="s">
+      <c r="P176" s="60" t="s">
         <v>1779</v>
       </c>
-      <c r="Q176" s="50"/>
-      <c r="R176" s="50" t="s">
+      <c r="Q176" s="60"/>
+      <c r="R176" s="60" t="s">
         <v>1781</v>
       </c>
     </row>
@@ -21333,64 +21343,64 @@
     <row r="179" spans="2:18">
       <c r="B179" s="12"/>
       <c r="C179" s="32"/>
-      <c r="D179" s="52"/>
-      <c r="E179" s="52"/>
-      <c r="F179" s="52"/>
-      <c r="G179" s="52"/>
-      <c r="H179" s="52"/>
-      <c r="I179" s="52"/>
-      <c r="J179" s="52"/>
-      <c r="K179" s="52"/>
-      <c r="L179" s="52"/>
-      <c r="M179" s="52"/>
-      <c r="N179" s="52"/>
-      <c r="O179" s="52"/>
-      <c r="P179" s="52"/>
-      <c r="Q179" s="52"/>
-      <c r="R179" s="52"/>
+      <c r="D179" s="61"/>
+      <c r="E179" s="61"/>
+      <c r="F179" s="61"/>
+      <c r="G179" s="61"/>
+      <c r="H179" s="61"/>
+      <c r="I179" s="61"/>
+      <c r="J179" s="61"/>
+      <c r="K179" s="61"/>
+      <c r="L179" s="61"/>
+      <c r="M179" s="61"/>
+      <c r="N179" s="61"/>
+      <c r="O179" s="61"/>
+      <c r="P179" s="61"/>
+      <c r="Q179" s="61"/>
+      <c r="R179" s="61"/>
     </row>
     <row r="180" spans="2:18" ht="39.75">
       <c r="B180" s="17"/>
       <c r="C180" s="6"/>
-      <c r="D180" s="50" t="s">
+      <c r="D180" s="60" t="s">
         <v>40</v>
       </c>
-      <c r="E180" s="50" t="s">
+      <c r="E180" s="60" t="s">
         <v>1579</v>
       </c>
-      <c r="F180" s="50"/>
-      <c r="G180" s="50" t="s">
+      <c r="F180" s="60"/>
+      <c r="G180" s="60" t="s">
         <v>55</v>
       </c>
-      <c r="H180" s="50" t="s">
+      <c r="H180" s="60" t="s">
         <v>338</v>
       </c>
-      <c r="I180" s="50" t="s">
+      <c r="I180" s="60" t="s">
         <v>1621</v>
       </c>
-      <c r="J180" s="50" t="s">
+      <c r="J180" s="60" t="s">
         <v>381</v>
       </c>
-      <c r="K180" s="50" t="s">
+      <c r="K180" s="60" t="s">
         <v>422</v>
       </c>
-      <c r="L180" s="50" t="s">
+      <c r="L180" s="60" t="s">
         <v>1783</v>
       </c>
-      <c r="M180" s="50" t="s">
+      <c r="M180" s="60" t="s">
         <v>421</v>
       </c>
-      <c r="N180" s="50" t="s">
+      <c r="N180" s="60" t="s">
         <v>483</v>
       </c>
-      <c r="O180" s="50" t="s">
+      <c r="O180" s="60" t="s">
         <v>1530</v>
       </c>
-      <c r="P180" s="50" t="s">
+      <c r="P180" s="60" t="s">
         <v>1786</v>
       </c>
-      <c r="Q180" s="50"/>
-      <c r="R180" s="50" t="s">
+      <c r="Q180" s="60"/>
+      <c r="R180" s="60" t="s">
         <v>1788</v>
       </c>
     </row>
@@ -21494,64 +21504,64 @@
     <row r="183" spans="2:18">
       <c r="B183" s="12"/>
       <c r="C183" s="32"/>
-      <c r="D183" s="52"/>
-      <c r="E183" s="52"/>
-      <c r="F183" s="52"/>
-      <c r="G183" s="52"/>
-      <c r="H183" s="52"/>
-      <c r="I183" s="52"/>
-      <c r="J183" s="52"/>
-      <c r="K183" s="52"/>
-      <c r="L183" s="52"/>
-      <c r="M183" s="52"/>
-      <c r="N183" s="52"/>
-      <c r="O183" s="52"/>
-      <c r="P183" s="52"/>
-      <c r="Q183" s="52"/>
-      <c r="R183" s="52"/>
+      <c r="D183" s="61"/>
+      <c r="E183" s="61"/>
+      <c r="F183" s="61"/>
+      <c r="G183" s="61"/>
+      <c r="H183" s="61"/>
+      <c r="I183" s="61"/>
+      <c r="J183" s="61"/>
+      <c r="K183" s="61"/>
+      <c r="L183" s="61"/>
+      <c r="M183" s="61"/>
+      <c r="N183" s="61"/>
+      <c r="O183" s="61"/>
+      <c r="P183" s="61"/>
+      <c r="Q183" s="61"/>
+      <c r="R183" s="61"/>
     </row>
     <row r="184" spans="2:18" ht="39.75">
       <c r="B184" s="17"/>
       <c r="C184" s="6"/>
-      <c r="D184" s="50" t="s">
+      <c r="D184" s="60" t="s">
         <v>338</v>
       </c>
-      <c r="E184" s="50" t="s">
+      <c r="E184" s="60" t="s">
         <v>1497</v>
       </c>
-      <c r="F184" s="50" t="s">
+      <c r="F184" s="60" t="s">
         <v>333</v>
       </c>
-      <c r="G184" s="50" t="s">
+      <c r="G184" s="60" t="s">
         <v>51</v>
       </c>
-      <c r="H184" s="50" t="s">
+      <c r="H184" s="60" t="s">
         <v>429</v>
       </c>
-      <c r="I184" s="50" t="s">
+      <c r="I184" s="60" t="s">
         <v>305</v>
       </c>
-      <c r="J184" s="50"/>
-      <c r="K184" s="50" t="s">
+      <c r="J184" s="60"/>
+      <c r="K184" s="60" t="s">
         <v>1539</v>
       </c>
-      <c r="L184" s="50" t="s">
+      <c r="L184" s="60" t="s">
         <v>387</v>
       </c>
-      <c r="M184" s="50" t="s">
+      <c r="M184" s="60" t="s">
         <v>52</v>
       </c>
-      <c r="N184" s="50" t="s">
+      <c r="N184" s="60" t="s">
         <v>338</v>
       </c>
-      <c r="O184" s="50" t="s">
+      <c r="O184" s="60" t="s">
         <v>1484</v>
       </c>
-      <c r="P184" s="50" t="s">
+      <c r="P184" s="60" t="s">
         <v>422</v>
       </c>
-      <c r="Q184" s="50"/>
-      <c r="R184" s="50" t="s">
+      <c r="Q184" s="60"/>
+      <c r="R184" s="60" t="s">
         <v>457</v>
       </c>
     </row>
@@ -21655,66 +21665,66 @@
     <row r="187" spans="2:18">
       <c r="B187" s="12"/>
       <c r="C187" s="32"/>
-      <c r="D187" s="52"/>
-      <c r="E187" s="52"/>
-      <c r="F187" s="52"/>
-      <c r="G187" s="52"/>
-      <c r="H187" s="52"/>
-      <c r="I187" s="52"/>
-      <c r="J187" s="52"/>
-      <c r="K187" s="52"/>
-      <c r="L187" s="52"/>
-      <c r="M187" s="52"/>
-      <c r="N187" s="52"/>
-      <c r="O187" s="52"/>
-      <c r="P187" s="52"/>
-      <c r="Q187" s="52"/>
-      <c r="R187" s="52"/>
+      <c r="D187" s="61"/>
+      <c r="E187" s="61"/>
+      <c r="F187" s="61"/>
+      <c r="G187" s="61"/>
+      <c r="H187" s="61"/>
+      <c r="I187" s="61"/>
+      <c r="J187" s="61"/>
+      <c r="K187" s="61"/>
+      <c r="L187" s="61"/>
+      <c r="M187" s="61"/>
+      <c r="N187" s="61"/>
+      <c r="O187" s="61"/>
+      <c r="P187" s="61"/>
+      <c r="Q187" s="61"/>
+      <c r="R187" s="61"/>
     </row>
     <row r="188" spans="2:18" ht="39.75">
       <c r="B188" s="17"/>
       <c r="C188" s="6"/>
-      <c r="D188" s="50" t="s">
+      <c r="D188" s="60" t="s">
         <v>1638</v>
       </c>
-      <c r="E188" s="50" t="s">
+      <c r="E188" s="60" t="s">
         <v>483</v>
       </c>
-      <c r="F188" s="50" t="s">
+      <c r="F188" s="60" t="s">
         <v>469</v>
       </c>
-      <c r="G188" s="50"/>
-      <c r="H188" s="50" t="s">
+      <c r="G188" s="60"/>
+      <c r="H188" s="60" t="s">
         <v>387</v>
       </c>
-      <c r="I188" s="50" t="s">
+      <c r="I188" s="60" t="s">
         <v>1656</v>
       </c>
-      <c r="J188" s="50" t="s">
+      <c r="J188" s="60" t="s">
         <v>45</v>
       </c>
-      <c r="K188" s="50" t="s">
+      <c r="K188" s="60" t="s">
         <v>48</v>
       </c>
-      <c r="L188" s="50" t="s">
+      <c r="L188" s="60" t="s">
         <v>2108</v>
       </c>
-      <c r="M188" s="50" t="s">
+      <c r="M188" s="60" t="s">
         <v>1792</v>
       </c>
-      <c r="N188" s="50" t="s">
+      <c r="N188" s="60" t="s">
         <v>1535</v>
       </c>
-      <c r="O188" s="50" t="s">
+      <c r="O188" s="60" t="s">
         <v>824</v>
       </c>
-      <c r="P188" s="50" t="s">
+      <c r="P188" s="60" t="s">
         <v>336</v>
       </c>
-      <c r="Q188" s="50" t="s">
+      <c r="Q188" s="60" t="s">
         <v>1794</v>
       </c>
-      <c r="R188" s="50" t="s">
+      <c r="R188" s="60" t="s">
         <v>1635</v>
       </c>
     </row>
@@ -21820,66 +21830,66 @@
     <row r="191" spans="2:18">
       <c r="B191" s="12"/>
       <c r="C191" s="32"/>
-      <c r="D191" s="52"/>
-      <c r="E191" s="52"/>
-      <c r="F191" s="52"/>
-      <c r="G191" s="52"/>
-      <c r="H191" s="52"/>
-      <c r="I191" s="52"/>
-      <c r="J191" s="52"/>
-      <c r="K191" s="52"/>
-      <c r="L191" s="52"/>
-      <c r="M191" s="52"/>
-      <c r="N191" s="52"/>
-      <c r="O191" s="52"/>
-      <c r="P191" s="52"/>
-      <c r="Q191" s="52"/>
-      <c r="R191" s="52"/>
+      <c r="D191" s="61"/>
+      <c r="E191" s="61"/>
+      <c r="F191" s="61"/>
+      <c r="G191" s="61"/>
+      <c r="H191" s="61"/>
+      <c r="I191" s="61"/>
+      <c r="J191" s="61"/>
+      <c r="K191" s="61"/>
+      <c r="L191" s="61"/>
+      <c r="M191" s="61"/>
+      <c r="N191" s="61"/>
+      <c r="O191" s="61"/>
+      <c r="P191" s="61"/>
+      <c r="Q191" s="61"/>
+      <c r="R191" s="61"/>
     </row>
     <row r="192" spans="2:18" ht="39.75">
       <c r="B192" s="17"/>
       <c r="C192" s="6"/>
-      <c r="D192" s="50" t="s">
+      <c r="D192" s="60" t="s">
         <v>333</v>
       </c>
-      <c r="E192" s="50" t="s">
+      <c r="E192" s="60" t="s">
         <v>1797</v>
       </c>
-      <c r="F192" s="50" t="s">
+      <c r="F192" s="60" t="s">
         <v>2110</v>
       </c>
-      <c r="G192" s="50" t="s">
+      <c r="G192" s="60" t="s">
         <v>1609</v>
       </c>
-      <c r="H192" s="50"/>
-      <c r="I192" s="50" t="s">
+      <c r="H192" s="60"/>
+      <c r="I192" s="60" t="s">
         <v>1799</v>
       </c>
-      <c r="J192" s="50" t="s">
+      <c r="J192" s="60" t="s">
         <v>1801</v>
       </c>
-      <c r="K192" s="50" t="s">
+      <c r="K192" s="60" t="s">
         <v>1803</v>
       </c>
-      <c r="L192" s="50" t="s">
+      <c r="L192" s="60" t="s">
         <v>426</v>
       </c>
-      <c r="M192" s="50" t="s">
+      <c r="M192" s="60" t="s">
         <v>1561</v>
       </c>
-      <c r="N192" s="50" t="s">
+      <c r="N192" s="60" t="s">
         <v>1805</v>
       </c>
-      <c r="O192" s="50" t="s">
+      <c r="O192" s="60" t="s">
         <v>336</v>
       </c>
-      <c r="P192" s="50" t="s">
+      <c r="P192" s="60" t="s">
         <v>1451</v>
       </c>
-      <c r="Q192" s="50" t="s">
+      <c r="Q192" s="60" t="s">
         <v>477</v>
       </c>
-      <c r="R192" s="50" t="s">
+      <c r="R192" s="60" t="s">
         <v>364</v>
       </c>
     </row>
@@ -21985,64 +21995,64 @@
     <row r="195" spans="2:18">
       <c r="B195" s="12"/>
       <c r="C195" s="32"/>
-      <c r="D195" s="52"/>
-      <c r="E195" s="52"/>
-      <c r="F195" s="52"/>
-      <c r="G195" s="52"/>
-      <c r="H195" s="52"/>
-      <c r="I195" s="52"/>
-      <c r="J195" s="52"/>
-      <c r="K195" s="52"/>
-      <c r="L195" s="52"/>
-      <c r="M195" s="52"/>
-      <c r="N195" s="52"/>
-      <c r="O195" s="52"/>
-      <c r="P195" s="52"/>
-      <c r="Q195" s="52"/>
-      <c r="R195" s="52"/>
+      <c r="D195" s="61"/>
+      <c r="E195" s="61"/>
+      <c r="F195" s="61"/>
+      <c r="G195" s="61"/>
+      <c r="H195" s="61"/>
+      <c r="I195" s="61"/>
+      <c r="J195" s="61"/>
+      <c r="K195" s="61"/>
+      <c r="L195" s="61"/>
+      <c r="M195" s="61"/>
+      <c r="N195" s="61"/>
+      <c r="O195" s="61"/>
+      <c r="P195" s="61"/>
+      <c r="Q195" s="61"/>
+      <c r="R195" s="61"/>
     </row>
     <row r="196" spans="2:18" ht="39.75">
       <c r="B196" s="17"/>
       <c r="C196" s="6"/>
-      <c r="D196" s="50"/>
-      <c r="E196" s="50" t="s">
+      <c r="D196" s="60"/>
+      <c r="E196" s="60" t="s">
         <v>1565</v>
       </c>
-      <c r="F196" s="50" t="s">
+      <c r="F196" s="60" t="s">
         <v>338</v>
       </c>
-      <c r="G196" s="50" t="s">
+      <c r="G196" s="60" t="s">
         <v>1808</v>
       </c>
-      <c r="H196" s="50" t="s">
+      <c r="H196" s="60" t="s">
         <v>1696</v>
       </c>
-      <c r="I196" s="50" t="s">
+      <c r="I196" s="60" t="s">
         <v>1779</v>
       </c>
-      <c r="J196" s="50" t="s">
+      <c r="J196" s="60" t="s">
         <v>333</v>
       </c>
-      <c r="K196" s="50" t="s">
+      <c r="K196" s="60" t="s">
         <v>468</v>
       </c>
-      <c r="L196" s="50" t="s">
+      <c r="L196" s="60" t="s">
         <v>1652</v>
       </c>
-      <c r="M196" s="50"/>
-      <c r="N196" s="50" t="s">
+      <c r="M196" s="60"/>
+      <c r="N196" s="60" t="s">
         <v>368</v>
       </c>
-      <c r="O196" s="50" t="s">
+      <c r="O196" s="60" t="s">
         <v>1635</v>
       </c>
-      <c r="P196" s="50" t="s">
+      <c r="P196" s="60" t="s">
         <v>1635</v>
       </c>
-      <c r="Q196" s="50" t="s">
+      <c r="Q196" s="60" t="s">
         <v>1535</v>
       </c>
-      <c r="R196" s="50" t="s">
+      <c r="R196" s="60" t="s">
         <v>1656</v>
       </c>
     </row>
@@ -22146,64 +22156,64 @@
     <row r="199" spans="2:18">
       <c r="B199" s="12"/>
       <c r="C199" s="32"/>
-      <c r="D199" s="52"/>
-      <c r="E199" s="52"/>
-      <c r="F199" s="52"/>
-      <c r="G199" s="52"/>
-      <c r="H199" s="52"/>
-      <c r="I199" s="52"/>
-      <c r="J199" s="52"/>
-      <c r="K199" s="52"/>
-      <c r="L199" s="52"/>
-      <c r="M199" s="52"/>
-      <c r="N199" s="52"/>
-      <c r="O199" s="52"/>
-      <c r="P199" s="52"/>
-      <c r="Q199" s="52"/>
-      <c r="R199" s="52"/>
+      <c r="D199" s="61"/>
+      <c r="E199" s="61"/>
+      <c r="F199" s="61"/>
+      <c r="G199" s="61"/>
+      <c r="H199" s="61"/>
+      <c r="I199" s="61"/>
+      <c r="J199" s="61"/>
+      <c r="K199" s="61"/>
+      <c r="L199" s="61"/>
+      <c r="M199" s="61"/>
+      <c r="N199" s="61"/>
+      <c r="O199" s="61"/>
+      <c r="P199" s="61"/>
+      <c r="Q199" s="61"/>
+      <c r="R199" s="61"/>
     </row>
     <row r="200" spans="2:18" ht="39.75">
       <c r="B200" s="17"/>
       <c r="C200" s="6"/>
-      <c r="D200" s="50" t="s">
+      <c r="D200" s="60" t="s">
         <v>417</v>
       </c>
-      <c r="E200" s="50" t="s">
+      <c r="E200" s="60" t="s">
         <v>362</v>
       </c>
-      <c r="F200" s="50" t="s">
+      <c r="F200" s="60" t="s">
         <v>51</v>
       </c>
-      <c r="G200" s="50" t="s">
+      <c r="G200" s="60" t="s">
         <v>63</v>
       </c>
-      <c r="H200" s="50" t="s">
+      <c r="H200" s="60" t="s">
         <v>422</v>
       </c>
-      <c r="I200" s="50"/>
-      <c r="J200" s="50" t="s">
+      <c r="I200" s="60"/>
+      <c r="J200" s="60" t="s">
         <v>411</v>
       </c>
-      <c r="K200" s="50" t="s">
+      <c r="K200" s="60" t="s">
         <v>336</v>
       </c>
-      <c r="L200" s="50" t="s">
+      <c r="L200" s="60" t="s">
         <v>362</v>
       </c>
-      <c r="M200" s="50" t="s">
+      <c r="M200" s="60" t="s">
         <v>338</v>
       </c>
-      <c r="N200" s="50"/>
-      <c r="O200" s="50" t="s">
+      <c r="N200" s="60"/>
+      <c r="O200" s="60" t="s">
         <v>1635</v>
       </c>
-      <c r="P200" s="50" t="s">
+      <c r="P200" s="60" t="s">
         <v>387</v>
       </c>
-      <c r="Q200" s="50" t="s">
+      <c r="Q200" s="60" t="s">
         <v>1691</v>
       </c>
-      <c r="R200" s="50" t="s">
+      <c r="R200" s="60" t="s">
         <v>1693</v>
       </c>
     </row>
@@ -22307,64 +22317,64 @@
     <row r="203" spans="2:18">
       <c r="B203" s="12"/>
       <c r="C203" s="32"/>
-      <c r="D203" s="52"/>
-      <c r="E203" s="52"/>
-      <c r="F203" s="52"/>
-      <c r="G203" s="52"/>
-      <c r="H203" s="52"/>
-      <c r="I203" s="52"/>
-      <c r="J203" s="52"/>
-      <c r="K203" s="52"/>
-      <c r="L203" s="52"/>
-      <c r="M203" s="52"/>
-      <c r="N203" s="52"/>
-      <c r="O203" s="52"/>
-      <c r="P203" s="52"/>
-      <c r="Q203" s="52"/>
-      <c r="R203" s="52"/>
+      <c r="D203" s="61"/>
+      <c r="E203" s="61"/>
+      <c r="F203" s="61"/>
+      <c r="G203" s="61"/>
+      <c r="H203" s="61"/>
+      <c r="I203" s="61"/>
+      <c r="J203" s="61"/>
+      <c r="K203" s="61"/>
+      <c r="L203" s="61"/>
+      <c r="M203" s="61"/>
+      <c r="N203" s="61"/>
+      <c r="O203" s="61"/>
+      <c r="P203" s="61"/>
+      <c r="Q203" s="61"/>
+      <c r="R203" s="61"/>
     </row>
     <row r="204" spans="2:18" ht="39.75">
       <c r="B204" s="17"/>
       <c r="C204" s="6"/>
-      <c r="D204" s="50"/>
-      <c r="E204" s="50" t="s">
+      <c r="D204" s="60"/>
+      <c r="E204" s="60" t="s">
         <v>1565</v>
       </c>
-      <c r="F204" s="50" t="s">
+      <c r="F204" s="60" t="s">
         <v>338</v>
       </c>
-      <c r="G204" s="50" t="s">
+      <c r="G204" s="60" t="s">
         <v>1662</v>
       </c>
-      <c r="H204" s="50" t="s">
+      <c r="H204" s="60" t="s">
         <v>387</v>
       </c>
-      <c r="I204" s="50" t="s">
+      <c r="I204" s="60" t="s">
         <v>49</v>
       </c>
-      <c r="J204" s="50" t="s">
+      <c r="J204" s="60" t="s">
         <v>383</v>
       </c>
-      <c r="K204" s="50" t="s">
+      <c r="K204" s="60" t="s">
         <v>53</v>
       </c>
-      <c r="L204" s="50" t="s">
+      <c r="L204" s="60" t="s">
         <v>1660</v>
       </c>
-      <c r="M204" s="50" t="s">
+      <c r="M204" s="60" t="s">
         <v>364</v>
       </c>
-      <c r="N204" s="50"/>
-      <c r="O204" s="50" t="s">
+      <c r="N204" s="60"/>
+      <c r="O204" s="60" t="s">
         <v>1813</v>
       </c>
-      <c r="P204" s="50" t="s">
+      <c r="P204" s="60" t="s">
         <v>315</v>
       </c>
-      <c r="Q204" s="50" t="s">
+      <c r="Q204" s="60" t="s">
         <v>360</v>
       </c>
-      <c r="R204" s="50" t="s">
+      <c r="R204" s="60" t="s">
         <v>406</v>
       </c>
     </row>
@@ -22468,66 +22478,66 @@
     <row r="207" spans="2:18">
       <c r="B207" s="25"/>
       <c r="C207" s="26"/>
-      <c r="D207" s="52"/>
-      <c r="E207" s="52"/>
-      <c r="F207" s="52"/>
-      <c r="G207" s="52"/>
-      <c r="H207" s="52"/>
-      <c r="I207" s="52"/>
-      <c r="J207" s="52"/>
-      <c r="K207" s="52"/>
-      <c r="L207" s="52"/>
-      <c r="M207" s="52"/>
-      <c r="N207" s="52"/>
-      <c r="O207" s="52"/>
-      <c r="P207" s="52"/>
-      <c r="Q207" s="52"/>
-      <c r="R207" s="52"/>
+      <c r="D207" s="61"/>
+      <c r="E207" s="61"/>
+      <c r="F207" s="61"/>
+      <c r="G207" s="61"/>
+      <c r="H207" s="61"/>
+      <c r="I207" s="61"/>
+      <c r="J207" s="61"/>
+      <c r="K207" s="61"/>
+      <c r="L207" s="61"/>
+      <c r="M207" s="61"/>
+      <c r="N207" s="61"/>
+      <c r="O207" s="61"/>
+      <c r="P207" s="61"/>
+      <c r="Q207" s="61"/>
+      <c r="R207" s="61"/>
     </row>
     <row r="208" spans="2:18" ht="39.75">
       <c r="B208" s="17"/>
       <c r="C208" s="6"/>
-      <c r="D208" s="50" t="s">
+      <c r="D208" s="60" t="s">
         <v>1603</v>
       </c>
-      <c r="E208" s="50" t="s">
+      <c r="E208" s="60" t="s">
         <v>333</v>
       </c>
-      <c r="F208" s="50" t="s">
+      <c r="F208" s="60" t="s">
         <v>348</v>
       </c>
-      <c r="G208" s="50" t="s">
+      <c r="G208" s="60" t="s">
         <v>461</v>
       </c>
-      <c r="H208" s="50" t="s">
+      <c r="H208" s="60" t="s">
         <v>421</v>
       </c>
-      <c r="I208" s="50" t="s">
+      <c r="I208" s="60" t="s">
         <v>418</v>
       </c>
-      <c r="J208" s="50" t="s">
+      <c r="J208" s="60" t="s">
         <v>1820</v>
       </c>
-      <c r="K208" s="50" t="s">
+      <c r="K208" s="60" t="s">
         <v>338</v>
       </c>
-      <c r="L208" s="50"/>
-      <c r="M208" s="50" t="s">
+      <c r="L208" s="60"/>
+      <c r="M208" s="60" t="s">
         <v>387</v>
       </c>
-      <c r="N208" s="50" t="s">
+      <c r="N208" s="60" t="s">
         <v>1656</v>
       </c>
-      <c r="O208" s="50" t="s">
+      <c r="O208" s="60" t="s">
         <v>45</v>
       </c>
-      <c r="P208" s="50" t="s">
+      <c r="P208" s="60" t="s">
         <v>1801</v>
       </c>
-      <c r="Q208" s="50" t="s">
+      <c r="Q208" s="60" t="s">
         <v>1822</v>
       </c>
-      <c r="R208" s="50" t="s">
+      <c r="R208" s="60" t="s">
         <v>63</v>
       </c>
     </row>
@@ -22633,59 +22643,59 @@
     <row r="211" spans="2:18">
       <c r="B211" s="30"/>
       <c r="C211" s="31"/>
-      <c r="D211" s="52"/>
-      <c r="E211" s="52"/>
-      <c r="F211" s="52"/>
-      <c r="G211" s="52"/>
-      <c r="H211" s="52"/>
-      <c r="I211" s="52"/>
-      <c r="J211" s="52"/>
-      <c r="K211" s="52"/>
-      <c r="L211" s="52"/>
-      <c r="M211" s="52"/>
-      <c r="N211" s="52"/>
-      <c r="O211" s="52"/>
-      <c r="P211" s="52"/>
-      <c r="Q211" s="52"/>
+      <c r="D211" s="61"/>
+      <c r="E211" s="61"/>
+      <c r="F211" s="61"/>
+      <c r="G211" s="61"/>
+      <c r="H211" s="61"/>
+      <c r="I211" s="61"/>
+      <c r="J211" s="61"/>
+      <c r="K211" s="61"/>
+      <c r="L211" s="61"/>
+      <c r="M211" s="61"/>
+      <c r="N211" s="61"/>
+      <c r="O211" s="61"/>
+      <c r="P211" s="61"/>
+      <c r="Q211" s="61"/>
       <c r="R211" s="52"/>
     </row>
     <row r="212" spans="2:18" ht="39.75">
       <c r="B212" s="17"/>
       <c r="C212" s="6"/>
-      <c r="D212" s="50"/>
-      <c r="E212" s="50" t="s">
+      <c r="D212" s="60"/>
+      <c r="E212" s="60" t="s">
         <v>1652</v>
       </c>
-      <c r="F212" s="50" t="s">
+      <c r="F212" s="60" t="s">
         <v>336</v>
       </c>
-      <c r="G212" s="50" t="s">
+      <c r="G212" s="60" t="s">
         <v>1635</v>
       </c>
-      <c r="H212" s="50" t="s">
+      <c r="H212" s="60" t="s">
         <v>1535</v>
       </c>
-      <c r="I212" s="50" t="s">
+      <c r="I212" s="60" t="s">
         <v>52</v>
       </c>
-      <c r="J212" s="50" t="s">
+      <c r="J212" s="60" t="s">
         <v>1547</v>
       </c>
-      <c r="K212" s="50"/>
-      <c r="L212" s="50" t="s">
+      <c r="K212" s="60"/>
+      <c r="L212" s="60" t="s">
         <v>1649</v>
       </c>
-      <c r="M212" s="50" t="s">
+      <c r="M212" s="60" t="s">
         <v>387</v>
       </c>
-      <c r="N212" s="50" t="s">
+      <c r="N212" s="60" t="s">
         <v>1824</v>
       </c>
-      <c r="O212" s="50" t="s">
+      <c r="O212" s="60" t="s">
         <v>364</v>
       </c>
-      <c r="P212" s="50"/>
-      <c r="Q212" s="50"/>
+      <c r="P212" s="60"/>
+      <c r="Q212" s="60"/>
       <c r="R212" s="50"/>
     </row>
     <row r="213" spans="2:18" ht="58.5">
@@ -22782,62 +22792,62 @@
     <row r="215" spans="2:18">
       <c r="B215" s="12"/>
       <c r="C215" s="32"/>
-      <c r="D215" s="52"/>
-      <c r="E215" s="52"/>
-      <c r="F215" s="52"/>
-      <c r="G215" s="52"/>
-      <c r="H215" s="52"/>
-      <c r="I215" s="52"/>
-      <c r="J215" s="52"/>
-      <c r="K215" s="52"/>
-      <c r="L215" s="52"/>
-      <c r="M215" s="52"/>
-      <c r="N215" s="52"/>
-      <c r="O215" s="52"/>
-      <c r="P215" s="52"/>
-      <c r="Q215" s="52"/>
-      <c r="R215" s="52"/>
+      <c r="D215" s="61"/>
+      <c r="E215" s="61"/>
+      <c r="F215" s="61"/>
+      <c r="G215" s="61"/>
+      <c r="H215" s="61"/>
+      <c r="I215" s="61"/>
+      <c r="J215" s="61"/>
+      <c r="K215" s="61"/>
+      <c r="L215" s="61"/>
+      <c r="M215" s="61"/>
+      <c r="N215" s="61"/>
+      <c r="O215" s="61"/>
+      <c r="P215" s="61"/>
+      <c r="Q215" s="61"/>
+      <c r="R215" s="61"/>
     </row>
     <row r="216" spans="2:18" ht="39.75">
       <c r="B216" s="17"/>
       <c r="C216" s="6"/>
-      <c r="D216" s="50" t="s">
+      <c r="D216" s="60" t="s">
         <v>1826</v>
       </c>
-      <c r="E216" s="50"/>
-      <c r="F216" s="50" t="s">
+      <c r="E216" s="60"/>
+      <c r="F216" s="60" t="s">
         <v>1567</v>
       </c>
-      <c r="G216" s="50" t="s">
+      <c r="G216" s="60" t="s">
         <v>338</v>
       </c>
-      <c r="H216" s="50" t="s">
+      <c r="H216" s="60" t="s">
         <v>57</v>
       </c>
-      <c r="I216" s="50"/>
-      <c r="J216" s="50" t="s">
+      <c r="I216" s="60"/>
+      <c r="J216" s="60" t="s">
         <v>62</v>
       </c>
-      <c r="K216" s="50" t="s">
+      <c r="K216" s="60" t="s">
         <v>55</v>
       </c>
-      <c r="L216" s="50" t="s">
+      <c r="L216" s="60" t="s">
         <v>1644</v>
       </c>
-      <c r="M216" s="50" t="s">
+      <c r="M216" s="60" t="s">
         <v>336</v>
       </c>
-      <c r="N216" s="50"/>
-      <c r="O216" s="50" t="s">
+      <c r="N216" s="60"/>
+      <c r="O216" s="60" t="s">
         <v>40</v>
       </c>
-      <c r="P216" s="50" t="s">
+      <c r="P216" s="60" t="s">
         <v>1579</v>
       </c>
-      <c r="Q216" s="50" t="s">
+      <c r="Q216" s="60" t="s">
         <v>1830</v>
       </c>
-      <c r="R216" s="50" t="s">
+      <c r="R216" s="60" t="s">
         <v>354</v>
       </c>
     </row>
@@ -22939,64 +22949,64 @@
     <row r="219" spans="2:18">
       <c r="B219" s="12"/>
       <c r="C219" s="32"/>
-      <c r="D219" s="52"/>
-      <c r="E219" s="52"/>
-      <c r="F219" s="52"/>
-      <c r="G219" s="52"/>
-      <c r="H219" s="52"/>
-      <c r="I219" s="52"/>
-      <c r="J219" s="52"/>
-      <c r="K219" s="52"/>
-      <c r="L219" s="52"/>
-      <c r="M219" s="52"/>
-      <c r="N219" s="52"/>
-      <c r="O219" s="52"/>
-      <c r="P219" s="52"/>
-      <c r="Q219" s="52"/>
-      <c r="R219" s="52"/>
+      <c r="D219" s="61"/>
+      <c r="E219" s="61"/>
+      <c r="F219" s="61"/>
+      <c r="G219" s="61"/>
+      <c r="H219" s="61"/>
+      <c r="I219" s="61"/>
+      <c r="J219" s="61"/>
+      <c r="K219" s="61"/>
+      <c r="L219" s="61"/>
+      <c r="M219" s="61"/>
+      <c r="N219" s="61"/>
+      <c r="O219" s="61"/>
+      <c r="P219" s="61"/>
+      <c r="Q219" s="61"/>
+      <c r="R219" s="61"/>
     </row>
     <row r="220" spans="2:18" ht="39.75">
       <c r="B220" s="17"/>
       <c r="C220" s="6"/>
-      <c r="D220" s="50" t="s">
+      <c r="D220" s="60" t="s">
         <v>470</v>
       </c>
-      <c r="E220" s="50"/>
-      <c r="F220" s="50" t="s">
+      <c r="E220" s="60"/>
+      <c r="F220" s="60" t="s">
         <v>421</v>
       </c>
-      <c r="G220" s="50" t="s">
+      <c r="G220" s="60" t="s">
         <v>61</v>
       </c>
-      <c r="H220" s="50" t="s">
+      <c r="H220" s="60" t="s">
         <v>1444</v>
       </c>
-      <c r="I220" s="50" t="s">
+      <c r="I220" s="60" t="s">
         <v>1572</v>
       </c>
-      <c r="J220" s="50" t="s">
+      <c r="J220" s="60" t="s">
         <v>866</v>
       </c>
-      <c r="K220" s="50" t="s">
+      <c r="K220" s="60" t="s">
         <v>1833</v>
       </c>
-      <c r="L220" s="50" t="s">
+      <c r="L220" s="60" t="s">
         <v>1533</v>
       </c>
-      <c r="M220" s="50"/>
-      <c r="N220" s="50" t="s">
+      <c r="M220" s="60"/>
+      <c r="N220" s="60" t="s">
         <v>1835</v>
       </c>
-      <c r="O220" s="50" t="s">
+      <c r="O220" s="60" t="s">
         <v>1837</v>
       </c>
-      <c r="P220" s="50" t="s">
+      <c r="P220" s="60" t="s">
         <v>361</v>
       </c>
-      <c r="Q220" s="50" t="s">
+      <c r="Q220" s="60" t="s">
         <v>1779</v>
       </c>
-      <c r="R220" s="50"/>
+      <c r="R220" s="60"/>
     </row>
     <row r="221" spans="2:18" ht="58.5">
       <c r="B221" s="19">
@@ -23096,60 +23106,60 @@
     <row r="223" spans="2:18">
       <c r="B223" s="12"/>
       <c r="C223" s="32"/>
-      <c r="D223" s="52"/>
-      <c r="E223" s="52"/>
-      <c r="F223" s="52"/>
-      <c r="G223" s="52"/>
-      <c r="H223" s="52"/>
-      <c r="I223" s="52"/>
-      <c r="J223" s="52"/>
-      <c r="K223" s="52"/>
-      <c r="L223" s="52"/>
-      <c r="M223" s="52"/>
-      <c r="N223" s="52"/>
-      <c r="O223" s="52"/>
-      <c r="P223" s="52"/>
-      <c r="Q223" s="52"/>
-      <c r="R223" s="52"/>
+      <c r="D223" s="61"/>
+      <c r="E223" s="61"/>
+      <c r="F223" s="61"/>
+      <c r="G223" s="61"/>
+      <c r="H223" s="61"/>
+      <c r="I223" s="61"/>
+      <c r="J223" s="61"/>
+      <c r="K223" s="61"/>
+      <c r="L223" s="61"/>
+      <c r="M223" s="61"/>
+      <c r="N223" s="61"/>
+      <c r="O223" s="61"/>
+      <c r="P223" s="61"/>
+      <c r="Q223" s="61"/>
+      <c r="R223" s="61"/>
     </row>
     <row r="224" spans="2:18" ht="39.75">
       <c r="B224" s="17"/>
       <c r="C224" s="6"/>
-      <c r="D224" s="50" t="s">
+      <c r="D224" s="60" t="s">
         <v>372</v>
       </c>
-      <c r="E224" s="50"/>
-      <c r="F224" s="50" t="s">
+      <c r="E224" s="60"/>
+      <c r="F224" s="60" t="s">
         <v>1841</v>
       </c>
-      <c r="G224" s="50" t="s">
+      <c r="G224" s="60" t="s">
         <v>52</v>
       </c>
-      <c r="H224" s="50" t="s">
+      <c r="H224" s="60" t="s">
         <v>313</v>
       </c>
-      <c r="I224" s="50"/>
-      <c r="J224" s="50" t="s">
+      <c r="I224" s="60"/>
+      <c r="J224" s="60" t="s">
         <v>420</v>
       </c>
-      <c r="K224" s="50" t="s">
+      <c r="K224" s="60" t="s">
         <v>338</v>
       </c>
-      <c r="L224" s="50" t="s">
+      <c r="L224" s="60" t="s">
         <v>330</v>
       </c>
-      <c r="M224" s="50" t="s">
+      <c r="M224" s="60" t="s">
         <v>364</v>
       </c>
-      <c r="N224" s="50"/>
-      <c r="O224" s="50" t="s">
+      <c r="N224" s="60"/>
+      <c r="O224" s="60" t="s">
         <v>49</v>
       </c>
-      <c r="P224" s="50" t="s">
+      <c r="P224" s="60" t="s">
         <v>39</v>
       </c>
-      <c r="Q224" s="50"/>
-      <c r="R224" s="50" t="s">
+      <c r="Q224" s="60"/>
+      <c r="R224" s="60" t="s">
         <v>423</v>
       </c>
     </row>
@@ -23249,62 +23259,62 @@
     <row r="227" spans="2:18">
       <c r="B227" s="12"/>
       <c r="C227" s="32"/>
-      <c r="D227" s="52"/>
-      <c r="E227" s="52"/>
-      <c r="F227" s="52"/>
-      <c r="G227" s="52"/>
-      <c r="H227" s="52"/>
-      <c r="I227" s="52"/>
-      <c r="J227" s="52"/>
-      <c r="K227" s="52"/>
-      <c r="L227" s="52"/>
-      <c r="M227" s="52"/>
-      <c r="N227" s="52"/>
-      <c r="O227" s="52"/>
-      <c r="P227" s="52"/>
-      <c r="Q227" s="52"/>
-      <c r="R227" s="52"/>
+      <c r="D227" s="61"/>
+      <c r="E227" s="61"/>
+      <c r="F227" s="61"/>
+      <c r="G227" s="61"/>
+      <c r="H227" s="61"/>
+      <c r="I227" s="61"/>
+      <c r="J227" s="61"/>
+      <c r="K227" s="61"/>
+      <c r="L227" s="61"/>
+      <c r="M227" s="61"/>
+      <c r="N227" s="61"/>
+      <c r="O227" s="61"/>
+      <c r="P227" s="61"/>
+      <c r="Q227" s="61"/>
+      <c r="R227" s="61"/>
     </row>
     <row r="228" spans="2:18" ht="39.75">
       <c r="B228" s="17"/>
       <c r="C228" s="6"/>
-      <c r="D228" s="50"/>
-      <c r="E228" s="50" t="s">
+      <c r="D228" s="60"/>
+      <c r="E228" s="60" t="s">
         <v>1846</v>
       </c>
-      <c r="F228" s="50" t="s">
+      <c r="F228" s="60" t="s">
         <v>338</v>
       </c>
-      <c r="G228" s="50" t="s">
+      <c r="G228" s="60" t="s">
         <v>1652</v>
       </c>
-      <c r="H228" s="50"/>
-      <c r="I228" s="50" t="s">
+      <c r="H228" s="60"/>
+      <c r="I228" s="60" t="s">
         <v>1701</v>
       </c>
-      <c r="J228" s="50" t="s">
+      <c r="J228" s="60" t="s">
         <v>1848</v>
       </c>
-      <c r="K228" s="50" t="s">
+      <c r="K228" s="60" t="s">
         <v>49</v>
       </c>
-      <c r="L228" s="50" t="s">
+      <c r="L228" s="60" t="s">
         <v>1850</v>
       </c>
-      <c r="M228" s="50"/>
-      <c r="N228" s="50" t="s">
+      <c r="M228" s="60"/>
+      <c r="N228" s="60" t="s">
         <v>368</v>
       </c>
-      <c r="O228" s="50" t="s">
+      <c r="O228" s="60" t="s">
         <v>482</v>
       </c>
-      <c r="P228" s="50" t="s">
+      <c r="P228" s="60" t="s">
         <v>1512</v>
       </c>
-      <c r="Q228" s="50" t="s">
+      <c r="Q228" s="60" t="s">
         <v>663</v>
       </c>
-      <c r="R228" s="50"/>
+      <c r="R228" s="60"/>
     </row>
     <row r="229" spans="2:18" ht="58.5">
       <c r="B229" s="19">
@@ -23402,60 +23412,60 @@
     <row r="231" spans="2:18">
       <c r="B231" s="12"/>
       <c r="C231" s="32"/>
-      <c r="D231" s="52"/>
-      <c r="E231" s="52"/>
-      <c r="F231" s="52"/>
-      <c r="G231" s="52"/>
-      <c r="H231" s="52"/>
-      <c r="I231" s="52"/>
-      <c r="J231" s="52"/>
-      <c r="K231" s="52"/>
-      <c r="L231" s="52"/>
-      <c r="M231" s="52"/>
-      <c r="N231" s="52"/>
-      <c r="O231" s="52"/>
-      <c r="P231" s="52"/>
-      <c r="Q231" s="52"/>
-      <c r="R231" s="52"/>
+      <c r="D231" s="61"/>
+      <c r="E231" s="61"/>
+      <c r="F231" s="61"/>
+      <c r="G231" s="61"/>
+      <c r="H231" s="61"/>
+      <c r="I231" s="61"/>
+      <c r="J231" s="61"/>
+      <c r="K231" s="61"/>
+      <c r="L231" s="61"/>
+      <c r="M231" s="61"/>
+      <c r="N231" s="61"/>
+      <c r="O231" s="61"/>
+      <c r="P231" s="61"/>
+      <c r="Q231" s="61"/>
+      <c r="R231" s="61"/>
     </row>
     <row r="232" spans="2:18" ht="39.75">
       <c r="B232" s="17"/>
       <c r="C232" s="6"/>
-      <c r="D232" s="50" t="s">
+      <c r="D232" s="60" t="s">
         <v>414</v>
       </c>
-      <c r="E232" s="50" t="s">
+      <c r="E232" s="60" t="s">
         <v>371</v>
       </c>
-      <c r="F232" s="50"/>
-      <c r="G232" s="50" t="s">
+      <c r="F232" s="60"/>
+      <c r="G232" s="60" t="s">
         <v>1464</v>
       </c>
-      <c r="H232" s="50" t="s">
+      <c r="H232" s="60" t="s">
         <v>1512</v>
       </c>
-      <c r="I232" s="50"/>
-      <c r="J232" s="50" t="s">
+      <c r="I232" s="60"/>
+      <c r="J232" s="60" t="s">
         <v>1523</v>
       </c>
-      <c r="K232" s="50" t="s">
+      <c r="K232" s="60" t="s">
         <v>45</v>
       </c>
-      <c r="L232" s="50"/>
-      <c r="M232" s="50" t="s">
+      <c r="L232" s="60"/>
+      <c r="M232" s="60" t="s">
         <v>1846</v>
       </c>
-      <c r="N232" s="50" t="s">
+      <c r="N232" s="60" t="s">
         <v>1638</v>
       </c>
-      <c r="O232" s="50" t="s">
+      <c r="O232" s="60" t="s">
         <v>338</v>
       </c>
-      <c r="P232" s="50" t="s">
+      <c r="P232" s="60" t="s">
         <v>1469</v>
       </c>
-      <c r="Q232" s="50"/>
-      <c r="R232" s="50" t="s">
+      <c r="Q232" s="60"/>
+      <c r="R232" s="60" t="s">
         <v>457</v>
       </c>
     </row>
@@ -23555,64 +23565,64 @@
     <row r="235" spans="2:18">
       <c r="B235" s="12"/>
       <c r="C235" s="32"/>
-      <c r="D235" s="52"/>
-      <c r="E235" s="52"/>
-      <c r="F235" s="52"/>
-      <c r="G235" s="52"/>
-      <c r="H235" s="52"/>
-      <c r="I235" s="52"/>
-      <c r="J235" s="52"/>
-      <c r="K235" s="52"/>
-      <c r="L235" s="52"/>
-      <c r="M235" s="52"/>
-      <c r="N235" s="52"/>
-      <c r="O235" s="52"/>
-      <c r="P235" s="52"/>
-      <c r="Q235" s="52"/>
-      <c r="R235" s="52"/>
+      <c r="D235" s="61"/>
+      <c r="E235" s="61"/>
+      <c r="F235" s="61"/>
+      <c r="G235" s="61"/>
+      <c r="H235" s="61"/>
+      <c r="I235" s="61"/>
+      <c r="J235" s="61"/>
+      <c r="K235" s="61"/>
+      <c r="L235" s="61"/>
+      <c r="M235" s="61"/>
+      <c r="N235" s="61"/>
+      <c r="O235" s="61"/>
+      <c r="P235" s="61"/>
+      <c r="Q235" s="61"/>
+      <c r="R235" s="61"/>
     </row>
     <row r="236" spans="2:18" ht="39.75">
       <c r="B236" s="17"/>
       <c r="C236" s="6"/>
-      <c r="D236" s="50" t="s">
+      <c r="D236" s="60" t="s">
         <v>1447</v>
       </c>
-      <c r="E236" s="50" t="s">
+      <c r="E236" s="60" t="s">
         <v>1547</v>
       </c>
-      <c r="F236" s="50" t="s">
+      <c r="F236" s="60" t="s">
         <v>1488</v>
       </c>
-      <c r="G236" s="50" t="s">
+      <c r="G236" s="60" t="s">
         <v>327</v>
       </c>
-      <c r="H236" s="50"/>
-      <c r="I236" s="50" t="s">
+      <c r="H236" s="60"/>
+      <c r="I236" s="60" t="s">
         <v>1652</v>
       </c>
-      <c r="J236" s="50" t="s">
+      <c r="J236" s="60" t="s">
         <v>305</v>
       </c>
-      <c r="K236" s="50" t="s">
+      <c r="K236" s="60" t="s">
         <v>387</v>
       </c>
-      <c r="L236" s="50" t="s">
+      <c r="L236" s="60" t="s">
         <v>1857</v>
       </c>
-      <c r="M236" s="50" t="s">
+      <c r="M236" s="60" t="s">
         <v>364</v>
       </c>
-      <c r="N236" s="50"/>
-      <c r="O236" s="50" t="s">
+      <c r="N236" s="60"/>
+      <c r="O236" s="60" t="s">
         <v>1859</v>
       </c>
-      <c r="P236" s="50" t="s">
+      <c r="P236" s="60" t="s">
         <v>304</v>
       </c>
-      <c r="Q236" s="50" t="s">
+      <c r="Q236" s="60" t="s">
         <v>1565</v>
       </c>
-      <c r="R236" s="50" t="s">
+      <c r="R236" s="60" t="s">
         <v>338</v>
       </c>
     </row>
@@ -23716,64 +23726,64 @@
     <row r="239" spans="2:18">
       <c r="B239" s="12"/>
       <c r="C239" s="32"/>
-      <c r="D239" s="52"/>
-      <c r="E239" s="52"/>
-      <c r="F239" s="52"/>
-      <c r="G239" s="52"/>
-      <c r="H239" s="52"/>
-      <c r="I239" s="52"/>
-      <c r="J239" s="52"/>
-      <c r="K239" s="52"/>
-      <c r="L239" s="52"/>
-      <c r="M239" s="52"/>
-      <c r="N239" s="52"/>
-      <c r="O239" s="52"/>
-      <c r="P239" s="52"/>
-      <c r="Q239" s="52"/>
-      <c r="R239" s="52"/>
+      <c r="D239" s="61"/>
+      <c r="E239" s="61"/>
+      <c r="F239" s="61"/>
+      <c r="G239" s="61"/>
+      <c r="H239" s="61"/>
+      <c r="I239" s="61"/>
+      <c r="J239" s="61"/>
+      <c r="K239" s="61"/>
+      <c r="L239" s="61"/>
+      <c r="M239" s="61"/>
+      <c r="N239" s="61"/>
+      <c r="O239" s="61"/>
+      <c r="P239" s="61"/>
+      <c r="Q239" s="61"/>
+      <c r="R239" s="61"/>
     </row>
     <row r="240" spans="2:18" ht="39.75">
       <c r="B240" s="17"/>
       <c r="C240" s="6"/>
-      <c r="D240" s="50" t="s">
+      <c r="D240" s="60" t="s">
         <v>57</v>
       </c>
-      <c r="E240" s="50"/>
-      <c r="F240" s="50" t="s">
+      <c r="E240" s="60"/>
+      <c r="F240" s="60" t="s">
         <v>336</v>
       </c>
-      <c r="G240" s="50" t="s">
+      <c r="G240" s="60" t="s">
         <v>52</v>
       </c>
-      <c r="H240" s="50" t="s">
+      <c r="H240" s="60" t="s">
         <v>1862</v>
       </c>
-      <c r="I240" s="50" t="s">
+      <c r="I240" s="60" t="s">
         <v>1864</v>
       </c>
-      <c r="J240" s="50" t="s">
+      <c r="J240" s="60" t="s">
         <v>387</v>
       </c>
-      <c r="K240" s="50" t="s">
+      <c r="K240" s="60" t="s">
         <v>48</v>
       </c>
-      <c r="L240" s="50" t="s">
+      <c r="L240" s="60" t="s">
         <v>1644</v>
       </c>
-      <c r="M240" s="50" t="s">
+      <c r="M240" s="60" t="s">
         <v>912</v>
       </c>
-      <c r="N240" s="50" t="s">
+      <c r="N240" s="60" t="s">
         <v>428</v>
       </c>
-      <c r="O240" s="50" t="s">
+      <c r="O240" s="60" t="s">
         <v>427</v>
       </c>
-      <c r="P240" s="50" t="s">
+      <c r="P240" s="60" t="s">
         <v>1451</v>
       </c>
-      <c r="Q240" s="50"/>
-      <c r="R240" s="50" t="s">
+      <c r="Q240" s="60"/>
+      <c r="R240" s="60" t="s">
         <v>1682</v>
       </c>
     </row>
@@ -23877,64 +23887,64 @@
     <row r="243" spans="2:18">
       <c r="B243" s="12"/>
       <c r="C243" s="32"/>
-      <c r="D243" s="52"/>
-      <c r="E243" s="52"/>
-      <c r="F243" s="52"/>
-      <c r="G243" s="52"/>
-      <c r="H243" s="52"/>
-      <c r="I243" s="52"/>
-      <c r="J243" s="52"/>
-      <c r="K243" s="52"/>
-      <c r="L243" s="52"/>
-      <c r="M243" s="52"/>
-      <c r="N243" s="52"/>
-      <c r="O243" s="52"/>
-      <c r="P243" s="52"/>
-      <c r="Q243" s="52"/>
-      <c r="R243" s="52"/>
+      <c r="D243" s="61"/>
+      <c r="E243" s="61"/>
+      <c r="F243" s="61"/>
+      <c r="G243" s="61"/>
+      <c r="H243" s="61"/>
+      <c r="I243" s="61"/>
+      <c r="J243" s="61"/>
+      <c r="K243" s="61"/>
+      <c r="L243" s="61"/>
+      <c r="M243" s="61"/>
+      <c r="N243" s="61"/>
+      <c r="O243" s="61"/>
+      <c r="P243" s="61"/>
+      <c r="Q243" s="61"/>
+      <c r="R243" s="61"/>
     </row>
     <row r="244" spans="2:18" ht="39.75">
       <c r="B244" s="17"/>
       <c r="C244" s="6"/>
-      <c r="D244" s="50" t="s">
+      <c r="D244" s="60" t="s">
         <v>1752</v>
       </c>
-      <c r="E244" s="50" t="s">
+      <c r="E244" s="60" t="s">
         <v>1866</v>
       </c>
-      <c r="F244" s="50" t="s">
+      <c r="F244" s="60" t="s">
         <v>338</v>
       </c>
-      <c r="G244" s="50"/>
-      <c r="H244" s="50" t="s">
+      <c r="G244" s="60"/>
+      <c r="H244" s="60" t="s">
         <v>1635</v>
       </c>
-      <c r="I244" s="50" t="s">
+      <c r="I244" s="60" t="s">
         <v>307</v>
       </c>
-      <c r="J244" s="50" t="s">
+      <c r="J244" s="60" t="s">
         <v>442</v>
       </c>
-      <c r="K244" s="50" t="s">
+      <c r="K244" s="60" t="s">
         <v>1666</v>
       </c>
-      <c r="L244" s="50" t="s">
+      <c r="L244" s="60" t="s">
         <v>333</v>
       </c>
-      <c r="M244" s="50" t="s">
+      <c r="M244" s="60" t="s">
         <v>362</v>
       </c>
-      <c r="N244" s="50" t="s">
+      <c r="N244" s="60" t="s">
         <v>364</v>
       </c>
-      <c r="O244" s="50" t="s">
+      <c r="O244" s="60" t="s">
         <v>478</v>
       </c>
-      <c r="P244" s="50"/>
-      <c r="Q244" s="50" t="s">
+      <c r="P244" s="60"/>
+      <c r="Q244" s="60" t="s">
         <v>383</v>
       </c>
-      <c r="R244" s="50" t="s">
+      <c r="R244" s="60" t="s">
         <v>340</v>
       </c>
     </row>
@@ -24038,62 +24048,62 @@
     <row r="247" spans="2:18">
       <c r="B247" s="12"/>
       <c r="C247" s="32"/>
-      <c r="D247" s="52"/>
-      <c r="E247" s="52"/>
-      <c r="F247" s="52"/>
-      <c r="G247" s="52"/>
-      <c r="H247" s="52"/>
-      <c r="I247" s="52"/>
-      <c r="J247" s="52"/>
-      <c r="K247" s="52"/>
-      <c r="L247" s="52"/>
-      <c r="M247" s="52"/>
-      <c r="N247" s="52"/>
-      <c r="O247" s="52"/>
-      <c r="P247" s="52"/>
-      <c r="Q247" s="52"/>
-      <c r="R247" s="52"/>
+      <c r="D247" s="61"/>
+      <c r="E247" s="61"/>
+      <c r="F247" s="61"/>
+      <c r="G247" s="61"/>
+      <c r="H247" s="61"/>
+      <c r="I247" s="61"/>
+      <c r="J247" s="61"/>
+      <c r="K247" s="61"/>
+      <c r="L247" s="61"/>
+      <c r="M247" s="61"/>
+      <c r="N247" s="61"/>
+      <c r="O247" s="61"/>
+      <c r="P247" s="61"/>
+      <c r="Q247" s="61"/>
+      <c r="R247" s="61"/>
     </row>
     <row r="248" spans="2:18" ht="39.75">
       <c r="B248" s="17"/>
       <c r="C248" s="6"/>
-      <c r="D248" s="50" t="s">
+      <c r="D248" s="60" t="s">
         <v>480</v>
       </c>
-      <c r="E248" s="50" t="s">
+      <c r="E248" s="60" t="s">
         <v>1512</v>
       </c>
-      <c r="F248" s="50" t="s">
+      <c r="F248" s="60" t="s">
         <v>338</v>
       </c>
-      <c r="G248" s="50" t="s">
+      <c r="G248" s="60" t="s">
         <v>313</v>
       </c>
-      <c r="H248" s="50" t="s">
+      <c r="H248" s="60" t="s">
         <v>363</v>
       </c>
-      <c r="I248" s="50" t="s">
+      <c r="I248" s="60" t="s">
         <v>387</v>
       </c>
-      <c r="J248" s="50" t="s">
+      <c r="J248" s="60" t="s">
         <v>368</v>
       </c>
-      <c r="K248" s="50"/>
-      <c r="L248" s="50" t="s">
+      <c r="K248" s="60"/>
+      <c r="L248" s="60" t="s">
         <v>311</v>
       </c>
-      <c r="M248" s="50"/>
-      <c r="N248" s="50"/>
-      <c r="O248" s="50" t="s">
+      <c r="M248" s="60"/>
+      <c r="N248" s="60"/>
+      <c r="O248" s="60" t="s">
         <v>473</v>
       </c>
-      <c r="P248" s="50" t="s">
+      <c r="P248" s="60" t="s">
         <v>305</v>
       </c>
-      <c r="Q248" s="50" t="s">
+      <c r="Q248" s="60" t="s">
         <v>1705</v>
       </c>
-      <c r="R248" s="50" t="s">
+      <c r="R248" s="60" t="s">
         <v>1482</v>
       </c>
     </row>
@@ -24195,62 +24205,62 @@
     <row r="251" spans="2:18">
       <c r="B251" s="12"/>
       <c r="C251" s="32"/>
-      <c r="D251" s="52"/>
-      <c r="E251" s="52"/>
-      <c r="F251" s="52"/>
-      <c r="G251" s="52"/>
-      <c r="H251" s="52"/>
-      <c r="I251" s="52"/>
-      <c r="J251" s="52"/>
-      <c r="K251" s="52"/>
-      <c r="L251" s="52"/>
-      <c r="M251" s="52"/>
-      <c r="N251" s="52"/>
-      <c r="O251" s="52"/>
-      <c r="P251" s="52"/>
-      <c r="Q251" s="52"/>
-      <c r="R251" s="52"/>
+      <c r="D251" s="61"/>
+      <c r="E251" s="61"/>
+      <c r="F251" s="61"/>
+      <c r="G251" s="61"/>
+      <c r="H251" s="61"/>
+      <c r="I251" s="61"/>
+      <c r="J251" s="61"/>
+      <c r="K251" s="61"/>
+      <c r="L251" s="61"/>
+      <c r="M251" s="61"/>
+      <c r="N251" s="61"/>
+      <c r="O251" s="61"/>
+      <c r="P251" s="61"/>
+      <c r="Q251" s="61"/>
+      <c r="R251" s="61"/>
     </row>
     <row r="252" spans="2:18" ht="39.75">
       <c r="B252" s="17"/>
       <c r="C252" s="6"/>
-      <c r="D252" s="50" t="s">
+      <c r="D252" s="60" t="s">
         <v>363</v>
       </c>
-      <c r="E252" s="50" t="s">
+      <c r="E252" s="60" t="s">
         <v>1871</v>
       </c>
-      <c r="F252" s="50" t="s">
+      <c r="F252" s="60" t="s">
         <v>63</v>
       </c>
-      <c r="G252" s="50"/>
-      <c r="H252" s="50" t="s">
+      <c r="G252" s="60"/>
+      <c r="H252" s="60" t="s">
         <v>1752</v>
       </c>
-      <c r="I252" s="50" t="s">
+      <c r="I252" s="60" t="s">
         <v>63</v>
       </c>
-      <c r="J252" s="50" t="s">
+      <c r="J252" s="60" t="s">
         <v>1705</v>
       </c>
-      <c r="K252" s="50" t="s">
+      <c r="K252" s="60" t="s">
         <v>1482</v>
       </c>
-      <c r="L252" s="50" t="s">
+      <c r="L252" s="60" t="s">
         <v>363</v>
       </c>
-      <c r="M252" s="50" t="s">
+      <c r="M252" s="60" t="s">
         <v>475</v>
       </c>
-      <c r="N252" s="50" t="s">
+      <c r="N252" s="60" t="s">
         <v>1635</v>
       </c>
-      <c r="O252" s="50" t="s">
+      <c r="O252" s="60" t="s">
         <v>364</v>
       </c>
-      <c r="P252" s="50"/>
-      <c r="Q252" s="50"/>
-      <c r="R252" s="50" t="s">
+      <c r="P252" s="60"/>
+      <c r="Q252" s="60"/>
+      <c r="R252" s="60" t="s">
         <v>1875</v>
       </c>
     </row>
@@ -24352,59 +24362,59 @@
     <row r="255" spans="2:18">
       <c r="B255" s="12"/>
       <c r="C255" s="32"/>
-      <c r="D255" s="52"/>
-      <c r="E255" s="52"/>
-      <c r="F255" s="52"/>
-      <c r="G255" s="52"/>
-      <c r="H255" s="52"/>
-      <c r="I255" s="52"/>
-      <c r="J255" s="52"/>
-      <c r="K255" s="52"/>
-      <c r="L255" s="52"/>
-      <c r="M255" s="52"/>
-      <c r="N255" s="52"/>
-      <c r="O255" s="52"/>
-      <c r="P255" s="52"/>
-      <c r="Q255" s="52"/>
+      <c r="D255" s="61"/>
+      <c r="E255" s="61"/>
+      <c r="F255" s="61"/>
+      <c r="G255" s="61"/>
+      <c r="H255" s="61"/>
+      <c r="I255" s="61"/>
+      <c r="J255" s="61"/>
+      <c r="K255" s="61"/>
+      <c r="L255" s="61"/>
+      <c r="M255" s="61"/>
+      <c r="N255" s="61"/>
+      <c r="O255" s="61"/>
+      <c r="P255" s="61"/>
+      <c r="Q255" s="61"/>
       <c r="R255" s="52"/>
     </row>
     <row r="256" spans="2:18" ht="39.75">
       <c r="B256" s="17"/>
       <c r="C256" s="6"/>
-      <c r="D256" s="50" t="s">
+      <c r="D256" s="60" t="s">
         <v>1877</v>
       </c>
-      <c r="E256" s="50"/>
-      <c r="F256" s="50" t="s">
+      <c r="E256" s="60"/>
+      <c r="F256" s="60" t="s">
         <v>362</v>
       </c>
-      <c r="G256" s="50" t="s">
+      <c r="G256" s="60" t="s">
         <v>1859</v>
       </c>
-      <c r="H256" s="50" t="s">
+      <c r="H256" s="60" t="s">
         <v>1565</v>
       </c>
-      <c r="I256" s="50"/>
-      <c r="J256" s="50" t="s">
+      <c r="I256" s="60"/>
+      <c r="J256" s="60" t="s">
         <v>1567</v>
       </c>
-      <c r="K256" s="50" t="s">
+      <c r="K256" s="60" t="s">
         <v>338</v>
       </c>
-      <c r="L256" s="50" t="s">
+      <c r="L256" s="60" t="s">
         <v>1615</v>
       </c>
-      <c r="M256" s="50" t="s">
+      <c r="M256" s="60" t="s">
         <v>1879</v>
       </c>
-      <c r="N256" s="50" t="s">
+      <c r="N256" s="60" t="s">
         <v>364</v>
       </c>
-      <c r="O256" s="50" t="s">
+      <c r="O256" s="60" t="s">
         <v>469</v>
       </c>
-      <c r="P256" s="50"/>
-      <c r="Q256" s="50"/>
+      <c r="P256" s="60"/>
+      <c r="Q256" s="60"/>
       <c r="R256" s="50"/>
     </row>
     <row r="257" spans="2:18" ht="58.5">
@@ -24501,7 +24511,7 @@
     <row r="259" spans="2:18">
       <c r="B259" s="12"/>
       <c r="C259" s="32"/>
-      <c r="D259" s="52"/>
+      <c r="D259" s="61"/>
       <c r="E259" s="52"/>
       <c r="F259" s="52"/>
       <c r="G259" s="52"/>
@@ -24520,7 +24530,7 @@
     <row r="260" spans="2:18" ht="39.75">
       <c r="B260" s="17"/>
       <c r="C260" s="6"/>
-      <c r="D260" s="50"/>
+      <c r="D260" s="60"/>
       <c r="E260" s="50"/>
       <c r="F260" s="50"/>
       <c r="G260" s="50"/>

--- a/output7/【河洛文讀注音-閩拼調號】《六國論》.xlsx
+++ b/output7/【河洛文讀注音-閩拼調號】《六國論》.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Piau-Im\output7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DF2AABA5-975B-400B-B77B-F1F18123170D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CFEA90A4-C1A4-4043-9A8C-AAAB27C9CEFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{25A76161-EFED-4AC8-8EAA-A42737AE1909}"/>
   </bookViews>
@@ -9387,7 +9387,7 @@
         <v>1156</v>
       </c>
       <c r="C20" s="46">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/output7/【河洛文讀注音-閩拼調號】《六國論》.xlsx
+++ b/output7/【河洛文讀注音-閩拼調號】《六國論》.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Piau-Im\output7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CFEA90A4-C1A4-4043-9A8C-AAAB27C9CEFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27373A88-8BC1-490C-BD7B-C432115E10C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{25A76161-EFED-4AC8-8EAA-A42737AE1909}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{25A76161-EFED-4AC8-8EAA-A42737AE1909}"/>
   </bookViews>
   <sheets>
     <sheet name="env" sheetId="8" r:id="rId1"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6028" uniqueCount="2116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6028" uniqueCount="2280">
   <si>
     <t>Key</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -6165,9 +6165,6 @@
     <t>lun6</t>
   </si>
   <si>
-    <t>bbuah8</t>
-  </si>
-  <si>
     <t>zi5</t>
   </si>
   <si>
@@ -6189,33 +6186,15 @@
     <t>zu6</t>
   </si>
   <si>
-    <t>bboo2</t>
-  </si>
-  <si>
-    <t>suat7</t>
-  </si>
-  <si>
     <t>kik7</t>
   </si>
   <si>
-    <t>dam2</t>
-  </si>
-  <si>
     <t>tian1</t>
   </si>
   <si>
-    <t>diao1</t>
-  </si>
-  <si>
     <t>liong2</t>
   </si>
   <si>
-    <t>gian1</t>
-  </si>
-  <si>
-    <t>bik8</t>
-  </si>
-  <si>
     <t>dong2</t>
   </si>
   <si>
@@ -6228,27 +6207,9 @@
     <t>ha6</t>
   </si>
   <si>
-    <t>gik7</t>
-  </si>
-  <si>
-    <t>giam5</t>
-  </si>
-  <si>
-    <t>gong5</t>
-  </si>
-  <si>
-    <t>ding3</t>
-  </si>
-  <si>
-    <t>ge1</t>
-  </si>
-  <si>
     <t>bbing2</t>
   </si>
   <si>
-    <t>gao3</t>
-  </si>
-  <si>
     <t>do6</t>
   </si>
   <si>
@@ -6264,12 +6225,6 @@
     <t>bin1</t>
   </si>
   <si>
-    <t>le3</t>
-  </si>
-  <si>
-    <t>bbi3</t>
-  </si>
-  <si>
     <t>yi1</t>
   </si>
   <si>
@@ -6279,9 +6234,6 @@
     <t>yi3</t>
   </si>
   <si>
-    <t>guan3</t>
-  </si>
-  <si>
     <t>siong3</t>
   </si>
   <si>
@@ -6291,18 +6243,12 @@
     <t>ho2</t>
   </si>
   <si>
-    <t>soo5</t>
-  </si>
-  <si>
     <t>wat8</t>
   </si>
   <si>
     <t>ong2</t>
   </si>
   <si>
-    <t>zian6</t>
-  </si>
-  <si>
     <t>yu3</t>
   </si>
   <si>
@@ -6321,12 +6267,6 @@
     <t>bbu2</t>
   </si>
   <si>
-    <t>gi6</t>
-  </si>
-  <si>
-    <t>ze2</t>
-  </si>
-  <si>
     <t>can2</t>
   </si>
   <si>
@@ -6339,9 +6279,6 @@
     <t>hong2</t>
   </si>
   <si>
-    <t>hiat7</t>
-  </si>
-  <si>
     <t>li6</t>
   </si>
   <si>
@@ -6351,108 +6288,51 @@
     <t>zzi2</t>
   </si>
   <si>
-    <t>ziao1</t>
-  </si>
-  <si>
     <t>di5</t>
   </si>
   <si>
     <t>zzim6</t>
   </si>
   <si>
-    <t>giap7</t>
-  </si>
-  <si>
-    <t>gan1</t>
-  </si>
-  <si>
     <t>bban6</t>
   </si>
   <si>
-    <t>ga1</t>
-  </si>
-  <si>
-    <t>sih7</t>
-  </si>
-  <si>
     <t>zik7</t>
   </si>
   <si>
     <t>yk8</t>
   </si>
   <si>
-    <t>yan1</t>
-  </si>
-  <si>
     <t>tai5</t>
   </si>
   <si>
-    <t>dan1</t>
-  </si>
-  <si>
     <t>zin2</t>
   </si>
   <si>
     <t>han5</t>
   </si>
   <si>
-    <t>diong1</t>
-  </si>
-  <si>
-    <t>lni3</t>
-  </si>
-  <si>
     <t>din6</t>
   </si>
   <si>
-    <t>wu2</t>
-  </si>
-  <si>
-    <t>ho6</t>
-  </si>
-  <si>
     <t>do1</t>
   </si>
   <si>
     <t>giat8</t>
   </si>
   <si>
-    <t>hing2</t>
-  </si>
-  <si>
-    <t>ggnoo3</t>
-  </si>
-  <si>
     <t>bik7</t>
   </si>
   <si>
     <t>gi2</t>
   </si>
   <si>
-    <t>tuan2</t>
-  </si>
-  <si>
-    <t>zzu2</t>
-  </si>
-  <si>
     <t>cu3</t>
   </si>
   <si>
-    <t>doo6</t>
-  </si>
-  <si>
     <t>dong1</t>
   </si>
   <si>
-    <t>be6</t>
-  </si>
-  <si>
-    <t>guan1</t>
-  </si>
-  <si>
-    <t>bnua5</t>
-  </si>
-  <si>
     <t>long2</t>
   </si>
   <si>
@@ -6462,52 +6342,22 @@
     <t>bbin2</t>
   </si>
   <si>
-    <t>doo5</t>
-  </si>
-  <si>
     <t>gi1</t>
   </si>
   <si>
-    <t>kam1</t>
-  </si>
-  <si>
     <t>hnooh7</t>
   </si>
   <si>
     <t>ling2</t>
   </si>
   <si>
-    <t>bbian3</t>
-  </si>
-  <si>
-    <t>yu2</t>
-  </si>
-  <si>
-    <t>ziao3</t>
-  </si>
-  <si>
     <t>siu5</t>
   </si>
   <si>
-    <t>bbing3</t>
-  </si>
-  <si>
-    <t>tang2</t>
-  </si>
-  <si>
     <t>dak8</t>
   </si>
   <si>
-    <t>cioh7</t>
-  </si>
-  <si>
-    <t>diao2</t>
-  </si>
-  <si>
     <t>li3</t>
-  </si>
-  <si>
-    <t>ti2</t>
   </si>
   <si>
     <t>zin6</t>
@@ -6870,6 +6720,862 @@
   </si>
   <si>
     <t>bbi2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>liok8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gok7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lun7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lun6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ciu1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buah8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bbuah8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wu1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zian3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zu1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>siong1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gai1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zenn1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zne1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iong2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yong3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>su7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>su6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zu7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zu6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boo5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bboo2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>suat4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>suat7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kik7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tam5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dam2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tian1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>diao1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>liong5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>liong2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kian1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gian1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pik8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bik8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dong2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yi6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>liu5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>liu2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ha6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kik4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gik7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kiam3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>giam5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kong3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gong5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ting2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ding3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ke1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ge1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bbing2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kau2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gao3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>to7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>do6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>too5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>doo2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bbok8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>but7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pin1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bin1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>le2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>le3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bi2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bbi3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yi1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>giok8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ggiok8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sit8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yi3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kuan2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guan3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>siong2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>siong3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zia3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ho2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kho2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ko3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sing5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>soo3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>soo5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wat8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ong5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ong2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ku3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zian7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zian6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yu3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gun1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zu3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zzin2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gui7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ggui6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bbu2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ki7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gi6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ze5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ze2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>can5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>can2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bbun2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tiau7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>diao6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hong5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hong2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hiat4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hiat7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>li7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>li6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wi2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sam1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zzi2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ziau1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ziao1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ti3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>di5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jim7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zzim6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>giap7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kan1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gan1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bban6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ka1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ga1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sih4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sih7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zik7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yk8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yan1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>thai3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tai5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tan1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dan1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zin5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zin2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>han3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>han5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tiong1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>diong1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ni2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lni3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tin7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>din6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>u5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wu2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ho6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>do1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kiat8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>giat8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hing2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ngoo2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ggnoo3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bik7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gi2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>liak8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kian3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gian5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>thuan5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tuan2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gi5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ju5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zzu2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cu3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>too7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>doo6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tong1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dong1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pe7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>be6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guan1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>puann3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bnua5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>long5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>long2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ya6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bbin2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>too3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>doo5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gi1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kham1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kam1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>honnh4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hnoh7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>soo1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>soo2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ling2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bian2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bbian3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yu2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ziau2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ziao3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>siu3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>siu5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bing2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bbing3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>khun1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>thang5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tang2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dak8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cioh4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cioh7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>khu1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ku1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tiau5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>diao2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>li3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>su2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>an1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>thi5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ti2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zin7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zin6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>si6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N/A</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -9273,7 +9979,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>2097</v>
+        <v>2047</v>
       </c>
     </row>
     <row r="7" spans="2:4">
@@ -9420,7 +10126,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1ADDA05-9E3D-489E-860E-F97D9E14A4D6}">
   <dimension ref="A1:D323"/>
   <sheetViews>
-    <sheetView topLeftCell="A299" workbookViewId="0">
+    <sheetView topLeftCell="A287" workbookViewId="0">
       <selection activeCell="O321" sqref="O321"/>
     </sheetView>
   </sheetViews>
@@ -13869,7 +14575,7 @@
         <v>1366</v>
       </c>
       <c r="B318" t="s">
-        <v>2107</v>
+        <v>2057</v>
       </c>
       <c r="C318" t="s">
         <v>499</v>
@@ -13897,7 +14603,7 @@
         <v>1372</v>
       </c>
       <c r="B320" t="s">
-        <v>2109</v>
+        <v>2059</v>
       </c>
       <c r="C320" t="s">
         <v>499</v>
@@ -13958,8 +14664,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{251125CE-AC7C-4341-8E92-A51F25F6D293}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -13983,10 +14689,10 @@
         <v>1244</v>
       </c>
       <c r="B2" t="s">
-        <v>754</v>
+        <v>2279</v>
       </c>
       <c r="C2" t="s">
-        <v>2098</v>
+        <v>2048</v>
       </c>
       <c r="D2" t="s">
         <v>1421</v>
@@ -13997,10 +14703,10 @@
         <v>1270</v>
       </c>
       <c r="B3" t="s">
-        <v>784</v>
+        <v>2279</v>
       </c>
       <c r="C3" t="s">
-        <v>2099</v>
+        <v>2049</v>
       </c>
       <c r="D3" t="s">
         <v>1065</v>
@@ -14011,10 +14717,10 @@
         <v>1366</v>
       </c>
       <c r="B4" t="s">
-        <v>2108</v>
+        <v>2279</v>
       </c>
       <c r="C4" t="s">
-        <v>2100</v>
+        <v>2050</v>
       </c>
       <c r="D4" t="s">
         <v>1422</v>
@@ -14025,10 +14731,10 @@
         <v>1368</v>
       </c>
       <c r="B5" t="s">
-        <v>824</v>
+        <v>2279</v>
       </c>
       <c r="C5" t="s">
-        <v>2101</v>
+        <v>2051</v>
       </c>
       <c r="D5" t="s">
         <v>1423</v>
@@ -14039,10 +14745,10 @@
         <v>1372</v>
       </c>
       <c r="B6" t="s">
-        <v>2110</v>
+        <v>2279</v>
       </c>
       <c r="C6" t="s">
-        <v>2102</v>
+        <v>2052</v>
       </c>
       <c r="D6" t="s">
         <v>1424</v>
@@ -14053,10 +14759,10 @@
         <v>1392</v>
       </c>
       <c r="B7" t="s">
-        <v>866</v>
+        <v>2279</v>
       </c>
       <c r="C7" t="s">
-        <v>2103</v>
+        <v>2053</v>
       </c>
       <c r="D7" t="s">
         <v>1425</v>
@@ -14067,10 +14773,10 @@
         <v>1403</v>
       </c>
       <c r="B8" t="s">
-        <v>663</v>
+        <v>2279</v>
       </c>
       <c r="C8" t="s">
-        <v>2104</v>
+        <v>2054</v>
       </c>
       <c r="D8" t="s">
         <v>1426</v>
@@ -14081,10 +14787,10 @@
         <v>1412</v>
       </c>
       <c r="B9" t="s">
-        <v>912</v>
+        <v>2279</v>
       </c>
       <c r="C9" t="s">
-        <v>2105</v>
+        <v>2055</v>
       </c>
       <c r="D9" t="s">
         <v>1427</v>
@@ -14270,11 +14976,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B653E275-5A31-466A-99DB-0BBFEE8A78C6}">
   <dimension ref="A1:V2002"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D241" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D75" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A261" sqref="A261"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="39"/>
@@ -14414,13 +15120,13 @@
       <c r="B4" s="17"/>
       <c r="D4" s="61"/>
       <c r="E4" s="61" t="s">
-        <v>1428</v>
+        <v>2066</v>
       </c>
       <c r="F4" s="61" t="s">
-        <v>413</v>
+        <v>760</v>
       </c>
       <c r="G4" s="61" t="s">
-        <v>1431</v>
+        <v>2068</v>
       </c>
       <c r="H4" s="61"/>
       <c r="I4" s="61"/>
@@ -14440,22 +15146,22 @@
       <c r="B5" s="19">
         <v>1</v>
       </c>
-      <c r="D5" s="60" t="s">
+      <c r="D5" s="59" t="s">
         <v>1168</v>
       </c>
-      <c r="E5" s="60" t="s">
+      <c r="E5" s="59" t="s">
         <v>1169</v>
       </c>
-      <c r="F5" s="60" t="s">
+      <c r="F5" s="59" t="s">
         <v>200</v>
       </c>
-      <c r="G5" s="60" t="s">
+      <c r="G5" s="59" t="s">
         <v>1170</v>
       </c>
-      <c r="H5" s="60" t="s">
+      <c r="H5" s="59" t="s">
         <v>1171</v>
       </c>
-      <c r="I5" s="60" t="str">
+      <c r="I5" s="59" t="str">
         <f>CHAR(10)</f>
         <v xml:space="preserve">
 </v>
@@ -14477,13 +15183,13 @@
       <c r="C6" s="22"/>
       <c r="D6" s="51"/>
       <c r="E6" s="51" t="s">
-        <v>1428</v>
+        <v>2066</v>
       </c>
       <c r="F6" s="51" t="s">
-        <v>1881</v>
+        <v>2067</v>
       </c>
       <c r="G6" s="51" t="s">
-        <v>1882</v>
+        <v>2069</v>
       </c>
       <c r="H6" s="51"/>
       <c r="I6" s="51"/>
@@ -14523,45 +15229,45 @@
     <row r="8" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B8" s="17"/>
       <c r="D8" s="61" t="s">
-        <v>303</v>
+        <v>515</v>
       </c>
       <c r="E8" s="61" t="s">
-        <v>1433</v>
+        <v>2070</v>
       </c>
       <c r="F8" s="61" t="s">
-        <v>338</v>
+        <v>601</v>
       </c>
       <c r="G8" s="61" t="s">
-        <v>1436</v>
+        <v>2071</v>
       </c>
       <c r="H8" s="61"/>
       <c r="I8" s="61" t="s">
-        <v>49</v>
+        <v>784</v>
       </c>
       <c r="J8" s="61" t="s">
-        <v>333</v>
+        <v>585</v>
       </c>
       <c r="K8" s="61" t="s">
-        <v>1440</v>
+        <v>2074</v>
       </c>
       <c r="L8" s="61" t="s">
-        <v>413</v>
+        <v>760</v>
       </c>
       <c r="M8" s="61"/>
       <c r="N8" s="61" t="s">
-        <v>1442</v>
+        <v>2075</v>
       </c>
       <c r="O8" s="61" t="s">
-        <v>382</v>
+        <v>695</v>
       </c>
       <c r="P8" s="61" t="s">
-        <v>401</v>
+        <v>734</v>
       </c>
       <c r="Q8" s="61" t="s">
-        <v>1444</v>
+        <v>2076</v>
       </c>
       <c r="R8" s="61" t="s">
-        <v>457</v>
+        <v>856</v>
       </c>
       <c r="S8" s="18"/>
       <c r="V8" s="55"/>
@@ -14571,49 +15277,49 @@
         <f>B5+1</f>
         <v>2</v>
       </c>
-      <c r="D9" s="60" t="s">
+      <c r="D9" s="59" t="s">
         <v>71</v>
       </c>
-      <c r="E9" s="60" t="s">
+      <c r="E9" s="59" t="s">
         <v>1172</v>
       </c>
-      <c r="F9" s="60" t="s">
+      <c r="F9" s="59" t="s">
         <v>108</v>
       </c>
-      <c r="G9" s="60" t="s">
+      <c r="G9" s="59" t="s">
         <v>1173</v>
       </c>
-      <c r="H9" s="60" t="s">
+      <c r="H9" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="I9" s="60" t="s">
+      <c r="I9" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="J9" s="60" t="s">
+      <c r="J9" s="59" t="s">
         <v>102</v>
       </c>
-      <c r="K9" s="60" t="s">
+      <c r="K9" s="59" t="s">
         <v>1174</v>
       </c>
-      <c r="L9" s="60" t="s">
+      <c r="L9" s="59" t="s">
         <v>200</v>
       </c>
-      <c r="M9" s="60" t="s">
+      <c r="M9" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="N9" s="60" t="s">
+      <c r="N9" s="59" t="s">
         <v>1175</v>
       </c>
-      <c r="O9" s="60" t="s">
+      <c r="O9" s="59" t="s">
         <v>1176</v>
       </c>
-      <c r="P9" s="60" t="s">
+      <c r="P9" s="59" t="s">
         <v>1177</v>
       </c>
-      <c r="Q9" s="60" t="s">
+      <c r="Q9" s="59" t="s">
         <v>1178</v>
       </c>
-      <c r="R9" s="60" t="s">
+      <c r="R9" s="59" t="s">
         <v>259</v>
       </c>
       <c r="S9" s="20"/>
@@ -14623,45 +15329,45 @@
     <row r="10" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B10" s="21"/>
       <c r="D10" s="51" t="s">
-        <v>303</v>
+        <v>515</v>
       </c>
       <c r="E10" s="51" t="s">
-        <v>1433</v>
+        <v>2070</v>
       </c>
       <c r="F10" s="51" t="s">
-        <v>338</v>
+        <v>601</v>
       </c>
       <c r="G10" s="51" t="s">
-        <v>1883</v>
+        <v>2072</v>
       </c>
       <c r="H10" s="51"/>
       <c r="I10" s="51" t="s">
-        <v>1884</v>
+        <v>2056</v>
       </c>
       <c r="J10" s="51" t="s">
-        <v>1885</v>
+        <v>2073</v>
       </c>
       <c r="K10" s="51" t="s">
-        <v>365</v>
+        <v>659</v>
       </c>
       <c r="L10" s="51" t="s">
-        <v>1881</v>
+        <v>2067</v>
       </c>
       <c r="M10" s="51"/>
       <c r="N10" s="51" t="s">
-        <v>1442</v>
+        <v>2075</v>
       </c>
       <c r="O10" s="51" t="s">
-        <v>406</v>
+        <v>744</v>
       </c>
       <c r="P10" s="51" t="s">
-        <v>426</v>
+        <v>792</v>
       </c>
       <c r="Q10" s="51" t="s">
-        <v>1444</v>
+        <v>2076</v>
       </c>
       <c r="R10" s="51" t="s">
-        <v>1886</v>
+        <v>2077</v>
       </c>
       <c r="S10" s="29"/>
       <c r="V10" s="55"/>
@@ -14689,42 +15395,42 @@
     <row r="12" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B12" s="17"/>
       <c r="D12" s="61" t="s">
-        <v>1447</v>
+        <v>2078</v>
       </c>
       <c r="E12" s="61" t="s">
-        <v>1449</v>
+        <v>2080</v>
       </c>
       <c r="F12" s="61" t="s">
-        <v>1451</v>
+        <v>2082</v>
       </c>
       <c r="G12" s="61"/>
       <c r="H12" s="61" t="s">
-        <v>1453</v>
+        <v>2084</v>
       </c>
       <c r="I12" s="61" t="s">
-        <v>1455</v>
+        <v>2086</v>
       </c>
       <c r="J12" s="61" t="s">
-        <v>340</v>
+        <v>605</v>
       </c>
       <c r="K12" s="61" t="s">
-        <v>1458</v>
+        <v>2088</v>
       </c>
       <c r="L12" s="61" t="s">
-        <v>327</v>
+        <v>573</v>
       </c>
       <c r="M12" s="61"/>
       <c r="N12" s="61" t="s">
-        <v>1461</v>
+        <v>2091</v>
       </c>
       <c r="O12" s="61" t="s">
-        <v>428</v>
+        <v>796</v>
       </c>
       <c r="P12" s="61" t="s">
-        <v>356</v>
+        <v>639</v>
       </c>
       <c r="Q12" s="61" t="s">
-        <v>1464</v>
+        <v>2095</v>
       </c>
       <c r="R12" s="61"/>
       <c r="S12" s="18"/>
@@ -14735,49 +15441,49 @@
         <f>B9+1</f>
         <v>3</v>
       </c>
-      <c r="D13" s="60" t="s">
+      <c r="D13" s="59" t="s">
         <v>1179</v>
       </c>
-      <c r="E13" s="60" t="s">
+      <c r="E13" s="59" t="s">
         <v>1180</v>
       </c>
-      <c r="F13" s="60" t="s">
+      <c r="F13" s="59" t="s">
         <v>1181</v>
       </c>
-      <c r="G13" s="60" t="s">
+      <c r="G13" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="H13" s="60" t="s">
+      <c r="H13" s="59" t="s">
         <v>1182</v>
       </c>
-      <c r="I13" s="60" t="s">
+      <c r="I13" s="59" t="s">
         <v>1183</v>
       </c>
-      <c r="J13" s="60" t="s">
+      <c r="J13" s="59" t="s">
         <v>110</v>
       </c>
-      <c r="K13" s="60" t="s">
+      <c r="K13" s="59" t="s">
         <v>1184</v>
       </c>
-      <c r="L13" s="60" t="s">
+      <c r="L13" s="59" t="s">
         <v>151</v>
       </c>
-      <c r="M13" s="60" t="s">
+      <c r="M13" s="59" t="s">
         <v>1185</v>
       </c>
-      <c r="N13" s="60" t="s">
+      <c r="N13" s="59" t="s">
         <v>1186</v>
       </c>
-      <c r="O13" s="60" t="s">
+      <c r="O13" s="59" t="s">
         <v>218</v>
       </c>
-      <c r="P13" s="60" t="s">
+      <c r="P13" s="59" t="s">
         <v>1187</v>
       </c>
-      <c r="Q13" s="60" t="s">
+      <c r="Q13" s="59" t="s">
         <v>1188</v>
       </c>
-      <c r="R13" s="60" t="s">
+      <c r="R13" s="59" t="s">
         <v>1185</v>
       </c>
       <c r="S13" s="20"/>
@@ -14786,42 +15492,42 @@
     <row r="14" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B14" s="21"/>
       <c r="D14" s="51" t="s">
-        <v>1887</v>
+        <v>2079</v>
       </c>
       <c r="E14" s="51" t="s">
-        <v>1888</v>
+        <v>2081</v>
       </c>
       <c r="F14" s="51" t="s">
-        <v>1889</v>
+        <v>2083</v>
       </c>
       <c r="G14" s="51"/>
       <c r="H14" s="51" t="s">
-        <v>1890</v>
+        <v>2085</v>
       </c>
       <c r="I14" s="51" t="s">
-        <v>1891</v>
+        <v>2087</v>
       </c>
       <c r="J14" s="51" t="s">
-        <v>340</v>
+        <v>605</v>
       </c>
       <c r="K14" s="51" t="s">
-        <v>1892</v>
+        <v>2089</v>
       </c>
       <c r="L14" s="51" t="s">
-        <v>1893</v>
+        <v>2090</v>
       </c>
       <c r="M14" s="51"/>
       <c r="N14" s="51" t="s">
-        <v>1894</v>
+        <v>2092</v>
       </c>
       <c r="O14" s="51" t="s">
-        <v>1895</v>
+        <v>2093</v>
       </c>
       <c r="P14" s="51" t="s">
-        <v>1896</v>
+        <v>2094</v>
       </c>
       <c r="Q14" s="51" t="s">
-        <v>1897</v>
+        <v>2096</v>
       </c>
       <c r="R14" s="51"/>
       <c r="S14" s="29"/>
@@ -14850,45 +15556,45 @@
     <row r="16" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B16" s="17"/>
       <c r="D16" s="61" t="s">
-        <v>1465</v>
+        <v>2097</v>
       </c>
       <c r="E16" s="61" t="s">
-        <v>1467</v>
+        <v>2099</v>
       </c>
       <c r="F16" s="61" t="s">
-        <v>472</v>
+        <v>888</v>
       </c>
       <c r="G16" s="61" t="s">
-        <v>381</v>
+        <v>693</v>
       </c>
       <c r="H16" s="61" t="s">
-        <v>338</v>
+        <v>601</v>
       </c>
       <c r="I16" s="61" t="s">
-        <v>1469</v>
+        <v>2103</v>
       </c>
       <c r="J16" s="61"/>
       <c r="K16" s="61" t="s">
-        <v>427</v>
+        <v>794</v>
       </c>
       <c r="L16" s="61" t="s">
-        <v>49</v>
+        <v>784</v>
       </c>
       <c r="M16" s="61" t="s">
-        <v>1472</v>
+        <v>2106</v>
       </c>
       <c r="N16" s="61" t="s">
-        <v>1473</v>
+        <v>2108</v>
       </c>
       <c r="O16" s="61" t="s">
-        <v>1474</v>
+        <v>2110</v>
       </c>
       <c r="P16" s="61" t="s">
-        <v>1476</v>
+        <v>2112</v>
       </c>
       <c r="Q16" s="61"/>
       <c r="R16" s="61" t="s">
-        <v>1477</v>
+        <v>2114</v>
       </c>
       <c r="S16" s="18"/>
       <c r="V16" s="55"/>
@@ -14898,49 +15604,49 @@
         <f>B13+1</f>
         <v>4</v>
       </c>
-      <c r="D17" s="60" t="s">
+      <c r="D17" s="59" t="s">
         <v>1189</v>
       </c>
-      <c r="E17" s="60" t="s">
+      <c r="E17" s="59" t="s">
         <v>1190</v>
       </c>
-      <c r="F17" s="60" t="s">
+      <c r="F17" s="59" t="s">
         <v>1191</v>
       </c>
-      <c r="G17" s="60" t="s">
+      <c r="G17" s="59" t="s">
         <v>159</v>
       </c>
-      <c r="H17" s="60" t="s">
+      <c r="H17" s="59" t="s">
         <v>108</v>
       </c>
-      <c r="I17" s="60" t="s">
+      <c r="I17" s="59" t="s">
         <v>1192</v>
       </c>
-      <c r="J17" s="60" t="s">
+      <c r="J17" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="K17" s="60" t="s">
+      <c r="K17" s="59" t="s">
         <v>217</v>
       </c>
-      <c r="L17" s="60" t="s">
+      <c r="L17" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="M17" s="60" t="s">
+      <c r="M17" s="59" t="s">
         <v>1193</v>
       </c>
-      <c r="N17" s="60" t="s">
+      <c r="N17" s="59" t="s">
         <v>1194</v>
       </c>
-      <c r="O17" s="60" t="s">
+      <c r="O17" s="59" t="s">
         <v>1195</v>
       </c>
-      <c r="P17" s="60" t="s">
+      <c r="P17" s="59" t="s">
         <v>1196</v>
       </c>
-      <c r="Q17" s="60" t="s">
+      <c r="Q17" s="59" t="s">
         <v>1185</v>
       </c>
-      <c r="R17" s="60" t="s">
+      <c r="R17" s="59" t="s">
         <v>1197</v>
       </c>
       <c r="S17" s="20"/>
@@ -14949,45 +15655,45 @@
     <row r="18" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B18" s="21"/>
       <c r="D18" s="51" t="s">
-        <v>1898</v>
+        <v>2098</v>
       </c>
       <c r="E18" s="51" t="s">
-        <v>1899</v>
+        <v>2100</v>
       </c>
       <c r="F18" s="51" t="s">
-        <v>1900</v>
+        <v>2101</v>
       </c>
       <c r="G18" s="51" t="s">
-        <v>1901</v>
+        <v>2102</v>
       </c>
       <c r="H18" s="51" t="s">
-        <v>338</v>
+        <v>601</v>
       </c>
       <c r="I18" s="51" t="s">
-        <v>1902</v>
+        <v>2104</v>
       </c>
       <c r="J18" s="51"/>
       <c r="K18" s="51" t="s">
-        <v>1903</v>
+        <v>2105</v>
       </c>
       <c r="L18" s="51" t="s">
-        <v>1884</v>
+        <v>2056</v>
       </c>
       <c r="M18" s="51" t="s">
-        <v>1904</v>
+        <v>2107</v>
       </c>
       <c r="N18" s="51" t="s">
-        <v>1905</v>
+        <v>2109</v>
       </c>
       <c r="O18" s="51" t="s">
-        <v>1906</v>
+        <v>2111</v>
       </c>
       <c r="P18" s="51" t="s">
-        <v>1907</v>
+        <v>2113</v>
       </c>
       <c r="Q18" s="51"/>
       <c r="R18" s="51" t="s">
-        <v>1908</v>
+        <v>2115</v>
       </c>
       <c r="S18" s="29"/>
       <c r="V18" s="55"/>
@@ -15015,45 +15721,45 @@
     <row r="20" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B20" s="17"/>
       <c r="D20" s="61" t="s">
-        <v>312</v>
+        <v>535</v>
       </c>
       <c r="E20" s="61" t="s">
-        <v>1480</v>
+        <v>2117</v>
       </c>
       <c r="F20" s="61" t="s">
-        <v>1482</v>
+        <v>2119</v>
       </c>
       <c r="G20" s="61" t="s">
-        <v>338</v>
+        <v>601</v>
       </c>
       <c r="H20" s="61" t="s">
-        <v>1484</v>
+        <v>2121</v>
       </c>
       <c r="I20" s="61"/>
       <c r="J20" s="61" t="s">
-        <v>420</v>
+        <v>774</v>
       </c>
       <c r="K20" s="61" t="s">
-        <v>387</v>
+        <v>704</v>
       </c>
       <c r="L20" s="61" t="s">
-        <v>1488</v>
+        <v>2125</v>
       </c>
       <c r="M20" s="61" t="s">
-        <v>1490</v>
+        <v>2127</v>
       </c>
       <c r="N20" s="61"/>
       <c r="O20" s="61" t="s">
-        <v>1492</v>
+        <v>2129</v>
       </c>
       <c r="P20" s="61" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="Q20" s="61" t="s">
-        <v>1495</v>
+        <v>2132</v>
       </c>
       <c r="R20" s="61" t="s">
-        <v>1497</v>
+        <v>2134</v>
       </c>
       <c r="S20" s="18"/>
       <c r="V20" s="55"/>
@@ -15063,49 +15769,49 @@
         <f>B17+1</f>
         <v>5</v>
       </c>
-      <c r="D21" s="60" t="s">
+      <c r="D21" s="59" t="s">
         <v>1198</v>
       </c>
-      <c r="E21" s="60" t="s">
+      <c r="E21" s="59" t="s">
         <v>1199</v>
       </c>
-      <c r="F21" s="60" t="s">
+      <c r="F21" s="59" t="s">
         <v>1200</v>
       </c>
-      <c r="G21" s="60" t="s">
+      <c r="G21" s="59" t="s">
         <v>108</v>
       </c>
-      <c r="H21" s="60" t="s">
+      <c r="H21" s="59" t="s">
         <v>1201</v>
       </c>
-      <c r="I21" s="60" t="s">
+      <c r="I21" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="J21" s="60" t="s">
+      <c r="J21" s="59" t="s">
         <v>1202</v>
       </c>
-      <c r="K21" s="60" t="s">
+      <c r="K21" s="59" t="s">
         <v>168</v>
       </c>
-      <c r="L21" s="60" t="s">
+      <c r="L21" s="59" t="s">
         <v>1203</v>
       </c>
-      <c r="M21" s="60" t="s">
+      <c r="M21" s="59" t="s">
         <v>1204</v>
       </c>
-      <c r="N21" s="60" t="s">
+      <c r="N21" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="O21" s="60" t="s">
+      <c r="O21" s="59" t="s">
         <v>1205</v>
       </c>
-      <c r="P21" s="60" t="s">
+      <c r="P21" s="59" t="s">
         <v>1206</v>
       </c>
-      <c r="Q21" s="60" t="s">
+      <c r="Q21" s="59" t="s">
         <v>1207</v>
       </c>
-      <c r="R21" s="60" t="s">
+      <c r="R21" s="59" t="s">
         <v>1208</v>
       </c>
       <c r="S21" s="20"/>
@@ -15114,45 +15820,45 @@
     <row r="22" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B22" s="21"/>
       <c r="D22" s="51" t="s">
-        <v>1909</v>
+        <v>2116</v>
       </c>
       <c r="E22" s="51" t="s">
-        <v>1910</v>
+        <v>2118</v>
       </c>
       <c r="F22" s="51" t="s">
-        <v>1911</v>
+        <v>2120</v>
       </c>
       <c r="G22" s="51" t="s">
-        <v>338</v>
+        <v>601</v>
       </c>
       <c r="H22" s="51" t="s">
-        <v>1912</v>
+        <v>2122</v>
       </c>
       <c r="I22" s="51"/>
       <c r="J22" s="51" t="s">
-        <v>1913</v>
+        <v>2123</v>
       </c>
       <c r="K22" s="51" t="s">
-        <v>1914</v>
+        <v>2124</v>
       </c>
       <c r="L22" s="51" t="s">
-        <v>1915</v>
+        <v>2126</v>
       </c>
       <c r="M22" s="51" t="s">
-        <v>1916</v>
+        <v>2128</v>
       </c>
       <c r="N22" s="51"/>
       <c r="O22" s="51" t="s">
-        <v>1917</v>
+        <v>2130</v>
       </c>
       <c r="P22" s="51" t="s">
-        <v>1918</v>
+        <v>2131</v>
       </c>
       <c r="Q22" s="51" t="s">
-        <v>1919</v>
+        <v>2133</v>
       </c>
       <c r="R22" s="51" t="s">
-        <v>1497</v>
+        <v>2134</v>
       </c>
       <c r="S22" s="29"/>
       <c r="V22" s="55"/>
@@ -15180,32 +15886,32 @@
     <row r="24" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B24" s="17"/>
       <c r="D24" s="61" t="s">
-        <v>336</v>
+        <v>597</v>
       </c>
       <c r="E24" s="61" t="s">
-        <v>1500</v>
+        <v>2136</v>
       </c>
       <c r="F24" s="61" t="s">
-        <v>333</v>
+        <v>585</v>
       </c>
       <c r="G24" s="61" t="s">
-        <v>1502</v>
+        <v>2138</v>
       </c>
       <c r="H24" s="61" t="s">
-        <v>422</v>
+        <v>782</v>
       </c>
       <c r="I24" s="61"/>
       <c r="J24" s="61" t="s">
-        <v>40</v>
+        <v>543</v>
       </c>
       <c r="K24" s="61" t="s">
-        <v>1506</v>
+        <v>2142</v>
       </c>
       <c r="L24" s="61" t="s">
-        <v>59</v>
+        <v>607</v>
       </c>
       <c r="M24" s="61" t="s">
-        <v>1509</v>
+        <v>2145</v>
       </c>
       <c r="N24" s="61"/>
       <c r="O24" s="61"/>
@@ -15220,40 +15926,40 @@
         <f>B21+1</f>
         <v>6</v>
       </c>
-      <c r="D25" s="60" t="s">
+      <c r="D25" s="59" t="s">
         <v>106</v>
       </c>
-      <c r="E25" s="60" t="s">
+      <c r="E25" s="59" t="s">
         <v>1209</v>
       </c>
-      <c r="F25" s="60" t="s">
+      <c r="F25" s="59" t="s">
         <v>102</v>
       </c>
-      <c r="G25" s="60" t="s">
+      <c r="G25" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="H25" s="60" t="s">
+      <c r="H25" s="59" t="s">
         <v>212</v>
       </c>
-      <c r="I25" s="60" t="s">
+      <c r="I25" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="J25" s="60" t="s">
+      <c r="J25" s="59" t="s">
         <v>252</v>
       </c>
-      <c r="K25" s="60" t="s">
+      <c r="K25" s="59" t="s">
         <v>1210</v>
       </c>
-      <c r="L25" s="60" t="s">
+      <c r="L25" s="59" t="s">
         <v>111</v>
       </c>
-      <c r="M25" s="60" t="s">
+      <c r="M25" s="59" t="s">
         <v>1211</v>
       </c>
-      <c r="N25" s="60" t="s">
+      <c r="N25" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="O25" s="60" t="str">
+      <c r="O25" s="59" t="str">
         <f>CHAR(10)</f>
         <v xml:space="preserve">
 </v>
@@ -15267,32 +15973,32 @@
     <row r="26" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B26" s="21"/>
       <c r="D26" s="51" t="s">
-        <v>1920</v>
+        <v>2135</v>
       </c>
       <c r="E26" s="51" t="s">
-        <v>1921</v>
+        <v>2137</v>
       </c>
       <c r="F26" s="51" t="s">
-        <v>1885</v>
+        <v>2073</v>
       </c>
       <c r="G26" s="51" t="s">
-        <v>1922</v>
+        <v>2139</v>
       </c>
       <c r="H26" s="51" t="s">
-        <v>1923</v>
+        <v>2140</v>
       </c>
       <c r="I26" s="51"/>
       <c r="J26" s="51" t="s">
-        <v>1924</v>
+        <v>2141</v>
       </c>
       <c r="K26" s="51" t="s">
-        <v>1833</v>
+        <v>2143</v>
       </c>
       <c r="L26" s="51" t="s">
-        <v>1779</v>
+        <v>2144</v>
       </c>
       <c r="M26" s="51" t="s">
-        <v>1925</v>
+        <v>2146</v>
       </c>
       <c r="N26" s="51"/>
       <c r="O26" s="51"/>
@@ -15329,44 +16035,44 @@
     <row r="28" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B28" s="17"/>
       <c r="D28" s="61" t="s">
-        <v>311</v>
+        <v>533</v>
       </c>
       <c r="E28" s="61" t="s">
-        <v>1512</v>
+        <v>2148</v>
       </c>
       <c r="F28" s="61" t="s">
-        <v>1514</v>
+        <v>2150</v>
       </c>
       <c r="G28" s="61" t="s">
-        <v>1516</v>
+        <v>2151</v>
       </c>
       <c r="H28" s="61" t="s">
-        <v>411</v>
+        <v>756</v>
       </c>
       <c r="I28" s="61" t="s">
-        <v>473</v>
+        <v>894</v>
       </c>
       <c r="J28" s="61" t="s">
-        <v>305</v>
+        <v>519</v>
       </c>
       <c r="K28" s="61" t="s">
-        <v>1428</v>
+        <v>2066</v>
       </c>
       <c r="L28" s="61" t="s">
-        <v>361</v>
+        <v>649</v>
       </c>
       <c r="M28" s="61" t="s">
-        <v>63</v>
+        <v>541</v>
       </c>
       <c r="N28" s="61"/>
       <c r="O28" s="61" t="s">
-        <v>1523</v>
+        <v>2157</v>
       </c>
       <c r="P28" s="61" t="s">
-        <v>354</v>
+        <v>635</v>
       </c>
       <c r="Q28" s="61" t="s">
-        <v>1526</v>
+        <v>2160</v>
       </c>
       <c r="R28" s="61"/>
       <c r="S28" s="18"/>
@@ -15381,49 +16087,49 @@
         <f>B25+1</f>
         <v>7</v>
       </c>
-      <c r="D29" s="60" t="s">
+      <c r="D29" s="59" t="s">
         <v>79</v>
       </c>
-      <c r="E29" s="60" t="s">
+      <c r="E29" s="59" t="s">
         <v>1212</v>
       </c>
-      <c r="F29" s="60" t="s">
+      <c r="F29" s="59" t="s">
         <v>1213</v>
       </c>
-      <c r="G29" s="60" t="s">
+      <c r="G29" s="59" t="s">
         <v>1214</v>
       </c>
-      <c r="H29" s="60" t="s">
+      <c r="H29" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="I29" s="60" t="s">
+      <c r="I29" s="59" t="s">
         <v>281</v>
       </c>
-      <c r="J29" s="60" t="s">
+      <c r="J29" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="K29" s="60" t="s">
+      <c r="K29" s="59" t="s">
         <v>1169</v>
       </c>
-      <c r="L29" s="60" t="s">
+      <c r="L29" s="59" t="s">
         <v>135</v>
       </c>
-      <c r="M29" s="60" t="s">
+      <c r="M29" s="59" t="s">
         <v>37</v>
       </c>
-      <c r="N29" s="60" t="s">
+      <c r="N29" s="59" t="s">
         <v>103</v>
       </c>
-      <c r="O29" s="60" t="s">
+      <c r="O29" s="59" t="s">
         <v>1215</v>
       </c>
-      <c r="P29" s="60" t="s">
+      <c r="P29" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="Q29" s="60" t="s">
+      <c r="Q29" s="59" t="s">
         <v>1216</v>
       </c>
-      <c r="R29" s="60" t="s">
+      <c r="R29" s="59" t="s">
         <v>23</v>
       </c>
       <c r="S29" s="20"/>
@@ -15436,44 +16142,44 @@
     <row r="30" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B30" s="21"/>
       <c r="D30" s="51" t="s">
-        <v>1926</v>
+        <v>2147</v>
       </c>
       <c r="E30" s="51" t="s">
-        <v>1927</v>
+        <v>2149</v>
       </c>
       <c r="F30" s="51" t="s">
-        <v>448</v>
+        <v>836</v>
       </c>
       <c r="G30" s="51" t="s">
-        <v>1928</v>
+        <v>2152</v>
       </c>
       <c r="H30" s="51" t="s">
-        <v>1929</v>
+        <v>2153</v>
       </c>
       <c r="I30" s="51" t="s">
-        <v>1930</v>
+        <v>2154</v>
       </c>
       <c r="J30" s="51" t="s">
-        <v>1931</v>
+        <v>2155</v>
       </c>
       <c r="K30" s="51" t="s">
-        <v>1428</v>
+        <v>2066</v>
       </c>
       <c r="L30" s="51" t="s">
-        <v>361</v>
+        <v>649</v>
       </c>
       <c r="M30" s="51" t="s">
-        <v>1932</v>
+        <v>2156</v>
       </c>
       <c r="N30" s="51"/>
       <c r="O30" s="51" t="s">
-        <v>1933</v>
+        <v>2158</v>
       </c>
       <c r="P30" s="51" t="s">
-        <v>1934</v>
+        <v>2159</v>
       </c>
       <c r="Q30" s="51" t="s">
-        <v>1935</v>
+        <v>2161</v>
       </c>
       <c r="R30" s="51"/>
       <c r="S30" s="29"/>
@@ -15510,41 +16216,41 @@
     <row r="32" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B32" s="17"/>
       <c r="D32" s="61" t="s">
-        <v>1528</v>
+        <v>2162</v>
       </c>
       <c r="E32" s="61" t="s">
-        <v>1530</v>
+        <v>2164</v>
       </c>
       <c r="F32" s="61" t="s">
-        <v>39</v>
+        <v>595</v>
       </c>
       <c r="G32" s="61"/>
       <c r="H32" s="61" t="s">
-        <v>1533</v>
+        <v>2167</v>
       </c>
       <c r="I32" s="61" t="s">
-        <v>59</v>
+        <v>607</v>
       </c>
       <c r="J32" s="61"/>
       <c r="K32" s="61" t="s">
-        <v>1535</v>
+        <v>2169</v>
       </c>
       <c r="L32" s="61" t="s">
-        <v>1537</v>
+        <v>2171</v>
       </c>
       <c r="M32" s="61"/>
       <c r="N32" s="61" t="s">
-        <v>1539</v>
+        <v>2173</v>
       </c>
       <c r="O32" s="61" t="s">
-        <v>387</v>
+        <v>704</v>
       </c>
       <c r="P32" s="61" t="s">
-        <v>52</v>
+        <v>880</v>
       </c>
       <c r="Q32" s="61"/>
       <c r="R32" s="61" t="s">
-        <v>457</v>
+        <v>856</v>
       </c>
       <c r="S32" s="18"/>
       <c r="U32" s="33" t="str">
@@ -15558,49 +16264,49 @@
         <f>B29+1</f>
         <v>8</v>
       </c>
-      <c r="D33" s="60" t="s">
+      <c r="D33" s="59" t="s">
         <v>1217</v>
       </c>
-      <c r="E33" s="60" t="s">
+      <c r="E33" s="59" t="s">
         <v>1218</v>
       </c>
-      <c r="F33" s="60" t="s">
+      <c r="F33" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="G33" s="60" t="s">
+      <c r="G33" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="H33" s="60" t="s">
+      <c r="H33" s="59" t="s">
         <v>1219</v>
       </c>
-      <c r="I33" s="60" t="s">
+      <c r="I33" s="59" t="s">
         <v>111</v>
       </c>
-      <c r="J33" s="60" t="s">
+      <c r="J33" s="59" t="s">
         <v>1185</v>
       </c>
-      <c r="K33" s="60" t="s">
+      <c r="K33" s="59" t="s">
         <v>1220</v>
       </c>
-      <c r="L33" s="60" t="s">
+      <c r="L33" s="59" t="s">
         <v>1221</v>
       </c>
-      <c r="M33" s="60" t="s">
+      <c r="M33" s="59" t="s">
         <v>1185</v>
       </c>
-      <c r="N33" s="60" t="s">
+      <c r="N33" s="59" t="s">
         <v>1222</v>
       </c>
-      <c r="O33" s="60" t="s">
+      <c r="O33" s="59" t="s">
         <v>168</v>
       </c>
-      <c r="P33" s="60" t="s">
+      <c r="P33" s="59" t="s">
         <v>1223</v>
       </c>
-      <c r="Q33" s="60" t="s">
+      <c r="Q33" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="R33" s="60" t="s">
+      <c r="R33" s="59" t="s">
         <v>259</v>
       </c>
       <c r="S33" s="20"/>
@@ -15609,41 +16315,41 @@
     <row r="34" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B34" s="21"/>
       <c r="D34" s="51" t="s">
-        <v>1936</v>
+        <v>2163</v>
       </c>
       <c r="E34" s="51" t="s">
-        <v>1937</v>
+        <v>2165</v>
       </c>
       <c r="F34" s="51" t="s">
-        <v>1938</v>
+        <v>2166</v>
       </c>
       <c r="G34" s="51"/>
       <c r="H34" s="51" t="s">
-        <v>1939</v>
+        <v>2168</v>
       </c>
       <c r="I34" s="51" t="s">
-        <v>1779</v>
+        <v>2144</v>
       </c>
       <c r="J34" s="51"/>
       <c r="K34" s="51" t="s">
-        <v>1940</v>
+        <v>2170</v>
       </c>
       <c r="L34" s="51" t="s">
-        <v>1941</v>
+        <v>2172</v>
       </c>
       <c r="M34" s="51"/>
       <c r="N34" s="51" t="s">
-        <v>1942</v>
+        <v>2174</v>
       </c>
       <c r="O34" s="51" t="s">
-        <v>1914</v>
+        <v>2124</v>
       </c>
       <c r="P34" s="51" t="s">
-        <v>1943</v>
+        <v>2175</v>
       </c>
       <c r="Q34" s="51"/>
       <c r="R34" s="51" t="s">
-        <v>1886</v>
+        <v>2077</v>
       </c>
       <c r="S34" s="29"/>
       <c r="V34" s="55"/>
@@ -15671,47 +16377,47 @@
     <row r="36" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B36" s="17"/>
       <c r="D36" s="61" t="s">
-        <v>411</v>
+        <v>756</v>
       </c>
       <c r="E36" s="61" t="s">
-        <v>327</v>
+        <v>573</v>
       </c>
       <c r="F36" s="61" t="s">
-        <v>1542</v>
+        <v>2176</v>
       </c>
       <c r="G36" s="61" t="s">
-        <v>361</v>
+        <v>649</v>
       </c>
       <c r="H36" s="61" t="s">
-        <v>63</v>
+        <v>541</v>
       </c>
       <c r="I36" s="61"/>
       <c r="J36" s="61" t="s">
-        <v>421</v>
+        <v>778</v>
       </c>
       <c r="K36" s="61" t="s">
-        <v>1530</v>
+        <v>2164</v>
       </c>
       <c r="L36" s="61" t="s">
-        <v>39</v>
+        <v>595</v>
       </c>
       <c r="M36" s="61" t="s">
-        <v>1545</v>
+        <v>2178</v>
       </c>
       <c r="N36" s="61" t="s">
-        <v>1547</v>
+        <v>2180</v>
       </c>
       <c r="O36" s="61" t="s">
-        <v>1549</v>
+        <v>2182</v>
       </c>
       <c r="P36" s="61" t="s">
-        <v>370</v>
+        <v>669</v>
       </c>
       <c r="Q36" s="61" t="s">
-        <v>1552</v>
+        <v>2185</v>
       </c>
       <c r="R36" s="61" t="s">
-        <v>63</v>
+        <v>541</v>
       </c>
       <c r="S36" s="18"/>
       <c r="V36" s="55"/>
@@ -15721,49 +16427,49 @@
         <f>B33+1</f>
         <v>9</v>
       </c>
-      <c r="D37" s="60" t="s">
+      <c r="D37" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="E37" s="60" t="s">
+      <c r="E37" s="59" t="s">
         <v>151</v>
       </c>
-      <c r="F37" s="60" t="s">
+      <c r="F37" s="59" t="s">
         <v>1224</v>
       </c>
-      <c r="G37" s="60" t="s">
+      <c r="G37" s="59" t="s">
         <v>135</v>
       </c>
-      <c r="H37" s="60" t="s">
+      <c r="H37" s="59" t="s">
         <v>37</v>
       </c>
-      <c r="I37" s="60" t="s">
+      <c r="I37" s="59" t="s">
         <v>103</v>
       </c>
-      <c r="J37" s="60" t="s">
+      <c r="J37" s="59" t="s">
         <v>210</v>
       </c>
-      <c r="K37" s="60" t="s">
+      <c r="K37" s="59" t="s">
         <v>1218</v>
       </c>
-      <c r="L37" s="60" t="s">
+      <c r="L37" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="M37" s="60" t="s">
+      <c r="M37" s="59" t="s">
         <v>1225</v>
       </c>
-      <c r="N37" s="60" t="s">
+      <c r="N37" s="59" t="s">
         <v>1226</v>
       </c>
-      <c r="O37" s="60" t="s">
+      <c r="O37" s="59" t="s">
         <v>1227</v>
       </c>
-      <c r="P37" s="60" t="s">
+      <c r="P37" s="59" t="s">
         <v>1228</v>
       </c>
-      <c r="Q37" s="60" t="s">
+      <c r="Q37" s="59" t="s">
         <v>1229</v>
       </c>
-      <c r="R37" s="60" t="s">
+      <c r="R37" s="59" t="s">
         <v>37</v>
       </c>
       <c r="S37" s="20"/>
@@ -15772,47 +16478,47 @@
     <row r="38" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B38" s="21"/>
       <c r="D38" s="51" t="s">
-        <v>1929</v>
+        <v>2153</v>
       </c>
       <c r="E38" s="51" t="s">
-        <v>1893</v>
+        <v>2090</v>
       </c>
       <c r="F38" s="51" t="s">
-        <v>1542</v>
+        <v>2176</v>
       </c>
       <c r="G38" s="51" t="s">
-        <v>361</v>
+        <v>649</v>
       </c>
       <c r="H38" s="51" t="s">
-        <v>1932</v>
+        <v>2156</v>
       </c>
       <c r="I38" s="51"/>
       <c r="J38" s="51" t="s">
-        <v>1944</v>
+        <v>2177</v>
       </c>
       <c r="K38" s="51" t="s">
-        <v>1937</v>
+        <v>2165</v>
       </c>
       <c r="L38" s="51" t="s">
-        <v>1938</v>
+        <v>2166</v>
       </c>
       <c r="M38" s="51" t="s">
-        <v>1945</v>
+        <v>2179</v>
       </c>
       <c r="N38" s="51" t="s">
-        <v>1946</v>
+        <v>2181</v>
       </c>
       <c r="O38" s="51" t="s">
-        <v>1947</v>
+        <v>2183</v>
       </c>
       <c r="P38" s="51" t="s">
-        <v>1948</v>
+        <v>2184</v>
       </c>
       <c r="Q38" s="51" t="s">
-        <v>1949</v>
+        <v>2186</v>
       </c>
       <c r="R38" s="51" t="s">
-        <v>1932</v>
+        <v>2156</v>
       </c>
       <c r="S38" s="29"/>
       <c r="V38" s="55"/>
@@ -15840,44 +16546,44 @@
     <row r="40" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B40" s="17"/>
       <c r="D40" s="61" t="s">
-        <v>1428</v>
+        <v>2066</v>
       </c>
       <c r="E40" s="61" t="s">
-        <v>360</v>
+        <v>647</v>
       </c>
       <c r="F40" s="61" t="s">
-        <v>1555</v>
+        <v>2188</v>
       </c>
       <c r="G40" s="61" t="s">
-        <v>333</v>
+        <v>585</v>
       </c>
       <c r="H40" s="61" t="s">
-        <v>1557</v>
+        <v>2190</v>
       </c>
       <c r="I40" s="61"/>
       <c r="J40" s="61" t="s">
-        <v>1528</v>
+        <v>2162</v>
       </c>
       <c r="K40" s="61" t="s">
-        <v>363</v>
+        <v>653</v>
       </c>
       <c r="L40" s="61" t="s">
-        <v>427</v>
+        <v>794</v>
       </c>
       <c r="M40" s="61" t="s">
-        <v>1461</v>
+        <v>2091</v>
       </c>
       <c r="N40" s="61" t="s">
-        <v>422</v>
+        <v>782</v>
       </c>
       <c r="O40" s="61" t="s">
-        <v>475</v>
+        <v>900</v>
       </c>
       <c r="P40" s="61" t="s">
-        <v>361</v>
+        <v>649</v>
       </c>
       <c r="Q40" s="61" t="s">
-        <v>63</v>
+        <v>541</v>
       </c>
       <c r="R40" s="61"/>
       <c r="S40" s="18"/>
@@ -15888,49 +16594,49 @@
         <f>B37+1</f>
         <v>10</v>
       </c>
-      <c r="D41" s="60" t="s">
+      <c r="D41" s="59" t="s">
         <v>1169</v>
       </c>
-      <c r="E41" s="60" t="s">
+      <c r="E41" s="59" t="s">
         <v>134</v>
       </c>
-      <c r="F41" s="60" t="s">
+      <c r="F41" s="59" t="s">
         <v>1230</v>
       </c>
-      <c r="G41" s="60" t="s">
+      <c r="G41" s="59" t="s">
         <v>102</v>
       </c>
-      <c r="H41" s="60" t="s">
+      <c r="H41" s="59" t="s">
         <v>1231</v>
       </c>
-      <c r="I41" s="60" t="s">
+      <c r="I41" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="J41" s="60" t="s">
+      <c r="J41" s="59" t="s">
         <v>1217</v>
       </c>
-      <c r="K41" s="60" t="s">
+      <c r="K41" s="59" t="s">
         <v>1232</v>
       </c>
-      <c r="L41" s="60" t="s">
+      <c r="L41" s="59" t="s">
         <v>217</v>
       </c>
-      <c r="M41" s="60" t="s">
+      <c r="M41" s="59" t="s">
         <v>1186</v>
       </c>
-      <c r="N41" s="60" t="s">
+      <c r="N41" s="59" t="s">
         <v>212</v>
       </c>
-      <c r="O41" s="60" t="s">
+      <c r="O41" s="59" t="s">
         <v>283</v>
       </c>
-      <c r="P41" s="60" t="s">
+      <c r="P41" s="59" t="s">
         <v>135</v>
       </c>
-      <c r="Q41" s="60" t="s">
+      <c r="Q41" s="59" t="s">
         <v>37</v>
       </c>
-      <c r="R41" s="60" t="s">
+      <c r="R41" s="59" t="s">
         <v>103</v>
       </c>
       <c r="S41" s="20"/>
@@ -15939,44 +16645,44 @@
     <row r="42" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B42" s="21"/>
       <c r="D42" s="51" t="s">
-        <v>1428</v>
+        <v>2066</v>
       </c>
       <c r="E42" s="51" t="s">
-        <v>1950</v>
+        <v>2187</v>
       </c>
       <c r="F42" s="51" t="s">
-        <v>1951</v>
+        <v>2189</v>
       </c>
       <c r="G42" s="51" t="s">
-        <v>1885</v>
+        <v>2073</v>
       </c>
       <c r="H42" s="51" t="s">
-        <v>1952</v>
+        <v>2191</v>
       </c>
       <c r="I42" s="51"/>
       <c r="J42" s="51" t="s">
-        <v>1936</v>
+        <v>2163</v>
       </c>
       <c r="K42" s="51" t="s">
-        <v>1953</v>
+        <v>2192</v>
       </c>
       <c r="L42" s="51" t="s">
-        <v>1903</v>
+        <v>2105</v>
       </c>
       <c r="M42" s="51" t="s">
-        <v>1894</v>
+        <v>2092</v>
       </c>
       <c r="N42" s="51" t="s">
-        <v>1923</v>
+        <v>2140</v>
       </c>
       <c r="O42" s="51" t="s">
-        <v>1954</v>
+        <v>2193</v>
       </c>
       <c r="P42" s="51" t="s">
-        <v>361</v>
+        <v>649</v>
       </c>
       <c r="Q42" s="51" t="s">
-        <v>1932</v>
+        <v>2156</v>
       </c>
       <c r="R42" s="51"/>
       <c r="S42" s="29"/>
@@ -16005,43 +16711,43 @@
     <row r="44" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B44" s="17"/>
       <c r="D44" s="61" t="s">
-        <v>1523</v>
+        <v>2157</v>
       </c>
       <c r="E44" s="61" t="s">
-        <v>39</v>
+        <v>595</v>
       </c>
       <c r="F44" s="61" t="s">
-        <v>382</v>
+        <v>695</v>
       </c>
       <c r="G44" s="61"/>
       <c r="H44" s="61" t="s">
-        <v>443</v>
+        <v>826</v>
       </c>
       <c r="I44" s="61" t="s">
-        <v>1545</v>
+        <v>2178</v>
       </c>
       <c r="J44" s="61" t="s">
-        <v>1512</v>
+        <v>2148</v>
       </c>
       <c r="K44" s="61"/>
       <c r="L44" s="61" t="s">
-        <v>1561</v>
+        <v>2195</v>
       </c>
       <c r="M44" s="61" t="s">
-        <v>305</v>
+        <v>519</v>
       </c>
       <c r="N44" s="61" t="s">
-        <v>1563</v>
+        <v>2197</v>
       </c>
       <c r="O44" s="61"/>
       <c r="P44" s="61" t="s">
-        <v>457</v>
+        <v>856</v>
       </c>
       <c r="Q44" s="61" t="s">
-        <v>1547</v>
+        <v>2180</v>
       </c>
       <c r="R44" s="61" t="s">
-        <v>327</v>
+        <v>573</v>
       </c>
       <c r="S44" s="18"/>
       <c r="V44" s="55"/>
@@ -16051,49 +16757,49 @@
         <f>B41+1</f>
         <v>11</v>
       </c>
-      <c r="D45" s="60" t="s">
+      <c r="D45" s="59" t="s">
         <v>1215</v>
       </c>
-      <c r="E45" s="60" t="s">
+      <c r="E45" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="F45" s="60" t="s">
+      <c r="F45" s="59" t="s">
         <v>1176</v>
       </c>
-      <c r="G45" s="60" t="s">
+      <c r="G45" s="59" t="s">
         <v>1185</v>
       </c>
-      <c r="H45" s="60" t="s">
+      <c r="H45" s="59" t="s">
         <v>1233</v>
       </c>
-      <c r="I45" s="60" t="s">
+      <c r="I45" s="59" t="s">
         <v>1234</v>
       </c>
-      <c r="J45" s="60" t="s">
+      <c r="J45" s="59" t="s">
         <v>1212</v>
       </c>
-      <c r="K45" s="60" t="s">
+      <c r="K45" s="59" t="s">
         <v>1185</v>
       </c>
-      <c r="L45" s="60" t="s">
+      <c r="L45" s="59" t="s">
         <v>1235</v>
       </c>
-      <c r="M45" s="60" t="s">
+      <c r="M45" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="N45" s="60" t="s">
+      <c r="N45" s="59" t="s">
         <v>1236</v>
       </c>
-      <c r="O45" s="60" t="s">
+      <c r="O45" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="P45" s="60" t="s">
+      <c r="P45" s="59" t="s">
         <v>259</v>
       </c>
-      <c r="Q45" s="60" t="s">
+      <c r="Q45" s="59" t="s">
         <v>1226</v>
       </c>
-      <c r="R45" s="60" t="s">
+      <c r="R45" s="59" t="s">
         <v>151</v>
       </c>
       <c r="S45" s="20"/>
@@ -16102,43 +16808,43 @@
     <row r="46" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B46" s="21"/>
       <c r="D46" s="51" t="s">
-        <v>1933</v>
+        <v>2158</v>
       </c>
       <c r="E46" s="51" t="s">
-        <v>1938</v>
+        <v>2166</v>
       </c>
       <c r="F46" s="51" t="s">
-        <v>406</v>
+        <v>744</v>
       </c>
       <c r="G46" s="51"/>
       <c r="H46" s="51" t="s">
-        <v>1955</v>
+        <v>2194</v>
       </c>
       <c r="I46" s="51" t="s">
-        <v>1945</v>
+        <v>2179</v>
       </c>
       <c r="J46" s="51" t="s">
-        <v>1927</v>
+        <v>2149</v>
       </c>
       <c r="K46" s="51"/>
       <c r="L46" s="51" t="s">
-        <v>1956</v>
+        <v>2196</v>
       </c>
       <c r="M46" s="51" t="s">
-        <v>1931</v>
+        <v>2155</v>
       </c>
       <c r="N46" s="51" t="s">
-        <v>1957</v>
+        <v>2198</v>
       </c>
       <c r="O46" s="51"/>
       <c r="P46" s="51" t="s">
-        <v>1886</v>
+        <v>2077</v>
       </c>
       <c r="Q46" s="51" t="s">
-        <v>1946</v>
+        <v>2181</v>
       </c>
       <c r="R46" s="51" t="s">
-        <v>1893</v>
+        <v>2090</v>
       </c>
       <c r="S46" s="29"/>
       <c r="V46" s="55"/>
@@ -16166,41 +16872,41 @@
     <row r="48" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B48" s="17"/>
       <c r="D48" s="61" t="s">
-        <v>354</v>
+        <v>635</v>
       </c>
       <c r="E48" s="61" t="s">
-        <v>1509</v>
+        <v>2145</v>
       </c>
       <c r="F48" s="61"/>
       <c r="G48" s="61" t="s">
-        <v>427</v>
+        <v>794</v>
       </c>
       <c r="H48" s="61" t="s">
-        <v>49</v>
+        <v>784</v>
       </c>
       <c r="I48" s="61" t="s">
-        <v>1565</v>
+        <v>2199</v>
       </c>
       <c r="J48" s="61"/>
       <c r="K48" s="61" t="s">
-        <v>1567</v>
+        <v>2201</v>
       </c>
       <c r="L48" s="61" t="s">
-        <v>338</v>
+        <v>601</v>
       </c>
       <c r="M48" s="61" t="s">
-        <v>1552</v>
+        <v>2185</v>
       </c>
       <c r="N48" s="61"/>
       <c r="O48" s="61" t="s">
-        <v>1569</v>
+        <v>2203</v>
       </c>
       <c r="P48" s="61" t="s">
-        <v>1570</v>
+        <v>2205</v>
       </c>
       <c r="Q48" s="61"/>
       <c r="R48" s="61" t="s">
-        <v>1572</v>
+        <v>2207</v>
       </c>
       <c r="S48" s="18"/>
       <c r="V48" s="55"/>
@@ -16210,49 +16916,49 @@
         <f>B45+1</f>
         <v>12</v>
       </c>
-      <c r="D49" s="60" t="s">
+      <c r="D49" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="E49" s="60" t="s">
+      <c r="E49" s="59" t="s">
         <v>1211</v>
       </c>
-      <c r="F49" s="60" t="s">
+      <c r="F49" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="G49" s="60" t="s">
+      <c r="G49" s="59" t="s">
         <v>217</v>
       </c>
-      <c r="H49" s="60" t="s">
+      <c r="H49" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="I49" s="60" t="s">
+      <c r="I49" s="59" t="s">
         <v>1237</v>
       </c>
-      <c r="J49" s="60" t="s">
+      <c r="J49" s="59" t="s">
         <v>1185</v>
       </c>
-      <c r="K49" s="60" t="s">
+      <c r="K49" s="59" t="s">
         <v>1238</v>
       </c>
-      <c r="L49" s="60" t="s">
+      <c r="L49" s="59" t="s">
         <v>108</v>
       </c>
-      <c r="M49" s="60" t="s">
+      <c r="M49" s="59" t="s">
         <v>1239</v>
       </c>
-      <c r="N49" s="60" t="s">
+      <c r="N49" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="O49" s="60" t="s">
+      <c r="O49" s="59" t="s">
         <v>1240</v>
       </c>
-      <c r="P49" s="60" t="s">
+      <c r="P49" s="59" t="s">
         <v>1241</v>
       </c>
-      <c r="Q49" s="60" t="s">
+      <c r="Q49" s="59" t="s">
         <v>1185</v>
       </c>
-      <c r="R49" s="60" t="s">
+      <c r="R49" s="59" t="s">
         <v>1242</v>
       </c>
       <c r="S49" s="20"/>
@@ -16261,41 +16967,41 @@
     <row r="50" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B50" s="21"/>
       <c r="D50" s="51" t="s">
-        <v>1934</v>
+        <v>2159</v>
       </c>
       <c r="E50" s="51" t="s">
-        <v>1925</v>
+        <v>2146</v>
       </c>
       <c r="F50" s="51"/>
       <c r="G50" s="51" t="s">
-        <v>1903</v>
+        <v>2105</v>
       </c>
       <c r="H50" s="51" t="s">
-        <v>1884</v>
+        <v>2056</v>
       </c>
       <c r="I50" s="51" t="s">
-        <v>1958</v>
+        <v>2200</v>
       </c>
       <c r="J50" s="51"/>
       <c r="K50" s="51" t="s">
-        <v>1959</v>
+        <v>2202</v>
       </c>
       <c r="L50" s="51" t="s">
-        <v>338</v>
+        <v>601</v>
       </c>
       <c r="M50" s="51" t="s">
-        <v>1949</v>
+        <v>2186</v>
       </c>
       <c r="N50" s="51"/>
       <c r="O50" s="51" t="s">
-        <v>1960</v>
+        <v>2204</v>
       </c>
       <c r="P50" s="51" t="s">
-        <v>1961</v>
+        <v>2206</v>
       </c>
       <c r="Q50" s="51"/>
       <c r="R50" s="51" t="s">
-        <v>1962</v>
+        <v>2208</v>
       </c>
       <c r="S50" s="29"/>
       <c r="V50" s="55"/>
@@ -16323,44 +17029,44 @@
     <row r="52" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B52" s="17"/>
       <c r="D52" s="61" t="s">
-        <v>1574</v>
+        <v>2209</v>
       </c>
       <c r="E52" s="61" t="s">
-        <v>352</v>
+        <v>631</v>
       </c>
       <c r="F52" s="61" t="s">
-        <v>376</v>
+        <v>683</v>
       </c>
       <c r="G52" s="61" t="s">
-        <v>1451</v>
+        <v>2082</v>
       </c>
       <c r="H52" s="61"/>
       <c r="I52" s="61" t="s">
-        <v>1488</v>
+        <v>2125</v>
       </c>
       <c r="J52" s="61" t="s">
-        <v>327</v>
+        <v>573</v>
       </c>
       <c r="K52" s="61" t="s">
         <v>754</v>
       </c>
       <c r="L52" s="61" t="s">
-        <v>1449</v>
+        <v>2080</v>
       </c>
       <c r="M52" s="61" t="s">
-        <v>457</v>
+        <v>856</v>
       </c>
       <c r="N52" s="61" t="s">
-        <v>428</v>
+        <v>796</v>
       </c>
       <c r="O52" s="61" t="s">
-        <v>427</v>
+        <v>794</v>
       </c>
       <c r="P52" s="61" t="s">
-        <v>40</v>
+        <v>543</v>
       </c>
       <c r="Q52" s="61" t="s">
-        <v>1579</v>
+        <v>2213</v>
       </c>
       <c r="R52" s="61"/>
       <c r="S52" s="18"/>
@@ -16371,49 +17077,49 @@
         <f>B49+1</f>
         <v>13</v>
       </c>
-      <c r="D53" s="60" t="s">
+      <c r="D53" s="59" t="s">
         <v>1243</v>
       </c>
-      <c r="E53" s="60" t="s">
+      <c r="E53" s="59" t="s">
         <v>172</v>
       </c>
-      <c r="F53" s="60" t="s">
+      <c r="F53" s="59" t="s">
         <v>153</v>
       </c>
-      <c r="G53" s="60" t="s">
+      <c r="G53" s="59" t="s">
         <v>1181</v>
       </c>
-      <c r="H53" s="60" t="s">
+      <c r="H53" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="I53" s="60" t="s">
+      <c r="I53" s="59" t="s">
         <v>1203</v>
       </c>
-      <c r="J53" s="60" t="s">
+      <c r="J53" s="59" t="s">
         <v>151</v>
       </c>
       <c r="K53" s="59" t="s">
         <v>1244</v>
       </c>
-      <c r="L53" s="60" t="s">
+      <c r="L53" s="59" t="s">
         <v>1180</v>
       </c>
-      <c r="M53" s="60" t="s">
+      <c r="M53" s="59" t="s">
         <v>259</v>
       </c>
-      <c r="N53" s="60" t="s">
+      <c r="N53" s="59" t="s">
         <v>218</v>
       </c>
-      <c r="O53" s="60" t="s">
+      <c r="O53" s="59" t="s">
         <v>217</v>
       </c>
-      <c r="P53" s="60" t="s">
+      <c r="P53" s="59" t="s">
         <v>1245</v>
       </c>
-      <c r="Q53" s="60" t="s">
+      <c r="Q53" s="59" t="s">
         <v>1246</v>
       </c>
-      <c r="R53" s="60" t="s">
+      <c r="R53" s="59" t="s">
         <v>23</v>
       </c>
       <c r="S53" s="20"/>
@@ -16422,44 +17128,44 @@
     <row r="54" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B54" s="21"/>
       <c r="D54" s="51" t="s">
-        <v>1963</v>
+        <v>2210</v>
       </c>
       <c r="E54" s="51" t="s">
-        <v>1964</v>
+        <v>2211</v>
       </c>
       <c r="F54" s="51" t="s">
-        <v>1965</v>
+        <v>2212</v>
       </c>
       <c r="G54" s="51" t="s">
-        <v>1889</v>
+        <v>2083</v>
       </c>
       <c r="H54" s="51"/>
       <c r="I54" s="51" t="s">
-        <v>1915</v>
+        <v>2126</v>
       </c>
       <c r="J54" s="51" t="s">
-        <v>1893</v>
+        <v>2090</v>
       </c>
       <c r="K54" s="51" t="s">
         <v>754</v>
       </c>
       <c r="L54" s="51" t="s">
-        <v>1888</v>
+        <v>2081</v>
       </c>
       <c r="M54" s="51" t="s">
-        <v>1886</v>
+        <v>2077</v>
       </c>
       <c r="N54" s="51" t="s">
-        <v>1895</v>
+        <v>2093</v>
       </c>
       <c r="O54" s="51" t="s">
-        <v>1903</v>
+        <v>2105</v>
       </c>
       <c r="P54" s="51" t="s">
-        <v>1924</v>
+        <v>2141</v>
       </c>
       <c r="Q54" s="51" t="s">
-        <v>1966</v>
+        <v>2214</v>
       </c>
       <c r="R54" s="51"/>
       <c r="S54" s="29"/>
@@ -16488,47 +17194,47 @@
     <row r="56" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B56" s="17"/>
       <c r="D56" s="61" t="s">
-        <v>421</v>
+        <v>778</v>
       </c>
       <c r="E56" s="61" t="s">
-        <v>1530</v>
+        <v>2164</v>
       </c>
       <c r="F56" s="61" t="s">
-        <v>353</v>
+        <v>633</v>
       </c>
       <c r="G56" s="61" t="s">
-        <v>475</v>
+        <v>900</v>
       </c>
       <c r="H56" s="61" t="s">
-        <v>411</v>
+        <v>756</v>
       </c>
       <c r="I56" s="61" t="s">
-        <v>1451</v>
+        <v>2082</v>
       </c>
       <c r="J56" s="61" t="s">
-        <v>1582</v>
+        <v>2216</v>
       </c>
       <c r="K56" s="61" t="s">
-        <v>315</v>
+        <v>545</v>
       </c>
       <c r="L56" s="61" t="s">
-        <v>63</v>
+        <v>541</v>
       </c>
       <c r="M56" s="61"/>
       <c r="N56" s="61" t="s">
-        <v>45</v>
+        <v>567</v>
       </c>
       <c r="O56" s="61" t="s">
-        <v>1586</v>
+        <v>2220</v>
       </c>
       <c r="P56" s="61" t="s">
-        <v>1588</v>
+        <v>2221</v>
       </c>
       <c r="Q56" s="61" t="s">
-        <v>333</v>
+        <v>585</v>
       </c>
       <c r="R56" s="61" t="s">
-        <v>1590</v>
+        <v>2223</v>
       </c>
       <c r="S56" s="18"/>
       <c r="V56" s="55"/>
@@ -16538,49 +17244,49 @@
         <f>B53+1</f>
         <v>14</v>
       </c>
-      <c r="D57" s="60" t="s">
+      <c r="D57" s="59" t="s">
         <v>210</v>
       </c>
-      <c r="E57" s="60" t="s">
+      <c r="E57" s="59" t="s">
         <v>1218</v>
       </c>
-      <c r="F57" s="60" t="s">
+      <c r="F57" s="59" t="s">
         <v>125</v>
       </c>
-      <c r="G57" s="60" t="s">
+      <c r="G57" s="59" t="s">
         <v>283</v>
       </c>
-      <c r="H57" s="60" t="s">
+      <c r="H57" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="I57" s="60" t="s">
+      <c r="I57" s="59" t="s">
         <v>1181</v>
       </c>
-      <c r="J57" s="60" t="s">
+      <c r="J57" s="59" t="s">
         <v>1247</v>
       </c>
-      <c r="K57" s="60" t="s">
+      <c r="K57" s="59" t="s">
         <v>82</v>
       </c>
-      <c r="L57" s="60" t="s">
+      <c r="L57" s="59" t="s">
         <v>37</v>
       </c>
-      <c r="M57" s="60" t="s">
+      <c r="M57" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="N57" s="60" t="s">
+      <c r="N57" s="59" t="s">
         <v>93</v>
       </c>
-      <c r="O57" s="60" t="s">
+      <c r="O57" s="59" t="s">
         <v>1248</v>
       </c>
-      <c r="P57" s="60" t="s">
+      <c r="P57" s="59" t="s">
         <v>1249</v>
       </c>
-      <c r="Q57" s="60" t="s">
+      <c r="Q57" s="59" t="s">
         <v>102</v>
       </c>
-      <c r="R57" s="60" t="s">
+      <c r="R57" s="59" t="s">
         <v>1250</v>
       </c>
       <c r="S57" s="20"/>
@@ -16589,47 +17295,47 @@
     <row r="58" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B58" s="21"/>
       <c r="D58" s="51" t="s">
-        <v>1944</v>
+        <v>2177</v>
       </c>
       <c r="E58" s="51" t="s">
-        <v>1937</v>
+        <v>2165</v>
       </c>
       <c r="F58" s="51" t="s">
-        <v>1967</v>
+        <v>2215</v>
       </c>
       <c r="G58" s="51" t="s">
-        <v>1954</v>
+        <v>2193</v>
       </c>
       <c r="H58" s="51" t="s">
-        <v>1929</v>
+        <v>2153</v>
       </c>
       <c r="I58" s="51" t="s">
-        <v>1889</v>
+        <v>2083</v>
       </c>
       <c r="J58" s="51" t="s">
-        <v>1968</v>
+        <v>2217</v>
       </c>
       <c r="K58" s="51" t="s">
-        <v>1969</v>
+        <v>2218</v>
       </c>
       <c r="L58" s="51" t="s">
-        <v>1932</v>
+        <v>2156</v>
       </c>
       <c r="M58" s="51"/>
       <c r="N58" s="51" t="s">
-        <v>1970</v>
+        <v>2219</v>
       </c>
       <c r="O58" s="51" t="s">
-        <v>1586</v>
+        <v>2220</v>
       </c>
       <c r="P58" s="51" t="s">
-        <v>1760</v>
+        <v>2222</v>
       </c>
       <c r="Q58" s="51" t="s">
-        <v>1885</v>
+        <v>2073</v>
       </c>
       <c r="R58" s="51" t="s">
-        <v>1971</v>
+        <v>2224</v>
       </c>
       <c r="S58" s="29"/>
       <c r="V58" s="55"/>
@@ -16657,45 +17363,45 @@
     <row r="60" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B60" s="17"/>
       <c r="D60" s="61" t="s">
-        <v>337</v>
+        <v>599</v>
       </c>
       <c r="E60" s="61" t="s">
-        <v>422</v>
+        <v>782</v>
       </c>
       <c r="F60" s="61" t="s">
-        <v>1593</v>
+        <v>2226</v>
       </c>
       <c r="G60" s="61" t="s">
-        <v>362</v>
+        <v>651</v>
       </c>
       <c r="H60" s="61"/>
       <c r="I60" s="61" t="s">
-        <v>1595</v>
+        <v>2229</v>
       </c>
       <c r="J60" s="61" t="s">
-        <v>45</v>
+        <v>567</v>
       </c>
       <c r="K60" s="61" t="s">
-        <v>1574</v>
+        <v>2209</v>
       </c>
       <c r="L60" s="61"/>
       <c r="M60" s="61" t="s">
-        <v>1597</v>
+        <v>2231</v>
       </c>
       <c r="N60" s="61" t="s">
-        <v>1599</v>
+        <v>2233</v>
       </c>
       <c r="O60" s="61" t="s">
-        <v>339</v>
+        <v>603</v>
       </c>
       <c r="P60" s="61" t="s">
-        <v>1539</v>
+        <v>2173</v>
       </c>
       <c r="Q60" s="61" t="s">
-        <v>421</v>
+        <v>778</v>
       </c>
       <c r="R60" s="61" t="s">
-        <v>1602</v>
+        <v>2236</v>
       </c>
       <c r="S60" s="18"/>
       <c r="V60" s="55"/>
@@ -16705,49 +17411,49 @@
         <f>B57+1</f>
         <v>15</v>
       </c>
-      <c r="D61" s="60" t="s">
+      <c r="D61" s="59" t="s">
         <v>107</v>
       </c>
-      <c r="E61" s="60" t="s">
+      <c r="E61" s="59" t="s">
         <v>212</v>
       </c>
-      <c r="F61" s="60" t="s">
+      <c r="F61" s="59" t="s">
         <v>1251</v>
       </c>
-      <c r="G61" s="60" t="s">
+      <c r="G61" s="59" t="s">
         <v>136</v>
       </c>
-      <c r="H61" s="60" t="s">
+      <c r="H61" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="I61" s="60" t="s">
+      <c r="I61" s="59" t="s">
         <v>1252</v>
       </c>
-      <c r="J61" s="60" t="s">
+      <c r="J61" s="59" t="s">
         <v>93</v>
       </c>
-      <c r="K61" s="60" t="s">
+      <c r="K61" s="59" t="s">
         <v>1243</v>
       </c>
-      <c r="L61" s="60" t="s">
+      <c r="L61" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="M61" s="60" t="s">
+      <c r="M61" s="59" t="s">
         <v>1253</v>
       </c>
-      <c r="N61" s="60" t="s">
+      <c r="N61" s="59" t="s">
         <v>1254</v>
       </c>
-      <c r="O61" s="60" t="s">
+      <c r="O61" s="59" t="s">
         <v>1255</v>
       </c>
-      <c r="P61" s="60" t="s">
+      <c r="P61" s="59" t="s">
         <v>1256</v>
       </c>
-      <c r="Q61" s="60" t="s">
+      <c r="Q61" s="59" t="s">
         <v>210</v>
       </c>
-      <c r="R61" s="60" t="s">
+      <c r="R61" s="59" t="s">
         <v>1257</v>
       </c>
       <c r="S61" s="20"/>
@@ -16756,45 +17462,45 @@
     <row r="62" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B62" s="21"/>
       <c r="D62" s="51" t="s">
-        <v>1830</v>
+        <v>2225</v>
       </c>
       <c r="E62" s="51" t="s">
-        <v>1923</v>
+        <v>2140</v>
       </c>
       <c r="F62" s="51" t="s">
-        <v>1972</v>
+        <v>2227</v>
       </c>
       <c r="G62" s="51" t="s">
-        <v>1973</v>
+        <v>2228</v>
       </c>
       <c r="H62" s="51"/>
       <c r="I62" s="51" t="s">
-        <v>1974</v>
+        <v>2230</v>
       </c>
       <c r="J62" s="51" t="s">
-        <v>1970</v>
+        <v>2219</v>
       </c>
       <c r="K62" s="51" t="s">
-        <v>1963</v>
+        <v>2210</v>
       </c>
       <c r="L62" s="51"/>
       <c r="M62" s="51" t="s">
-        <v>1975</v>
+        <v>2232</v>
       </c>
       <c r="N62" s="51" t="s">
-        <v>1976</v>
+        <v>2234</v>
       </c>
       <c r="O62" s="51" t="s">
-        <v>1977</v>
+        <v>2235</v>
       </c>
       <c r="P62" s="51" t="s">
-        <v>1942</v>
+        <v>2174</v>
       </c>
       <c r="Q62" s="51" t="s">
-        <v>1944</v>
+        <v>2177</v>
       </c>
       <c r="R62" s="51" t="s">
-        <v>1978</v>
+        <v>2237</v>
       </c>
       <c r="S62" s="29"/>
       <c r="V62" s="55"/>
@@ -16822,45 +17528,45 @@
     <row r="64" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B64" s="17"/>
       <c r="D64" s="61" t="s">
-        <v>1603</v>
+        <v>2238</v>
       </c>
       <c r="E64" s="61" t="s">
-        <v>340</v>
+        <v>605</v>
       </c>
       <c r="F64" s="61" t="s">
-        <v>364</v>
+        <v>657</v>
       </c>
       <c r="G64" s="61"/>
       <c r="H64" s="61" t="s">
-        <v>362</v>
+        <v>651</v>
       </c>
       <c r="I64" s="61" t="s">
-        <v>457</v>
+        <v>856</v>
       </c>
       <c r="J64" s="61" t="s">
-        <v>1552</v>
+        <v>2185</v>
       </c>
       <c r="K64" s="61" t="s">
-        <v>55</v>
+        <v>892</v>
       </c>
       <c r="L64" s="61" t="s">
-        <v>1607</v>
+        <v>2242</v>
       </c>
       <c r="M64" s="61" t="s">
-        <v>413</v>
+        <v>760</v>
       </c>
       <c r="N64" s="61" t="s">
-        <v>422</v>
+        <v>782</v>
       </c>
       <c r="O64" s="61"/>
       <c r="P64" s="61" t="s">
-        <v>55</v>
+        <v>892</v>
       </c>
       <c r="Q64" s="61" t="s">
-        <v>40</v>
+        <v>543</v>
       </c>
       <c r="R64" s="61" t="s">
-        <v>336</v>
+        <v>597</v>
       </c>
       <c r="S64" s="18"/>
       <c r="V64" s="55"/>
@@ -16870,49 +17576,49 @@
         <f>B61+1</f>
         <v>16</v>
       </c>
-      <c r="D65" s="60" t="s">
+      <c r="D65" s="59" t="s">
         <v>1258</v>
       </c>
-      <c r="E65" s="60" t="s">
+      <c r="E65" s="59" t="s">
         <v>110</v>
       </c>
-      <c r="F65" s="60" t="s">
+      <c r="F65" s="59" t="s">
         <v>138</v>
       </c>
-      <c r="G65" s="60" t="s">
+      <c r="G65" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="H65" s="60" t="s">
+      <c r="H65" s="59" t="s">
         <v>136</v>
       </c>
-      <c r="I65" s="60" t="s">
+      <c r="I65" s="59" t="s">
         <v>259</v>
       </c>
-      <c r="J65" s="60" t="s">
+      <c r="J65" s="59" t="s">
         <v>1259</v>
       </c>
-      <c r="K65" s="60" t="s">
+      <c r="K65" s="59" t="s">
         <v>279</v>
       </c>
-      <c r="L65" s="60" t="s">
+      <c r="L65" s="59" t="s">
         <v>1260</v>
       </c>
-      <c r="M65" s="60" t="s">
+      <c r="M65" s="59" t="s">
         <v>200</v>
       </c>
-      <c r="N65" s="60" t="s">
+      <c r="N65" s="59" t="s">
         <v>212</v>
       </c>
-      <c r="O65" s="60" t="s">
+      <c r="O65" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="P65" s="60" t="s">
+      <c r="P65" s="59" t="s">
         <v>279</v>
       </c>
-      <c r="Q65" s="60" t="s">
+      <c r="Q65" s="59" t="s">
         <v>252</v>
       </c>
-      <c r="R65" s="60" t="s">
+      <c r="R65" s="59" t="s">
         <v>106</v>
       </c>
       <c r="S65" s="20"/>
@@ -16921,45 +17627,45 @@
     <row r="66" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B66" s="21"/>
       <c r="D66" s="51" t="s">
-        <v>1979</v>
+        <v>2239</v>
       </c>
       <c r="E66" s="51" t="s">
-        <v>340</v>
+        <v>605</v>
       </c>
       <c r="F66" s="51" t="s">
-        <v>1980</v>
+        <v>2240</v>
       </c>
       <c r="G66" s="51"/>
       <c r="H66" s="51" t="s">
-        <v>1973</v>
+        <v>2228</v>
       </c>
       <c r="I66" s="51" t="s">
-        <v>1886</v>
+        <v>2077</v>
       </c>
       <c r="J66" s="51" t="s">
-        <v>1949</v>
+        <v>2186</v>
       </c>
       <c r="K66" s="51" t="s">
-        <v>1981</v>
+        <v>2241</v>
       </c>
       <c r="L66" s="51" t="s">
-        <v>1982</v>
+        <v>2243</v>
       </c>
       <c r="M66" s="51" t="s">
-        <v>1881</v>
+        <v>2067</v>
       </c>
       <c r="N66" s="51" t="s">
-        <v>1923</v>
+        <v>2140</v>
       </c>
       <c r="O66" s="51"/>
       <c r="P66" s="51" t="s">
-        <v>1981</v>
+        <v>2241</v>
       </c>
       <c r="Q66" s="51" t="s">
-        <v>1924</v>
+        <v>2141</v>
       </c>
       <c r="R66" s="51" t="s">
-        <v>1920</v>
+        <v>2135</v>
       </c>
       <c r="S66" s="29"/>
       <c r="V66" s="55"/>
@@ -16987,25 +17693,25 @@
     <row r="68" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B68" s="17"/>
       <c r="D68" s="61" t="s">
-        <v>418</v>
+        <v>770</v>
       </c>
       <c r="E68" s="61" t="s">
-        <v>421</v>
+        <v>778</v>
       </c>
       <c r="F68" s="61" t="s">
-        <v>413</v>
+        <v>760</v>
       </c>
       <c r="G68" s="61" t="s">
-        <v>40</v>
+        <v>543</v>
       </c>
       <c r="H68" s="61" t="s">
-        <v>336</v>
+        <v>597</v>
       </c>
       <c r="I68" s="61" t="s">
-        <v>1608</v>
+        <v>2245</v>
       </c>
       <c r="J68" s="61" t="s">
-        <v>1609</v>
+        <v>2247</v>
       </c>
       <c r="K68" s="61"/>
       <c r="L68" s="61"/>
@@ -17023,31 +17729,31 @@
         <f>B65+1</f>
         <v>17</v>
       </c>
-      <c r="D69" s="60" t="s">
+      <c r="D69" s="59" t="s">
         <v>1261</v>
       </c>
-      <c r="E69" s="60" t="s">
+      <c r="E69" s="59" t="s">
         <v>210</v>
       </c>
-      <c r="F69" s="60" t="s">
+      <c r="F69" s="59" t="s">
         <v>200</v>
       </c>
-      <c r="G69" s="60" t="s">
+      <c r="G69" s="59" t="s">
         <v>252</v>
       </c>
-      <c r="H69" s="60" t="s">
+      <c r="H69" s="59" t="s">
         <v>106</v>
       </c>
-      <c r="I69" s="60" t="s">
+      <c r="I69" s="59" t="s">
         <v>1262</v>
       </c>
-      <c r="J69" s="60" t="s">
+      <c r="J69" s="59" t="s">
         <v>160</v>
       </c>
-      <c r="K69" s="60" t="s">
+      <c r="K69" s="59" t="s">
         <v>161</v>
       </c>
-      <c r="L69" s="60" t="str">
+      <c r="L69" s="59" t="str">
         <f>CHAR(10)</f>
         <v xml:space="preserve">
 </v>
@@ -17064,25 +17770,25 @@
     <row r="70" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B70" s="21"/>
       <c r="D70" s="51" t="s">
-        <v>1983</v>
+        <v>2244</v>
       </c>
       <c r="E70" s="51" t="s">
-        <v>1944</v>
+        <v>2177</v>
       </c>
       <c r="F70" s="51" t="s">
-        <v>1881</v>
+        <v>2067</v>
       </c>
       <c r="G70" s="51" t="s">
-        <v>1924</v>
+        <v>2141</v>
       </c>
       <c r="H70" s="51" t="s">
-        <v>1920</v>
+        <v>2135</v>
       </c>
       <c r="I70" s="51" t="s">
-        <v>1984</v>
+        <v>2246</v>
       </c>
       <c r="J70" s="51" t="s">
-        <v>1985</v>
+        <v>2248</v>
       </c>
       <c r="K70" s="51"/>
       <c r="L70" s="51"/>
@@ -17118,45 +17824,45 @@
     <row r="72" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B72" s="17"/>
       <c r="D72" s="61" t="s">
-        <v>1611</v>
+        <v>2249</v>
       </c>
       <c r="E72" s="61" t="s">
-        <v>305</v>
+        <v>519</v>
       </c>
       <c r="F72" s="61" t="s">
-        <v>311</v>
+        <v>533</v>
       </c>
       <c r="G72" s="61"/>
       <c r="H72" s="61" t="s">
-        <v>362</v>
+        <v>651</v>
       </c>
       <c r="I72" s="61" t="s">
-        <v>480</v>
+        <v>910</v>
       </c>
       <c r="J72" s="61" t="s">
-        <v>1512</v>
+        <v>2148</v>
       </c>
       <c r="K72" s="61" t="s">
-        <v>338</v>
+        <v>601</v>
       </c>
       <c r="L72" s="61" t="s">
-        <v>1615</v>
+        <v>2250</v>
       </c>
       <c r="M72" s="61" t="s">
-        <v>387</v>
+        <v>704</v>
       </c>
       <c r="N72" s="61" t="s">
-        <v>48</v>
+        <v>529</v>
       </c>
       <c r="O72" s="61" t="s">
-        <v>1618</v>
+        <v>2252</v>
       </c>
       <c r="P72" s="61" t="s">
-        <v>364</v>
+        <v>657</v>
       </c>
       <c r="Q72" s="61"/>
       <c r="R72" s="61" t="s">
-        <v>413</v>
+        <v>760</v>
       </c>
       <c r="S72" s="18"/>
       <c r="V72" s="55"/>
@@ -17166,49 +17872,49 @@
         <f>B69+1</f>
         <v>18</v>
       </c>
-      <c r="D73" s="60" t="s">
+      <c r="D73" s="59" t="s">
         <v>1263</v>
       </c>
-      <c r="E73" s="60" t="s">
+      <c r="E73" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="F73" s="60" t="s">
+      <c r="F73" s="59" t="s">
         <v>288</v>
       </c>
-      <c r="G73" s="60" t="s">
+      <c r="G73" s="59" t="s">
         <v>289</v>
       </c>
-      <c r="H73" s="60" t="s">
+      <c r="H73" s="59" t="s">
         <v>136</v>
       </c>
-      <c r="I73" s="60" t="s">
+      <c r="I73" s="59" t="s">
         <v>291</v>
       </c>
-      <c r="J73" s="60" t="s">
+      <c r="J73" s="59" t="s">
         <v>1212</v>
       </c>
-      <c r="K73" s="60" t="s">
+      <c r="K73" s="59" t="s">
         <v>108</v>
       </c>
-      <c r="L73" s="60" t="s">
+      <c r="L73" s="59" t="s">
         <v>1264</v>
       </c>
-      <c r="M73" s="60" t="s">
+      <c r="M73" s="59" t="s">
         <v>168</v>
       </c>
-      <c r="N73" s="60" t="s">
+      <c r="N73" s="59" t="s">
         <v>1265</v>
       </c>
-      <c r="O73" s="60" t="s">
+      <c r="O73" s="59" t="s">
         <v>1266</v>
       </c>
-      <c r="P73" s="60" t="s">
+      <c r="P73" s="59" t="s">
         <v>138</v>
       </c>
-      <c r="Q73" s="60" t="s">
+      <c r="Q73" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="R73" s="60" t="s">
+      <c r="R73" s="59" t="s">
         <v>200</v>
       </c>
       <c r="S73" s="20"/>
@@ -17217,45 +17923,45 @@
     <row r="74" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B74" s="21"/>
       <c r="D74" s="51" t="s">
-        <v>1611</v>
+        <v>2249</v>
       </c>
       <c r="E74" s="51" t="s">
-        <v>1931</v>
+        <v>2155</v>
       </c>
       <c r="F74" s="51" t="s">
-        <v>1926</v>
+        <v>2147</v>
       </c>
       <c r="G74" s="51"/>
       <c r="H74" s="51" t="s">
-        <v>1973</v>
+        <v>2228</v>
       </c>
       <c r="I74" s="51" t="s">
-        <v>480</v>
+        <v>910</v>
       </c>
       <c r="J74" s="51" t="s">
-        <v>1927</v>
+        <v>2149</v>
       </c>
       <c r="K74" s="51" t="s">
-        <v>338</v>
+        <v>601</v>
       </c>
       <c r="L74" s="51" t="s">
-        <v>1509</v>
+        <v>2145</v>
       </c>
       <c r="M74" s="51" t="s">
-        <v>1914</v>
+        <v>2124</v>
       </c>
       <c r="N74" s="51" t="s">
-        <v>1986</v>
+        <v>2251</v>
       </c>
       <c r="O74" s="51" t="s">
-        <v>1987</v>
+        <v>2253</v>
       </c>
       <c r="P74" s="51" t="s">
-        <v>1980</v>
+        <v>2240</v>
       </c>
       <c r="Q74" s="51"/>
       <c r="R74" s="51" t="s">
-        <v>1881</v>
+        <v>2067</v>
       </c>
       <c r="S74" s="29"/>
       <c r="V74" s="55"/>
@@ -17283,45 +17989,45 @@
     <row r="76" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B76" s="17"/>
       <c r="D76" s="61" t="s">
-        <v>338</v>
+        <v>601</v>
       </c>
       <c r="E76" s="61" t="s">
-        <v>411</v>
+        <v>756</v>
       </c>
       <c r="F76" s="61" t="s">
-        <v>1552</v>
+        <v>2185</v>
       </c>
       <c r="G76" s="61" t="s">
-        <v>364</v>
+        <v>657</v>
       </c>
       <c r="H76" s="61"/>
       <c r="I76" s="61" t="s">
-        <v>437</v>
+        <v>814</v>
       </c>
       <c r="J76" s="61" t="s">
-        <v>1620</v>
+        <v>2255</v>
       </c>
       <c r="K76" s="61" t="s">
-        <v>1621</v>
+        <v>2257</v>
       </c>
       <c r="L76" s="61" t="s">
-        <v>338</v>
+        <v>601</v>
       </c>
       <c r="M76" s="61" t="s">
-        <v>411</v>
+        <v>756</v>
       </c>
       <c r="N76" s="61" t="s">
         <v>784</v>
       </c>
       <c r="O76" s="61" t="s">
-        <v>1622</v>
+        <v>2259</v>
       </c>
       <c r="P76" s="61"/>
       <c r="Q76" s="61" t="s">
-        <v>1623</v>
+        <v>2261</v>
       </c>
       <c r="R76" s="61" t="s">
-        <v>1625</v>
+        <v>2262</v>
       </c>
       <c r="S76" s="18"/>
       <c r="V76" s="55"/>
@@ -17331,49 +18037,49 @@
         <f>B73+1</f>
         <v>19</v>
       </c>
-      <c r="D77" s="60" t="s">
+      <c r="D77" s="59" t="s">
         <v>108</v>
       </c>
-      <c r="E77" s="60" t="s">
+      <c r="E77" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="F77" s="60" t="s">
+      <c r="F77" s="59" t="s">
         <v>1259</v>
       </c>
-      <c r="G77" s="60" t="s">
+      <c r="G77" s="59" t="s">
         <v>138</v>
       </c>
-      <c r="H77" s="60" t="s">
+      <c r="H77" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="I77" s="60" t="s">
+      <c r="I77" s="59" t="s">
         <v>1267</v>
       </c>
-      <c r="J77" s="60" t="s">
+      <c r="J77" s="59" t="s">
         <v>1268</v>
       </c>
-      <c r="K77" s="60" t="s">
+      <c r="K77" s="59" t="s">
         <v>1269</v>
       </c>
-      <c r="L77" s="60" t="s">
+      <c r="L77" s="59" t="s">
         <v>108</v>
       </c>
-      <c r="M77" s="60" t="s">
+      <c r="M77" s="59" t="s">
         <v>19</v>
       </c>
       <c r="N77" s="59" t="s">
         <v>1270</v>
       </c>
-      <c r="O77" s="60" t="s">
+      <c r="O77" s="59" t="s">
         <v>1271</v>
       </c>
-      <c r="P77" s="60" t="s">
+      <c r="P77" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="Q77" s="60" t="s">
+      <c r="Q77" s="59" t="s">
         <v>1272</v>
       </c>
-      <c r="R77" s="60" t="s">
+      <c r="R77" s="59" t="s">
         <v>1273</v>
       </c>
       <c r="S77" s="20"/>
@@ -17382,45 +18088,45 @@
     <row r="78" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B78" s="21"/>
       <c r="D78" s="51" t="s">
-        <v>338</v>
+        <v>601</v>
       </c>
       <c r="E78" s="51" t="s">
-        <v>1929</v>
+        <v>2153</v>
       </c>
       <c r="F78" s="51" t="s">
-        <v>1949</v>
+        <v>2186</v>
       </c>
       <c r="G78" s="51" t="s">
-        <v>1980</v>
+        <v>2240</v>
       </c>
       <c r="H78" s="51"/>
       <c r="I78" s="51" t="s">
-        <v>1988</v>
+        <v>2254</v>
       </c>
       <c r="J78" s="51" t="s">
-        <v>1989</v>
+        <v>2256</v>
       </c>
       <c r="K78" s="51" t="s">
-        <v>1990</v>
+        <v>2258</v>
       </c>
       <c r="L78" s="51" t="s">
-        <v>338</v>
+        <v>601</v>
       </c>
       <c r="M78" s="51" t="s">
-        <v>1929</v>
+        <v>2153</v>
       </c>
       <c r="N78" s="51" t="s">
-        <v>2106</v>
+        <v>2056</v>
       </c>
       <c r="O78" s="51" t="s">
-        <v>1991</v>
+        <v>2260</v>
       </c>
       <c r="P78" s="51"/>
       <c r="Q78" s="51" t="s">
-        <v>473</v>
+        <v>894</v>
       </c>
       <c r="R78" s="51" t="s">
-        <v>1992</v>
+        <v>2263</v>
       </c>
       <c r="S78" s="29"/>
       <c r="V78" s="55"/>
@@ -17448,45 +18154,45 @@
     <row r="80" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B80" s="17"/>
       <c r="D80" s="61" t="s">
-        <v>338</v>
+        <v>601</v>
       </c>
       <c r="E80" s="61" t="s">
-        <v>411</v>
+        <v>756</v>
       </c>
       <c r="F80" s="61" t="s">
-        <v>391</v>
+        <v>712</v>
       </c>
       <c r="G80" s="61" t="s">
-        <v>1627</v>
+        <v>2265</v>
       </c>
       <c r="H80" s="61" t="s">
-        <v>364</v>
+        <v>657</v>
       </c>
       <c r="I80" s="61"/>
       <c r="J80" s="61" t="s">
-        <v>1629</v>
+        <v>2267</v>
       </c>
       <c r="K80" s="61" t="s">
-        <v>362</v>
+        <v>651</v>
       </c>
       <c r="L80" s="61" t="s">
-        <v>1632</v>
+        <v>2269</v>
       </c>
       <c r="M80" s="61" t="s">
-        <v>399</v>
+        <v>730</v>
       </c>
       <c r="N80" s="61"/>
       <c r="O80" s="61" t="s">
-        <v>1635</v>
+        <v>2272</v>
       </c>
       <c r="P80" s="61" t="s">
-        <v>413</v>
+        <v>760</v>
       </c>
       <c r="Q80" s="61" t="s">
-        <v>1638</v>
+        <v>2273</v>
       </c>
       <c r="R80" s="61" t="s">
-        <v>45</v>
+        <v>567</v>
       </c>
       <c r="S80" s="18"/>
       <c r="V80" s="55"/>
@@ -17496,49 +18202,49 @@
         <f>B77+1</f>
         <v>20</v>
       </c>
-      <c r="D81" s="60" t="s">
+      <c r="D81" s="59" t="s">
         <v>108</v>
       </c>
-      <c r="E81" s="60" t="s">
+      <c r="E81" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="F81" s="60" t="s">
+      <c r="F81" s="59" t="s">
         <v>1274</v>
       </c>
-      <c r="G81" s="60" t="s">
+      <c r="G81" s="59" t="s">
         <v>1275</v>
       </c>
-      <c r="H81" s="60" t="s">
+      <c r="H81" s="59" t="s">
         <v>138</v>
       </c>
-      <c r="I81" s="60" t="s">
+      <c r="I81" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="J81" s="60" t="s">
+      <c r="J81" s="59" t="s">
         <v>1276</v>
       </c>
-      <c r="K81" s="60" t="s">
+      <c r="K81" s="59" t="s">
         <v>280</v>
       </c>
-      <c r="L81" s="60" t="s">
+      <c r="L81" s="59" t="s">
         <v>1277</v>
       </c>
-      <c r="M81" s="60" t="s">
+      <c r="M81" s="59" t="s">
         <v>1278</v>
       </c>
-      <c r="N81" s="60" t="s">
+      <c r="N81" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="O81" s="60" t="s">
+      <c r="O81" s="59" t="s">
         <v>1279</v>
       </c>
-      <c r="P81" s="60" t="s">
+      <c r="P81" s="59" t="s">
         <v>1280</v>
       </c>
-      <c r="Q81" s="60" t="s">
+      <c r="Q81" s="59" t="s">
         <v>1281</v>
       </c>
-      <c r="R81" s="60" t="s">
+      <c r="R81" s="59" t="s">
         <v>93</v>
       </c>
       <c r="S81" s="20"/>
@@ -17547,45 +18253,45 @@
     <row r="82" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B82" s="21"/>
       <c r="D82" s="51" t="s">
-        <v>338</v>
+        <v>601</v>
       </c>
       <c r="E82" s="51" t="s">
-        <v>1929</v>
+        <v>2153</v>
       </c>
       <c r="F82" s="51" t="s">
-        <v>1993</v>
+        <v>2264</v>
       </c>
       <c r="G82" s="51" t="s">
-        <v>1994</v>
+        <v>2266</v>
       </c>
       <c r="H82" s="51" t="s">
-        <v>1980</v>
+        <v>2240</v>
       </c>
       <c r="I82" s="51"/>
       <c r="J82" s="51" t="s">
-        <v>1837</v>
+        <v>2268</v>
       </c>
       <c r="K82" s="51" t="s">
-        <v>1973</v>
+        <v>2228</v>
       </c>
       <c r="L82" s="51" t="s">
-        <v>1995</v>
+        <v>2270</v>
       </c>
       <c r="M82" s="51" t="s">
-        <v>1996</v>
+        <v>2271</v>
       </c>
       <c r="N82" s="51"/>
       <c r="O82" s="51" t="s">
-        <v>51</v>
+        <v>512</v>
       </c>
       <c r="P82" s="51" t="s">
-        <v>1881</v>
+        <v>2067</v>
       </c>
       <c r="Q82" s="51" t="s">
-        <v>1638</v>
+        <v>2273</v>
       </c>
       <c r="R82" s="51" t="s">
-        <v>1970</v>
+        <v>2219</v>
       </c>
       <c r="S82" s="29"/>
       <c r="V82" s="56"/>
@@ -17613,43 +18319,43 @@
     <row r="84" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B84" s="17"/>
       <c r="D84" s="61" t="s">
-        <v>362</v>
+        <v>651</v>
       </c>
       <c r="E84" s="61"/>
       <c r="F84" s="61" t="s">
-        <v>363</v>
+        <v>653</v>
       </c>
       <c r="G84" s="61" t="s">
-        <v>411</v>
+        <v>756</v>
       </c>
       <c r="H84" s="61" t="s">
-        <v>338</v>
+        <v>601</v>
       </c>
       <c r="I84" s="61" t="s">
-        <v>336</v>
+        <v>597</v>
       </c>
       <c r="J84" s="61"/>
       <c r="K84" s="61" t="s">
-        <v>1642</v>
+        <v>2274</v>
       </c>
       <c r="L84" s="61" t="s">
-        <v>421</v>
+        <v>778</v>
       </c>
       <c r="M84" s="61" t="s">
-        <v>1644</v>
+        <v>2276</v>
       </c>
       <c r="N84" s="61" t="s">
-        <v>412</v>
+        <v>758</v>
       </c>
       <c r="O84" s="61" t="s">
-        <v>338</v>
+        <v>601</v>
       </c>
       <c r="P84" s="61"/>
       <c r="Q84" s="61" t="s">
-        <v>363</v>
+        <v>653</v>
       </c>
       <c r="R84" s="61" t="s">
-        <v>354</v>
+        <v>635</v>
       </c>
       <c r="S84" s="18"/>
       <c r="V84" s="7"/>
@@ -17659,49 +18365,49 @@
         <f>B81+1</f>
         <v>21</v>
       </c>
-      <c r="D85" s="60" t="s">
+      <c r="D85" s="59" t="s">
         <v>280</v>
       </c>
-      <c r="E85" s="60" t="s">
+      <c r="E85" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="F85" s="60" t="s">
+      <c r="F85" s="59" t="s">
         <v>137</v>
       </c>
-      <c r="G85" s="60" t="s">
+      <c r="G85" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="H85" s="60" t="s">
+      <c r="H85" s="59" t="s">
         <v>108</v>
       </c>
-      <c r="I85" s="60" t="s">
+      <c r="I85" s="59" t="s">
         <v>142</v>
       </c>
-      <c r="J85" s="60" t="s">
+      <c r="J85" s="59" t="s">
         <v>103</v>
       </c>
-      <c r="K85" s="60" t="s">
+      <c r="K85" s="59" t="s">
         <v>1282</v>
       </c>
-      <c r="L85" s="60" t="s">
+      <c r="L85" s="59" t="s">
         <v>210</v>
       </c>
-      <c r="M85" s="60" t="s">
+      <c r="M85" s="59" t="s">
         <v>1283</v>
       </c>
-      <c r="N85" s="60" t="s">
+      <c r="N85" s="59" t="s">
         <v>199</v>
       </c>
-      <c r="O85" s="60" t="s">
+      <c r="O85" s="59" t="s">
         <v>108</v>
       </c>
-      <c r="P85" s="60" t="s">
+      <c r="P85" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="Q85" s="60" t="s">
+      <c r="Q85" s="59" t="s">
         <v>137</v>
       </c>
-      <c r="R85" s="60" t="s">
+      <c r="R85" s="59" t="s">
         <v>26</v>
       </c>
       <c r="S85" s="20"/>
@@ -17710,43 +18416,43 @@
     <row r="86" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B86" s="21"/>
       <c r="D86" s="51" t="s">
-        <v>1973</v>
+        <v>2228</v>
       </c>
       <c r="E86" s="51"/>
       <c r="F86" s="51" t="s">
-        <v>1953</v>
+        <v>2192</v>
       </c>
       <c r="G86" s="51" t="s">
-        <v>1929</v>
+        <v>2153</v>
       </c>
       <c r="H86" s="51" t="s">
-        <v>338</v>
+        <v>601</v>
       </c>
       <c r="I86" s="51" t="s">
-        <v>1920</v>
+        <v>2135</v>
       </c>
       <c r="J86" s="51"/>
       <c r="K86" s="51" t="s">
-        <v>1997</v>
+        <v>2275</v>
       </c>
       <c r="L86" s="51" t="s">
-        <v>1944</v>
+        <v>2177</v>
       </c>
       <c r="M86" s="51" t="s">
-        <v>1998</v>
+        <v>2277</v>
       </c>
       <c r="N86" s="51" t="s">
-        <v>1514</v>
+        <v>2150</v>
       </c>
       <c r="O86" s="51" t="s">
-        <v>338</v>
+        <v>601</v>
       </c>
       <c r="P86" s="51"/>
       <c r="Q86" s="51" t="s">
-        <v>1953</v>
+        <v>2192</v>
       </c>
       <c r="R86" s="51" t="s">
-        <v>1934</v>
+        <v>2159</v>
       </c>
       <c r="S86" s="29"/>
       <c r="V86" s="7"/>
@@ -17774,7 +18480,7 @@
     <row r="88" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B88" s="17"/>
       <c r="D88" s="61" t="s">
-        <v>53</v>
+        <v>896</v>
       </c>
       <c r="E88" s="61" t="s">
         <v>1482</v>
@@ -17802,10 +18508,10 @@
         <f>B85+1</f>
         <v>22</v>
       </c>
-      <c r="D89" s="60" t="s">
+      <c r="D89" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="E89" s="60" t="s">
+      <c r="E89" s="59" t="s">
         <v>1284</v>
       </c>
       <c r="F89" s="60" t="s">
@@ -17835,13 +18541,13 @@
     <row r="90" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B90" s="21"/>
       <c r="D90" s="51" t="s">
-        <v>1999</v>
+        <v>2278</v>
       </c>
       <c r="E90" s="51" t="s">
-        <v>1911</v>
+        <v>1898</v>
       </c>
       <c r="F90" s="51" t="s">
-        <v>1980</v>
+        <v>1940</v>
       </c>
       <c r="G90" s="51"/>
       <c r="H90" s="51"/>
@@ -17982,7 +18688,7 @@
     <row r="94" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B94" s="21"/>
       <c r="D94" s="51" t="s">
-        <v>2000</v>
+        <v>1950</v>
       </c>
       <c r="E94" s="51" t="s">
         <v>1833</v>
@@ -17991,14 +18697,14 @@
         <v>338</v>
       </c>
       <c r="G94" s="51" t="s">
-        <v>2001</v>
+        <v>1951</v>
       </c>
       <c r="H94" s="51" t="s">
-        <v>2002</v>
+        <v>1952</v>
       </c>
       <c r="I94" s="51"/>
       <c r="J94" s="51" t="s">
-        <v>2003</v>
+        <v>1953</v>
       </c>
       <c r="K94" s="51" t="s">
         <v>1428</v>
@@ -18013,16 +18719,16 @@
         <v>1509</v>
       </c>
       <c r="O94" s="51" t="s">
-        <v>1920</v>
+        <v>1905</v>
       </c>
       <c r="P94" s="51" t="s">
-        <v>2004</v>
+        <v>1954</v>
       </c>
       <c r="Q94" s="51" t="s">
-        <v>2005</v>
+        <v>1955</v>
       </c>
       <c r="R94" s="51" t="s">
-        <v>1944</v>
+        <v>1923</v>
       </c>
       <c r="S94" s="29"/>
       <c r="V94" s="7"/>
@@ -18145,7 +18851,7 @@
     <row r="98" spans="2:18" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B98" s="21"/>
       <c r="D98" s="51" t="s">
-        <v>1958</v>
+        <v>1930</v>
       </c>
       <c r="E98" s="51" t="s">
         <v>338</v>
@@ -18154,33 +18860,33 @@
         <v>1509</v>
       </c>
       <c r="G98" s="51" t="s">
-        <v>1920</v>
+        <v>1905</v>
       </c>
       <c r="H98" s="51" t="s">
-        <v>2006</v>
+        <v>1956</v>
       </c>
       <c r="I98" s="51" t="s">
-        <v>2007</v>
+        <v>1957</v>
       </c>
       <c r="J98" s="51" t="s">
-        <v>1923</v>
+        <v>1907</v>
       </c>
       <c r="K98" s="51"/>
       <c r="L98" s="51" t="s">
         <v>355</v>
       </c>
       <c r="M98" s="51" t="s">
-        <v>2008</v>
+        <v>1958</v>
       </c>
       <c r="N98" s="51" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
       <c r="O98" s="51" t="s">
-        <v>1973</v>
+        <v>1937</v>
       </c>
       <c r="P98" s="51"/>
       <c r="Q98" s="51" t="s">
-        <v>1914</v>
+        <v>1901</v>
       </c>
       <c r="R98" s="51" t="s">
         <v>1833</v>
@@ -18297,31 +19003,31 @@
     <row r="102" spans="2:18" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B102" s="21"/>
       <c r="D102" s="51" t="s">
-        <v>1920</v>
+        <v>1905</v>
       </c>
       <c r="E102" s="51" t="s">
-        <v>1914</v>
+        <v>1901</v>
       </c>
       <c r="F102" s="51" t="s">
-        <v>2009</v>
+        <v>1959</v>
       </c>
       <c r="G102" s="51" t="s">
-        <v>1980</v>
+        <v>1940</v>
       </c>
       <c r="H102" s="51"/>
       <c r="I102" s="51" t="s">
         <v>340</v>
       </c>
       <c r="J102" s="51" t="s">
-        <v>1946</v>
+        <v>1924</v>
       </c>
       <c r="K102" s="51"/>
       <c r="L102" s="51" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
       <c r="M102" s="51"/>
       <c r="N102" s="51" t="s">
-        <v>2010</v>
+        <v>1960</v>
       </c>
       <c r="O102" s="51"/>
       <c r="P102" s="51" t="s">
@@ -18329,7 +19035,7 @@
       </c>
       <c r="Q102" s="51"/>
       <c r="R102" s="51" t="s">
-        <v>1973</v>
+        <v>1937</v>
       </c>
     </row>
     <row r="103" spans="2:18" s="33" customFormat="1" ht="60" customHeight="1">
@@ -18451,47 +19157,47 @@
     <row r="106" spans="2:18" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B106" s="21"/>
       <c r="D106" s="51" t="s">
-        <v>2011</v>
+        <v>1961</v>
       </c>
       <c r="E106" s="51" t="s">
-        <v>1923</v>
+        <v>1907</v>
       </c>
       <c r="F106" s="51" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
       <c r="G106" s="51" t="s">
-        <v>1895</v>
+        <v>1891</v>
       </c>
       <c r="H106" s="51" t="s">
-        <v>1981</v>
+        <v>1941</v>
       </c>
       <c r="I106" s="51" t="s">
         <v>338</v>
       </c>
       <c r="J106" s="51" t="s">
-        <v>1990</v>
+        <v>1945</v>
       </c>
       <c r="K106" s="51" t="s">
-        <v>1966</v>
+        <v>1934</v>
       </c>
       <c r="L106" s="51" t="s">
-        <v>1923</v>
+        <v>1907</v>
       </c>
       <c r="M106" s="51" t="s">
-        <v>1980</v>
+        <v>1940</v>
       </c>
       <c r="N106" s="51"/>
       <c r="O106" s="51" t="s">
-        <v>2012</v>
+        <v>1962</v>
       </c>
       <c r="P106" s="51" t="s">
-        <v>1914</v>
+        <v>1901</v>
       </c>
       <c r="Q106" s="51" t="s">
-        <v>1986</v>
+        <v>1944</v>
       </c>
       <c r="R106" s="51" t="s">
-        <v>2013</v>
+        <v>1963</v>
       </c>
     </row>
     <row r="107" spans="2:18" s="33" customFormat="1" ht="60" customHeight="1">
@@ -18611,44 +19317,44 @@
     <row r="110" spans="2:18" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B110" s="21"/>
       <c r="D110" s="51" t="s">
-        <v>1918</v>
+        <v>1903</v>
       </c>
       <c r="E110" s="51" t="s">
         <v>1497</v>
       </c>
       <c r="F110" s="51" t="s">
-        <v>1920</v>
+        <v>1905</v>
       </c>
       <c r="G110" s="51" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
       <c r="H110" s="51" t="s">
-        <v>1932</v>
+        <v>1914</v>
       </c>
       <c r="I110" s="51"/>
       <c r="J110" s="51" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
       <c r="K110" s="51" t="s">
-        <v>1954</v>
+        <v>1928</v>
       </c>
       <c r="L110" s="51" t="s">
-        <v>1932</v>
+        <v>1914</v>
       </c>
       <c r="M110" s="51" t="s">
-        <v>1920</v>
+        <v>1905</v>
       </c>
       <c r="N110" s="51" t="s">
-        <v>1890</v>
+        <v>1889</v>
       </c>
       <c r="O110" s="51" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
       <c r="P110" s="51" t="s">
-        <v>1923</v>
+        <v>1907</v>
       </c>
       <c r="Q110" s="51" t="s">
-        <v>1980</v>
+        <v>1940</v>
       </c>
       <c r="R110" s="51"/>
     </row>
@@ -18780,40 +19486,40 @@
         <v>480</v>
       </c>
       <c r="F114" s="51" t="s">
-        <v>1927</v>
+        <v>1910</v>
       </c>
       <c r="G114" s="51" t="s">
         <v>1684</v>
       </c>
       <c r="H114" s="51" t="s">
-        <v>1895</v>
+        <v>1891</v>
       </c>
       <c r="I114" s="51" t="s">
-        <v>1903</v>
+        <v>1896</v>
       </c>
       <c r="J114" s="51" t="s">
         <v>338</v>
       </c>
       <c r="K114" s="51" t="s">
-        <v>2014</v>
+        <v>1964</v>
       </c>
       <c r="L114" s="51" t="s">
-        <v>2015</v>
+        <v>1965</v>
       </c>
       <c r="M114" s="51" t="s">
-        <v>2016</v>
+        <v>1966</v>
       </c>
       <c r="N114" s="51" t="s">
-        <v>1973</v>
+        <v>1937</v>
       </c>
       <c r="O114" s="51" t="s">
-        <v>2011</v>
+        <v>1961</v>
       </c>
       <c r="P114" s="51" t="s">
-        <v>1923</v>
+        <v>1907</v>
       </c>
       <c r="Q114" s="51" t="s">
-        <v>2017</v>
+        <v>1967</v>
       </c>
       <c r="R114" s="51" t="s">
         <v>338</v>
@@ -18935,42 +19641,42 @@
       <c r="B118" s="21"/>
       <c r="D118" s="51"/>
       <c r="E118" s="51" t="s">
-        <v>1973</v>
+        <v>1937</v>
       </c>
       <c r="F118" s="51" t="s">
-        <v>2011</v>
+        <v>1961</v>
       </c>
       <c r="G118" s="51" t="s">
-        <v>1923</v>
+        <v>1907</v>
       </c>
       <c r="H118" s="51" t="s">
-        <v>1914</v>
+        <v>1901</v>
       </c>
       <c r="I118" s="51" t="s">
-        <v>2018</v>
+        <v>1968</v>
       </c>
       <c r="J118" s="51" t="s">
-        <v>2019</v>
+        <v>1969</v>
       </c>
       <c r="K118" s="51"/>
       <c r="L118" s="51" t="s">
-        <v>1953</v>
+        <v>1927</v>
       </c>
       <c r="M118" s="51" t="s">
-        <v>1981</v>
+        <v>1941</v>
       </c>
       <c r="N118" s="51" t="s">
-        <v>2020</v>
+        <v>1970</v>
       </c>
       <c r="O118" s="51" t="s">
-        <v>1920</v>
+        <v>1905</v>
       </c>
       <c r="P118" s="51"/>
       <c r="Q118" s="51" t="s">
-        <v>2011</v>
+        <v>1961</v>
       </c>
       <c r="R118" s="51" t="s">
-        <v>1923</v>
+        <v>1907</v>
       </c>
     </row>
     <row r="119" spans="2:18" s="33" customFormat="1" ht="60" customHeight="1">
@@ -19091,39 +19797,39 @@
         <v>1696</v>
       </c>
       <c r="E122" s="51" t="s">
-        <v>1901</v>
+        <v>1894</v>
       </c>
       <c r="F122" s="51"/>
       <c r="G122" s="51" t="s">
         <v>480</v>
       </c>
       <c r="H122" s="51" t="s">
-        <v>1927</v>
+        <v>1910</v>
       </c>
       <c r="I122" s="51" t="s">
-        <v>2021</v>
+        <v>1971</v>
       </c>
       <c r="J122" s="51" t="s">
         <v>58</v>
       </c>
       <c r="K122" s="51" t="s">
-        <v>2022</v>
+        <v>1972</v>
       </c>
       <c r="L122" s="51" t="s">
-        <v>2023</v>
+        <v>1973</v>
       </c>
       <c r="M122" s="51"/>
       <c r="N122" s="51" t="s">
         <v>51</v>
       </c>
       <c r="O122" s="51" t="s">
-        <v>2008</v>
+        <v>1958</v>
       </c>
       <c r="P122" s="51" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
       <c r="Q122" s="51" t="s">
-        <v>2024</v>
+        <v>1974</v>
       </c>
       <c r="R122" s="51"/>
     </row>
@@ -19249,19 +19955,19 @@
         <v>1542</v>
       </c>
       <c r="E126" s="51" t="s">
-        <v>2025</v>
+        <v>1975</v>
       </c>
       <c r="F126" s="51" t="s">
-        <v>1920</v>
+        <v>1905</v>
       </c>
       <c r="G126" s="51" t="s">
-        <v>1922</v>
+        <v>1906</v>
       </c>
       <c r="H126" s="51" t="s">
-        <v>2008</v>
+        <v>1958</v>
       </c>
       <c r="I126" s="51" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
       <c r="J126" s="51" t="s">
         <v>1705</v>
@@ -19274,19 +19980,19 @@
         <v>1881</v>
       </c>
       <c r="N126" s="51" t="s">
+        <v>1883</v>
+      </c>
+      <c r="O126" s="51" t="s">
+        <v>1930</v>
+      </c>
+      <c r="P126" s="51" t="s">
+        <v>1958</v>
+      </c>
+      <c r="Q126" s="51" t="s">
         <v>1884</v>
       </c>
-      <c r="O126" s="51" t="s">
-        <v>1958</v>
-      </c>
-      <c r="P126" s="51" t="s">
-        <v>2008</v>
-      </c>
-      <c r="Q126" s="51" t="s">
-        <v>1885</v>
-      </c>
       <c r="R126" s="51" t="s">
-        <v>1893</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="127" spans="2:18" s="33" customFormat="1" ht="60" customHeight="1">
@@ -19405,42 +20111,42 @@
       <c r="B130" s="21"/>
       <c r="D130" s="51"/>
       <c r="E130" s="51" t="s">
-        <v>1959</v>
+        <v>1931</v>
       </c>
       <c r="F130" s="51" t="s">
-        <v>1920</v>
+        <v>1905</v>
       </c>
       <c r="G130" s="51" t="s">
-        <v>2026</v>
+        <v>1976</v>
       </c>
       <c r="H130" s="51" t="s">
-        <v>2008</v>
+        <v>1958</v>
       </c>
       <c r="I130" s="51" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
       <c r="J130" s="51" t="s">
-        <v>2027</v>
+        <v>1977</v>
       </c>
       <c r="K130" s="51" t="s">
-        <v>2028</v>
+        <v>1978</v>
       </c>
       <c r="L130" s="51" t="s">
-        <v>1942</v>
+        <v>1921</v>
       </c>
       <c r="M130" s="51"/>
       <c r="N130" s="51" t="s">
-        <v>1933</v>
+        <v>1915</v>
       </c>
       <c r="O130" s="51"/>
       <c r="P130" s="51" t="s">
         <v>1565</v>
       </c>
       <c r="Q130" s="51" t="s">
-        <v>1920</v>
+        <v>1905</v>
       </c>
       <c r="R130" s="51" t="s">
-        <v>2029</v>
+        <v>1979</v>
       </c>
     </row>
     <row r="131" spans="2:18" s="33" customFormat="1" ht="60" customHeight="1">
@@ -19560,42 +20266,42 @@
     <row r="134" spans="2:18" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B134" s="21"/>
       <c r="D134" s="51" t="s">
-        <v>2008</v>
+        <v>1958</v>
       </c>
       <c r="E134" s="51" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
       <c r="F134" s="51" t="s">
-        <v>2030</v>
+        <v>1980</v>
       </c>
       <c r="G134" s="51" t="s">
-        <v>2031</v>
+        <v>1981</v>
       </c>
       <c r="H134" s="51" t="s">
-        <v>2032</v>
+        <v>1982</v>
       </c>
       <c r="I134" s="51" t="s">
         <v>380</v>
       </c>
       <c r="J134" s="51"/>
       <c r="K134" s="51" t="s">
-        <v>2033</v>
+        <v>1983</v>
       </c>
       <c r="L134" s="51"/>
       <c r="M134" s="51" t="s">
-        <v>1900</v>
+        <v>1893</v>
       </c>
       <c r="N134" s="51" t="s">
+        <v>1883</v>
+      </c>
+      <c r="O134" s="51" t="s">
+        <v>1984</v>
+      </c>
+      <c r="P134" s="51" t="s">
+        <v>1958</v>
+      </c>
+      <c r="Q134" s="51" t="s">
         <v>1884</v>
-      </c>
-      <c r="O134" s="51" t="s">
-        <v>2034</v>
-      </c>
-      <c r="P134" s="51" t="s">
-        <v>2008</v>
-      </c>
-      <c r="Q134" s="51" t="s">
-        <v>1885</v>
       </c>
       <c r="R134" s="51" t="s">
         <v>50</v>
@@ -19716,33 +20422,33 @@
     <row r="138" spans="2:18" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B138" s="21"/>
       <c r="D138" s="51" t="s">
-        <v>2004</v>
+        <v>1954</v>
       </c>
       <c r="E138" s="51"/>
       <c r="F138" s="51" t="s">
         <v>1696</v>
       </c>
       <c r="G138" s="51" t="s">
-        <v>1914</v>
+        <v>1901</v>
       </c>
       <c r="H138" s="51" t="s">
-        <v>1998</v>
+        <v>1948</v>
       </c>
       <c r="I138" s="51" t="s">
-        <v>2035</v>
+        <v>1985</v>
       </c>
       <c r="J138" s="51"/>
       <c r="K138" s="51" t="s">
-        <v>1973</v>
+        <v>1937</v>
       </c>
       <c r="L138" s="51" t="s">
-        <v>1970</v>
+        <v>1936</v>
       </c>
       <c r="M138" s="51" t="s">
-        <v>1965</v>
+        <v>1933</v>
       </c>
       <c r="N138" s="51" t="s">
-        <v>1923</v>
+        <v>1907</v>
       </c>
       <c r="O138" s="51" t="s">
         <v>1882</v>
@@ -19879,36 +20585,36 @@
         <v>338</v>
       </c>
       <c r="G142" s="51" t="s">
-        <v>1930</v>
+        <v>1912</v>
       </c>
       <c r="H142" s="51" t="s">
-        <v>1919</v>
+        <v>1904</v>
       </c>
       <c r="I142" s="51" t="s">
-        <v>2036</v>
+        <v>1986</v>
       </c>
       <c r="J142" s="51" t="s">
-        <v>1970</v>
+        <v>1936</v>
       </c>
       <c r="K142" s="51" t="s">
-        <v>1981</v>
+        <v>1941</v>
       </c>
       <c r="L142" s="51"/>
       <c r="M142" s="51" t="s">
-        <v>1914</v>
+        <v>1901</v>
       </c>
       <c r="N142" s="51" t="s">
-        <v>2037</v>
+        <v>1987</v>
       </c>
       <c r="O142" s="51" t="s">
         <v>51</v>
       </c>
       <c r="P142" s="51" t="s">
-        <v>1940</v>
+        <v>1920</v>
       </c>
       <c r="Q142" s="51"/>
       <c r="R142" s="51" t="s">
-        <v>2038</v>
+        <v>1988</v>
       </c>
     </row>
     <row r="143" spans="2:18" s="33" customFormat="1" ht="60" customHeight="1">
@@ -20028,45 +20734,45 @@
     <row r="146" spans="2:18" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B146" s="21"/>
       <c r="D146" s="51" t="s">
-        <v>2001</v>
+        <v>1951</v>
       </c>
       <c r="E146" s="51"/>
       <c r="F146" s="51" t="s">
-        <v>2035</v>
+        <v>1985</v>
       </c>
       <c r="G146" s="51" t="s">
-        <v>1975</v>
+        <v>1938</v>
       </c>
       <c r="H146" s="51" t="s">
-        <v>1999</v>
+        <v>1949</v>
       </c>
       <c r="I146" s="51" t="s">
-        <v>2039</v>
+        <v>1989</v>
       </c>
       <c r="J146" s="51" t="s">
-        <v>1969</v>
+        <v>1935</v>
       </c>
       <c r="K146" s="51" t="s">
-        <v>2040</v>
+        <v>1990</v>
       </c>
       <c r="L146" s="51" t="s">
-        <v>1934</v>
+        <v>1916</v>
       </c>
       <c r="M146" s="51" t="s">
-        <v>2024</v>
+        <v>1974</v>
       </c>
       <c r="N146" s="51" t="s">
-        <v>1932</v>
+        <v>1914</v>
       </c>
       <c r="O146" s="51" t="s">
-        <v>2041</v>
+        <v>1991</v>
       </c>
       <c r="P146" s="51" t="s">
-        <v>1923</v>
+        <v>1907</v>
       </c>
       <c r="Q146" s="51"/>
       <c r="R146" s="51" t="s">
-        <v>1920</v>
+        <v>1905</v>
       </c>
     </row>
     <row r="147" spans="2:18" s="33" customFormat="1" ht="60" customHeight="1">
@@ -20188,47 +20894,47 @@
     <row r="150" spans="2:18" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B150" s="21"/>
       <c r="D150" s="51" t="s">
-        <v>2042</v>
+        <v>1992</v>
       </c>
       <c r="E150" s="51" t="s">
-        <v>1981</v>
+        <v>1941</v>
       </c>
       <c r="F150" s="51" t="s">
         <v>338</v>
       </c>
       <c r="G150" s="51" t="s">
-        <v>1990</v>
+        <v>1945</v>
       </c>
       <c r="H150" s="51" t="s">
-        <v>1966</v>
+        <v>1934</v>
       </c>
       <c r="I150" s="51" t="s">
-        <v>1923</v>
+        <v>1907</v>
       </c>
       <c r="J150" s="51" t="s">
-        <v>1965</v>
+        <v>1933</v>
       </c>
       <c r="K150" s="51" t="s">
-        <v>1920</v>
+        <v>1905</v>
       </c>
       <c r="L150" s="51" t="s">
-        <v>1893</v>
+        <v>1890</v>
       </c>
       <c r="M150" s="51" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
       <c r="N150" s="51" t="s">
         <v>338</v>
       </c>
       <c r="O150" s="51"/>
       <c r="P150" s="51" t="s">
-        <v>1914</v>
+        <v>1901</v>
       </c>
       <c r="Q150" s="51" t="s">
-        <v>2018</v>
+        <v>1968</v>
       </c>
       <c r="R150" s="51" t="s">
-        <v>2019</v>
+        <v>1969</v>
       </c>
     </row>
     <row r="151" spans="2:18" s="33" customFormat="1" ht="60" customHeight="1">
@@ -20348,45 +21054,45 @@
     <row r="154" spans="2:18" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B154" s="21"/>
       <c r="D154" s="51" t="s">
-        <v>1980</v>
+        <v>1940</v>
       </c>
       <c r="E154" s="51"/>
       <c r="F154" s="51" t="s">
-        <v>1970</v>
+        <v>1936</v>
       </c>
       <c r="G154" s="51" t="s">
         <v>1674</v>
       </c>
       <c r="H154" s="51" t="s">
-        <v>2043</v>
+        <v>1993</v>
       </c>
       <c r="I154" s="51" t="s">
-        <v>1920</v>
+        <v>1905</v>
       </c>
       <c r="J154" s="51" t="s">
-        <v>2044</v>
+        <v>1994</v>
       </c>
       <c r="K154" s="51" t="s">
-        <v>1922</v>
+        <v>1906</v>
       </c>
       <c r="L154" s="51"/>
       <c r="M154" s="51" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
       <c r="N154" s="51" t="s">
         <v>1743</v>
       </c>
       <c r="O154" s="51" t="s">
-        <v>2045</v>
+        <v>1995</v>
       </c>
       <c r="P154" s="51" t="s">
-        <v>1934</v>
+        <v>1916</v>
       </c>
       <c r="Q154" s="51" t="s">
-        <v>1986</v>
+        <v>1944</v>
       </c>
       <c r="R154" s="51" t="s">
-        <v>1943</v>
+        <v>1922</v>
       </c>
     </row>
     <row r="155" spans="2:18" s="33" customFormat="1" ht="60" customHeight="1">
@@ -20504,30 +21210,30 @@
     <row r="158" spans="2:18" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B158" s="21"/>
       <c r="D158" s="51" t="s">
-        <v>1923</v>
+        <v>1907</v>
       </c>
       <c r="E158" s="51"/>
       <c r="F158" s="51" t="s">
         <v>1696</v>
       </c>
       <c r="G158" s="51" t="s">
-        <v>2046</v>
+        <v>1996</v>
       </c>
       <c r="H158" s="51" t="s">
-        <v>2047</v>
+        <v>1997</v>
       </c>
       <c r="I158" s="51" t="s">
-        <v>2041</v>
+        <v>1991</v>
       </c>
       <c r="J158" s="51"/>
       <c r="K158" s="51" t="s">
-        <v>1944</v>
+        <v>1923</v>
       </c>
       <c r="L158" s="51" t="s">
-        <v>1913</v>
+        <v>1900</v>
       </c>
       <c r="M158" s="51" t="s">
-        <v>1943</v>
+        <v>1922</v>
       </c>
       <c r="N158" s="51" t="s">
         <v>338</v>
@@ -20537,10 +21243,10 @@
       </c>
       <c r="P158" s="51"/>
       <c r="Q158" s="51" t="s">
-        <v>1973</v>
+        <v>1937</v>
       </c>
       <c r="R158" s="51" t="s">
-        <v>1970</v>
+        <v>1936</v>
       </c>
     </row>
     <row r="159" spans="2:18">
@@ -20666,44 +21372,44 @@
         <v>1509</v>
       </c>
       <c r="E162" s="51" t="s">
-        <v>1920</v>
+        <v>1905</v>
       </c>
       <c r="F162" s="51" t="s">
-        <v>2048</v>
+        <v>1998</v>
       </c>
       <c r="G162" s="51" t="s">
         <v>1638</v>
       </c>
       <c r="H162" s="51" t="s">
-        <v>1944</v>
+        <v>1923</v>
       </c>
       <c r="I162" s="51" t="s">
-        <v>1914</v>
+        <v>1901</v>
       </c>
       <c r="J162" s="51" t="s">
-        <v>1953</v>
+        <v>1927</v>
       </c>
       <c r="K162" s="51" t="s">
-        <v>2007</v>
+        <v>1957</v>
       </c>
       <c r="L162" s="51" t="s">
-        <v>1980</v>
+        <v>1940</v>
       </c>
       <c r="M162" s="51"/>
       <c r="N162" s="51" t="s">
         <v>51</v>
       </c>
       <c r="O162" s="51" t="s">
-        <v>1940</v>
+        <v>1920</v>
       </c>
       <c r="P162" s="51" t="s">
         <v>1755</v>
       </c>
       <c r="Q162" s="51" t="s">
-        <v>2046</v>
+        <v>1996</v>
       </c>
       <c r="R162" s="51" t="s">
-        <v>1993</v>
+        <v>1946</v>
       </c>
     </row>
     <row r="163" spans="2:18" s="33" customFormat="1" ht="60" customHeight="1">
@@ -20821,14 +21527,14 @@
     <row r="166" spans="2:18" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B166" s="21"/>
       <c r="D166" s="51" t="s">
-        <v>1893</v>
+        <v>1890</v>
       </c>
       <c r="E166" s="51"/>
       <c r="F166" s="51" t="s">
-        <v>2021</v>
+        <v>1971</v>
       </c>
       <c r="G166" s="51" t="s">
-        <v>1996</v>
+        <v>1947</v>
       </c>
       <c r="H166" s="51" t="s">
         <v>56</v>
@@ -20837,10 +21543,10 @@
         <v>338</v>
       </c>
       <c r="J166" s="51" t="s">
-        <v>2049</v>
+        <v>1999</v>
       </c>
       <c r="K166" s="51" t="s">
-        <v>1944</v>
+        <v>1923</v>
       </c>
       <c r="L166" s="51" t="s">
         <v>49</v>
@@ -20853,10 +21559,10 @@
         <v>312</v>
       </c>
       <c r="P166" s="51" t="s">
-        <v>1895</v>
+        <v>1891</v>
       </c>
       <c r="Q166" s="51" t="s">
-        <v>1903</v>
+        <v>1896</v>
       </c>
       <c r="R166" s="51"/>
     </row>
@@ -20982,47 +21688,47 @@
       <c r="B170" s="21"/>
       <c r="C170" s="6"/>
       <c r="D170" s="51" t="s">
-        <v>1953</v>
+        <v>1927</v>
       </c>
       <c r="E170" s="51" t="s">
-        <v>1920</v>
+        <v>1905</v>
       </c>
       <c r="F170" s="51" t="s">
-        <v>1893</v>
+        <v>1890</v>
       </c>
       <c r="G170" s="51" t="s">
-        <v>1943</v>
+        <v>1922</v>
       </c>
       <c r="H170" s="51" t="s">
-        <v>1934</v>
+        <v>1916</v>
       </c>
       <c r="I170" s="51" t="s">
-        <v>2036</v>
+        <v>1986</v>
       </c>
       <c r="J170" s="51"/>
       <c r="K170" s="51" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
       <c r="L170" s="51" t="s">
-        <v>1999</v>
+        <v>1949</v>
       </c>
       <c r="M170" s="51" t="s">
-        <v>1947</v>
+        <v>1925</v>
       </c>
       <c r="N170" s="51" t="s">
-        <v>2023</v>
+        <v>1973</v>
       </c>
       <c r="O170" s="51" t="s">
-        <v>1944</v>
+        <v>1923</v>
       </c>
       <c r="P170" s="51" t="s">
+        <v>1901</v>
+      </c>
+      <c r="Q170" s="51" t="s">
+        <v>1925</v>
+      </c>
+      <c r="R170" s="51" t="s">
         <v>1914</v>
-      </c>
-      <c r="Q170" s="51" t="s">
-        <v>1947</v>
-      </c>
-      <c r="R170" s="51" t="s">
-        <v>1932</v>
       </c>
     </row>
     <row r="171" spans="2:18">
@@ -21146,44 +21852,44 @@
       <c r="C174" s="6"/>
       <c r="D174" s="51"/>
       <c r="E174" s="51" t="s">
-        <v>2050</v>
+        <v>2000</v>
       </c>
       <c r="F174" s="51" t="s">
-        <v>1981</v>
+        <v>1941</v>
       </c>
       <c r="G174" s="51" t="s">
         <v>1833</v>
       </c>
       <c r="H174" s="51" t="s">
-        <v>1920</v>
+        <v>1905</v>
       </c>
       <c r="I174" s="51" t="s">
-        <v>1999</v>
+        <v>1949</v>
       </c>
       <c r="J174" s="51" t="s">
-        <v>2023</v>
+        <v>1973</v>
       </c>
       <c r="K174" s="51" t="s">
-        <v>1944</v>
+        <v>1923</v>
       </c>
       <c r="L174" s="51" t="s">
-        <v>2051</v>
+        <v>2001</v>
       </c>
       <c r="M174" s="51"/>
       <c r="N174" s="51" t="s">
-        <v>2050</v>
+        <v>2000</v>
       </c>
       <c r="O174" s="51" t="s">
-        <v>1942</v>
+        <v>1921</v>
       </c>
       <c r="P174" s="51" t="s">
-        <v>1914</v>
+        <v>1901</v>
       </c>
       <c r="Q174" s="51" t="s">
-        <v>2052</v>
+        <v>2002</v>
       </c>
       <c r="R174" s="51" t="s">
-        <v>2053</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="175" spans="2:18">
@@ -21304,43 +22010,43 @@
       <c r="B178" s="21"/>
       <c r="C178" s="6"/>
       <c r="D178" s="51" t="s">
-        <v>1973</v>
+        <v>1937</v>
       </c>
       <c r="E178" s="51"/>
       <c r="F178" s="51" t="s">
-        <v>1986</v>
+        <v>1944</v>
       </c>
       <c r="G178" s="51" t="s">
         <v>1621</v>
       </c>
       <c r="H178" s="51" t="s">
-        <v>2000</v>
+        <v>1950</v>
       </c>
       <c r="I178" s="51" t="s">
-        <v>2023</v>
+        <v>1973</v>
       </c>
       <c r="J178" s="51" t="s">
-        <v>1944</v>
+        <v>1923</v>
       </c>
       <c r="K178" s="51" t="s">
-        <v>1920</v>
+        <v>1905</v>
       </c>
       <c r="L178" s="51"/>
       <c r="M178" s="51" t="s">
         <v>1649</v>
       </c>
       <c r="N178" s="51" t="s">
-        <v>2054</v>
+        <v>2004</v>
       </c>
       <c r="O178" s="51" t="s">
-        <v>1909</v>
+        <v>1897</v>
       </c>
       <c r="P178" s="51" t="s">
-        <v>2055</v>
+        <v>2005</v>
       </c>
       <c r="Q178" s="51"/>
       <c r="R178" s="51" t="s">
-        <v>2056</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="179" spans="2:18">
@@ -21463,45 +22169,45 @@
       <c r="B182" s="21"/>
       <c r="C182" s="6"/>
       <c r="D182" s="51" t="s">
-        <v>1924</v>
+        <v>1908</v>
       </c>
       <c r="E182" s="51" t="s">
-        <v>1966</v>
+        <v>1934</v>
       </c>
       <c r="F182" s="51"/>
       <c r="G182" s="51" t="s">
-        <v>1981</v>
+        <v>1941</v>
       </c>
       <c r="H182" s="51" t="s">
         <v>338</v>
       </c>
       <c r="I182" s="51" t="s">
-        <v>1990</v>
+        <v>1945</v>
       </c>
       <c r="J182" s="51" t="s">
-        <v>1901</v>
+        <v>1894</v>
       </c>
       <c r="K182" s="51" t="s">
+        <v>1907</v>
+      </c>
+      <c r="L182" s="51" t="s">
+        <v>2007</v>
+      </c>
+      <c r="M182" s="51" t="s">
         <v>1923</v>
       </c>
-      <c r="L182" s="51" t="s">
-        <v>2057</v>
-      </c>
-      <c r="M182" s="51" t="s">
-        <v>1944</v>
-      </c>
       <c r="N182" s="51" t="s">
-        <v>2058</v>
+        <v>2008</v>
       </c>
       <c r="O182" s="51" t="s">
-        <v>1937</v>
+        <v>1917</v>
       </c>
       <c r="P182" s="51" t="s">
-        <v>2059</v>
+        <v>2009</v>
       </c>
       <c r="Q182" s="51"/>
       <c r="R182" s="51" t="s">
-        <v>2060</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="183" spans="2:18">
@@ -21630,39 +22336,39 @@
         <v>1497</v>
       </c>
       <c r="F186" s="51" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
       <c r="G186" s="51" t="s">
+        <v>1961</v>
+      </c>
+      <c r="H186" s="51" t="s">
         <v>2011</v>
       </c>
-      <c r="H186" s="51" t="s">
-        <v>2061</v>
-      </c>
       <c r="I186" s="51" t="s">
-        <v>1931</v>
+        <v>1913</v>
       </c>
       <c r="J186" s="51"/>
       <c r="K186" s="51" t="s">
-        <v>1942</v>
+        <v>1921</v>
       </c>
       <c r="L186" s="51" t="s">
-        <v>1914</v>
+        <v>1901</v>
       </c>
       <c r="M186" s="51" t="s">
-        <v>1943</v>
+        <v>1922</v>
       </c>
       <c r="N186" s="51" t="s">
         <v>338</v>
       </c>
       <c r="O186" s="51" t="s">
-        <v>1912</v>
+        <v>1899</v>
       </c>
       <c r="P186" s="51" t="s">
-        <v>1923</v>
+        <v>1907</v>
       </c>
       <c r="Q186" s="51"/>
       <c r="R186" s="51" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="187" spans="2:18">
@@ -21710,7 +22416,7 @@
         <v>48</v>
       </c>
       <c r="L188" s="61" t="s">
-        <v>2108</v>
+        <v>2058</v>
       </c>
       <c r="M188" s="61" t="s">
         <v>1792</v>
@@ -21790,41 +22496,41 @@
         <v>1638</v>
       </c>
       <c r="E190" s="51" t="s">
-        <v>2058</v>
+        <v>2008</v>
       </c>
       <c r="F190" s="51" t="s">
         <v>469</v>
       </c>
       <c r="G190" s="51"/>
       <c r="H190" s="51" t="s">
-        <v>1914</v>
+        <v>1901</v>
       </c>
       <c r="I190" s="51" t="s">
-        <v>2003</v>
+        <v>1953</v>
       </c>
       <c r="J190" s="51" t="s">
-        <v>1970</v>
+        <v>1936</v>
       </c>
       <c r="K190" s="51" t="s">
-        <v>1986</v>
+        <v>1944</v>
       </c>
       <c r="L190" s="51" t="s">
-        <v>2111</v>
+        <v>2061</v>
       </c>
       <c r="M190" s="51" t="s">
-        <v>2062</v>
+        <v>2012</v>
       </c>
       <c r="N190" s="51" t="s">
-        <v>1940</v>
+        <v>1920</v>
       </c>
       <c r="O190" s="51" t="s">
         <v>824</v>
       </c>
       <c r="P190" s="51" t="s">
-        <v>1920</v>
+        <v>1905</v>
       </c>
       <c r="Q190" s="51" t="s">
-        <v>2063</v>
+        <v>2013</v>
       </c>
       <c r="R190" s="51" t="s">
         <v>51</v>
@@ -21859,7 +22565,7 @@
         <v>1797</v>
       </c>
       <c r="F192" s="61" t="s">
-        <v>2110</v>
+        <v>2060</v>
       </c>
       <c r="G192" s="61" t="s">
         <v>1609</v>
@@ -21952,47 +22658,47 @@
       <c r="B194" s="21"/>
       <c r="C194" s="6"/>
       <c r="D194" s="51" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
       <c r="E194" s="51" t="s">
         <v>1455</v>
       </c>
       <c r="F194" s="51" t="s">
-        <v>2112</v>
+        <v>2062</v>
       </c>
       <c r="G194" s="51" t="s">
-        <v>1985</v>
+        <v>1943</v>
       </c>
       <c r="H194" s="51"/>
       <c r="I194" s="51" t="s">
-        <v>2064</v>
+        <v>2014</v>
       </c>
       <c r="J194" s="51" t="s">
         <v>1801</v>
       </c>
       <c r="K194" s="51" t="s">
-        <v>2065</v>
+        <v>2015</v>
       </c>
       <c r="L194" s="51" t="s">
-        <v>2043</v>
+        <v>1993</v>
       </c>
       <c r="M194" s="51" t="s">
-        <v>1956</v>
+        <v>1929</v>
       </c>
       <c r="N194" s="51" t="s">
-        <v>2066</v>
+        <v>2016</v>
       </c>
       <c r="O194" s="51" t="s">
-        <v>1920</v>
+        <v>1905</v>
       </c>
       <c r="P194" s="51" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
       <c r="Q194" s="51" t="s">
-        <v>2039</v>
+        <v>1989</v>
       </c>
       <c r="R194" s="51" t="s">
-        <v>1980</v>
+        <v>1940</v>
       </c>
     </row>
     <row r="195" spans="2:18">
@@ -22116,32 +22822,32 @@
       <c r="C198" s="6"/>
       <c r="D198" s="51"/>
       <c r="E198" s="51" t="s">
-        <v>1958</v>
+        <v>1930</v>
       </c>
       <c r="F198" s="51" t="s">
         <v>338</v>
       </c>
       <c r="G198" s="51" t="s">
-        <v>2067</v>
+        <v>2017</v>
       </c>
       <c r="H198" s="51" t="s">
         <v>1696</v>
       </c>
       <c r="I198" s="51" t="s">
-        <v>2055</v>
+        <v>2005</v>
       </c>
       <c r="J198" s="51" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
       <c r="K198" s="51" t="s">
-        <v>2038</v>
+        <v>1988</v>
       </c>
       <c r="L198" s="51" t="s">
-        <v>2001</v>
+        <v>1951</v>
       </c>
       <c r="M198" s="51"/>
       <c r="N198" s="51" t="s">
-        <v>2035</v>
+        <v>1985</v>
       </c>
       <c r="O198" s="51" t="s">
         <v>51</v>
@@ -22150,10 +22856,10 @@
         <v>51</v>
       </c>
       <c r="Q198" s="51" t="s">
-        <v>1940</v>
+        <v>1920</v>
       </c>
       <c r="R198" s="51" t="s">
-        <v>2003</v>
+        <v>1953</v>
       </c>
     </row>
     <row r="199" spans="2:18">
@@ -22276,29 +22982,29 @@
       <c r="B202" s="21"/>
       <c r="C202" s="6"/>
       <c r="D202" s="51" t="s">
-        <v>2068</v>
+        <v>2018</v>
       </c>
       <c r="E202" s="51" t="s">
-        <v>1973</v>
+        <v>1937</v>
       </c>
       <c r="F202" s="51" t="s">
-        <v>2011</v>
+        <v>1961</v>
       </c>
       <c r="G202" s="51" t="s">
-        <v>1932</v>
+        <v>1914</v>
       </c>
       <c r="H202" s="51" t="s">
-        <v>1923</v>
+        <v>1907</v>
       </c>
       <c r="I202" s="51"/>
       <c r="J202" s="51" t="s">
-        <v>1929</v>
+        <v>1911</v>
       </c>
       <c r="K202" s="51" t="s">
-        <v>1920</v>
+        <v>1905</v>
       </c>
       <c r="L202" s="51" t="s">
-        <v>1973</v>
+        <v>1937</v>
       </c>
       <c r="M202" s="51" t="s">
         <v>338</v>
@@ -22308,13 +23014,13 @@
         <v>51</v>
       </c>
       <c r="P202" s="51" t="s">
-        <v>1914</v>
+        <v>1901</v>
       </c>
       <c r="Q202" s="51" t="s">
-        <v>2018</v>
+        <v>1968</v>
       </c>
       <c r="R202" s="51" t="s">
-        <v>2019</v>
+        <v>1969</v>
       </c>
     </row>
     <row r="203" spans="2:18">
@@ -22438,44 +23144,44 @@
       <c r="C206" s="6"/>
       <c r="D206" s="51"/>
       <c r="E206" s="51" t="s">
-        <v>1958</v>
+        <v>1930</v>
       </c>
       <c r="F206" s="51" t="s">
         <v>338</v>
       </c>
       <c r="G206" s="51" t="s">
-        <v>2007</v>
+        <v>1957</v>
       </c>
       <c r="H206" s="51" t="s">
-        <v>1914</v>
+        <v>1901</v>
       </c>
       <c r="I206" s="51" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="J206" s="51" t="s">
-        <v>2069</v>
+        <v>2019</v>
       </c>
       <c r="K206" s="51" t="s">
-        <v>1999</v>
+        <v>1949</v>
       </c>
       <c r="L206" s="51" t="s">
-        <v>2006</v>
+        <v>1956</v>
       </c>
       <c r="M206" s="51" t="s">
-        <v>1980</v>
+        <v>1940</v>
       </c>
       <c r="N206" s="51"/>
       <c r="O206" s="51" t="s">
-        <v>2070</v>
+        <v>2020</v>
       </c>
       <c r="P206" s="51" t="s">
-        <v>1969</v>
+        <v>1935</v>
       </c>
       <c r="Q206" s="51" t="s">
-        <v>1950</v>
+        <v>1926</v>
       </c>
       <c r="R206" s="51" t="s">
-        <v>2071</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="207" spans="2:18">
@@ -22600,47 +23306,47 @@
       <c r="B210" s="21"/>
       <c r="C210" s="6"/>
       <c r="D210" s="51" t="s">
-        <v>1979</v>
+        <v>1939</v>
       </c>
       <c r="E210" s="51" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
       <c r="F210" s="51" t="s">
         <v>348</v>
       </c>
       <c r="G210" s="51" t="s">
-        <v>2072</v>
+        <v>2022</v>
       </c>
       <c r="H210" s="51" t="s">
-        <v>1944</v>
+        <v>1923</v>
       </c>
       <c r="I210" s="51" t="s">
-        <v>1983</v>
+        <v>1942</v>
       </c>
       <c r="J210" s="51" t="s">
-        <v>2073</v>
+        <v>2023</v>
       </c>
       <c r="K210" s="51" t="s">
         <v>338</v>
       </c>
       <c r="L210" s="51"/>
       <c r="M210" s="51" t="s">
-        <v>1914</v>
+        <v>1901</v>
       </c>
       <c r="N210" s="51" t="s">
-        <v>2003</v>
+        <v>1953</v>
       </c>
       <c r="O210" s="51" t="s">
-        <v>1970</v>
+        <v>1936</v>
       </c>
       <c r="P210" s="51" t="s">
         <v>1801</v>
       </c>
       <c r="Q210" s="51" t="s">
-        <v>2074</v>
+        <v>2024</v>
       </c>
       <c r="R210" s="51" t="s">
-        <v>1932</v>
+        <v>1914</v>
       </c>
     </row>
     <row r="211" spans="2:18">
@@ -22758,35 +23464,35 @@
       <c r="C214" s="6"/>
       <c r="D214" s="51"/>
       <c r="E214" s="51" t="s">
-        <v>2001</v>
+        <v>1951</v>
       </c>
       <c r="F214" s="51" t="s">
-        <v>1920</v>
+        <v>1905</v>
       </c>
       <c r="G214" s="51" t="s">
         <v>51</v>
       </c>
       <c r="H214" s="51" t="s">
-        <v>1940</v>
+        <v>1920</v>
       </c>
       <c r="I214" s="51" t="s">
-        <v>1943</v>
+        <v>1922</v>
       </c>
       <c r="J214" s="51" t="s">
-        <v>1946</v>
+        <v>1924</v>
       </c>
       <c r="K214" s="51"/>
       <c r="L214" s="51" t="s">
-        <v>2000</v>
+        <v>1950</v>
       </c>
       <c r="M214" s="51" t="s">
-        <v>1914</v>
+        <v>1901</v>
       </c>
       <c r="N214" s="51" t="s">
         <v>454</v>
       </c>
       <c r="O214" s="51" t="s">
-        <v>1980</v>
+        <v>1940</v>
       </c>
       <c r="P214" s="51"/>
       <c r="Q214" s="51"/>
@@ -22910,43 +23616,43 @@
       <c r="B218" s="21"/>
       <c r="C218" s="6"/>
       <c r="D218" s="51" t="s">
-        <v>2075</v>
+        <v>2025</v>
       </c>
       <c r="E218" s="51"/>
       <c r="F218" s="51" t="s">
-        <v>1959</v>
+        <v>1931</v>
       </c>
       <c r="G218" s="51" t="s">
         <v>338</v>
       </c>
       <c r="H218" s="51" t="s">
-        <v>2076</v>
+        <v>2026</v>
       </c>
       <c r="I218" s="51"/>
       <c r="J218" s="51" t="s">
         <v>62</v>
       </c>
       <c r="K218" s="51" t="s">
-        <v>1981</v>
+        <v>1941</v>
       </c>
       <c r="L218" s="51" t="s">
-        <v>1998</v>
+        <v>1948</v>
       </c>
       <c r="M218" s="51" t="s">
-        <v>1920</v>
+        <v>1905</v>
       </c>
       <c r="N218" s="51"/>
       <c r="O218" s="51" t="s">
-        <v>1924</v>
+        <v>1908</v>
       </c>
       <c r="P218" s="51" t="s">
-        <v>1966</v>
+        <v>1934</v>
       </c>
       <c r="Q218" s="51" t="s">
-        <v>2077</v>
+        <v>2027</v>
       </c>
       <c r="R218" s="51" t="s">
-        <v>1934</v>
+        <v>1916</v>
       </c>
     </row>
     <row r="219" spans="2:18">
@@ -23067,42 +23773,42 @@
       <c r="B222" s="21"/>
       <c r="C222" s="6"/>
       <c r="D222" s="51" t="s">
-        <v>2078</v>
+        <v>2028</v>
       </c>
       <c r="E222" s="51"/>
       <c r="F222" s="51" t="s">
-        <v>1944</v>
+        <v>1923</v>
       </c>
       <c r="G222" s="51" t="s">
-        <v>2025</v>
+        <v>1975</v>
       </c>
       <c r="H222" s="51" t="s">
         <v>1444</v>
       </c>
       <c r="I222" s="51" t="s">
-        <v>1962</v>
+        <v>1932</v>
       </c>
       <c r="J222" s="51" t="s">
-        <v>2113</v>
+        <v>2063</v>
       </c>
       <c r="K222" s="51" t="s">
-        <v>2079</v>
+        <v>2029</v>
       </c>
       <c r="L222" s="51" t="s">
-        <v>1939</v>
+        <v>1919</v>
       </c>
       <c r="M222" s="51"/>
       <c r="N222" s="51" t="s">
-        <v>2080</v>
+        <v>2030</v>
       </c>
       <c r="O222" s="51" t="s">
-        <v>2081</v>
+        <v>2031</v>
       </c>
       <c r="P222" s="51" t="s">
         <v>361</v>
       </c>
       <c r="Q222" s="51" t="s">
-        <v>2055</v>
+        <v>2005</v>
       </c>
       <c r="R222" s="51"/>
     </row>
@@ -23222,41 +23928,41 @@
       <c r="B226" s="21"/>
       <c r="C226" s="6"/>
       <c r="D226" s="51" t="s">
-        <v>2082</v>
+        <v>2032</v>
       </c>
       <c r="E226" s="51"/>
       <c r="F226" s="51" t="s">
-        <v>2083</v>
+        <v>2033</v>
       </c>
       <c r="G226" s="51" t="s">
-        <v>1943</v>
+        <v>1922</v>
       </c>
       <c r="H226" s="51" t="s">
         <v>380</v>
       </c>
       <c r="I226" s="51"/>
       <c r="J226" s="51" t="s">
-        <v>1913</v>
+        <v>1900</v>
       </c>
       <c r="K226" s="51" t="s">
         <v>338</v>
       </c>
       <c r="L226" s="51" t="s">
-        <v>2034</v>
+        <v>1984</v>
       </c>
       <c r="M226" s="51" t="s">
-        <v>1980</v>
+        <v>1940</v>
       </c>
       <c r="N226" s="51"/>
       <c r="O226" s="51" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="P226" s="51" t="s">
-        <v>1938</v>
+        <v>1918</v>
       </c>
       <c r="Q226" s="51"/>
       <c r="R226" s="51" t="s">
-        <v>2084</v>
+        <v>2034</v>
       </c>
     </row>
     <row r="227" spans="2:18">
@@ -23376,39 +24082,39 @@
       <c r="C230" s="6"/>
       <c r="D230" s="51"/>
       <c r="E230" s="51" t="s">
-        <v>2085</v>
+        <v>2035</v>
       </c>
       <c r="F230" s="51" t="s">
         <v>338</v>
       </c>
       <c r="G230" s="51" t="s">
-        <v>2001</v>
+        <v>1951</v>
       </c>
       <c r="H230" s="51"/>
       <c r="I230" s="51" t="s">
-        <v>2023</v>
+        <v>1973</v>
       </c>
       <c r="J230" s="51" t="s">
-        <v>2086</v>
+        <v>2036</v>
       </c>
       <c r="K230" s="51" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="L230" s="51" t="s">
-        <v>2087</v>
+        <v>2037</v>
       </c>
       <c r="M230" s="51"/>
       <c r="N230" s="51" t="s">
-        <v>2035</v>
+        <v>1985</v>
       </c>
       <c r="O230" s="51" t="s">
-        <v>2088</v>
+        <v>2038</v>
       </c>
       <c r="P230" s="51" t="s">
-        <v>1927</v>
+        <v>1910</v>
       </c>
       <c r="Q230" s="51" t="s">
-        <v>2114</v>
+        <v>2064</v>
       </c>
       <c r="R230" s="51"/>
     </row>
@@ -23528,28 +24234,28 @@
       <c r="B234" s="21"/>
       <c r="C234" s="6"/>
       <c r="D234" s="51" t="s">
-        <v>2089</v>
+        <v>2039</v>
       </c>
       <c r="E234" s="51" t="s">
         <v>378</v>
       </c>
       <c r="F234" s="51"/>
       <c r="G234" s="51" t="s">
-        <v>1897</v>
+        <v>1892</v>
       </c>
       <c r="H234" s="51" t="s">
-        <v>1927</v>
+        <v>1910</v>
       </c>
       <c r="I234" s="51"/>
       <c r="J234" s="51" t="s">
-        <v>1933</v>
+        <v>1915</v>
       </c>
       <c r="K234" s="51" t="s">
-        <v>1970</v>
+        <v>1936</v>
       </c>
       <c r="L234" s="51"/>
       <c r="M234" s="51" t="s">
-        <v>2085</v>
+        <v>2035</v>
       </c>
       <c r="N234" s="51" t="s">
         <v>1638</v>
@@ -23558,11 +24264,11 @@
         <v>338</v>
       </c>
       <c r="P234" s="51" t="s">
-        <v>1902</v>
+        <v>1895</v>
       </c>
       <c r="Q234" s="51"/>
       <c r="R234" s="51" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="235" spans="2:18">
@@ -23685,42 +24391,42 @@
       <c r="B238" s="21"/>
       <c r="C238" s="6"/>
       <c r="D238" s="51" t="s">
-        <v>1887</v>
+        <v>1886</v>
       </c>
       <c r="E238" s="51" t="s">
-        <v>1946</v>
+        <v>1924</v>
       </c>
       <c r="F238" s="51" t="s">
-        <v>1915</v>
+        <v>1902</v>
       </c>
       <c r="G238" s="51" t="s">
-        <v>1893</v>
+        <v>1890</v>
       </c>
       <c r="H238" s="51"/>
       <c r="I238" s="51" t="s">
-        <v>2001</v>
+        <v>1951</v>
       </c>
       <c r="J238" s="51" t="s">
-        <v>1931</v>
+        <v>1913</v>
       </c>
       <c r="K238" s="51" t="s">
-        <v>1914</v>
+        <v>1901</v>
       </c>
       <c r="L238" s="51" t="s">
-        <v>2090</v>
+        <v>2040</v>
       </c>
       <c r="M238" s="51" t="s">
-        <v>1980</v>
+        <v>1940</v>
       </c>
       <c r="N238" s="51"/>
       <c r="O238" s="51" t="s">
         <v>337</v>
       </c>
       <c r="P238" s="51" t="s">
-        <v>2091</v>
+        <v>2041</v>
       </c>
       <c r="Q238" s="51" t="s">
-        <v>1958</v>
+        <v>1930</v>
       </c>
       <c r="R238" s="51" t="s">
         <v>338</v>
@@ -23846,41 +24552,41 @@
       <c r="B242" s="21"/>
       <c r="C242" s="6"/>
       <c r="D242" s="51" t="s">
-        <v>2076</v>
+        <v>2026</v>
       </c>
       <c r="E242" s="51"/>
       <c r="F242" s="51" t="s">
-        <v>1920</v>
+        <v>1905</v>
       </c>
       <c r="G242" s="51" t="s">
-        <v>1943</v>
+        <v>1922</v>
       </c>
       <c r="H242" s="51" t="s">
-        <v>2092</v>
+        <v>2042</v>
       </c>
       <c r="I242" s="51" t="s">
         <v>1864</v>
       </c>
       <c r="J242" s="51" t="s">
-        <v>1914</v>
+        <v>1901</v>
       </c>
       <c r="K242" s="51" t="s">
-        <v>1986</v>
+        <v>1944</v>
       </c>
       <c r="L242" s="51" t="s">
-        <v>1998</v>
+        <v>1948</v>
       </c>
       <c r="M242" s="51" t="s">
-        <v>2115</v>
+        <v>2065</v>
       </c>
       <c r="N242" s="51" t="s">
-        <v>1895</v>
+        <v>1891</v>
       </c>
       <c r="O242" s="51" t="s">
-        <v>1903</v>
+        <v>1896</v>
       </c>
       <c r="P242" s="51" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
       <c r="Q242" s="51"/>
       <c r="R242" s="51" t="s">
@@ -24007,7 +24713,7 @@
       <c r="B246" s="21"/>
       <c r="C246" s="6"/>
       <c r="D246" s="51" t="s">
-        <v>2048</v>
+        <v>1998</v>
       </c>
       <c r="E246" s="51" t="s">
         <v>339</v>
@@ -24020,29 +24726,29 @@
         <v>51</v>
       </c>
       <c r="I246" s="51" t="s">
-        <v>2093</v>
+        <v>2043</v>
       </c>
       <c r="J246" s="51" t="s">
         <v>442</v>
       </c>
       <c r="K246" s="51" t="s">
-        <v>2008</v>
+        <v>1958</v>
       </c>
       <c r="L246" s="51" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
       <c r="M246" s="51" t="s">
-        <v>1973</v>
+        <v>1937</v>
       </c>
       <c r="N246" s="51" t="s">
-        <v>1980</v>
+        <v>1940</v>
       </c>
       <c r="O246" s="51" t="s">
-        <v>2094</v>
+        <v>2044</v>
       </c>
       <c r="P246" s="51"/>
       <c r="Q246" s="51" t="s">
-        <v>2069</v>
+        <v>2019</v>
       </c>
       <c r="R246" s="51" t="s">
         <v>340</v>
@@ -24169,7 +24875,7 @@
         <v>480</v>
       </c>
       <c r="E250" s="51" t="s">
-        <v>1927</v>
+        <v>1910</v>
       </c>
       <c r="F250" s="51" t="s">
         <v>338</v>
@@ -24178,31 +24884,31 @@
         <v>380</v>
       </c>
       <c r="H250" s="51" t="s">
-        <v>1953</v>
+        <v>1927</v>
       </c>
       <c r="I250" s="51" t="s">
-        <v>1914</v>
+        <v>1901</v>
       </c>
       <c r="J250" s="51" t="s">
-        <v>2035</v>
+        <v>1985</v>
       </c>
       <c r="K250" s="51"/>
       <c r="L250" s="51" t="s">
-        <v>1926</v>
+        <v>1909</v>
       </c>
       <c r="M250" s="51"/>
       <c r="N250" s="51"/>
       <c r="O250" s="51" t="s">
-        <v>1930</v>
+        <v>1912</v>
       </c>
       <c r="P250" s="51" t="s">
-        <v>1931</v>
+        <v>1913</v>
       </c>
       <c r="Q250" s="51" t="s">
         <v>1705</v>
       </c>
       <c r="R250" s="51" t="s">
-        <v>1911</v>
+        <v>1898</v>
       </c>
     </row>
     <row r="251" spans="2:18">
@@ -24323,38 +25029,38 @@
       <c r="B254" s="21"/>
       <c r="C254" s="6"/>
       <c r="D254" s="51" t="s">
-        <v>1953</v>
+        <v>1927</v>
       </c>
       <c r="E254" s="51" t="s">
-        <v>2095</v>
+        <v>2045</v>
       </c>
       <c r="F254" s="51" t="s">
-        <v>1932</v>
+        <v>1914</v>
       </c>
       <c r="G254" s="51"/>
       <c r="H254" s="51" t="s">
-        <v>2048</v>
+        <v>1998</v>
       </c>
       <c r="I254" s="51" t="s">
-        <v>1932</v>
+        <v>1914</v>
       </c>
       <c r="J254" s="51" t="s">
         <v>1705</v>
       </c>
       <c r="K254" s="51" t="s">
-        <v>1911</v>
+        <v>1898</v>
       </c>
       <c r="L254" s="51" t="s">
-        <v>1953</v>
+        <v>1927</v>
       </c>
       <c r="M254" s="51" t="s">
-        <v>1954</v>
+        <v>1928</v>
       </c>
       <c r="N254" s="51" t="s">
         <v>51</v>
       </c>
       <c r="O254" s="51" t="s">
-        <v>1980</v>
+        <v>1940</v>
       </c>
       <c r="P254" s="51"/>
       <c r="Q254" s="51"/>
@@ -24480,17 +25186,17 @@
       </c>
       <c r="E258" s="51"/>
       <c r="F258" s="51" t="s">
-        <v>1973</v>
+        <v>1937</v>
       </c>
       <c r="G258" s="51" t="s">
         <v>337</v>
       </c>
       <c r="H258" s="51" t="s">
-        <v>1958</v>
+        <v>1930</v>
       </c>
       <c r="I258" s="51"/>
       <c r="J258" s="51" t="s">
-        <v>1959</v>
+        <v>1931</v>
       </c>
       <c r="K258" s="51" t="s">
         <v>338</v>
@@ -24499,10 +25205,10 @@
         <v>1509</v>
       </c>
       <c r="M258" s="51" t="s">
-        <v>2096</v>
+        <v>2046</v>
       </c>
       <c r="N258" s="51" t="s">
-        <v>1980</v>
+        <v>1940</v>
       </c>
       <c r="O258" s="51" t="s">
         <v>469</v>

--- a/output7/【河洛文讀注音-閩拼調號】《六國論》.xlsx
+++ b/output7/【河洛文讀注音-閩拼調號】《六國論》.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Piau-Im\output7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27373A88-8BC1-490C-BD7B-C432115E10C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8797C45E-33E1-4B87-97E8-BBA9A8488142}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{25A76161-EFED-4AC8-8EAA-A42737AE1909}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{25A76161-EFED-4AC8-8EAA-A42737AE1909}"/>
   </bookViews>
   <sheets>
     <sheet name="env" sheetId="8" r:id="rId1"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6028" uniqueCount="2280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6029" uniqueCount="2280">
   <si>
     <t>Key</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -7575,7 +7575,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>N/A</t>
+    <t>Su</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -7583,7 +7583,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="41">
+  <fonts count="42">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -7865,6 +7865,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="48"/>
+      <color rgb="FFFF0000"/>
+      <name val="吳守禮細明台語注音"/>
+      <family val="1"/>
+      <charset val="136"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -7975,7 +7983,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -8165,6 +8173,9 @@
     <xf numFmtId="0" fontId="40" fillId="2" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="4" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -14664,7 +14675,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{251125CE-AC7C-4341-8E92-A51F25F6D293}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
@@ -14689,7 +14700,7 @@
         <v>1244</v>
       </c>
       <c r="B2" t="s">
-        <v>2279</v>
+        <v>499</v>
       </c>
       <c r="C2" t="s">
         <v>2048</v>
@@ -14703,7 +14714,7 @@
         <v>1270</v>
       </c>
       <c r="B3" t="s">
-        <v>2279</v>
+        <v>499</v>
       </c>
       <c r="C3" t="s">
         <v>2049</v>
@@ -14717,7 +14728,7 @@
         <v>1366</v>
       </c>
       <c r="B4" t="s">
-        <v>2279</v>
+        <v>499</v>
       </c>
       <c r="C4" t="s">
         <v>2050</v>
@@ -14731,7 +14742,7 @@
         <v>1368</v>
       </c>
       <c r="B5" t="s">
-        <v>2279</v>
+        <v>499</v>
       </c>
       <c r="C5" t="s">
         <v>2051</v>
@@ -14745,7 +14756,7 @@
         <v>1372</v>
       </c>
       <c r="B6" t="s">
-        <v>2279</v>
+        <v>499</v>
       </c>
       <c r="C6" t="s">
         <v>2052</v>
@@ -14759,7 +14770,7 @@
         <v>1392</v>
       </c>
       <c r="B7" t="s">
-        <v>2279</v>
+        <v>499</v>
       </c>
       <c r="C7" t="s">
         <v>2053</v>
@@ -14773,7 +14784,7 @@
         <v>1403</v>
       </c>
       <c r="B8" t="s">
-        <v>2279</v>
+        <v>499</v>
       </c>
       <c r="C8" t="s">
         <v>2054</v>
@@ -14787,7 +14798,7 @@
         <v>1412</v>
       </c>
       <c r="B9" t="s">
-        <v>2279</v>
+        <v>499</v>
       </c>
       <c r="C9" t="s">
         <v>2055</v>
@@ -14976,11 +14987,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B653E275-5A31-466A-99DB-0BBFEE8A78C6}">
   <dimension ref="A1:V2002"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D75" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D39" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="A53" sqref="A53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="39"/>
@@ -15146,22 +15157,22 @@
       <c r="B5" s="19">
         <v>1</v>
       </c>
-      <c r="D5" s="59" t="s">
+      <c r="D5" s="60" t="s">
         <v>1168</v>
       </c>
-      <c r="E5" s="59" t="s">
+      <c r="E5" s="60" t="s">
         <v>1169</v>
       </c>
-      <c r="F5" s="59" t="s">
+      <c r="F5" s="60" t="s">
         <v>200</v>
       </c>
-      <c r="G5" s="59" t="s">
+      <c r="G5" s="60" t="s">
         <v>1170</v>
       </c>
-      <c r="H5" s="59" t="s">
+      <c r="H5" s="60" t="s">
         <v>1171</v>
       </c>
-      <c r="I5" s="59" t="str">
+      <c r="I5" s="60" t="str">
         <f>CHAR(10)</f>
         <v xml:space="preserve">
 </v>
@@ -15277,49 +15288,49 @@
         <f>B5+1</f>
         <v>2</v>
       </c>
-      <c r="D9" s="59" t="s">
+      <c r="D9" s="60" t="s">
         <v>71</v>
       </c>
-      <c r="E9" s="59" t="s">
+      <c r="E9" s="60" t="s">
         <v>1172</v>
       </c>
-      <c r="F9" s="59" t="s">
+      <c r="F9" s="60" t="s">
         <v>108</v>
       </c>
-      <c r="G9" s="59" t="s">
+      <c r="G9" s="60" t="s">
         <v>1173</v>
       </c>
-      <c r="H9" s="59" t="s">
+      <c r="H9" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="I9" s="59" t="s">
+      <c r="I9" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="J9" s="59" t="s">
+      <c r="J9" s="60" t="s">
         <v>102</v>
       </c>
-      <c r="K9" s="59" t="s">
+      <c r="K9" s="60" t="s">
         <v>1174</v>
       </c>
-      <c r="L9" s="59" t="s">
+      <c r="L9" s="60" t="s">
         <v>200</v>
       </c>
-      <c r="M9" s="59" t="s">
+      <c r="M9" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="N9" s="59" t="s">
+      <c r="N9" s="60" t="s">
         <v>1175</v>
       </c>
-      <c r="O9" s="59" t="s">
+      <c r="O9" s="60" t="s">
         <v>1176</v>
       </c>
-      <c r="P9" s="59" t="s">
+      <c r="P9" s="60" t="s">
         <v>1177</v>
       </c>
-      <c r="Q9" s="59" t="s">
+      <c r="Q9" s="60" t="s">
         <v>1178</v>
       </c>
-      <c r="R9" s="59" t="s">
+      <c r="R9" s="60" t="s">
         <v>259</v>
       </c>
       <c r="S9" s="20"/>
@@ -15441,49 +15452,49 @@
         <f>B9+1</f>
         <v>3</v>
       </c>
-      <c r="D13" s="59" t="s">
+      <c r="D13" s="60" t="s">
         <v>1179</v>
       </c>
-      <c r="E13" s="59" t="s">
+      <c r="E13" s="60" t="s">
         <v>1180</v>
       </c>
-      <c r="F13" s="59" t="s">
+      <c r="F13" s="60" t="s">
         <v>1181</v>
       </c>
-      <c r="G13" s="59" t="s">
+      <c r="G13" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="H13" s="59" t="s">
+      <c r="H13" s="60" t="s">
         <v>1182</v>
       </c>
-      <c r="I13" s="59" t="s">
+      <c r="I13" s="60" t="s">
         <v>1183</v>
       </c>
-      <c r="J13" s="59" t="s">
+      <c r="J13" s="60" t="s">
         <v>110</v>
       </c>
-      <c r="K13" s="59" t="s">
+      <c r="K13" s="60" t="s">
         <v>1184</v>
       </c>
-      <c r="L13" s="59" t="s">
+      <c r="L13" s="60" t="s">
         <v>151</v>
       </c>
-      <c r="M13" s="59" t="s">
+      <c r="M13" s="60" t="s">
         <v>1185</v>
       </c>
-      <c r="N13" s="59" t="s">
+      <c r="N13" s="60" t="s">
         <v>1186</v>
       </c>
-      <c r="O13" s="59" t="s">
+      <c r="O13" s="60" t="s">
         <v>218</v>
       </c>
-      <c r="P13" s="59" t="s">
+      <c r="P13" s="60" t="s">
         <v>1187</v>
       </c>
-      <c r="Q13" s="59" t="s">
+      <c r="Q13" s="60" t="s">
         <v>1188</v>
       </c>
-      <c r="R13" s="59" t="s">
+      <c r="R13" s="60" t="s">
         <v>1185</v>
       </c>
       <c r="S13" s="20"/>
@@ -15604,49 +15615,49 @@
         <f>B13+1</f>
         <v>4</v>
       </c>
-      <c r="D17" s="59" t="s">
+      <c r="D17" s="60" t="s">
         <v>1189</v>
       </c>
-      <c r="E17" s="59" t="s">
+      <c r="E17" s="60" t="s">
         <v>1190</v>
       </c>
-      <c r="F17" s="59" t="s">
+      <c r="F17" s="60" t="s">
         <v>1191</v>
       </c>
-      <c r="G17" s="59" t="s">
+      <c r="G17" s="60" t="s">
         <v>159</v>
       </c>
-      <c r="H17" s="59" t="s">
+      <c r="H17" s="60" t="s">
         <v>108</v>
       </c>
-      <c r="I17" s="59" t="s">
+      <c r="I17" s="60" t="s">
         <v>1192</v>
       </c>
-      <c r="J17" s="59" t="s">
+      <c r="J17" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="K17" s="59" t="s">
+      <c r="K17" s="60" t="s">
         <v>217</v>
       </c>
-      <c r="L17" s="59" t="s">
+      <c r="L17" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="M17" s="59" t="s">
+      <c r="M17" s="60" t="s">
         <v>1193</v>
       </c>
-      <c r="N17" s="59" t="s">
+      <c r="N17" s="60" t="s">
         <v>1194</v>
       </c>
-      <c r="O17" s="59" t="s">
+      <c r="O17" s="60" t="s">
         <v>1195</v>
       </c>
-      <c r="P17" s="59" t="s">
+      <c r="P17" s="60" t="s">
         <v>1196</v>
       </c>
-      <c r="Q17" s="59" t="s">
+      <c r="Q17" s="60" t="s">
         <v>1185</v>
       </c>
-      <c r="R17" s="59" t="s">
+      <c r="R17" s="60" t="s">
         <v>1197</v>
       </c>
       <c r="S17" s="20"/>
@@ -15769,49 +15780,49 @@
         <f>B17+1</f>
         <v>5</v>
       </c>
-      <c r="D21" s="59" t="s">
+      <c r="D21" s="60" t="s">
         <v>1198</v>
       </c>
-      <c r="E21" s="59" t="s">
+      <c r="E21" s="60" t="s">
         <v>1199</v>
       </c>
-      <c r="F21" s="59" t="s">
+      <c r="F21" s="60" t="s">
         <v>1200</v>
       </c>
-      <c r="G21" s="59" t="s">
+      <c r="G21" s="60" t="s">
         <v>108</v>
       </c>
-      <c r="H21" s="59" t="s">
+      <c r="H21" s="60" t="s">
         <v>1201</v>
       </c>
-      <c r="I21" s="59" t="s">
+      <c r="I21" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="J21" s="59" t="s">
+      <c r="J21" s="60" t="s">
         <v>1202</v>
       </c>
-      <c r="K21" s="59" t="s">
+      <c r="K21" s="60" t="s">
         <v>168</v>
       </c>
-      <c r="L21" s="59" t="s">
+      <c r="L21" s="60" t="s">
         <v>1203</v>
       </c>
-      <c r="M21" s="59" t="s">
+      <c r="M21" s="60" t="s">
         <v>1204</v>
       </c>
-      <c r="N21" s="59" t="s">
+      <c r="N21" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="O21" s="59" t="s">
+      <c r="O21" s="60" t="s">
         <v>1205</v>
       </c>
-      <c r="P21" s="59" t="s">
+      <c r="P21" s="60" t="s">
         <v>1206</v>
       </c>
-      <c r="Q21" s="59" t="s">
+      <c r="Q21" s="60" t="s">
         <v>1207</v>
       </c>
-      <c r="R21" s="59" t="s">
+      <c r="R21" s="60" t="s">
         <v>1208</v>
       </c>
       <c r="S21" s="20"/>
@@ -15926,40 +15937,40 @@
         <f>B21+1</f>
         <v>6</v>
       </c>
-      <c r="D25" s="59" t="s">
+      <c r="D25" s="60" t="s">
         <v>106</v>
       </c>
-      <c r="E25" s="59" t="s">
+      <c r="E25" s="60" t="s">
         <v>1209</v>
       </c>
-      <c r="F25" s="59" t="s">
+      <c r="F25" s="60" t="s">
         <v>102</v>
       </c>
-      <c r="G25" s="59" t="s">
+      <c r="G25" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="H25" s="59" t="s">
+      <c r="H25" s="60" t="s">
         <v>212</v>
       </c>
-      <c r="I25" s="59" t="s">
+      <c r="I25" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="J25" s="59" t="s">
+      <c r="J25" s="60" t="s">
         <v>252</v>
       </c>
-      <c r="K25" s="59" t="s">
+      <c r="K25" s="60" t="s">
         <v>1210</v>
       </c>
-      <c r="L25" s="59" t="s">
+      <c r="L25" s="60" t="s">
         <v>111</v>
       </c>
-      <c r="M25" s="59" t="s">
+      <c r="M25" s="60" t="s">
         <v>1211</v>
       </c>
-      <c r="N25" s="59" t="s">
+      <c r="N25" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="O25" s="59" t="str">
+      <c r="O25" s="60" t="str">
         <f>CHAR(10)</f>
         <v xml:space="preserve">
 </v>
@@ -16087,49 +16098,49 @@
         <f>B25+1</f>
         <v>7</v>
       </c>
-      <c r="D29" s="59" t="s">
+      <c r="D29" s="60" t="s">
         <v>79</v>
       </c>
-      <c r="E29" s="59" t="s">
+      <c r="E29" s="60" t="s">
         <v>1212</v>
       </c>
-      <c r="F29" s="59" t="s">
+      <c r="F29" s="60" t="s">
         <v>1213</v>
       </c>
-      <c r="G29" s="59" t="s">
+      <c r="G29" s="60" t="s">
         <v>1214</v>
       </c>
-      <c r="H29" s="59" t="s">
+      <c r="H29" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="I29" s="59" t="s">
+      <c r="I29" s="60" t="s">
         <v>281</v>
       </c>
-      <c r="J29" s="59" t="s">
+      <c r="J29" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="K29" s="59" t="s">
+      <c r="K29" s="60" t="s">
         <v>1169</v>
       </c>
-      <c r="L29" s="59" t="s">
+      <c r="L29" s="60" t="s">
         <v>135</v>
       </c>
-      <c r="M29" s="59" t="s">
+      <c r="M29" s="60" t="s">
         <v>37</v>
       </c>
-      <c r="N29" s="59" t="s">
+      <c r="N29" s="60" t="s">
         <v>103</v>
       </c>
-      <c r="O29" s="59" t="s">
+      <c r="O29" s="60" t="s">
         <v>1215</v>
       </c>
-      <c r="P29" s="59" t="s">
+      <c r="P29" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="Q29" s="59" t="s">
+      <c r="Q29" s="60" t="s">
         <v>1216</v>
       </c>
-      <c r="R29" s="59" t="s">
+      <c r="R29" s="60" t="s">
         <v>23</v>
       </c>
       <c r="S29" s="20"/>
@@ -16264,49 +16275,49 @@
         <f>B29+1</f>
         <v>8</v>
       </c>
-      <c r="D33" s="59" t="s">
+      <c r="D33" s="60" t="s">
         <v>1217</v>
       </c>
-      <c r="E33" s="59" t="s">
+      <c r="E33" s="60" t="s">
         <v>1218</v>
       </c>
-      <c r="F33" s="59" t="s">
+      <c r="F33" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="G33" s="59" t="s">
+      <c r="G33" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="H33" s="59" t="s">
+      <c r="H33" s="60" t="s">
         <v>1219</v>
       </c>
-      <c r="I33" s="59" t="s">
+      <c r="I33" s="60" t="s">
         <v>111</v>
       </c>
-      <c r="J33" s="59" t="s">
+      <c r="J33" s="60" t="s">
         <v>1185</v>
       </c>
-      <c r="K33" s="59" t="s">
+      <c r="K33" s="60" t="s">
         <v>1220</v>
       </c>
-      <c r="L33" s="59" t="s">
+      <c r="L33" s="60" t="s">
         <v>1221</v>
       </c>
-      <c r="M33" s="59" t="s">
+      <c r="M33" s="60" t="s">
         <v>1185</v>
       </c>
-      <c r="N33" s="59" t="s">
+      <c r="N33" s="60" t="s">
         <v>1222</v>
       </c>
-      <c r="O33" s="59" t="s">
+      <c r="O33" s="60" t="s">
         <v>168</v>
       </c>
-      <c r="P33" s="59" t="s">
+      <c r="P33" s="60" t="s">
         <v>1223</v>
       </c>
-      <c r="Q33" s="59" t="s">
+      <c r="Q33" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="R33" s="59" t="s">
+      <c r="R33" s="60" t="s">
         <v>259</v>
       </c>
       <c r="S33" s="20"/>
@@ -16427,49 +16438,49 @@
         <f>B33+1</f>
         <v>9</v>
       </c>
-      <c r="D37" s="59" t="s">
+      <c r="D37" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="E37" s="59" t="s">
+      <c r="E37" s="60" t="s">
         <v>151</v>
       </c>
-      <c r="F37" s="59" t="s">
+      <c r="F37" s="60" t="s">
         <v>1224</v>
       </c>
-      <c r="G37" s="59" t="s">
+      <c r="G37" s="60" t="s">
         <v>135</v>
       </c>
-      <c r="H37" s="59" t="s">
+      <c r="H37" s="60" t="s">
         <v>37</v>
       </c>
-      <c r="I37" s="59" t="s">
+      <c r="I37" s="60" t="s">
         <v>103</v>
       </c>
-      <c r="J37" s="59" t="s">
+      <c r="J37" s="60" t="s">
         <v>210</v>
       </c>
-      <c r="K37" s="59" t="s">
+      <c r="K37" s="60" t="s">
         <v>1218</v>
       </c>
-      <c r="L37" s="59" t="s">
+      <c r="L37" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="M37" s="59" t="s">
+      <c r="M37" s="60" t="s">
         <v>1225</v>
       </c>
-      <c r="N37" s="59" t="s">
+      <c r="N37" s="60" t="s">
         <v>1226</v>
       </c>
-      <c r="O37" s="59" t="s">
+      <c r="O37" s="60" t="s">
         <v>1227</v>
       </c>
-      <c r="P37" s="59" t="s">
+      <c r="P37" s="60" t="s">
         <v>1228</v>
       </c>
-      <c r="Q37" s="59" t="s">
+      <c r="Q37" s="60" t="s">
         <v>1229</v>
       </c>
-      <c r="R37" s="59" t="s">
+      <c r="R37" s="60" t="s">
         <v>37</v>
       </c>
       <c r="S37" s="20"/>
@@ -16594,49 +16605,49 @@
         <f>B37+1</f>
         <v>10</v>
       </c>
-      <c r="D41" s="59" t="s">
+      <c r="D41" s="60" t="s">
         <v>1169</v>
       </c>
-      <c r="E41" s="59" t="s">
+      <c r="E41" s="60" t="s">
         <v>134</v>
       </c>
-      <c r="F41" s="59" t="s">
+      <c r="F41" s="60" t="s">
         <v>1230</v>
       </c>
-      <c r="G41" s="59" t="s">
+      <c r="G41" s="60" t="s">
         <v>102</v>
       </c>
-      <c r="H41" s="59" t="s">
+      <c r="H41" s="60" t="s">
         <v>1231</v>
       </c>
-      <c r="I41" s="59" t="s">
+      <c r="I41" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="J41" s="59" t="s">
+      <c r="J41" s="60" t="s">
         <v>1217</v>
       </c>
-      <c r="K41" s="59" t="s">
+      <c r="K41" s="60" t="s">
         <v>1232</v>
       </c>
-      <c r="L41" s="59" t="s">
+      <c r="L41" s="60" t="s">
         <v>217</v>
       </c>
-      <c r="M41" s="59" t="s">
+      <c r="M41" s="60" t="s">
         <v>1186</v>
       </c>
-      <c r="N41" s="59" t="s">
+      <c r="N41" s="60" t="s">
         <v>212</v>
       </c>
-      <c r="O41" s="59" t="s">
+      <c r="O41" s="60" t="s">
         <v>283</v>
       </c>
-      <c r="P41" s="59" t="s">
+      <c r="P41" s="60" t="s">
         <v>135</v>
       </c>
-      <c r="Q41" s="59" t="s">
+      <c r="Q41" s="60" t="s">
         <v>37</v>
       </c>
-      <c r="R41" s="59" t="s">
+      <c r="R41" s="60" t="s">
         <v>103</v>
       </c>
       <c r="S41" s="20"/>
@@ -16757,49 +16768,49 @@
         <f>B41+1</f>
         <v>11</v>
       </c>
-      <c r="D45" s="59" t="s">
+      <c r="D45" s="60" t="s">
         <v>1215</v>
       </c>
-      <c r="E45" s="59" t="s">
+      <c r="E45" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="F45" s="59" t="s">
+      <c r="F45" s="60" t="s">
         <v>1176</v>
       </c>
-      <c r="G45" s="59" t="s">
+      <c r="G45" s="60" t="s">
         <v>1185</v>
       </c>
-      <c r="H45" s="59" t="s">
+      <c r="H45" s="60" t="s">
         <v>1233</v>
       </c>
-      <c r="I45" s="59" t="s">
+      <c r="I45" s="60" t="s">
         <v>1234</v>
       </c>
-      <c r="J45" s="59" t="s">
+      <c r="J45" s="60" t="s">
         <v>1212</v>
       </c>
-      <c r="K45" s="59" t="s">
+      <c r="K45" s="60" t="s">
         <v>1185</v>
       </c>
-      <c r="L45" s="59" t="s">
+      <c r="L45" s="60" t="s">
         <v>1235</v>
       </c>
-      <c r="M45" s="59" t="s">
+      <c r="M45" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="N45" s="59" t="s">
+      <c r="N45" s="60" t="s">
         <v>1236</v>
       </c>
-      <c r="O45" s="59" t="s">
+      <c r="O45" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="P45" s="59" t="s">
+      <c r="P45" s="60" t="s">
         <v>259</v>
       </c>
-      <c r="Q45" s="59" t="s">
+      <c r="Q45" s="60" t="s">
         <v>1226</v>
       </c>
-      <c r="R45" s="59" t="s">
+      <c r="R45" s="60" t="s">
         <v>151</v>
       </c>
       <c r="S45" s="20"/>
@@ -16916,49 +16927,49 @@
         <f>B45+1</f>
         <v>12</v>
       </c>
-      <c r="D49" s="59" t="s">
+      <c r="D49" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="E49" s="59" t="s">
+      <c r="E49" s="60" t="s">
         <v>1211</v>
       </c>
-      <c r="F49" s="59" t="s">
+      <c r="F49" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="G49" s="59" t="s">
+      <c r="G49" s="60" t="s">
         <v>217</v>
       </c>
-      <c r="H49" s="59" t="s">
+      <c r="H49" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="I49" s="59" t="s">
+      <c r="I49" s="60" t="s">
         <v>1237</v>
       </c>
-      <c r="J49" s="59" t="s">
+      <c r="J49" s="60" t="s">
         <v>1185</v>
       </c>
-      <c r="K49" s="59" t="s">
+      <c r="K49" s="60" t="s">
         <v>1238</v>
       </c>
-      <c r="L49" s="59" t="s">
+      <c r="L49" s="60" t="s">
         <v>108</v>
       </c>
-      <c r="M49" s="59" t="s">
+      <c r="M49" s="60" t="s">
         <v>1239</v>
       </c>
-      <c r="N49" s="59" t="s">
+      <c r="N49" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="O49" s="59" t="s">
+      <c r="O49" s="60" t="s">
         <v>1240</v>
       </c>
-      <c r="P49" s="59" t="s">
+      <c r="P49" s="60" t="s">
         <v>1241</v>
       </c>
-      <c r="Q49" s="59" t="s">
+      <c r="Q49" s="60" t="s">
         <v>1185</v>
       </c>
-      <c r="R49" s="59" t="s">
+      <c r="R49" s="60" t="s">
         <v>1242</v>
       </c>
       <c r="S49" s="20"/>
@@ -17016,7 +17027,9 @@
       <c r="H51" s="62"/>
       <c r="I51" s="62"/>
       <c r="J51" s="62"/>
-      <c r="K51" s="62"/>
+      <c r="K51" s="62" t="s">
+        <v>2279</v>
+      </c>
       <c r="L51" s="62"/>
       <c r="M51" s="62"/>
       <c r="N51" s="62"/>
@@ -17077,28 +17090,28 @@
         <f>B49+1</f>
         <v>13</v>
       </c>
-      <c r="D53" s="59" t="s">
+      <c r="D53" s="60" t="s">
         <v>1243</v>
       </c>
-      <c r="E53" s="59" t="s">
+      <c r="E53" s="60" t="s">
         <v>172</v>
       </c>
-      <c r="F53" s="59" t="s">
+      <c r="F53" s="60" t="s">
         <v>153</v>
       </c>
-      <c r="G53" s="59" t="s">
+      <c r="G53" s="60" t="s">
         <v>1181</v>
       </c>
-      <c r="H53" s="59" t="s">
+      <c r="H53" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="I53" s="59" t="s">
+      <c r="I53" s="60" t="s">
         <v>1203</v>
       </c>
-      <c r="J53" s="59" t="s">
+      <c r="J53" s="60" t="s">
         <v>151</v>
       </c>
-      <c r="K53" s="59" t="s">
+      <c r="K53" s="63" t="s">
         <v>1244</v>
       </c>
       <c r="L53" s="59" t="s">
